--- a/Running Delta Smelt Catch_2023-09-05.xlsx
+++ b/Running Delta Smelt Catch_2023-09-05.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27324"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cawater-my.sharepoint.com/personal/rosemary_hartman_water_ca_gov/Documents/smelt cages/SmeltMap/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://doimspp.sharepoint.com/sites/fws-FF08FBDT00-experimental-release-technical-team/Shared Documents/Recaptured fish data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E93EF7A6-45D8-44F7-9047-74C227FBE9F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{387EC56F-5B81-4F0B-B8E3-E4DAB5ADBBAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="1" activeTab="1" xr2:uid="{4BB403AD-DB3F-4CB5-B7F1-39827ED458E8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="1" xr2:uid="{4BB403AD-DB3F-4CB5-B7F1-39827ED458E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="12" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3144" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3222" uniqueCount="420">
   <si>
     <t>Running Delta Smelt Catch Data Collected for the USFWS Delta Smelt Experimental Release Technical Team</t>
   </si>
@@ -299,45 +299,45 @@
     <t>Fish not measured because transferred to FCCL for broodstock (FCCL determined that fish was marked, bad clip)</t>
   </si>
   <si>
+    <t>22-20-RV05</t>
+  </si>
+  <si>
+    <t>Directed Outflow Project</t>
+  </si>
+  <si>
+    <t>S102</t>
+  </si>
+  <si>
+    <t>Liquid nitrogen</t>
+  </si>
+  <si>
+    <t>UC Davis Aquatic Health Lab</t>
+  </si>
+  <si>
+    <t>S103</t>
+  </si>
+  <si>
+    <t>S105</t>
+  </si>
+  <si>
+    <t>S104</t>
+  </si>
+  <si>
+    <t>22-20-RV02</t>
+  </si>
+  <si>
+    <t>S106</t>
+  </si>
+  <si>
     <t>22-20-LSR02</t>
   </si>
   <si>
     <t>Lower Sacramento River</t>
   </si>
   <si>
-    <t>Directed Outflow Project</t>
-  </si>
-  <si>
     <t>S101</t>
   </si>
   <si>
-    <t>Liquid nitrogen</t>
-  </si>
-  <si>
-    <t>UC Davis Aquatic Health Lab</t>
-  </si>
-  <si>
-    <t>22-20-RV05</t>
-  </si>
-  <si>
-    <t>S102</t>
-  </si>
-  <si>
-    <t>S105</t>
-  </si>
-  <si>
-    <t>S103</t>
-  </si>
-  <si>
-    <t>22-20-RV02</t>
-  </si>
-  <si>
-    <t>S106</t>
-  </si>
-  <si>
-    <t>S104</t>
-  </si>
-  <si>
     <t>22-21-USSC02</t>
   </si>
   <si>
@@ -356,6 +356,9 @@
     <t>S108</t>
   </si>
   <si>
+    <t>S109</t>
+  </si>
+  <si>
     <t>22-21-PP02</t>
   </si>
   <si>
@@ -365,27 +368,24 @@
     <t>S201</t>
   </si>
   <si>
-    <t>S109</t>
-  </si>
-  <si>
     <t>22-22-LSR01</t>
   </si>
   <si>
     <t>S110</t>
   </si>
   <si>
+    <t>22-22-RV03</t>
+  </si>
+  <si>
+    <t>S112</t>
+  </si>
+  <si>
     <t>22-22-RV02</t>
   </si>
   <si>
     <t>S111</t>
   </si>
   <si>
-    <t>22-22-RV03</t>
-  </si>
-  <si>
-    <t>S112</t>
-  </si>
-  <si>
     <t>USFWS Chipps</t>
   </si>
   <si>
@@ -491,78 +491,90 @@
     <t>S003</t>
   </si>
   <si>
+    <t>Otter Trawl</t>
+  </si>
+  <si>
+    <t>Sacramento River near Ryde</t>
+  </si>
+  <si>
+    <t>S406</t>
+  </si>
+  <si>
+    <t>UC Davis has head only, body returned to CDFW</t>
+  </si>
+  <si>
+    <t>UCD (Bruce Hammock) has the head, CDFW Diet and Condition has the body</t>
+  </si>
+  <si>
     <t>SB018M</t>
   </si>
   <si>
     <t>S004</t>
   </si>
   <si>
-    <t>Otter Trawl</t>
-  </si>
-  <si>
-    <t>Sacramento River near Ryde</t>
-  </si>
-  <si>
-    <t>S406</t>
-  </si>
-  <si>
-    <t>UC Davis has head only, body returned to CDFW</t>
-  </si>
-  <si>
-    <t>UCD (Bruce Hammock) has the head, CDFW Diet and Condition has the body</t>
-  </si>
-  <si>
     <t>CDFW SKT</t>
   </si>
   <si>
+    <t>S315</t>
+  </si>
+  <si>
+    <t>S316</t>
+  </si>
+  <si>
+    <t>S317</t>
+  </si>
+  <si>
+    <t>S318</t>
+  </si>
+  <si>
     <t>S303</t>
   </si>
   <si>
-    <t>S315</t>
-  </si>
-  <si>
-    <t>S316</t>
-  </si>
-  <si>
-    <t>S317</t>
-  </si>
-  <si>
-    <t>S318</t>
-  </si>
-  <si>
     <t>22-30-SM03</t>
   </si>
   <si>
+    <t>S009</t>
+  </si>
+  <si>
+    <t>S007</t>
+  </si>
+  <si>
+    <t>S008</t>
+  </si>
+  <si>
     <t>S005</t>
   </si>
   <si>
-    <t>S009</t>
-  </si>
-  <si>
     <t>S006</t>
   </si>
   <si>
-    <t>S007</t>
-  </si>
-  <si>
-    <t>S008</t>
-  </si>
-  <si>
     <t>22-30-LSSC01</t>
   </si>
   <si>
+    <t>S123</t>
+  </si>
+  <si>
     <t>S121</t>
   </si>
   <si>
-    <t>S123</t>
-  </si>
-  <si>
     <t>S122</t>
   </si>
   <si>
     <t>S120</t>
   </si>
   <si>
+    <t>22-31-USSC01</t>
+  </si>
+  <si>
+    <t>S124</t>
+  </si>
+  <si>
+    <t>22-31-LSSC02</t>
+  </si>
+  <si>
+    <t>S125</t>
+  </si>
+  <si>
     <t>22-31-LSSC01</t>
   </si>
   <si>
@@ -572,18 +584,6 @@
     <t>S127</t>
   </si>
   <si>
-    <t>22-31-LSSC02</t>
-  </si>
-  <si>
-    <t>S125</t>
-  </si>
-  <si>
-    <t>22-31-USSC01</t>
-  </si>
-  <si>
-    <t>S124</t>
-  </si>
-  <si>
     <t>22-31-SM01</t>
   </si>
   <si>
@@ -608,33 +608,45 @@
     <t>S132</t>
   </si>
   <si>
+    <t>22-32-SM03</t>
+  </si>
+  <si>
+    <t>S012</t>
+  </si>
+  <si>
     <t>22-32-SM01</t>
   </si>
   <si>
     <t>S011</t>
   </si>
   <si>
-    <t>22-32-SM03</t>
-  </si>
-  <si>
-    <t>S012</t>
+    <t>S301</t>
+  </si>
+  <si>
+    <t>S302</t>
   </si>
   <si>
     <t>S304</t>
   </si>
   <si>
-    <t>S301</t>
-  </si>
-  <si>
-    <t>S302</t>
-  </si>
-  <si>
     <t>22-33-LSSC01</t>
   </si>
   <si>
     <t>S133</t>
   </si>
   <si>
+    <t>S309</t>
+  </si>
+  <si>
+    <t>S310</t>
+  </si>
+  <si>
+    <t>S311</t>
+  </si>
+  <si>
+    <t>S312</t>
+  </si>
+  <si>
     <t>S305</t>
   </si>
   <si>
@@ -647,18 +659,6 @@
     <t>S308</t>
   </si>
   <si>
-    <t>S309</t>
-  </si>
-  <si>
-    <t>S310</t>
-  </si>
-  <si>
-    <t>S311</t>
-  </si>
-  <si>
-    <t>S312</t>
-  </si>
-  <si>
     <t>22-34-CS03</t>
   </si>
   <si>
@@ -668,33 +668,39 @@
     <t>S134</t>
   </si>
   <si>
+    <t>CDFW 20-mm</t>
+  </si>
+  <si>
+    <t>20mm Trawl</t>
+  </si>
+  <si>
+    <t>Larva</t>
+  </si>
+  <si>
+    <t>Formalin</t>
+  </si>
+  <si>
+    <t>CDFW Archive Storage Room</t>
+  </si>
+  <si>
     <t>CDFW SLS</t>
   </si>
   <si>
     <t>Egg and Larva Trawl</t>
   </si>
   <si>
-    <t>Larva</t>
-  </si>
-  <si>
-    <t>Formalin</t>
-  </si>
-  <si>
-    <t>CDFW Archive Storage Room</t>
-  </si>
-  <si>
-    <t>CDFW 20-mm</t>
-  </si>
-  <si>
-    <t>20mm Trawl</t>
-  </si>
-  <si>
     <t>22-34-SM01</t>
   </si>
   <si>
     <t>S13</t>
   </si>
   <si>
+    <t>22-34-USSC01</t>
+  </si>
+  <si>
+    <t>S136</t>
+  </si>
+  <si>
     <t>22-34-LSSC01</t>
   </si>
   <si>
@@ -704,24 +710,18 @@
     <t>22-34-LSSC02</t>
   </si>
   <si>
+    <t>S140</t>
+  </si>
+  <si>
+    <t>S139</t>
+  </si>
+  <si>
+    <t>S138</t>
+  </si>
+  <si>
     <t>S137</t>
   </si>
   <si>
-    <t>S140</t>
-  </si>
-  <si>
-    <t>22-34-USSC01</t>
-  </si>
-  <si>
-    <t>S136</t>
-  </si>
-  <si>
-    <t>S139</t>
-  </si>
-  <si>
-    <t>S138</t>
-  </si>
-  <si>
     <t>22-35-SM01</t>
   </si>
   <si>
@@ -755,27 +755,27 @@
     <t>S314</t>
   </si>
   <si>
+    <t>22-38-SSC02</t>
+  </si>
+  <si>
+    <t>Juvenile</t>
+  </si>
+  <si>
     <t>22-38-SSC10</t>
   </si>
   <si>
-    <t>22-38-SSC02</t>
-  </si>
-  <si>
-    <t>Juvenile</t>
-  </si>
-  <si>
     <t>22-38-SSC05</t>
   </si>
   <si>
     <t>22-40-SSC03</t>
   </si>
   <si>
+    <t>22-41-SSC09</t>
+  </si>
+  <si>
     <t>22-41-SSC05</t>
   </si>
   <si>
-    <t>22-41-SSC09</t>
-  </si>
-  <si>
     <t>22-41-SSC01</t>
   </si>
   <si>
@@ -785,18 +785,18 @@
     <t>22-45-SSC05</t>
   </si>
   <si>
+    <t>23-01-LSR06</t>
+  </si>
+  <si>
+    <t>S320</t>
+  </si>
+  <si>
     <t>23-01-LSR05</t>
   </si>
   <si>
     <t>S319</t>
   </si>
   <si>
-    <t>23-01-LSR06</t>
-  </si>
-  <si>
-    <t>S320</t>
-  </si>
-  <si>
     <t>23-02-LSR06</t>
   </si>
   <si>
@@ -953,13 +953,19 @@
     <t>S018</t>
   </si>
   <si>
+    <t>23-27-LSR01</t>
+  </si>
+  <si>
+    <t>S212</t>
+  </si>
+  <si>
     <t>23-27-LSJ06</t>
   </si>
   <si>
-    <t>23-27-LSR01</t>
-  </si>
-  <si>
-    <t>S212</t>
+    <t>23-27-SSC01</t>
+  </si>
+  <si>
+    <t>S213</t>
   </si>
   <si>
     <t>23-27-SSC03</t>
@@ -974,12 +980,6 @@
     <t>S214</t>
   </si>
   <si>
-    <t>23-27-SSC01</t>
-  </si>
-  <si>
-    <t>S213</t>
-  </si>
-  <si>
     <t>23-27-CS03</t>
   </si>
   <si>
@@ -989,15 +989,15 @@
     <t>23-27-LSR05</t>
   </si>
   <si>
+    <t>S220</t>
+  </si>
+  <si>
+    <t>S219</t>
+  </si>
+  <si>
     <t>S218</t>
   </si>
   <si>
-    <t>S220</t>
-  </si>
-  <si>
-    <t>S219</t>
-  </si>
-  <si>
     <t>23-28-CS06</t>
   </si>
   <si>
@@ -1007,15 +1007,15 @@
     <t>S182</t>
   </si>
   <si>
+    <t>S181</t>
+  </si>
+  <si>
     <t>Skinner</t>
   </si>
   <si>
     <t>S414</t>
   </si>
   <si>
-    <t>S181</t>
-  </si>
-  <si>
     <t>23-28-SM01</t>
   </si>
   <si>
@@ -1082,12 +1082,12 @@
     <t>S224</t>
   </si>
   <si>
+    <t>S417</t>
+  </si>
+  <si>
     <t>S407</t>
   </si>
   <si>
-    <t>S417</t>
-  </si>
-  <si>
     <t>23-32-SM03</t>
   </si>
   <si>
@@ -1205,9 +1205,6 @@
     <t>24-09-SB05</t>
   </si>
   <si>
-    <t>Adult*</t>
-  </si>
-  <si>
     <t>S254</t>
   </si>
   <si>
@@ -1256,23 +1253,80 @@
     <t>BY2023 LS2</t>
   </si>
   <si>
+    <t>EDSM</t>
+  </si>
+  <si>
     <t>24-26-SM01</t>
   </si>
   <si>
     <t>&gt;58</t>
   </si>
   <si>
+    <t>S257</t>
+  </si>
+  <si>
+    <t>None/Frozen</t>
+  </si>
+  <si>
+    <t>Fish not measured because transferred to FCCL for broodstock, length estimated as &gt;58mm. Genetics determined fish was hatchery fish, appeared to have bad adclip</t>
+  </si>
+  <si>
+    <t>24-26-SM06</t>
+  </si>
+  <si>
+    <t>S256</t>
+  </si>
+  <si>
     <t>Fish not measured because transferred to FCCL for broodstock, length estimated as &gt;58mm</t>
   </si>
   <si>
-    <t>24-26-SM06</t>
+    <t>24-26-SM04</t>
+  </si>
+  <si>
+    <t>S255</t>
+  </si>
+  <si>
+    <t>24-26-SSC03</t>
+  </si>
+  <si>
+    <t>Lower Sac River Ship Channel</t>
+  </si>
+  <si>
+    <t>S327</t>
+  </si>
+  <si>
+    <t>24-26-LSR01</t>
+  </si>
+  <si>
+    <t>S328</t>
+  </si>
+  <si>
+    <t>VIE-Left/Orange/Posterior Dorsal</t>
+  </si>
+  <si>
+    <t>BY2023 3a</t>
+  </si>
+  <si>
+    <t>Hard (carboy)</t>
+  </si>
+  <si>
+    <t>24-27-LSJ05</t>
+  </si>
+  <si>
+    <t>S521</t>
+  </si>
+  <si>
+    <t>24-27-SM04</t>
+  </si>
+  <si>
+    <t>S258</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1339,7 +1393,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1384,12 +1438,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFC0C0C0"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFC0C0C0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFC0C0C0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC0C0C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFC0C0C0"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFC0C0C0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFC0C0C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1475,6 +1557,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1815,18 +1924,18 @@
       <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1837,7 +1946,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1848,7 +1957,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1859,7 +1968,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1867,7 +1976,7 @@
         <v>45272</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1875,7 +1984,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1883,7 +1992,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1891,7 +2000,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16">
       <c r="A14" s="12" t="s">
         <v>17</v>
       </c>
@@ -1913,7 +2022,7 @@
       <c r="O14" s="12"/>
       <c r="P14" s="12"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16">
       <c r="A15" s="11" t="s">
         <v>19</v>
       </c>
@@ -1921,7 +2030,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16">
       <c r="A16" s="11" t="s">
         <v>21</v>
       </c>
@@ -1929,7 +2038,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2">
       <c r="A17" s="11" t="s">
         <v>23</v>
       </c>
@@ -1937,7 +2046,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2">
       <c r="A18" s="11" t="s">
         <v>25</v>
       </c>
@@ -1945,7 +2054,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2">
       <c r="A19" s="11" t="s">
         <v>27</v>
       </c>
@@ -1953,7 +2062,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2">
       <c r="A20" s="11" t="s">
         <v>29</v>
       </c>
@@ -1961,7 +2070,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2">
       <c r="A21" s="11" t="s">
         <v>31</v>
       </c>
@@ -1969,7 +2078,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2">
       <c r="A22" s="11" t="s">
         <v>33</v>
       </c>
@@ -1977,7 +2086,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2">
       <c r="A23" s="11" t="s">
         <v>35</v>
       </c>
@@ -1985,7 +2094,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -1993,7 +2102,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -2001,7 +2110,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -2009,7 +2118,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -2017,7 +2126,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2">
       <c r="A28" s="11" t="s">
         <v>45</v>
       </c>
@@ -2025,7 +2134,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2">
       <c r="A29" s="11" t="s">
         <v>47</v>
       </c>
@@ -2033,7 +2142,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2">
       <c r="A30" s="11" t="s">
         <v>49</v>
       </c>
@@ -2041,7 +2150,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2">
       <c r="A31" s="11" t="s">
         <v>51</v>
       </c>
@@ -2049,7 +2158,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2">
       <c r="A32" s="11" t="s">
         <v>53</v>
       </c>
@@ -2057,7 +2166,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16">
       <c r="A33" s="11" t="s">
         <v>55</v>
       </c>
@@ -2065,7 +2174,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16">
       <c r="A34" s="6" t="s">
         <v>57</v>
       </c>
@@ -2073,7 +2182,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16">
       <c r="A37" s="18" t="s">
         <v>59</v>
       </c>
@@ -2084,7 +2193,7 @@
       <c r="F37" s="18"/>
       <c r="G37" s="18"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16">
       <c r="A40" s="33" t="s">
         <v>60</v>
       </c>
@@ -2104,7 +2213,7 @@
       <c r="O40" s="12"/>
       <c r="P40" s="12"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16">
       <c r="A41" s="13">
         <v>45180</v>
       </c>
@@ -2112,7 +2221,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16">
       <c r="A42" s="13">
         <v>45251</v>
       </c>
@@ -2120,7 +2229,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16">
       <c r="A43" s="13">
         <v>45266</v>
       </c>
@@ -2139,36 +2248,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C569B310-60E0-4E31-89EB-52CC1C810311}">
-  <dimension ref="A1:AA216"/>
+  <dimension ref="A1:AA222"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C207" sqref="C207"/>
+      <pane ySplit="1" topLeftCell="F203" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K220" sqref="K220"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.453125" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.81640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.54296875" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7265625" style="14" customWidth="1"/>
-    <col min="5" max="5" width="35.1796875" style="14" customWidth="1"/>
-    <col min="6" max="6" width="10.81640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.26953125" style="14" customWidth="1"/>
-    <col min="8" max="9" width="14.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.81640625" style="14" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="14" customWidth="1"/>
+    <col min="5" max="5" width="35.140625" style="14" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" style="14" customWidth="1"/>
+    <col min="8" max="9" width="14.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="39.140625" style="14" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19" style="14" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="26" style="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="43.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="31.81640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="43.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="31.85546875" style="14" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15" style="14" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="19" style="14" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="17.26953125" style="14" customWidth="1"/>
-    <col min="19" max="19" width="16.26953125" style="14" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.1796875" style="23" customWidth="1"/>
+    <col min="17" max="18" width="17.28515625" style="14" customWidth="1"/>
+    <col min="19" max="19" width="16.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.140625" style="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -2230,7 +2339,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20">
       <c r="A2" s="7">
         <v>44546</v>
       </c>
@@ -2290,7 +2399,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20">
       <c r="A3" s="7">
         <v>44547</v>
       </c>
@@ -2304,31 +2413,31 @@
         <v>79</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F3" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="4">
         <v>68</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>69</v>
       </c>
       <c r="H3" s="4">
-        <v>38.074959999999997</v>
+        <v>38.153120000000001</v>
       </c>
       <c r="I3" s="4">
-        <v>-121.76174</v>
+        <v>-121.68261</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="N3" s="4" t="s">
         <v>73</v>
@@ -2346,11 +2455,9 @@
         <v>77</v>
       </c>
       <c r="S3" s="19"/>
-      <c r="T3" s="16" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="T3" s="16"/>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="7">
         <v>44547</v>
       </c>
@@ -2364,31 +2471,31 @@
         <v>79</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="F4" s="4">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>69</v>
       </c>
       <c r="H4" s="4">
-        <v>38.074350000000003</v>
+        <v>38.153120000000001</v>
       </c>
       <c r="I4" s="4">
-        <v>-121.7623</v>
+        <v>-121.68261</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K4" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="L4" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="L4" s="4" t="s">
-        <v>83</v>
-      </c>
       <c r="M4" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N4" s="4" t="s">
         <v>73</v>
@@ -2408,7 +2515,7 @@
       <c r="S4" s="19"/>
       <c r="T4" s="16"/>
     </row>
-    <row r="5" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20">
       <c r="A5" s="7">
         <v>44547</v>
       </c>
@@ -2419,34 +2526,34 @@
         <v>65</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>67</v>
       </c>
       <c r="F5" s="4">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>69</v>
       </c>
       <c r="H5" s="4">
-        <v>38.153120000000001</v>
+        <v>38.149250000000002</v>
       </c>
       <c r="I5" s="4">
-        <v>-121.68261</v>
+        <v>-121.68401</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N5" s="4" t="s">
         <v>73</v>
@@ -2466,7 +2573,7 @@
       <c r="S5" s="19"/>
       <c r="T5" s="16"/>
     </row>
-    <row r="6" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20">
       <c r="A6" s="7">
         <v>44547</v>
       </c>
@@ -2477,13 +2584,13 @@
         <v>65</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>67</v>
       </c>
       <c r="F6" s="4">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>69</v>
@@ -2495,16 +2602,16 @@
         <v>-121.68401</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N6" s="4" t="s">
         <v>73</v>
@@ -2524,7 +2631,7 @@
       <c r="S6" s="19"/>
       <c r="T6" s="16"/>
     </row>
-    <row r="7" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20">
       <c r="A7" s="7">
         <v>44547</v>
       </c>
@@ -2535,34 +2642,34 @@
         <v>65</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>67</v>
       </c>
       <c r="F7" s="4">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>69</v>
       </c>
       <c r="H7" s="4">
-        <v>38.153120000000001</v>
+        <v>38.141330000000004</v>
       </c>
       <c r="I7" s="4">
-        <v>-121.68261</v>
+        <v>-121.69331</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>88</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N7" s="4" t="s">
         <v>73</v>
@@ -2582,7 +2689,7 @@
       <c r="S7" s="19"/>
       <c r="T7" s="16"/>
     </row>
-    <row r="8" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20">
       <c r="A8" s="7">
         <v>44547</v>
       </c>
@@ -2596,31 +2703,31 @@
         <v>89</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F8" s="4">
-        <v>80</v>
+        <v>90</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>69</v>
       </c>
       <c r="H8" s="4">
-        <v>38.141330000000004</v>
+        <v>38.074959999999997</v>
       </c>
       <c r="I8" s="4">
-        <v>-121.69331</v>
+        <v>-121.76174</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="N8" s="4" t="s">
         <v>73</v>
@@ -2638,9 +2745,11 @@
         <v>77</v>
       </c>
       <c r="S8" s="19"/>
-      <c r="T8" s="16"/>
-    </row>
-    <row r="9" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="T8" s="16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="7">
         <v>44547</v>
       </c>
@@ -2651,34 +2760,34 @@
         <v>65</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="F9" s="4">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>69</v>
       </c>
       <c r="H9" s="4">
-        <v>38.149250000000002</v>
+        <v>38.074350000000003</v>
       </c>
       <c r="I9" s="4">
-        <v>-121.68401</v>
+        <v>-121.7623</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>91</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N9" s="4" t="s">
         <v>73</v>
@@ -2698,7 +2807,7 @@
       <c r="S9" s="19"/>
       <c r="T9" s="16"/>
     </row>
-    <row r="10" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20">
       <c r="A10" s="7">
         <v>44551</v>
       </c>
@@ -2727,16 +2836,16 @@
         <v>-121.55355</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>94</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N10" s="4" t="s">
         <v>95</v>
@@ -2756,7 +2865,7 @@
       <c r="S10" s="19"/>
       <c r="T10" s="16"/>
     </row>
-    <row r="11" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20">
       <c r="A11" s="7">
         <v>44553</v>
       </c>
@@ -2785,16 +2894,16 @@
         <v>-121.69504999999999</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>97</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N11" s="4" t="s">
         <v>73</v>
@@ -2814,7 +2923,7 @@
       <c r="S11" s="19"/>
       <c r="T11" s="16"/>
     </row>
-    <row r="12" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20">
       <c r="A12" s="7">
         <v>44553</v>
       </c>
@@ -2825,34 +2934,34 @@
         <v>65</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="F12" s="4">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>69</v>
       </c>
       <c r="H12" s="4">
-        <v>38.086269999999999</v>
+        <v>38.104880000000001</v>
       </c>
       <c r="I12" s="4">
-        <v>-121.5771</v>
+        <v>-121.69566</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N12" s="4" t="s">
         <v>73</v>
@@ -2872,7 +2981,7 @@
       <c r="S12" s="19"/>
       <c r="T12" s="16"/>
     </row>
-    <row r="13" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20">
       <c r="A13" s="7">
         <v>44553</v>
       </c>
@@ -2883,34 +2992,34 @@
         <v>65</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="F13" s="4">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>69</v>
       </c>
       <c r="H13" s="4">
-        <v>38.104880000000001</v>
+        <v>38.086269999999999</v>
       </c>
       <c r="I13" s="4">
-        <v>-121.69566</v>
+        <v>-121.5771</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K13" s="4" t="s">
         <v>101</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N13" s="4" t="s">
         <v>73</v>
@@ -2930,7 +3039,7 @@
       <c r="S13" s="19"/>
       <c r="T13" s="16"/>
     </row>
-    <row r="14" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20">
       <c r="A14" s="7">
         <v>44557</v>
       </c>
@@ -2944,7 +3053,7 @@
         <v>102</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F14" s="4">
         <v>76</v>
@@ -2959,16 +3068,16 @@
         <v>-121.78625</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K14" s="4" t="s">
         <v>103</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N14" s="4" t="s">
         <v>73</v>
@@ -2988,7 +3097,7 @@
       <c r="S14" s="19"/>
       <c r="T14" s="16"/>
     </row>
-    <row r="15" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20">
       <c r="A15" s="7">
         <v>44558</v>
       </c>
@@ -3005,28 +3114,28 @@
         <v>67</v>
       </c>
       <c r="F15" s="4">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>69</v>
       </c>
       <c r="H15" s="4">
-        <v>38.121389999999998</v>
+        <v>38.148710000000001</v>
       </c>
       <c r="I15" s="4">
-        <v>-121.69714999999999</v>
+        <v>-121.68438</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>105</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N15" s="4" t="s">
         <v>73</v>
@@ -3046,7 +3155,7 @@
       <c r="S15" s="19"/>
       <c r="T15" s="16"/>
     </row>
-    <row r="16" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20">
       <c r="A16" s="7">
         <v>44558</v>
       </c>
@@ -3063,28 +3172,28 @@
         <v>67</v>
       </c>
       <c r="F16" s="4">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>69</v>
       </c>
       <c r="H16" s="4">
-        <v>38.148710000000001</v>
+        <v>38.121389999999998</v>
       </c>
       <c r="I16" s="4">
-        <v>-121.68438</v>
+        <v>-121.69714999999999</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K16" s="4" t="s">
         <v>107</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N16" s="4" t="s">
         <v>73</v>
@@ -3104,7 +3213,7 @@
       <c r="S16" s="19"/>
       <c r="T16" s="16"/>
     </row>
-    <row r="17" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20">
       <c r="A17" s="7">
         <v>44559</v>
       </c>
@@ -3133,16 +3242,16 @@
         <v>-121.90991699999999</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K17" s="8" t="s">
         <v>112</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N17" s="4" t="s">
         <v>73</v>
@@ -3162,7 +3271,7 @@
       <c r="S17" s="19"/>
       <c r="T17" s="16"/>
     </row>
-    <row r="18" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:20">
       <c r="A18" s="7">
         <v>44565</v>
       </c>
@@ -3222,7 +3331,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20">
       <c r="A19" s="7">
         <v>44566</v>
       </c>
@@ -3251,16 +3360,16 @@
         <v>-121.73757000000001</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K19" s="8" t="s">
         <v>119</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N19" s="4" t="s">
         <v>71</v>
@@ -3282,7 +3391,7 @@
       </c>
       <c r="T19" s="16"/>
     </row>
-    <row r="20" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20">
       <c r="A20" s="7">
         <v>44573</v>
       </c>
@@ -3311,16 +3420,16 @@
         <v>-121.66128</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K20" s="4" t="s">
         <v>122</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N20" s="4" t="s">
         <v>73</v>
@@ -3342,7 +3451,7 @@
       </c>
       <c r="T20" s="16"/>
     </row>
-    <row r="21" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:20">
       <c r="A21" s="7">
         <v>44573</v>
       </c>
@@ -3371,16 +3480,16 @@
         <v>-121.66159</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K21" s="4" t="s">
         <v>123</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N21" s="4" t="s">
         <v>73</v>
@@ -3402,7 +3511,7 @@
       </c>
       <c r="T21" s="16"/>
     </row>
-    <row r="22" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:20">
       <c r="A22" s="5">
         <v>44577</v>
       </c>
@@ -3431,7 +3540,7 @@
         <v>-121.558995</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>126</v>
@@ -3440,7 +3549,7 @@
         <v>114</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N22" s="1" t="s">
         <v>116</v>
@@ -3464,7 +3573,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:20">
       <c r="A23" s="7">
         <v>44579</v>
       </c>
@@ -3493,16 +3602,16 @@
         <v>-121.94784</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K23" s="4" t="s">
         <v>130</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N23" s="4" t="s">
         <v>73</v>
@@ -3524,7 +3633,7 @@
       </c>
       <c r="T23" s="16"/>
     </row>
-    <row r="24" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:20">
       <c r="A24" s="7">
         <v>44585</v>
       </c>
@@ -3538,7 +3647,7 @@
         <v>131</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F24" s="4">
         <v>65</v>
@@ -3553,16 +3662,16 @@
         <v>-121.76352</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K24" s="4" t="s">
         <v>132</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N24" s="4" t="s">
         <v>73</v>
@@ -3584,7 +3693,7 @@
       </c>
       <c r="T24" s="16"/>
     </row>
-    <row r="25" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:20">
       <c r="A25" s="7">
         <v>44592</v>
       </c>
@@ -3613,16 +3722,16 @@
         <v>-121.6093</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K25" s="4" t="s">
         <v>134</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N25" s="4" t="s">
         <v>73</v>
@@ -3644,7 +3753,7 @@
       </c>
       <c r="T25" s="16"/>
     </row>
-    <row r="26" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:20">
       <c r="A26" s="7">
         <v>44592</v>
       </c>
@@ -3673,16 +3782,16 @@
         <v>-121.6093</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K26" s="4" t="s">
         <v>135</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N26" s="4" t="s">
         <v>73</v>
@@ -3704,7 +3813,7 @@
       </c>
       <c r="T26" s="16"/>
     </row>
-    <row r="27" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:20">
       <c r="A27" s="7">
         <v>44596</v>
       </c>
@@ -3733,16 +3842,16 @@
         <v>-121.74798</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K27" s="4" t="s">
         <v>138</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N27" s="4" t="s">
         <v>73</v>
@@ -3764,7 +3873,7 @@
       </c>
       <c r="T27" s="16"/>
     </row>
-    <row r="28" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:20">
       <c r="A28" s="7">
         <v>44599</v>
       </c>
@@ -3778,7 +3887,7 @@
         <v>139</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F28" s="4">
         <v>55</v>
@@ -3793,16 +3902,16 @@
         <v>-121.75736999999999</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K28" s="4" t="s">
         <v>140</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N28" s="4" t="s">
         <v>73</v>
@@ -3824,7 +3933,7 @@
       </c>
       <c r="T28" s="16"/>
     </row>
-    <row r="29" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:20">
       <c r="A29" s="7">
         <v>44606</v>
       </c>
@@ -3853,16 +3962,16 @@
         <v>-121.97436999999999</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K29" s="4" t="s">
         <v>142</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N29" s="4" t="s">
         <v>73</v>
@@ -3884,48 +3993,48 @@
       </c>
       <c r="T29" s="16"/>
     </row>
-    <row r="30" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="7">
+    <row r="30" spans="1:20">
+      <c r="A30" s="5">
         <v>44609</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D30" s="4" t="s">
+      <c r="B30" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>143</v>
       </c>
+      <c r="D30" s="1">
+        <v>762</v>
+      </c>
       <c r="E30" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F30" s="4">
-        <v>86</v>
+        <v>144</v>
+      </c>
+      <c r="F30" s="1">
+        <v>68</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="H30" s="8">
-        <v>38.04598</v>
-      </c>
-      <c r="I30" s="8">
-        <v>-121.90991699999999</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="K30" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="L30" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="M30" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="N30" s="4" t="s">
-        <v>73</v>
+      <c r="H30" s="1">
+        <v>38.174999999999997</v>
+      </c>
+      <c r="I30" s="1">
+        <v>-121.657</v>
+      </c>
+      <c r="J30" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="K30" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="O30" s="4" t="s">
         <v>77</v>
@@ -3942,50 +4051,52 @@
       <c r="S30" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="T30" s="16"/>
-    </row>
-    <row r="31" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="5">
+      <c r="T30" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="7">
         <v>44609</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D31" s="1">
-        <v>762</v>
+      <c r="B31" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>148</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="F31" s="1">
-        <v>68</v>
+        <v>111</v>
+      </c>
+      <c r="F31" s="4">
+        <v>86</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="H31" s="1">
-        <v>38.174999999999997</v>
-      </c>
-      <c r="I31" s="1">
-        <v>-121.657</v>
-      </c>
-      <c r="J31" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="K31" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>116</v>
+      <c r="H31" s="8">
+        <v>38.04598</v>
+      </c>
+      <c r="I31" s="8">
+        <v>-121.90991699999999</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="N31" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="O31" s="4" t="s">
         <v>77</v>
@@ -4002,11 +4113,9 @@
       <c r="S31" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="T31" s="6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="T31" s="16"/>
+    </row>
+    <row r="32" spans="1:20">
       <c r="A32" s="5">
         <v>44610</v>
       </c>
@@ -4017,34 +4126,34 @@
         <v>65</v>
       </c>
       <c r="D32" s="1">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>129</v>
       </c>
       <c r="F32" s="1">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>69</v>
       </c>
       <c r="H32" s="1">
-        <v>38.167194440000003</v>
+        <v>38.171083330000002</v>
       </c>
       <c r="I32" s="1">
-        <v>-121.9388611</v>
+        <v>-122.02963889999999</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="K32" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="K32" s="8" t="s">
         <v>151</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N32" s="4" t="s">
         <v>73</v>
@@ -4066,7 +4175,7 @@
       </c>
       <c r="T32" s="16"/>
     </row>
-    <row r="33" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:20">
       <c r="A33" s="5">
         <v>44610</v>
       </c>
@@ -4083,7 +4192,7 @@
         <v>129</v>
       </c>
       <c r="F33" s="1">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>69</v>
@@ -4095,16 +4204,16 @@
         <v>-122.02963889999999</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K33" s="8" t="s">
         <v>152</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N33" s="4" t="s">
         <v>73</v>
@@ -4126,7 +4235,7 @@
       </c>
       <c r="T33" s="16"/>
     </row>
-    <row r="34" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:20">
       <c r="A34" s="5">
         <v>44610</v>
       </c>
@@ -4143,7 +4252,7 @@
         <v>129</v>
       </c>
       <c r="F34" s="1">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>69</v>
@@ -4155,16 +4264,16 @@
         <v>-122.02963889999999</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K34" s="8" t="s">
         <v>153</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N34" s="4" t="s">
         <v>73</v>
@@ -4186,7 +4295,7 @@
       </c>
       <c r="T34" s="16"/>
     </row>
-    <row r="35" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:20">
       <c r="A35" s="5">
         <v>44610</v>
       </c>
@@ -4203,7 +4312,7 @@
         <v>129</v>
       </c>
       <c r="F35" s="1">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>69</v>
@@ -4215,16 +4324,16 @@
         <v>-122.02963889999999</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K35" s="8" t="s">
         <v>154</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N35" s="4" t="s">
         <v>73</v>
@@ -4246,7 +4355,7 @@
       </c>
       <c r="T35" s="16"/>
     </row>
-    <row r="36" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:20">
       <c r="A36" s="5">
         <v>44610</v>
       </c>
@@ -4257,34 +4366,34 @@
         <v>65</v>
       </c>
       <c r="D36" s="1">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>129</v>
       </c>
       <c r="F36" s="1">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>69</v>
       </c>
       <c r="H36" s="1">
-        <v>38.171083330000002</v>
+        <v>38.167194440000003</v>
       </c>
       <c r="I36" s="1">
-        <v>-122.02963889999999</v>
+        <v>-121.9388611</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="K36" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K36" s="26" t="s">
         <v>155</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N36" s="4" t="s">
         <v>73</v>
@@ -4306,7 +4415,7 @@
       </c>
       <c r="T36" s="16"/>
     </row>
-    <row r="37" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:20">
       <c r="A37" s="7">
         <v>44615</v>
       </c>
@@ -4323,28 +4432,28 @@
         <v>129</v>
       </c>
       <c r="F37" s="4">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>69</v>
       </c>
       <c r="H37" s="4">
-        <v>38.186010000000003</v>
+        <v>38.186480000000003</v>
       </c>
       <c r="I37" s="4">
-        <v>-121.92959999999999</v>
+        <v>-121.92977</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K37" s="4" t="s">
         <v>157</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N37" s="4" t="s">
         <v>73</v>
@@ -4366,7 +4475,7 @@
       </c>
       <c r="T37" s="16"/>
     </row>
-    <row r="38" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:20">
       <c r="A38" s="7">
         <v>44615</v>
       </c>
@@ -4383,7 +4492,7 @@
         <v>129</v>
       </c>
       <c r="F38" s="4">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>69</v>
@@ -4395,16 +4504,16 @@
         <v>-121.92977</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K38" s="4" t="s">
         <v>158</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N38" s="4" t="s">
         <v>73</v>
@@ -4426,7 +4535,7 @@
       </c>
       <c r="T38" s="16"/>
     </row>
-    <row r="39" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:20">
       <c r="A39" s="7">
         <v>44615</v>
       </c>
@@ -4443,28 +4552,28 @@
         <v>129</v>
       </c>
       <c r="F39" s="4">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>69</v>
       </c>
       <c r="H39" s="4">
-        <v>38.186010000000003</v>
+        <v>38.186480000000003</v>
       </c>
       <c r="I39" s="4">
-        <v>-121.92959999999999</v>
+        <v>-121.92977</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K39" s="4" t="s">
         <v>159</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N39" s="4" t="s">
         <v>73</v>
@@ -4486,7 +4595,7 @@
       </c>
       <c r="T39" s="16"/>
     </row>
-    <row r="40" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:20">
       <c r="A40" s="7">
         <v>44615</v>
       </c>
@@ -4503,28 +4612,28 @@
         <v>129</v>
       </c>
       <c r="F40" s="4">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>69</v>
       </c>
       <c r="H40" s="4">
-        <v>38.186480000000003</v>
+        <v>38.186010000000003</v>
       </c>
       <c r="I40" s="4">
-        <v>-121.92977</v>
+        <v>-121.92959999999999</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K40" s="4" t="s">
         <v>160</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N40" s="4" t="s">
         <v>73</v>
@@ -4546,7 +4655,7 @@
       </c>
       <c r="T40" s="16"/>
     </row>
-    <row r="41" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:20">
       <c r="A41" s="7">
         <v>44615</v>
       </c>
@@ -4563,28 +4672,28 @@
         <v>129</v>
       </c>
       <c r="F41" s="4">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>69</v>
       </c>
       <c r="H41" s="4">
-        <v>38.186480000000003</v>
+        <v>38.186010000000003</v>
       </c>
       <c r="I41" s="4">
-        <v>-121.92977</v>
+        <v>-121.92959999999999</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K41" s="4" t="s">
         <v>161</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N41" s="4" t="s">
         <v>73</v>
@@ -4606,7 +4715,7 @@
       </c>
       <c r="T41" s="16"/>
     </row>
-    <row r="42" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:20">
       <c r="A42" s="7">
         <v>44616</v>
       </c>
@@ -4623,28 +4732,28 @@
         <v>121</v>
       </c>
       <c r="F42" s="4">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>69</v>
       </c>
       <c r="H42" s="4">
-        <v>38.342390000000002</v>
+        <v>38.343179999999997</v>
       </c>
       <c r="I42" s="4">
-        <v>-121.64437</v>
+        <v>-121.64418000000001</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K42" s="4" t="s">
         <v>163</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N42" s="4" t="s">
         <v>73</v>
@@ -4666,7 +4775,7 @@
       </c>
       <c r="T42" s="16"/>
     </row>
-    <row r="43" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:20">
       <c r="A43" s="7">
         <v>44616</v>
       </c>
@@ -4683,28 +4792,28 @@
         <v>121</v>
       </c>
       <c r="F43" s="4">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>69</v>
       </c>
       <c r="H43" s="4">
-        <v>38.343179999999997</v>
+        <v>38.342390000000002</v>
       </c>
       <c r="I43" s="4">
-        <v>-121.64418000000001</v>
+        <v>-121.64437</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K43" s="4" t="s">
         <v>164</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N43" s="4" t="s">
         <v>73</v>
@@ -4726,7 +4835,7 @@
       </c>
       <c r="T43" s="16"/>
     </row>
-    <row r="44" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:20">
       <c r="A44" s="7">
         <v>44616</v>
       </c>
@@ -4755,16 +4864,16 @@
         <v>-121.64437</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K44" s="4" t="s">
         <v>165</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N44" s="4" t="s">
         <v>73</v>
@@ -4786,7 +4895,7 @@
       </c>
       <c r="T44" s="16"/>
     </row>
-    <row r="45" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:20">
       <c r="A45" s="7">
         <v>44616</v>
       </c>
@@ -4815,16 +4924,16 @@
         <v>-121.64437</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K45" s="4" t="s">
         <v>166</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N45" s="4" t="s">
         <v>73</v>
@@ -4846,7 +4955,7 @@
       </c>
       <c r="T45" s="16"/>
     </row>
-    <row r="46" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:20">
       <c r="A46" s="7">
         <v>44622</v>
       </c>
@@ -4860,34 +4969,34 @@
         <v>167</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="F46" s="4">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>69</v>
       </c>
       <c r="H46" s="4">
-        <v>38.388620000000003</v>
+        <v>38.495480000000001</v>
       </c>
       <c r="I46" s="4">
-        <v>-121.62302</v>
+        <v>-121.58396</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K46" s="4" t="s">
         <v>168</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N46" s="4" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="O46" s="4" t="s">
         <v>77</v>
@@ -4906,7 +5015,7 @@
       </c>
       <c r="T46" s="16"/>
     </row>
-    <row r="47" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:20">
       <c r="A47" s="7">
         <v>44622</v>
       </c>
@@ -4917,34 +5026,34 @@
         <v>65</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>121</v>
       </c>
       <c r="F47" s="4">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>69</v>
       </c>
       <c r="H47" s="4">
-        <v>38.38561</v>
+        <v>38.422820000000002</v>
       </c>
       <c r="I47" s="4">
-        <v>-121.62474</v>
+        <v>-121.60663</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M47" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N47" s="4" t="s">
         <v>73</v>
@@ -4966,7 +5075,7 @@
       </c>
       <c r="T47" s="16"/>
     </row>
-    <row r="48" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:20">
       <c r="A48" s="7">
         <v>44622</v>
       </c>
@@ -4977,37 +5086,37 @@
         <v>65</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>121</v>
       </c>
       <c r="F48" s="4">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>69</v>
       </c>
       <c r="H48" s="4">
-        <v>38.422820000000002</v>
+        <v>38.388620000000003</v>
       </c>
       <c r="I48" s="4">
-        <v>-121.60663</v>
+        <v>-121.62302</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M48" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N48" s="4" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="O48" s="4" t="s">
         <v>77</v>
@@ -5026,7 +5135,7 @@
       </c>
       <c r="T48" s="16"/>
     </row>
-    <row r="49" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:20">
       <c r="A49" s="7">
         <v>44622</v>
       </c>
@@ -5037,34 +5146,34 @@
         <v>65</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="F49" s="4">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>69</v>
       </c>
       <c r="H49" s="4">
-        <v>38.495480000000001</v>
+        <v>38.38561</v>
       </c>
       <c r="I49" s="4">
-        <v>-121.58396</v>
+        <v>-121.62474</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K49" s="4" t="s">
         <v>173</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N49" s="4" t="s">
         <v>73</v>
@@ -5086,7 +5195,7 @@
       </c>
       <c r="T49" s="16"/>
     </row>
-    <row r="50" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:20">
       <c r="A50" s="7">
         <v>44623</v>
       </c>
@@ -5115,16 +5224,16 @@
         <v>-122.04503</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K50" s="4" t="s">
         <v>175</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M50" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N50" s="4" t="s">
         <v>73</v>
@@ -5146,7 +5255,7 @@
       </c>
       <c r="T50" s="16"/>
     </row>
-    <row r="51" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:20">
       <c r="A51" s="7">
         <v>44628</v>
       </c>
@@ -5175,16 +5284,16 @@
         <v>-121.63593</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K51" s="4" t="s">
         <v>177</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M51" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N51" s="4" t="s">
         <v>73</v>
@@ -5206,7 +5315,7 @@
       </c>
       <c r="T51" s="16"/>
     </row>
-    <row r="52" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:20">
       <c r="A52" s="7">
         <v>44628</v>
       </c>
@@ -5235,16 +5344,16 @@
         <v>-121.63593</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K52" s="4" t="s">
         <v>178</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M52" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N52" s="4" t="s">
         <v>73</v>
@@ -5266,7 +5375,7 @@
       </c>
       <c r="T52" s="16"/>
     </row>
-    <row r="53" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:20">
       <c r="A53" s="7">
         <v>44628</v>
       </c>
@@ -5295,16 +5404,16 @@
         <v>-121.63593</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K53" s="4" t="s">
         <v>179</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M53" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N53" s="4" t="s">
         <v>95</v>
@@ -5326,7 +5435,7 @@
       </c>
       <c r="T53" s="16"/>
     </row>
-    <row r="54" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:20">
       <c r="A54" s="7">
         <v>44628</v>
       </c>
@@ -5355,16 +5464,16 @@
         <v>-121.63593</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K54" s="4" t="s">
         <v>180</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N54" s="4" t="s">
         <v>95</v>
@@ -5386,7 +5495,7 @@
       </c>
       <c r="T54" s="16"/>
     </row>
-    <row r="55" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:20">
       <c r="A55" s="7">
         <v>44628</v>
       </c>
@@ -5415,16 +5524,16 @@
         <v>-121.63593</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K55" s="4" t="s">
         <v>181</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M55" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N55" s="4" t="s">
         <v>73</v>
@@ -5446,7 +5555,7 @@
       </c>
       <c r="T55" s="16"/>
     </row>
-    <row r="56" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:20">
       <c r="A56" s="7">
         <v>44631</v>
       </c>
@@ -5463,28 +5572,28 @@
         <v>129</v>
       </c>
       <c r="F56" s="4">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>69</v>
       </c>
       <c r="H56" s="4">
-        <v>38.174849999999999</v>
+        <v>38.181240000000003</v>
       </c>
       <c r="I56" s="4">
-        <v>-121.94928</v>
+        <v>-121.99375000000001</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K56" s="4" t="s">
         <v>183</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M56" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N56" s="4" t="s">
         <v>73</v>
@@ -5506,7 +5615,7 @@
       </c>
       <c r="T56" s="16"/>
     </row>
-    <row r="57" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:20">
       <c r="A57" s="7">
         <v>44631</v>
       </c>
@@ -5523,28 +5632,28 @@
         <v>129</v>
       </c>
       <c r="F57" s="4">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>69</v>
       </c>
       <c r="H57" s="4">
-        <v>38.181240000000003</v>
+        <v>38.174849999999999</v>
       </c>
       <c r="I57" s="4">
-        <v>-121.99375000000001</v>
+        <v>-121.94928</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K57" s="4" t="s">
         <v>185</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M57" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N57" s="4" t="s">
         <v>73</v>
@@ -5566,7 +5675,7 @@
       </c>
       <c r="T57" s="16"/>
     </row>
-    <row r="58" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:20">
       <c r="A58" s="5">
         <v>44636</v>
       </c>
@@ -5577,34 +5686,34 @@
         <v>65</v>
       </c>
       <c r="D58" s="1">
-        <v>704</v>
+        <v>719</v>
       </c>
       <c r="E58" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F58" s="1">
         <v>80</v>
-      </c>
-      <c r="F58" s="1">
-        <v>70</v>
       </c>
       <c r="G58" s="4" t="s">
         <v>69</v>
       </c>
       <c r="H58" s="1">
-        <v>38.065777779999998</v>
+        <v>38.333500000000001</v>
       </c>
       <c r="I58" s="1">
-        <v>-121.7885278</v>
+        <v>-121.64700000000001</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K58" s="8" t="s">
         <v>186</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M58" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N58" s="4" t="s">
         <v>73</v>
@@ -5626,7 +5735,7 @@
       </c>
       <c r="T58" s="16"/>
     </row>
-    <row r="59" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:20">
       <c r="A59" s="5">
         <v>44636</v>
       </c>
@@ -5643,7 +5752,7 @@
         <v>121</v>
       </c>
       <c r="F59" s="1">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>69</v>
@@ -5655,16 +5764,16 @@
         <v>-121.64700000000001</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K59" s="8" t="s">
         <v>187</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M59" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N59" s="4" t="s">
         <v>73</v>
@@ -5686,7 +5795,7 @@
       </c>
       <c r="T59" s="16"/>
     </row>
-    <row r="60" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:20">
       <c r="A60" s="5">
         <v>44636</v>
       </c>
@@ -5697,34 +5806,34 @@
         <v>65</v>
       </c>
       <c r="D60" s="1">
-        <v>719</v>
+        <v>704</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="F60" s="1">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="G60" s="4" t="s">
         <v>69</v>
       </c>
       <c r="H60" s="1">
-        <v>38.333500000000001</v>
+        <v>38.065777779999998</v>
       </c>
       <c r="I60" s="1">
-        <v>-121.64700000000001</v>
+        <v>-121.7885278</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K60" s="8" t="s">
         <v>188</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M60" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N60" s="4" t="s">
         <v>73</v>
@@ -5746,7 +5855,7 @@
       </c>
       <c r="T60" s="16"/>
     </row>
-    <row r="61" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:20">
       <c r="A61" s="7">
         <v>44637</v>
       </c>
@@ -5775,16 +5884,16 @@
         <v>-121.61433</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K61" s="4" t="s">
         <v>190</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M61" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N61" s="4" t="s">
         <v>73</v>
@@ -5806,7 +5915,7 @@
       </c>
       <c r="T61" s="16"/>
     </row>
-    <row r="62" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:20">
       <c r="A62" s="5">
         <v>44637</v>
       </c>
@@ -5817,34 +5926,34 @@
         <v>65</v>
       </c>
       <c r="D62" s="1">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>129</v>
       </c>
       <c r="F62" s="1">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>69</v>
       </c>
       <c r="H62" s="1">
-        <v>38.167194440000003</v>
+        <v>38.171083330000002</v>
       </c>
       <c r="I62" s="1">
-        <v>-121.9388611</v>
+        <v>-122.02963889999999</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K62" s="8" t="s">
         <v>191</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M62" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N62" s="4" t="s">
         <v>73</v>
@@ -5866,7 +5975,7 @@
       </c>
       <c r="T62" s="16"/>
     </row>
-    <row r="63" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:20">
       <c r="A63" s="5">
         <v>44637</v>
       </c>
@@ -5877,34 +5986,34 @@
         <v>65</v>
       </c>
       <c r="D63" s="1">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>129</v>
       </c>
       <c r="F63" s="1">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="G63" s="4" t="s">
         <v>69</v>
       </c>
       <c r="H63" s="1">
-        <v>38.167194440000003</v>
+        <v>38.171083330000002</v>
       </c>
       <c r="I63" s="1">
-        <v>-121.9388611</v>
+        <v>-122.02963889999999</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K63" s="8" t="s">
         <v>192</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M63" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N63" s="4" t="s">
         <v>73</v>
@@ -5926,7 +6035,7 @@
       </c>
       <c r="T63" s="16"/>
     </row>
-    <row r="64" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:20">
       <c r="A64" s="5">
         <v>44637</v>
       </c>
@@ -5937,34 +6046,34 @@
         <v>65</v>
       </c>
       <c r="D64" s="1">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>129</v>
       </c>
       <c r="F64" s="1">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>69</v>
       </c>
       <c r="H64" s="1">
-        <v>38.167194440000003</v>
+        <v>38.171083330000002</v>
       </c>
       <c r="I64" s="1">
-        <v>-121.9388611</v>
+        <v>-122.02963889999999</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K64" s="8" t="s">
         <v>193</v>
       </c>
       <c r="L64" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M64" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N64" s="4" t="s">
         <v>73</v>
@@ -5986,7 +6095,7 @@
       </c>
       <c r="T64" s="16"/>
     </row>
-    <row r="65" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:20">
       <c r="A65" s="5">
         <v>44637</v>
       </c>
@@ -5997,37 +6106,37 @@
         <v>65</v>
       </c>
       <c r="D65" s="1">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>129</v>
       </c>
       <c r="F65" s="1">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="G65" s="4" t="s">
         <v>69</v>
       </c>
       <c r="H65" s="1">
-        <v>38.167194440000003</v>
+        <v>38.171083330000002</v>
       </c>
       <c r="I65" s="1">
-        <v>-121.9388611</v>
+        <v>-122.02963889999999</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K65" s="8" t="s">
         <v>194</v>
       </c>
       <c r="L65" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M65" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N65" s="4" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="O65" s="4" t="s">
         <v>77</v>
@@ -6046,7 +6155,7 @@
       </c>
       <c r="T65" s="16"/>
     </row>
-    <row r="66" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:20">
       <c r="A66" s="5">
         <v>44637</v>
       </c>
@@ -6057,34 +6166,34 @@
         <v>65</v>
       </c>
       <c r="D66" s="1">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>129</v>
       </c>
       <c r="F66" s="1">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="G66" s="4" t="s">
         <v>69</v>
       </c>
       <c r="H66" s="1">
-        <v>38.171083330000002</v>
+        <v>38.167194440000003</v>
       </c>
       <c r="I66" s="1">
-        <v>-122.02963889999999</v>
+        <v>-121.9388611</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K66" s="8" t="s">
         <v>195</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M66" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N66" s="4" t="s">
         <v>73</v>
@@ -6106,7 +6215,7 @@
       </c>
       <c r="T66" s="16"/>
     </row>
-    <row r="67" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:20">
       <c r="A67" s="5">
         <v>44637</v>
       </c>
@@ -6117,34 +6226,34 @@
         <v>65</v>
       </c>
       <c r="D67" s="1">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>129</v>
       </c>
       <c r="F67" s="1">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="G67" s="4" t="s">
         <v>69</v>
       </c>
       <c r="H67" s="1">
-        <v>38.171083330000002</v>
+        <v>38.167194440000003</v>
       </c>
       <c r="I67" s="1">
-        <v>-122.02963889999999</v>
+        <v>-121.9388611</v>
       </c>
       <c r="J67" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K67" s="8" t="s">
         <v>196</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M67" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N67" s="4" t="s">
         <v>73</v>
@@ -6166,7 +6275,7 @@
       </c>
       <c r="T67" s="16"/>
     </row>
-    <row r="68" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:20">
       <c r="A68" s="5">
         <v>44637</v>
       </c>
@@ -6177,34 +6286,34 @@
         <v>65</v>
       </c>
       <c r="D68" s="1">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>129</v>
       </c>
       <c r="F68" s="1">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="G68" s="4" t="s">
         <v>69</v>
       </c>
       <c r="H68" s="1">
-        <v>38.171083330000002</v>
+        <v>38.167194440000003</v>
       </c>
       <c r="I68" s="1">
-        <v>-122.02963889999999</v>
+        <v>-121.9388611</v>
       </c>
       <c r="J68" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K68" s="8" t="s">
         <v>197</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M68" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N68" s="4" t="s">
         <v>73</v>
@@ -6226,7 +6335,7 @@
       </c>
       <c r="T68" s="16"/>
     </row>
-    <row r="69" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:20">
       <c r="A69" s="5">
         <v>44637</v>
       </c>
@@ -6237,37 +6346,37 @@
         <v>65</v>
       </c>
       <c r="D69" s="1">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>129</v>
       </c>
       <c r="F69" s="1">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="G69" s="4" t="s">
         <v>69</v>
       </c>
       <c r="H69" s="1">
-        <v>38.171083330000002</v>
+        <v>38.167194440000003</v>
       </c>
       <c r="I69" s="1">
-        <v>-122.02963889999999</v>
+        <v>-121.9388611</v>
       </c>
       <c r="J69" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K69" s="8" t="s">
         <v>198</v>
       </c>
       <c r="L69" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M69" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N69" s="4" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="O69" s="4" t="s">
         <v>77</v>
@@ -6286,7 +6395,7 @@
       </c>
       <c r="T69" s="16"/>
     </row>
-    <row r="70" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:20">
       <c r="A70" s="7">
         <v>44641</v>
       </c>
@@ -6315,16 +6424,16 @@
         <v>-121.63473999999999</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K70" s="4" t="s">
         <v>201</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M70" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N70" s="4" t="s">
         <v>73</v>
@@ -6346,7 +6455,7 @@
       </c>
       <c r="T70" s="16"/>
     </row>
-    <row r="71" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:20">
       <c r="A71" s="5">
         <v>44641</v>
       </c>
@@ -6357,22 +6466,22 @@
         <v>203</v>
       </c>
       <c r="D71" s="1">
-        <v>815</v>
+        <v>719</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="F71" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G71" s="4" t="s">
         <v>204</v>
       </c>
       <c r="H71" s="1">
-        <v>38.086222220000003</v>
+        <v>38.331972219999997</v>
       </c>
       <c r="I71" s="1">
-        <v>-121.5715278</v>
+        <v>-121.6477222</v>
       </c>
       <c r="J71" s="1" t="s">
         <v>68</v>
@@ -6406,33 +6515,33 @@
       </c>
       <c r="T71" s="16"/>
     </row>
-    <row r="72" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:20">
       <c r="A72" s="5">
         <v>44641</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D72" s="1">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>200</v>
+        <v>121</v>
       </c>
       <c r="F72" s="1">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G72" s="4" t="s">
         <v>204</v>
       </c>
       <c r="H72" s="1">
-        <v>38.238500000000002</v>
+        <v>38.331972219999997</v>
       </c>
       <c r="I72" s="1">
-        <v>-121.6841944</v>
+        <v>-121.6477222</v>
       </c>
       <c r="J72" s="1" t="s">
         <v>68</v>
@@ -6466,33 +6575,33 @@
       </c>
       <c r="T72" s="16"/>
     </row>
-    <row r="73" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:20">
       <c r="A73" s="5">
         <v>44641</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D73" s="1">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>200</v>
       </c>
       <c r="F73" s="1">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G73" s="4" t="s">
         <v>204</v>
       </c>
       <c r="H73" s="1">
-        <v>38.238500000000002</v>
+        <v>38.256305560000001</v>
       </c>
       <c r="I73" s="1">
-        <v>-121.6841944</v>
+        <v>-121.72525</v>
       </c>
       <c r="J73" s="1" t="s">
         <v>68</v>
@@ -6526,33 +6635,33 @@
       </c>
       <c r="T73" s="16"/>
     </row>
-    <row r="74" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:20">
       <c r="A74" s="5">
         <v>44641</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D74" s="1">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>200</v>
       </c>
       <c r="F74" s="1">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G74" s="4" t="s">
         <v>204</v>
       </c>
       <c r="H74" s="1">
-        <v>38.256305560000001</v>
+        <v>38.238500000000002</v>
       </c>
       <c r="I74" s="1">
-        <v>-121.72525</v>
+        <v>-121.6841944</v>
       </c>
       <c r="J74" s="1" t="s">
         <v>68</v>
@@ -6586,33 +6695,33 @@
       </c>
       <c r="T74" s="16"/>
     </row>
-    <row r="75" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:20">
       <c r="A75" s="5">
         <v>44641</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D75" s="1">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>121</v>
+        <v>200</v>
       </c>
       <c r="F75" s="1">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G75" s="4" t="s">
         <v>204</v>
       </c>
       <c r="H75" s="1">
-        <v>38.331972219999997</v>
+        <v>38.238500000000002</v>
       </c>
       <c r="I75" s="1">
-        <v>-121.6477222</v>
+        <v>-121.6841944</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>68</v>
@@ -6646,7 +6755,7 @@
       </c>
       <c r="T75" s="16"/>
     </row>
-    <row r="76" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:20">
       <c r="A76" s="5">
         <v>44641</v>
       </c>
@@ -6657,22 +6766,22 @@
         <v>208</v>
       </c>
       <c r="D76" s="1">
-        <v>719</v>
+        <v>815</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="F76" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G76" s="4" t="s">
         <v>204</v>
       </c>
       <c r="H76" s="1">
-        <v>38.331972219999997</v>
+        <v>38.086222220000003</v>
       </c>
       <c r="I76" s="1">
-        <v>-121.6477222</v>
+        <v>-121.5715278</v>
       </c>
       <c r="J76" s="1" t="s">
         <v>68</v>
@@ -6706,7 +6815,7 @@
       </c>
       <c r="T76" s="16"/>
     </row>
-    <row r="77" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:20">
       <c r="A77" s="7">
         <v>44642</v>
       </c>
@@ -6735,16 +6844,16 @@
         <v>-121.96335999999999</v>
       </c>
       <c r="J77" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K77" s="4" t="s">
         <v>210</v>
       </c>
       <c r="L77" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M77" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N77" s="4" t="s">
         <v>73</v>
@@ -6766,7 +6875,7 @@
       </c>
       <c r="T77" s="16"/>
     </row>
-    <row r="78" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:20">
       <c r="A78" s="7">
         <v>44643</v>
       </c>
@@ -6780,31 +6889,31 @@
         <v>211</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="F78" s="4">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="G78" s="4" t="s">
         <v>69</v>
       </c>
       <c r="H78" s="4">
-        <v>38.457050000000002</v>
+        <v>38.494169999999997</v>
       </c>
       <c r="I78" s="4">
-        <v>-121.59178</v>
+        <v>-121.58394</v>
       </c>
       <c r="J78" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K78" s="4" t="s">
         <v>212</v>
       </c>
       <c r="L78" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M78" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N78" s="4" t="s">
         <v>73</v>
@@ -6826,7 +6935,7 @@
       </c>
       <c r="T78" s="16"/>
     </row>
-    <row r="79" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:20">
       <c r="A79" s="7">
         <v>44643</v>
       </c>
@@ -6843,31 +6952,31 @@
         <v>121</v>
       </c>
       <c r="F79" s="4">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G79" s="4" t="s">
         <v>69</v>
       </c>
       <c r="H79" s="4">
-        <v>38.411259999999999</v>
+        <v>38.457050000000002</v>
       </c>
       <c r="I79" s="4">
-        <v>-121.61166</v>
+        <v>-121.59178</v>
       </c>
       <c r="J79" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K79" s="4" t="s">
         <v>214</v>
       </c>
       <c r="L79" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M79" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N79" s="4" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="O79" s="4" t="s">
         <v>77</v>
@@ -6886,7 +6995,7 @@
       </c>
       <c r="T79" s="16"/>
     </row>
-    <row r="80" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:20">
       <c r="A80" s="7">
         <v>44643</v>
       </c>
@@ -6897,7 +7006,7 @@
         <v>65</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>121</v>
@@ -6915,16 +7024,16 @@
         <v>-121.6114</v>
       </c>
       <c r="J80" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K80" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L80" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M80" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N80" s="4" t="s">
         <v>73</v>
@@ -6946,7 +7055,7 @@
       </c>
       <c r="T80" s="16"/>
     </row>
-    <row r="81" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:20">
       <c r="A81" s="7">
         <v>44643</v>
       </c>
@@ -6957,10 +7066,10 @@
         <v>65</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="F81" s="4">
         <v>69</v>
@@ -6969,22 +7078,22 @@
         <v>69</v>
       </c>
       <c r="H81" s="4">
-        <v>38.494169999999997</v>
+        <v>38.412860000000002</v>
       </c>
       <c r="I81" s="4">
-        <v>-121.58394</v>
+        <v>-121.6114</v>
       </c>
       <c r="J81" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K81" s="4" t="s">
         <v>217</v>
       </c>
       <c r="L81" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M81" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N81" s="4" t="s">
         <v>73</v>
@@ -7006,7 +7115,7 @@
       </c>
       <c r="T81" s="16"/>
     </row>
-    <row r="82" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:20">
       <c r="A82" s="7">
         <v>44643</v>
       </c>
@@ -7017,13 +7126,13 @@
         <v>65</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>121</v>
       </c>
       <c r="F82" s="4">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G82" s="4" t="s">
         <v>69</v>
@@ -7035,16 +7144,16 @@
         <v>-121.6114</v>
       </c>
       <c r="J82" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K82" s="4" t="s">
         <v>218</v>
       </c>
       <c r="L82" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M82" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N82" s="4" t="s">
         <v>73</v>
@@ -7066,7 +7175,7 @@
       </c>
       <c r="T82" s="16"/>
     </row>
-    <row r="83" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:20">
       <c r="A83" s="7">
         <v>44643</v>
       </c>
@@ -7077,37 +7186,37 @@
         <v>65</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>121</v>
       </c>
       <c r="F83" s="4">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="G83" s="4" t="s">
         <v>69</v>
       </c>
       <c r="H83" s="4">
-        <v>38.412860000000002</v>
+        <v>38.411259999999999</v>
       </c>
       <c r="I83" s="4">
-        <v>-121.6114</v>
+        <v>-121.61166</v>
       </c>
       <c r="J83" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K83" s="4" t="s">
         <v>219</v>
       </c>
       <c r="L83" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M83" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N83" s="4" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="O83" s="4" t="s">
         <v>77</v>
@@ -7126,15 +7235,15 @@
       </c>
       <c r="T83" s="16"/>
     </row>
-    <row r="84" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:20">
       <c r="A84" s="5">
         <v>44643</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D84" s="1">
         <v>711</v>
@@ -7186,15 +7295,15 @@
       </c>
       <c r="T84" s="16"/>
     </row>
-    <row r="85" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:20">
       <c r="A85" s="5">
         <v>44643</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D85" s="1">
         <v>711</v>
@@ -7246,7 +7355,7 @@
       </c>
       <c r="T85" s="16"/>
     </row>
-    <row r="86" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:20">
       <c r="A86" s="7">
         <v>44649</v>
       </c>
@@ -7275,16 +7384,16 @@
         <v>-121.98090999999999</v>
       </c>
       <c r="J86" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K86" s="4" t="s">
         <v>221</v>
       </c>
       <c r="L86" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M86" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N86" s="4" t="s">
         <v>73</v>
@@ -7306,7 +7415,7 @@
       </c>
       <c r="T86" s="16"/>
     </row>
-    <row r="87" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:20">
       <c r="A87" s="7">
         <v>44651</v>
       </c>
@@ -7335,16 +7444,16 @@
         <v>-121.60133</v>
       </c>
       <c r="J87" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K87" s="4" t="s">
         <v>223</v>
       </c>
       <c r="L87" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M87" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N87" s="4" t="s">
         <v>73</v>
@@ -7366,7 +7475,7 @@
       </c>
       <c r="T87" s="16"/>
     </row>
-    <row r="88" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:20">
       <c r="A88" s="7">
         <v>44656</v>
       </c>
@@ -7374,7 +7483,7 @@
         <v>64</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>224</v>
@@ -7395,7 +7504,7 @@
         <v>-121.85598</v>
       </c>
       <c r="J88" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K88" s="4">
         <v>1176</v>
@@ -7404,7 +7513,7 @@
         <v>225</v>
       </c>
       <c r="M88" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N88" s="4" t="s">
         <v>71</v>
@@ -7426,7 +7535,7 @@
       </c>
       <c r="T88" s="16"/>
     </row>
-    <row r="89" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:20">
       <c r="A89" s="7">
         <v>44656</v>
       </c>
@@ -7434,7 +7543,7 @@
         <v>64</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D89" s="4" t="s">
         <v>224</v>
@@ -7455,7 +7564,7 @@
         <v>-121.85605</v>
       </c>
       <c r="J89" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K89" s="4">
         <v>797</v>
@@ -7464,7 +7573,7 @@
         <v>225</v>
       </c>
       <c r="M89" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N89" s="4" t="s">
         <v>71</v>
@@ -7486,7 +7595,7 @@
       </c>
       <c r="T89" s="16"/>
     </row>
-    <row r="90" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:20">
       <c r="A90" s="7">
         <v>44656</v>
       </c>
@@ -7494,7 +7603,7 @@
         <v>64</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D90" s="4" t="s">
         <v>226</v>
@@ -7515,7 +7624,7 @@
         <v>-121.89558</v>
       </c>
       <c r="J90" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K90" s="4">
         <v>525</v>
@@ -7524,7 +7633,7 @@
         <v>225</v>
       </c>
       <c r="M90" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N90" s="4" t="s">
         <v>71</v>
@@ -7546,15 +7655,15 @@
       </c>
       <c r="T90" s="16"/>
     </row>
-    <row r="91" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:20">
       <c r="A91" s="5">
         <v>44656</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D91" s="1">
         <v>902</v>
@@ -7606,15 +7715,15 @@
       </c>
       <c r="T91" s="16"/>
     </row>
-    <row r="92" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:20">
       <c r="A92" s="5">
         <v>44658</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D92" s="1">
         <v>726</v>
@@ -7666,7 +7775,7 @@
       </c>
       <c r="T92" s="16"/>
     </row>
-    <row r="93" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:20">
       <c r="A93" s="5">
         <v>44664</v>
       </c>
@@ -7695,16 +7804,16 @@
         <v>-121.64700000000001</v>
       </c>
       <c r="J93" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K93" s="8" t="s">
         <v>229</v>
       </c>
       <c r="L93" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M93" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N93" s="1" t="s">
         <v>71</v>
@@ -7726,7 +7835,7 @@
       </c>
       <c r="T93" s="16"/>
     </row>
-    <row r="94" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:20">
       <c r="A94" s="5">
         <v>44665</v>
       </c>
@@ -7755,16 +7864,16 @@
         <v>-122.02963889999999</v>
       </c>
       <c r="J94" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K94" s="8" t="s">
         <v>230</v>
       </c>
       <c r="L94" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M94" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N94" s="1" t="s">
         <v>71</v>
@@ -7786,7 +7895,7 @@
       </c>
       <c r="T94" s="16"/>
     </row>
-    <row r="95" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:20">
       <c r="A95" s="7">
         <v>44669</v>
       </c>
@@ -7794,37 +7903,37 @@
         <v>64</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D95" s="4" t="s">
         <v>231</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="F95" s="4">
-        <v>11.3</v>
+        <v>28</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>204</v>
+        <v>232</v>
       </c>
       <c r="H95" s="4">
-        <v>38.444749999999999</v>
+        <v>38.502650000000003</v>
       </c>
       <c r="I95" s="4">
-        <v>-121.59613</v>
+        <v>-121.58374000000001</v>
       </c>
       <c r="J95" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K95" s="4">
-        <v>1173</v>
+        <v>710</v>
       </c>
       <c r="L95" s="1" t="s">
         <v>225</v>
       </c>
       <c r="M95" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N95" s="4" t="s">
         <v>71</v>
@@ -7846,7 +7955,7 @@
       </c>
       <c r="T95" s="16"/>
     </row>
-    <row r="96" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:20">
       <c r="A96" s="7">
         <v>44669</v>
       </c>
@@ -7854,16 +7963,16 @@
         <v>64</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>121</v>
       </c>
       <c r="F96" s="4">
-        <v>12.5</v>
+        <v>11.3</v>
       </c>
       <c r="G96" s="4" t="s">
         <v>204</v>
@@ -7875,16 +7984,16 @@
         <v>-121.59613</v>
       </c>
       <c r="J96" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K96" s="4">
-        <v>1512</v>
+        <v>1173</v>
       </c>
       <c r="L96" s="1" t="s">
         <v>225</v>
       </c>
       <c r="M96" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N96" s="4" t="s">
         <v>71</v>
@@ -7906,7 +8015,7 @@
       </c>
       <c r="T96" s="16"/>
     </row>
-    <row r="97" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:20">
       <c r="A97" s="7">
         <v>44669</v>
       </c>
@@ -7914,16 +8023,16 @@
         <v>64</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>121</v>
       </c>
       <c r="F97" s="4">
-        <v>12.8</v>
+        <v>12.5</v>
       </c>
       <c r="G97" s="4" t="s">
         <v>204</v>
@@ -7935,16 +8044,16 @@
         <v>-121.59613</v>
       </c>
       <c r="J97" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K97" s="4">
-        <v>1180</v>
+        <v>1512</v>
       </c>
       <c r="L97" s="1" t="s">
         <v>225</v>
       </c>
       <c r="M97" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N97" s="4" t="s">
         <v>71</v>
@@ -7966,7 +8075,7 @@
       </c>
       <c r="T97" s="16"/>
     </row>
-    <row r="98" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:20">
       <c r="A98" s="7">
         <v>44669</v>
       </c>
@@ -7974,37 +8083,37 @@
         <v>64</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="F98" s="4">
-        <v>28</v>
+        <v>12.8</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>233</v>
+        <v>204</v>
       </c>
       <c r="H98" s="4">
-        <v>38.502650000000003</v>
+        <v>38.444749999999999</v>
       </c>
       <c r="I98" s="4">
-        <v>-121.58374000000001</v>
+        <v>-121.59613</v>
       </c>
       <c r="J98" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K98" s="4">
-        <v>710</v>
+        <v>1180</v>
       </c>
       <c r="L98" s="1" t="s">
         <v>225</v>
       </c>
       <c r="M98" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N98" s="4" t="s">
         <v>71</v>
@@ -8026,7 +8135,7 @@
       </c>
       <c r="T98" s="16"/>
     </row>
-    <row r="99" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:20">
       <c r="A99" s="7">
         <v>44673</v>
       </c>
@@ -8034,7 +8143,7 @@
         <v>64</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>234</v>
@@ -8046,7 +8155,7 @@
         <v>25.5</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H99" s="4">
         <v>38.402250000000002</v>
@@ -8055,7 +8164,7 @@
         <v>-121.61624999999999</v>
       </c>
       <c r="J99" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K99" s="4">
         <v>1034</v>
@@ -8064,7 +8173,7 @@
         <v>225</v>
       </c>
       <c r="M99" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N99" s="4" t="s">
         <v>71</v>
@@ -8086,7 +8195,7 @@
       </c>
       <c r="T99" s="16"/>
     </row>
-    <row r="100" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:20">
       <c r="A100" s="7">
         <v>44684</v>
       </c>
@@ -8094,7 +8203,7 @@
         <v>64</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D100" s="4" t="s">
         <v>235</v>
@@ -8106,7 +8215,7 @@
         <v>23.7</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H100" s="4">
         <v>38.413510000000002</v>
@@ -8115,7 +8224,7 @@
         <v>-121.61081</v>
       </c>
       <c r="J100" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K100" s="4">
         <v>419</v>
@@ -8124,7 +8233,7 @@
         <v>225</v>
       </c>
       <c r="M100" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N100" s="4" t="s">
         <v>71</v>
@@ -8146,7 +8255,7 @@
       </c>
       <c r="T100" s="16"/>
     </row>
-    <row r="101" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:20">
       <c r="A101" s="7">
         <v>44684</v>
       </c>
@@ -8154,7 +8263,7 @@
         <v>64</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D101" s="4" t="s">
         <v>235</v>
@@ -8166,7 +8275,7 @@
         <v>25.4</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H101" s="4">
         <v>38.413510000000002</v>
@@ -8175,7 +8284,7 @@
         <v>-121.61081</v>
       </c>
       <c r="J101" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K101" s="4">
         <v>909</v>
@@ -8184,7 +8293,7 @@
         <v>225</v>
       </c>
       <c r="M101" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N101" s="4" t="s">
         <v>71</v>
@@ -8206,7 +8315,7 @@
       </c>
       <c r="T101" s="16"/>
     </row>
-    <row r="102" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:20">
       <c r="A102" s="7">
         <v>44684</v>
       </c>
@@ -8214,7 +8323,7 @@
         <v>64</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D102" s="4" t="s">
         <v>235</v>
@@ -8226,7 +8335,7 @@
         <v>29.1</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H102" s="4">
         <v>38.413510000000002</v>
@@ -8235,7 +8344,7 @@
         <v>-121.61081</v>
       </c>
       <c r="J102" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K102" s="4">
         <v>434</v>
@@ -8244,7 +8353,7 @@
         <v>225</v>
       </c>
       <c r="M102" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N102" s="4" t="s">
         <v>71</v>
@@ -8266,7 +8375,7 @@
       </c>
       <c r="T102" s="16"/>
     </row>
-    <row r="103" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:20">
       <c r="A103" s="7">
         <v>44690</v>
       </c>
@@ -8274,37 +8383,37 @@
         <v>64</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D103" s="4" t="s">
         <v>236</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="F103" s="4">
-        <v>27.5</v>
+        <v>29</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H103" s="4">
-        <v>38.382800000000003</v>
+        <v>38.505699999999997</v>
       </c>
       <c r="I103" s="4">
-        <v>-121.62488999999999</v>
+        <v>-121.58363</v>
       </c>
       <c r="J103" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K103" s="4">
-        <v>741</v>
+        <v>667</v>
       </c>
       <c r="L103" s="1" t="s">
         <v>225</v>
       </c>
       <c r="M103" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N103" s="4" t="s">
         <v>71</v>
@@ -8326,7 +8435,7 @@
       </c>
       <c r="T103" s="16"/>
     </row>
-    <row r="104" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:20">
       <c r="A104" s="7">
         <v>44690</v>
       </c>
@@ -8334,37 +8443,37 @@
         <v>64</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D104" s="4" t="s">
         <v>237</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="F104" s="4">
-        <v>29</v>
+        <v>27.5</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H104" s="4">
-        <v>38.505699999999997</v>
+        <v>38.382800000000003</v>
       </c>
       <c r="I104" s="4">
-        <v>-121.58363</v>
+        <v>-121.62488999999999</v>
       </c>
       <c r="J104" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K104" s="4">
-        <v>667</v>
+        <v>741</v>
       </c>
       <c r="L104" s="1" t="s">
         <v>225</v>
       </c>
       <c r="M104" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N104" s="4" t="s">
         <v>71</v>
@@ -8386,7 +8495,7 @@
       </c>
       <c r="T104" s="16"/>
     </row>
-    <row r="105" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:20">
       <c r="A105" s="7">
         <v>44691</v>
       </c>
@@ -8394,7 +8503,7 @@
         <v>64</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D105" s="4" t="s">
         <v>238</v>
@@ -8406,7 +8515,7 @@
         <v>28.2</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H105" s="4">
         <v>38.398800000000001</v>
@@ -8415,7 +8524,7 @@
         <v>-121.61744</v>
       </c>
       <c r="J105" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K105" s="4">
         <v>1626</v>
@@ -8424,7 +8533,7 @@
         <v>225</v>
       </c>
       <c r="M105" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N105" s="4" t="s">
         <v>71</v>
@@ -8446,7 +8555,7 @@
       </c>
       <c r="T105" s="16"/>
     </row>
-    <row r="106" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:20">
       <c r="A106" s="7">
         <v>44691</v>
       </c>
@@ -8454,7 +8563,7 @@
         <v>64</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D106" s="4" t="s">
         <v>238</v>
@@ -8466,7 +8575,7 @@
         <v>29</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H106" s="4">
         <v>38.398800000000001</v>
@@ -8475,7 +8584,7 @@
         <v>-121.61744</v>
       </c>
       <c r="J106" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K106" s="4">
         <v>1704</v>
@@ -8484,7 +8593,7 @@
         <v>225</v>
       </c>
       <c r="M106" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N106" s="4" t="s">
         <v>71</v>
@@ -8506,7 +8615,7 @@
       </c>
       <c r="T106" s="16"/>
     </row>
-    <row r="107" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:20">
       <c r="A107" s="7">
         <v>44691</v>
       </c>
@@ -8514,7 +8623,7 @@
         <v>64</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D107" s="4" t="s">
         <v>238</v>
@@ -8526,7 +8635,7 @@
         <v>30.1</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H107" s="4">
         <v>38.398800000000001</v>
@@ -8535,7 +8644,7 @@
         <v>-121.61744</v>
       </c>
       <c r="J107" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K107" s="4">
         <v>1719</v>
@@ -8544,7 +8653,7 @@
         <v>225</v>
       </c>
       <c r="M107" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N107" s="4" t="s">
         <v>71</v>
@@ -8566,7 +8675,7 @@
       </c>
       <c r="T107" s="16"/>
     </row>
-    <row r="108" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:20">
       <c r="A108" s="7">
         <v>44691</v>
       </c>
@@ -8574,7 +8683,7 @@
         <v>64</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D108" s="4" t="s">
         <v>238</v>
@@ -8586,7 +8695,7 @@
         <v>31</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H108" s="4">
         <v>38.398800000000001</v>
@@ -8595,7 +8704,7 @@
         <v>-121.61744</v>
       </c>
       <c r="J108" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K108" s="4">
         <v>1713</v>
@@ -8604,7 +8713,7 @@
         <v>225</v>
       </c>
       <c r="M108" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N108" s="4" t="s">
         <v>71</v>
@@ -8626,7 +8735,7 @@
       </c>
       <c r="T108" s="16"/>
     </row>
-    <row r="109" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:20">
       <c r="A109" s="7">
         <v>44713</v>
       </c>
@@ -8634,7 +8743,7 @@
         <v>64</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D109" s="4" t="s">
         <v>239</v>
@@ -8646,7 +8755,7 @@
         <v>25.5</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H109" s="4">
         <v>38.408560000000001</v>
@@ -8655,7 +8764,7 @@
         <v>-121.61266999999999</v>
       </c>
       <c r="J109" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K109" s="4">
         <v>1015</v>
@@ -8664,7 +8773,7 @@
         <v>225</v>
       </c>
       <c r="M109" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N109" s="4" t="s">
         <v>71</v>
@@ -8686,7 +8795,7 @@
       </c>
       <c r="T109" s="16"/>
     </row>
-    <row r="110" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:20">
       <c r="A110" s="7">
         <v>44718</v>
       </c>
@@ -8694,7 +8803,7 @@
         <v>64</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D110" s="4" t="s">
         <v>240</v>
@@ -8706,7 +8815,7 @@
         <v>22.5</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H110" s="4">
         <v>38.391910000000003</v>
@@ -8715,7 +8824,7 @@
         <v>-121.62018999999999</v>
       </c>
       <c r="J110" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K110" s="4">
         <v>1810</v>
@@ -8724,7 +8833,7 @@
         <v>225</v>
       </c>
       <c r="M110" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N110" s="4" t="s">
         <v>71</v>
@@ -8746,7 +8855,7 @@
       </c>
       <c r="T110" s="16"/>
     </row>
-    <row r="111" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:20">
       <c r="A111" s="7">
         <v>44775</v>
       </c>
@@ -8760,31 +8869,31 @@
         <v>241</v>
       </c>
       <c r="E111" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F111" s="4">
+        <v>57</v>
+      </c>
+      <c r="G111" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="H111" s="4">
+        <v>38.082419999999999</v>
+      </c>
+      <c r="I111" s="4">
+        <v>-121.75621</v>
+      </c>
+      <c r="J111" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="F111" s="4">
-        <v>55</v>
-      </c>
-      <c r="G111" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="H111" s="4">
-        <v>38.076659999999997</v>
-      </c>
-      <c r="I111" s="4">
-        <v>-121.76902</v>
-      </c>
-      <c r="J111" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="K111" s="4" t="s">
         <v>242</v>
       </c>
       <c r="L111" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M111" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N111" s="4" t="s">
         <v>71</v>
@@ -8806,7 +8915,7 @@
       </c>
       <c r="T111" s="16"/>
     </row>
-    <row r="112" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:20">
       <c r="A112" s="7">
         <v>44775</v>
       </c>
@@ -8820,31 +8929,31 @@
         <v>243</v>
       </c>
       <c r="E112" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F112" s="4">
+        <v>55</v>
+      </c>
+      <c r="G112" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="H112" s="4">
+        <v>38.076659999999997</v>
+      </c>
+      <c r="I112" s="4">
+        <v>-121.76902</v>
+      </c>
+      <c r="J112" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="F112" s="4">
-        <v>57</v>
-      </c>
-      <c r="G112" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="H112" s="4">
-        <v>38.082419999999999</v>
-      </c>
-      <c r="I112" s="4">
-        <v>-121.75621</v>
-      </c>
-      <c r="J112" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="K112" s="4" t="s">
         <v>244</v>
       </c>
       <c r="L112" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M112" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N112" s="4" t="s">
         <v>71</v>
@@ -8866,7 +8975,7 @@
       </c>
       <c r="T112" s="16"/>
     </row>
-    <row r="113" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:20">
       <c r="A113" s="7">
         <v>44783</v>
       </c>
@@ -8880,13 +8989,13 @@
         <v>245</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F113" s="4">
         <v>47</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H113" s="4">
         <v>38.064950000000003</v>
@@ -8895,16 +9004,16 @@
         <v>-121.81399999999999</v>
       </c>
       <c r="J113" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K113" s="4" t="s">
         <v>246</v>
       </c>
       <c r="L113" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M113" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N113" s="4" t="s">
         <v>71</v>
@@ -8926,7 +9035,7 @@
       </c>
       <c r="T113" s="16"/>
     </row>
-    <row r="114" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:20">
       <c r="A114" s="7">
         <v>44788</v>
       </c>
@@ -8946,7 +9055,7 @@
         <v>52</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H114" s="4">
         <v>38.417830000000002</v>
@@ -8955,16 +9064,16 @@
         <v>-121.6097</v>
       </c>
       <c r="J114" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K114" s="4" t="s">
         <v>248</v>
       </c>
       <c r="L114" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M114" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N114" s="4" t="s">
         <v>71</v>
@@ -8986,7 +9095,7 @@
       </c>
       <c r="T114" s="16"/>
     </row>
-    <row r="115" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:20">
       <c r="A115" s="7">
         <v>44789</v>
       </c>
@@ -9015,16 +9124,16 @@
         <v>-121.61551</v>
       </c>
       <c r="J115" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K115" s="4" t="s">
         <v>250</v>
       </c>
       <c r="L115" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M115" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N115" s="4" t="s">
         <v>71</v>
@@ -9046,7 +9155,7 @@
       </c>
       <c r="T115" s="16"/>
     </row>
-    <row r="116" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:20">
       <c r="A116" s="7">
         <v>44825</v>
       </c>
@@ -9075,16 +9184,16 @@
         <v>-122.05676</v>
       </c>
       <c r="J116" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K116" s="4" t="s">
         <v>253</v>
       </c>
       <c r="L116" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M116" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N116" s="4" t="s">
         <v>71</v>
@@ -9106,7 +9215,7 @@
       </c>
       <c r="T116" s="16"/>
     </row>
-    <row r="117" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:20">
       <c r="A117" s="7">
         <v>44868</v>
       </c>
@@ -9120,13 +9229,13 @@
         <v>254</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F117" s="4">
         <v>55</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H117" s="4">
         <v>38.075189999999999</v>
@@ -9144,7 +9253,7 @@
         <v>257</v>
       </c>
       <c r="M117" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N117" s="4" t="s">
         <v>71</v>
@@ -9168,7 +9277,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="118" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:20">
       <c r="A118" s="7">
         <v>44872</v>
       </c>
@@ -9182,7 +9291,7 @@
         <v>259</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F118" s="4">
         <v>62</v>
@@ -9206,7 +9315,7 @@
         <v>257</v>
       </c>
       <c r="M118" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N118" s="4" t="s">
         <v>71</v>
@@ -9230,7 +9339,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="119" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:20">
       <c r="A119" s="5">
         <v>44909</v>
       </c>
@@ -9292,7 +9401,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="120" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:20">
       <c r="A120" s="5">
         <v>44909</v>
       </c>
@@ -9354,7 +9463,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="121" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:20">
       <c r="A121" s="5">
         <v>44933</v>
       </c>
@@ -9383,7 +9492,7 @@
         <v>-121.558995</v>
       </c>
       <c r="J121" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K121" s="1" t="s">
         <v>268</v>
@@ -9392,7 +9501,7 @@
         <v>114</v>
       </c>
       <c r="M121" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N121" s="1" t="s">
         <v>264</v>
@@ -9414,7 +9523,7 @@
       </c>
       <c r="T121" s="16"/>
     </row>
-    <row r="122" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:20">
       <c r="A122" s="7">
         <v>44943</v>
       </c>
@@ -9474,7 +9583,7 @@
       </c>
       <c r="T122" s="16"/>
     </row>
-    <row r="123" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:20">
       <c r="A123" s="7">
         <v>44945</v>
       </c>
@@ -9503,16 +9612,16 @@
         <v>-121.90991699999999</v>
       </c>
       <c r="J123" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K123" s="8" t="s">
         <v>271</v>
       </c>
       <c r="L123" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M123" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N123" s="4" t="s">
         <v>272</v>
@@ -9534,7 +9643,7 @@
       </c>
       <c r="T123" s="16"/>
     </row>
-    <row r="124" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:20">
       <c r="A124" s="7">
         <v>44950</v>
       </c>
@@ -9596,7 +9705,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="125" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:20">
       <c r="A125" s="7">
         <v>44952</v>
       </c>
@@ -9625,16 +9734,16 @@
         <v>-121.68525</v>
       </c>
       <c r="J125" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K125" s="4" t="s">
         <v>281</v>
       </c>
       <c r="L125" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M125" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N125" s="4" t="s">
         <v>282</v>
@@ -9656,7 +9765,7 @@
       </c>
       <c r="T125" s="16"/>
     </row>
-    <row r="126" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:20">
       <c r="A126" s="7">
         <v>44953</v>
       </c>
@@ -9685,16 +9794,16 @@
         <v>-121.69784</v>
       </c>
       <c r="J126" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K126" s="4" t="s">
         <v>286</v>
       </c>
       <c r="L126" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M126" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N126" s="4" t="s">
         <v>272</v>
@@ -9716,7 +9825,7 @@
       </c>
       <c r="T126" s="16"/>
     </row>
-    <row r="127" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:20">
       <c r="A127" s="7">
         <v>44956</v>
       </c>
@@ -9745,16 +9854,16 @@
         <v>-122.05208</v>
       </c>
       <c r="J127" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K127" s="4" t="s">
         <v>288</v>
       </c>
       <c r="L127" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M127" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N127" s="4" t="s">
         <v>264</v>
@@ -9776,7 +9885,7 @@
       </c>
       <c r="T127" s="16"/>
     </row>
-    <row r="128" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:20">
       <c r="A128" s="7">
         <v>44956</v>
       </c>
@@ -9790,7 +9899,7 @@
         <v>289</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F128" s="4">
         <v>75</v>
@@ -9805,16 +9914,16 @@
         <v>-121.75566000000001</v>
       </c>
       <c r="J128" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K128" s="4" t="s">
         <v>290</v>
       </c>
       <c r="L128" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M128" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N128" s="4" t="s">
         <v>291</v>
@@ -9836,7 +9945,7 @@
       </c>
       <c r="T128" s="16"/>
     </row>
-    <row r="129" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:20">
       <c r="A129" s="7">
         <v>44956</v>
       </c>
@@ -9865,16 +9974,16 @@
         <v>-122.07847</v>
       </c>
       <c r="J129" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K129" s="4" t="s">
         <v>296</v>
       </c>
       <c r="L129" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M129" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N129" s="4" t="s">
         <v>272</v>
@@ -9896,7 +10005,7 @@
       </c>
       <c r="T129" s="16"/>
     </row>
-    <row r="130" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:20">
       <c r="A130" s="7">
         <v>44957</v>
       </c>
@@ -9910,53 +10019,53 @@
         <v>297</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>137</v>
+        <v>67</v>
       </c>
       <c r="F130" s="4">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G130" s="4" t="s">
         <v>69</v>
       </c>
       <c r="H130" s="4">
-        <v>38.019739999999999</v>
+        <v>38.102209999999999</v>
       </c>
       <c r="I130" s="4">
-        <v>-121.80606</v>
+        <v>-121.71818</v>
       </c>
       <c r="J130" s="4" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="K130" s="4" t="s">
-        <v>68</v>
+        <v>298</v>
       </c>
       <c r="L130" s="4" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="M130" s="4" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="N130" s="4" t="s">
-        <v>71</v>
+        <v>291</v>
       </c>
       <c r="O130" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="P130" s="4" t="s">
-        <v>68</v>
+        <v>292</v>
+      </c>
+      <c r="P130" s="7">
+        <v>44952</v>
       </c>
       <c r="Q130" s="4" t="s">
-        <v>68</v>
+        <v>284</v>
       </c>
       <c r="R130" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="S130" s="4" t="s">
-        <v>68</v>
+        <v>293</v>
+      </c>
+      <c r="S130" s="4">
+        <v>11.7</v>
       </c>
       <c r="T130" s="16"/>
     </row>
-    <row r="131" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:20">
       <c r="A131" s="7">
         <v>44957</v>
       </c>
@@ -9967,56 +10076,56 @@
         <v>65</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>67</v>
+        <v>137</v>
       </c>
       <c r="F131" s="4">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G131" s="4" t="s">
         <v>69</v>
       </c>
       <c r="H131" s="4">
-        <v>38.102209999999999</v>
+        <v>38.019739999999999</v>
       </c>
       <c r="I131" s="4">
-        <v>-121.71818</v>
+        <v>-121.80606</v>
       </c>
       <c r="J131" s="4" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="K131" s="4" t="s">
-        <v>299</v>
+        <v>68</v>
       </c>
       <c r="L131" s="4" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="M131" s="4" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="N131" s="4" t="s">
-        <v>291</v>
+        <v>71</v>
       </c>
       <c r="O131" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="P131" s="7">
-        <v>44952</v>
+        <v>68</v>
+      </c>
+      <c r="P131" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="Q131" s="4" t="s">
-        <v>284</v>
+        <v>68</v>
       </c>
       <c r="R131" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="S131" s="4">
-        <v>11.7</v>
+        <v>68</v>
+      </c>
+      <c r="S131" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="T131" s="16"/>
     </row>
-    <row r="132" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:20">
       <c r="A132" s="7">
         <v>44958</v>
       </c>
@@ -10033,28 +10142,28 @@
         <v>121</v>
       </c>
       <c r="F132" s="4">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G132" s="4" t="s">
         <v>69</v>
       </c>
       <c r="H132" s="4">
-        <v>38.31241</v>
+        <v>38.383200000000002</v>
       </c>
       <c r="I132" s="4">
-        <v>-121.65271</v>
+        <v>-121.62520000000001</v>
       </c>
       <c r="J132" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K132" s="4" t="s">
         <v>301</v>
       </c>
       <c r="L132" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M132" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N132" s="4" t="s">
         <v>282</v>
@@ -10072,11 +10181,11 @@
         <v>266</v>
       </c>
       <c r="S132" s="4">
-        <v>4.0999999999999996</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="T132" s="16"/>
     </row>
-    <row r="133" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:20">
       <c r="A133" s="7">
         <v>44958</v>
       </c>
@@ -10087,7 +10196,7 @@
         <v>65</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>121</v>
@@ -10105,16 +10214,16 @@
         <v>-121.65271</v>
       </c>
       <c r="J133" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K133" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L133" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M133" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N133" s="4" t="s">
         <v>282</v>
@@ -10136,7 +10245,7 @@
       </c>
       <c r="T133" s="16"/>
     </row>
-    <row r="134" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:20">
       <c r="A134" s="7">
         <v>44958</v>
       </c>
@@ -10147,34 +10256,34 @@
         <v>65</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>121</v>
       </c>
       <c r="F134" s="4">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G134" s="4" t="s">
         <v>69</v>
       </c>
       <c r="H134" s="4">
-        <v>38.311360000000001</v>
+        <v>38.31241</v>
       </c>
       <c r="I134" s="4">
-        <v>-121.65266</v>
+        <v>-121.65271</v>
       </c>
       <c r="J134" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K134" s="4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L134" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M134" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N134" s="4" t="s">
         <v>282</v>
@@ -10192,11 +10301,11 @@
         <v>266</v>
       </c>
       <c r="S134" s="4">
-        <v>3.96</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="T134" s="16"/>
     </row>
-    <row r="135" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:20">
       <c r="A135" s="7">
         <v>44958</v>
       </c>
@@ -10207,34 +10316,34 @@
         <v>65</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>121</v>
       </c>
       <c r="F135" s="4">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G135" s="4" t="s">
         <v>69</v>
       </c>
       <c r="H135" s="4">
-        <v>38.383200000000002</v>
+        <v>38.311360000000001</v>
       </c>
       <c r="I135" s="4">
-        <v>-121.62520000000001</v>
+        <v>-121.65266</v>
       </c>
       <c r="J135" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K135" s="4" t="s">
         <v>305</v>
       </c>
       <c r="L135" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M135" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N135" s="4" t="s">
         <v>282</v>
@@ -10252,11 +10361,11 @@
         <v>266</v>
       </c>
       <c r="S135" s="4">
-        <v>9.1999999999999993</v>
+        <v>3.96</v>
       </c>
       <c r="T135" s="16"/>
     </row>
-    <row r="136" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:20">
       <c r="A136" s="7">
         <v>44959</v>
       </c>
@@ -10285,16 +10394,16 @@
         <v>-121.68774000000001</v>
       </c>
       <c r="J136" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K136" s="4" t="s">
         <v>307</v>
       </c>
       <c r="L136" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M136" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N136" s="4" t="s">
         <v>282</v>
@@ -10316,7 +10425,7 @@
       </c>
       <c r="T136" s="16"/>
     </row>
-    <row r="137" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:20">
       <c r="A137" s="7">
         <v>44960</v>
       </c>
@@ -10330,31 +10439,31 @@
         <v>308</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="F137" s="4">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G137" s="4" t="s">
         <v>69</v>
       </c>
       <c r="H137" s="4">
-        <v>38.089880000000001</v>
+        <v>38.091889999999999</v>
       </c>
       <c r="I137" s="4">
-        <v>-121.74388</v>
+        <v>-121.74071000000001</v>
       </c>
       <c r="J137" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K137" s="4" t="s">
         <v>309</v>
       </c>
       <c r="L137" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M137" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N137" s="4" t="s">
         <v>291</v>
@@ -10372,11 +10481,11 @@
         <v>293</v>
       </c>
       <c r="S137" s="4">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="T137" s="16"/>
     </row>
-    <row r="138" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:20">
       <c r="A138" s="7">
         <v>44960</v>
       </c>
@@ -10393,7 +10502,7 @@
         <v>67</v>
       </c>
       <c r="F138" s="4">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="G138" s="4" t="s">
         <v>69</v>
@@ -10405,16 +10514,16 @@
         <v>-121.74071000000001</v>
       </c>
       <c r="J138" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K138" s="4" t="s">
         <v>310</v>
       </c>
       <c r="L138" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M138" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N138" s="4" t="s">
         <v>291</v>
@@ -10436,7 +10545,7 @@
       </c>
       <c r="T138" s="16"/>
     </row>
-    <row r="139" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:20">
       <c r="A139" s="7">
         <v>44960</v>
       </c>
@@ -10450,31 +10559,31 @@
         <v>308</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="F139" s="4">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G139" s="4" t="s">
         <v>69</v>
       </c>
       <c r="H139" s="4">
-        <v>38.091889999999999</v>
+        <v>38.089880000000001</v>
       </c>
       <c r="I139" s="4">
-        <v>-121.74071000000001</v>
+        <v>-121.74388</v>
       </c>
       <c r="J139" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K139" s="4" t="s">
         <v>311</v>
       </c>
       <c r="L139" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M139" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N139" s="4" t="s">
         <v>291</v>
@@ -10492,11 +10601,11 @@
         <v>293</v>
       </c>
       <c r="S139" s="4">
-        <v>13.1</v>
+        <v>13.3</v>
       </c>
       <c r="T139" s="16"/>
     </row>
-    <row r="140" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:20">
       <c r="A140" s="7">
         <v>44964</v>
       </c>
@@ -10525,16 +10634,16 @@
         <v>-121.69277</v>
       </c>
       <c r="J140" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K140" s="4" t="s">
         <v>313</v>
       </c>
       <c r="L140" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M140" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N140" s="4" t="s">
         <v>282</v>
@@ -10556,7 +10665,7 @@
       </c>
       <c r="T140" s="16"/>
     </row>
-    <row r="141" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:20">
       <c r="A141" s="5">
         <v>44965</v>
       </c>
@@ -10585,16 +10694,16 @@
         <v>-121.64700000000001</v>
       </c>
       <c r="J141" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K141" s="8" t="s">
         <v>314</v>
       </c>
       <c r="L141" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M141" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N141" s="1" t="s">
         <v>282</v>
@@ -10616,45 +10725,45 @@
       </c>
       <c r="T141" s="16"/>
     </row>
-    <row r="142" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:20">
       <c r="A142" s="5">
         <v>44965</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>315</v>
+        <v>150</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
+      </c>
+      <c r="D142" s="1">
+        <v>704</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="F142" s="1">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="G142" s="4" t="s">
         <v>69</v>
       </c>
       <c r="H142" s="1">
-        <v>37.825671</v>
+        <v>38.065777779999998</v>
       </c>
       <c r="I142" s="1">
-        <v>-121.596789</v>
+        <v>-121.7885278</v>
       </c>
       <c r="J142" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="K142" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="L142" s="25" t="s">
-        <v>114</v>
+        <v>80</v>
+      </c>
+      <c r="K142" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="L142" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="M142" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N142" s="1" t="s">
         <v>272</v>
@@ -10672,49 +10781,49 @@
         <v>266</v>
       </c>
       <c r="S142" s="4">
-        <v>43.2</v>
+        <v>6.8</v>
       </c>
       <c r="T142" s="16"/>
     </row>
-    <row r="143" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:20">
       <c r="A143" s="5">
         <v>44965</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>150</v>
+        <v>316</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D143" s="1">
-        <v>704</v>
+        <v>125</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="F143" s="1">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="G143" s="4" t="s">
         <v>69</v>
       </c>
       <c r="H143" s="1">
-        <v>38.065777779999998</v>
+        <v>37.825671</v>
       </c>
       <c r="I143" s="1">
-        <v>-121.7885278</v>
+        <v>-121.596789</v>
       </c>
       <c r="J143" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="K143" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K143" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="L143" s="4" t="s">
-        <v>83</v>
+      <c r="L143" s="25" t="s">
+        <v>114</v>
       </c>
       <c r="M143" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N143" s="1" t="s">
         <v>272</v>
@@ -10732,11 +10841,11 @@
         <v>266</v>
       </c>
       <c r="S143" s="4">
-        <v>6.8</v>
+        <v>43.2</v>
       </c>
       <c r="T143" s="16"/>
     </row>
-    <row r="144" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:20">
       <c r="A144" s="7">
         <v>44966</v>
       </c>
@@ -10798,7 +10907,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="145" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:20">
       <c r="A145" s="5">
         <v>44969</v>
       </c>
@@ -10827,7 +10936,7 @@
         <v>-121.558995</v>
       </c>
       <c r="J145" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K145" s="1" t="s">
         <v>320</v>
@@ -10836,7 +10945,7 @@
         <v>114</v>
       </c>
       <c r="M145" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N145" s="1" t="s">
         <v>272</v>
@@ -10858,7 +10967,7 @@
       </c>
       <c r="T145" s="16"/>
     </row>
-    <row r="146" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:20">
       <c r="A146" s="5">
         <v>44970</v>
       </c>
@@ -10887,7 +10996,7 @@
         <v>-121.558995</v>
       </c>
       <c r="J146" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K146" s="1" t="s">
         <v>321</v>
@@ -10896,7 +11005,7 @@
         <v>114</v>
       </c>
       <c r="M146" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N146" s="1" t="s">
         <v>272</v>
@@ -10918,7 +11027,7 @@
       </c>
       <c r="T146" s="16"/>
     </row>
-    <row r="147" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:20">
       <c r="A147" s="5">
         <v>44970</v>
       </c>
@@ -10947,7 +11056,7 @@
         <v>-121.558995</v>
       </c>
       <c r="J147" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K147" s="1" t="s">
         <v>322</v>
@@ -10956,7 +11065,7 @@
         <v>114</v>
       </c>
       <c r="M147" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N147" s="1" t="s">
         <v>272</v>
@@ -10978,7 +11087,7 @@
       </c>
       <c r="T147" s="16"/>
     </row>
-    <row r="148" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:20">
       <c r="A148" s="7">
         <v>44971</v>
       </c>
@@ -11007,16 +11116,16 @@
         <v>-121.83237</v>
       </c>
       <c r="J148" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K148" s="4" t="s">
         <v>324</v>
       </c>
       <c r="L148" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M148" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N148" s="4" t="s">
         <v>291</v>
@@ -11038,7 +11147,7 @@
       </c>
       <c r="T148" s="16"/>
     </row>
-    <row r="149" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:20">
       <c r="A149" s="5">
         <v>44971</v>
       </c>
@@ -11067,7 +11176,7 @@
         <v>-121.558995</v>
       </c>
       <c r="J149" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K149" s="1" t="s">
         <v>325</v>
@@ -11076,7 +11185,7 @@
         <v>114</v>
       </c>
       <c r="M149" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N149" s="1" t="s">
         <v>272</v>
@@ -11098,7 +11207,7 @@
       </c>
       <c r="T149" s="16"/>
     </row>
-    <row r="150" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:20">
       <c r="A150" s="7">
         <v>44972</v>
       </c>
@@ -11127,16 +11236,16 @@
         <v>-121.70269999999999</v>
       </c>
       <c r="J150" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K150" s="4" t="s">
         <v>327</v>
       </c>
       <c r="L150" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M150" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N150" s="4" t="s">
         <v>291</v>
@@ -11158,7 +11267,7 @@
       </c>
       <c r="T150" s="16"/>
     </row>
-    <row r="151" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:20">
       <c r="A151" s="7">
         <v>44974</v>
       </c>
@@ -11187,16 +11296,16 @@
         <v>-121.64829</v>
       </c>
       <c r="J151" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K151" s="4" t="s">
         <v>329</v>
       </c>
       <c r="L151" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M151" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N151" s="4" t="s">
         <v>291</v>
@@ -11218,7 +11327,7 @@
       </c>
       <c r="T151" s="16"/>
     </row>
-    <row r="152" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:20">
       <c r="A152" s="5">
         <v>44974</v>
       </c>
@@ -11247,7 +11356,7 @@
         <v>-121.558995</v>
       </c>
       <c r="J152" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K152" s="1" t="s">
         <v>330</v>
@@ -11256,7 +11365,7 @@
         <v>114</v>
       </c>
       <c r="M152" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N152" s="1" t="s">
         <v>272</v>
@@ -11278,7 +11387,7 @@
       </c>
       <c r="T152" s="16"/>
     </row>
-    <row r="153" spans="1:20" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:20" s="18" customFormat="1">
       <c r="A153" s="28">
         <v>44975</v>
       </c>
@@ -11340,7 +11449,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="154" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:20">
       <c r="A154" s="7">
         <v>44976</v>
       </c>
@@ -11369,16 +11478,16 @@
         <v>-121.90991699999999</v>
       </c>
       <c r="J154" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K154" s="8" t="s">
         <v>334</v>
       </c>
       <c r="L154" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M154" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N154" s="4" t="s">
         <v>291</v>
@@ -11400,12 +11509,12 @@
       </c>
       <c r="T154" s="16"/>
     </row>
-    <row r="155" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:20">
       <c r="A155" s="5">
         <v>44979</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>125</v>
@@ -11429,7 +11538,7 @@
         <v>-121.596789</v>
       </c>
       <c r="J155" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K155" s="1" t="s">
         <v>335</v>
@@ -11438,7 +11547,7 @@
         <v>114</v>
       </c>
       <c r="M155" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N155" s="1" t="s">
         <v>116</v>
@@ -11462,12 +11571,12 @@
         <v>279</v>
       </c>
     </row>
-    <row r="156" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:20">
       <c r="A156" s="5">
         <v>44979</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>125</v>
@@ -11491,7 +11600,7 @@
         <v>-121.596789</v>
       </c>
       <c r="J156" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K156" s="1" t="s">
         <v>336</v>
@@ -11500,7 +11609,7 @@
         <v>114</v>
       </c>
       <c r="M156" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N156" s="1" t="s">
         <v>282</v>
@@ -11522,7 +11631,7 @@
       </c>
       <c r="T156" s="16"/>
     </row>
-    <row r="157" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:20">
       <c r="A157" s="5">
         <v>44979</v>
       </c>
@@ -11551,7 +11660,7 @@
         <v>-121.558995</v>
       </c>
       <c r="J157" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K157" s="1" t="s">
         <v>337</v>
@@ -11560,7 +11669,7 @@
         <v>114</v>
       </c>
       <c r="M157" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N157" s="1" t="s">
         <v>272</v>
@@ -11582,7 +11691,7 @@
       </c>
       <c r="T157" s="16"/>
     </row>
-    <row r="158" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:20">
       <c r="A158" s="7">
         <v>44981</v>
       </c>
@@ -11611,16 +11720,16 @@
         <v>-121.69698</v>
       </c>
       <c r="J158" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K158" s="4" t="s">
         <v>339</v>
       </c>
       <c r="L158" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M158" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N158" s="4" t="s">
         <v>291</v>
@@ -11642,12 +11751,12 @@
       </c>
       <c r="T158" s="16"/>
     </row>
-    <row r="159" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:20">
       <c r="A159" s="5">
         <v>44987</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>124</v>
+        <v>316</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>125</v>
@@ -11659,19 +11768,19 @@
         <v>125</v>
       </c>
       <c r="F159" s="1">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G159" s="4" t="s">
         <v>69</v>
       </c>
       <c r="H159" s="1">
-        <v>37.815818999999998</v>
+        <v>37.825671</v>
       </c>
       <c r="I159" s="1">
-        <v>-121.558995</v>
+        <v>-121.596789</v>
       </c>
       <c r="J159" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K159" s="1" t="s">
         <v>340</v>
@@ -11680,34 +11789,34 @@
         <v>114</v>
       </c>
       <c r="M159" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N159" s="1" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="O159" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="P159" s="7">
-        <v>44951</v>
+        <v>273</v>
+      </c>
+      <c r="P159" s="4" t="s">
+        <v>274</v>
       </c>
       <c r="Q159" s="4" t="s">
-        <v>284</v>
+        <v>76</v>
       </c>
       <c r="R159" s="4" t="s">
         <v>266</v>
       </c>
       <c r="S159" s="4">
-        <v>42.8</v>
+        <v>43.2</v>
       </c>
       <c r="T159" s="16"/>
     </row>
-    <row r="160" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:20">
       <c r="A160" s="5">
         <v>44987</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>315</v>
+        <v>124</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>125</v>
@@ -11719,19 +11828,19 @@
         <v>125</v>
       </c>
       <c r="F160" s="1">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G160" s="4" t="s">
         <v>69</v>
       </c>
       <c r="H160" s="1">
-        <v>37.825671</v>
+        <v>37.815818999999998</v>
       </c>
       <c r="I160" s="1">
-        <v>-121.596789</v>
+        <v>-121.558995</v>
       </c>
       <c r="J160" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K160" s="1" t="s">
         <v>341</v>
@@ -11740,29 +11849,29 @@
         <v>114</v>
       </c>
       <c r="M160" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N160" s="1" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="O160" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="P160" s="4" t="s">
-        <v>274</v>
+        <v>283</v>
+      </c>
+      <c r="P160" s="7">
+        <v>44951</v>
       </c>
       <c r="Q160" s="4" t="s">
-        <v>76</v>
+        <v>284</v>
       </c>
       <c r="R160" s="4" t="s">
         <v>266</v>
       </c>
       <c r="S160" s="4">
-        <v>43.2</v>
+        <v>42.8</v>
       </c>
       <c r="T160" s="16"/>
     </row>
-    <row r="161" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:20">
       <c r="A161" s="7">
         <v>44991</v>
       </c>
@@ -11791,16 +11900,16 @@
         <v>-121.9157</v>
       </c>
       <c r="J161" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K161" s="4" t="s">
         <v>343</v>
       </c>
       <c r="L161" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M161" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N161" s="4" t="s">
         <v>73</v>
@@ -11824,7 +11933,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="162" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:20">
       <c r="A162" s="7">
         <v>44992</v>
       </c>
@@ -11853,16 +11962,16 @@
         <v>-121.66903000000001</v>
       </c>
       <c r="J162" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K162" s="4" t="s">
         <v>345</v>
       </c>
       <c r="L162" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M162" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N162" s="4" t="s">
         <v>282</v>
@@ -11884,7 +11993,7 @@
       </c>
       <c r="T162" s="16"/>
     </row>
-    <row r="163" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:20">
       <c r="A163" s="5">
         <v>44993</v>
       </c>
@@ -11913,16 +12022,16 @@
         <v>-121.64700000000001</v>
       </c>
       <c r="J163" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K163" s="8" t="s">
         <v>346</v>
       </c>
       <c r="L163" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M163" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N163" s="1" t="s">
         <v>282</v>
@@ -11944,7 +12053,7 @@
       </c>
       <c r="T163" s="16"/>
     </row>
-    <row r="164" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:20">
       <c r="A164" s="5">
         <v>44993</v>
       </c>
@@ -11973,16 +12082,16 @@
         <v>-121.64700000000001</v>
       </c>
       <c r="J164" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K164" s="8" t="s">
         <v>347</v>
       </c>
       <c r="L164" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M164" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N164" s="1" t="s">
         <v>282</v>
@@ -12004,33 +12113,33 @@
       </c>
       <c r="T164" s="16"/>
     </row>
-    <row r="165" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:20">
       <c r="A165" s="5">
         <v>44998</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="D165" s="1">
-        <v>508</v>
+        <v>706</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="F165" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G165" s="4" t="s">
         <v>204</v>
       </c>
       <c r="H165" s="1">
-        <v>38.044194439999998</v>
+        <v>38.086638890000003</v>
       </c>
       <c r="I165" s="1">
-        <v>-121.92152780000001</v>
+        <v>-121.7475</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>68</v>
@@ -12064,33 +12173,33 @@
       </c>
       <c r="T165" s="16"/>
     </row>
-    <row r="166" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:20">
       <c r="A166" s="5">
         <v>44998</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="D166" s="1">
-        <v>706</v>
+        <v>508</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="F166" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G166" s="4" t="s">
         <v>204</v>
       </c>
       <c r="H166" s="1">
-        <v>38.086638890000003</v>
+        <v>38.044194439999998</v>
       </c>
       <c r="I166" s="1">
-        <v>-121.7475</v>
+        <v>-121.92152780000001</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>68</v>
@@ -12124,33 +12233,33 @@
       </c>
       <c r="T166" s="16"/>
     </row>
-    <row r="167" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:20">
       <c r="A167" s="5">
         <v>45000</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="D167" s="1">
-        <v>519</v>
+        <v>610</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>348</v>
+        <v>129</v>
       </c>
       <c r="F167" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G167" s="4" t="s">
         <v>204</v>
       </c>
       <c r="H167" s="1">
-        <v>38.071460000000002</v>
+        <v>38.118929999999999</v>
       </c>
       <c r="I167" s="1">
-        <v>-121.95927</v>
+        <v>-121.88912999999999</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>68</v>
@@ -12184,33 +12293,33 @@
       </c>
       <c r="T167" s="16"/>
     </row>
-    <row r="168" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:20">
       <c r="A168" s="5">
         <v>45000</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="D168" s="1">
-        <v>610</v>
+        <v>519</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>129</v>
+        <v>348</v>
       </c>
       <c r="F168" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G168" s="4" t="s">
         <v>204</v>
       </c>
       <c r="H168" s="1">
-        <v>38.118929999999999</v>
+        <v>38.071460000000002</v>
       </c>
       <c r="I168" s="1">
-        <v>-121.88912999999999</v>
+        <v>-121.95927</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>68</v>
@@ -12244,15 +12353,15 @@
       </c>
       <c r="T168" s="16"/>
     </row>
-    <row r="169" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:20">
       <c r="A169" s="5">
         <v>45000</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D169" s="1">
         <v>405</v>
@@ -12304,15 +12413,15 @@
       </c>
       <c r="T169" s="16"/>
     </row>
-    <row r="170" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:20">
       <c r="A170" s="5">
         <v>45000</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D170" s="1">
         <v>405</v>
@@ -12364,15 +12473,15 @@
       </c>
       <c r="T170" s="16"/>
     </row>
-    <row r="171" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:20">
       <c r="A171" s="5">
         <v>45000</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D171" s="1">
         <v>804</v>
@@ -12424,15 +12533,15 @@
       </c>
       <c r="T171" s="16"/>
     </row>
-    <row r="172" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:20">
       <c r="A172" s="5">
         <v>45000</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D172" s="1">
         <v>804</v>
@@ -12484,15 +12593,15 @@
       </c>
       <c r="T172" s="16"/>
     </row>
-    <row r="173" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:20">
       <c r="A173" s="5">
         <v>45002</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D173" s="1">
         <v>411</v>
@@ -12544,15 +12653,15 @@
       </c>
       <c r="T173" s="16"/>
     </row>
-    <row r="174" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:20">
       <c r="A174" s="5">
         <v>45002</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D174" s="1">
         <v>411</v>
@@ -12604,7 +12713,7 @@
       </c>
       <c r="T174" s="16"/>
     </row>
-    <row r="175" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:20">
       <c r="A175" s="7">
         <v>45006</v>
       </c>
@@ -12633,16 +12742,16 @@
         <v>-121.64637999999999</v>
       </c>
       <c r="J175" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K175" s="4" t="s">
         <v>351</v>
       </c>
       <c r="L175" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M175" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N175" s="4" t="s">
         <v>291</v>
@@ -12664,7 +12773,7 @@
       </c>
       <c r="T175" s="16"/>
     </row>
-    <row r="176" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:20">
       <c r="A176" s="7">
         <v>45021</v>
       </c>
@@ -12672,7 +12781,7 @@
         <v>64</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D176" s="4" t="s">
         <v>352</v>
@@ -12724,7 +12833,7 @@
       </c>
       <c r="T176" s="16"/>
     </row>
-    <row r="177" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:20">
       <c r="A177" s="7">
         <v>45026</v>
       </c>
@@ -12732,7 +12841,7 @@
         <v>64</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D177" s="4" t="s">
         <v>355</v>
@@ -12784,21 +12893,21 @@
       </c>
       <c r="T177" s="16"/>
     </row>
-    <row r="178" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:20">
       <c r="A178" s="5">
         <v>45026</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D178" s="1">
         <v>704</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F178" s="1">
         <v>7</v>
@@ -12844,33 +12953,33 @@
       </c>
       <c r="T178" s="16"/>
     </row>
-    <row r="179" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:20">
       <c r="A179" s="5">
         <v>45027</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D179" s="1">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>200</v>
+        <v>121</v>
       </c>
       <c r="F179" s="1">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="G179" s="4" t="s">
         <v>204</v>
       </c>
       <c r="H179" s="1">
-        <v>38.238916670000002</v>
+        <v>38.333222220000003</v>
       </c>
       <c r="I179" s="1">
-        <v>-121.6851111</v>
+        <v>-121.6476389</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>68</v>
@@ -12904,15 +13013,15 @@
       </c>
       <c r="T179" s="16"/>
     </row>
-    <row r="180" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:20">
       <c r="A180" s="5">
         <v>45027</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D180" s="1">
         <v>726</v>
@@ -12964,33 +13073,33 @@
       </c>
       <c r="T180" s="16"/>
     </row>
-    <row r="181" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:20">
       <c r="A181" s="5">
         <v>45027</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D181" s="1">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>121</v>
+        <v>200</v>
       </c>
       <c r="F181" s="1">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="G181" s="4" t="s">
         <v>204</v>
       </c>
       <c r="H181" s="1">
-        <v>38.333222220000003</v>
+        <v>38.238916670000002</v>
       </c>
       <c r="I181" s="1">
-        <v>-121.6476389</v>
+        <v>-121.6851111</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>68</v>
@@ -13024,47 +13133,47 @@
       </c>
       <c r="T181" s="16"/>
     </row>
-    <row r="182" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A182" s="7">
+    <row r="182" spans="1:20">
+      <c r="A182" s="5">
         <v>45028</v>
       </c>
-      <c r="B182" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C182" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="D182" s="4" t="s">
-        <v>356</v>
+      <c r="B182" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D182" s="1">
+        <v>501</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="F182" s="4">
-        <v>5.7</v>
+        <v>276</v>
+      </c>
+      <c r="F182" s="1">
+        <v>7</v>
       </c>
       <c r="G182" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="H182" s="4">
-        <v>38.058390000000003</v>
-      </c>
-      <c r="I182" s="4">
-        <v>-122.07983</v>
+      <c r="H182" s="1">
+        <v>38.076083330000003</v>
+      </c>
+      <c r="I182" s="1">
+        <v>-122.03149999999999</v>
       </c>
       <c r="J182" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="K182" s="1">
-        <v>306</v>
+        <v>68</v>
+      </c>
+      <c r="K182" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="L182" s="1" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="M182" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="N182" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="N182" s="1" t="s">
         <v>71</v>
       </c>
       <c r="O182" s="4" t="s">
@@ -13084,7 +13193,7 @@
       </c>
       <c r="T182" s="16"/>
     </row>
-    <row r="183" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:20">
       <c r="A183" s="7">
         <v>45028</v>
       </c>
@@ -13092,31 +13201,31 @@
         <v>64</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="F183" s="4">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="G183" s="4" t="s">
         <v>204</v>
       </c>
       <c r="H183" s="4">
-        <v>38.052329999999998</v>
+        <v>38.058390000000003</v>
       </c>
       <c r="I183" s="4">
-        <v>-121.9812</v>
+        <v>-122.07983</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="K183" s="27">
-        <v>202</v>
+      <c r="K183" s="1">
+        <v>306</v>
       </c>
       <c r="L183" s="1" t="s">
         <v>225</v>
@@ -13144,47 +13253,47 @@
       </c>
       <c r="T183" s="16"/>
     </row>
-    <row r="184" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A184" s="5">
+    <row r="184" spans="1:20">
+      <c r="A184" s="7">
         <v>45028</v>
       </c>
-      <c r="B184" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C184" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D184" s="1">
-        <v>501</v>
+      <c r="B184" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D184" s="4" t="s">
+        <v>357</v>
       </c>
       <c r="E184" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="F184" s="1">
-        <v>7</v>
+      <c r="F184" s="4">
+        <v>6</v>
       </c>
       <c r="G184" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="H184" s="1">
-        <v>38.076083330000003</v>
-      </c>
-      <c r="I184" s="1">
-        <v>-122.03149999999999</v>
+      <c r="H184" s="4">
+        <v>38.052329999999998</v>
+      </c>
+      <c r="I184" s="4">
+        <v>-121.9812</v>
       </c>
       <c r="J184" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K184" s="1" t="s">
-        <v>68</v>
+        <v>353</v>
+      </c>
+      <c r="K184" s="27">
+        <v>202</v>
       </c>
       <c r="L184" s="1" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="M184" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="N184" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="N184" s="4" t="s">
         <v>71</v>
       </c>
       <c r="O184" s="4" t="s">
@@ -13204,15 +13313,15 @@
       </c>
       <c r="T184" s="16"/>
     </row>
-    <row r="185" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:20">
       <c r="A185" s="5">
         <v>45028</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D185" s="1">
         <v>411</v>
@@ -13264,15 +13373,15 @@
       </c>
       <c r="T185" s="16"/>
     </row>
-    <row r="186" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:20">
       <c r="A186" s="5">
         <v>45028</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D186" s="1">
         <v>411</v>
@@ -13324,15 +13433,15 @@
       </c>
       <c r="T186" s="16"/>
     </row>
-    <row r="187" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:20">
       <c r="A187" s="5">
         <v>45028</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D187" s="1">
         <v>411</v>
@@ -13384,15 +13493,15 @@
       </c>
       <c r="T187" s="16"/>
     </row>
-    <row r="188" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:20">
       <c r="A188" s="5">
         <v>45028</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D188" s="1">
         <v>411</v>
@@ -13444,15 +13553,15 @@
       </c>
       <c r="T188" s="16"/>
     </row>
-    <row r="189" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:20">
       <c r="A189" s="5">
         <v>45028</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D189" s="1">
         <v>411</v>
@@ -13504,7 +13613,7 @@
       </c>
       <c r="T189" s="16"/>
     </row>
-    <row r="190" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:20">
       <c r="A190" s="7">
         <v>45035</v>
       </c>
@@ -13512,7 +13621,7 @@
         <v>64</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D190" s="4" t="s">
         <v>358</v>
@@ -13564,7 +13673,7 @@
       </c>
       <c r="T190" s="16"/>
     </row>
-    <row r="191" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:20">
       <c r="A191" s="7">
         <v>45036</v>
       </c>
@@ -13572,7 +13681,7 @@
         <v>64</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D191" s="4" t="s">
         <v>359</v>
@@ -13624,33 +13733,33 @@
       </c>
       <c r="T191" s="16"/>
     </row>
-    <row r="192" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:20">
       <c r="A192" s="5">
         <v>45040</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D192" s="1">
-        <v>804</v>
+        <v>706</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>137</v>
+        <v>90</v>
       </c>
       <c r="F192" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G192" s="4" t="s">
         <v>204</v>
       </c>
       <c r="H192" s="1">
-        <v>38.017055560000003</v>
+        <v>38.08588889</v>
       </c>
       <c r="I192" s="1">
-        <v>-121.79525</v>
+        <v>-121.75130559999999</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>68</v>
@@ -13684,33 +13793,33 @@
       </c>
       <c r="T192" s="16"/>
     </row>
-    <row r="193" spans="1:27" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:27">
       <c r="A193" s="5">
         <v>45040</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D193" s="1">
-        <v>706</v>
+        <v>804</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="F193" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G193" s="4" t="s">
         <v>204</v>
       </c>
       <c r="H193" s="1">
-        <v>38.08588889</v>
+        <v>38.017055560000003</v>
       </c>
       <c r="I193" s="1">
-        <v>-121.75130559999999</v>
+        <v>-121.79525</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>68</v>
@@ -13744,7 +13853,7 @@
       </c>
       <c r="T193" s="16"/>
     </row>
-    <row r="194" spans="1:27" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:27">
       <c r="A194" s="7">
         <v>45043</v>
       </c>
@@ -13752,7 +13861,7 @@
         <v>64</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D194" s="4" t="s">
         <v>360</v>
@@ -13804,7 +13913,7 @@
       </c>
       <c r="T194" s="16"/>
     </row>
-    <row r="195" spans="1:27" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:27">
       <c r="A195" s="7">
         <v>45048</v>
       </c>
@@ -13812,7 +13921,7 @@
         <v>64</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D195" s="4" t="s">
         <v>361</v>
@@ -13864,7 +13973,7 @@
       </c>
       <c r="T195" s="16"/>
     </row>
-    <row r="196" spans="1:27" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:27">
       <c r="A196" s="7">
         <v>45050</v>
       </c>
@@ -13872,7 +13981,7 @@
         <v>64</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D196" s="4" t="s">
         <v>362</v>
@@ -13924,7 +14033,7 @@
       </c>
       <c r="T196" s="16"/>
     </row>
-    <row r="197" spans="1:27" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:27">
       <c r="A197" s="7">
         <v>45054</v>
       </c>
@@ -13932,7 +14041,7 @@
         <v>64</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D197" s="4" t="s">
         <v>363</v>
@@ -13984,7 +14093,7 @@
       </c>
       <c r="T197" s="16"/>
     </row>
-    <row r="198" spans="1:27" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:27">
       <c r="A198" s="7">
         <v>45054</v>
       </c>
@@ -13992,7 +14101,7 @@
         <v>64</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D198" s="4" t="s">
         <v>363</v>
@@ -14044,7 +14153,7 @@
       </c>
       <c r="T198" s="16"/>
     </row>
-    <row r="199" spans="1:27" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:27">
       <c r="A199" s="7">
         <v>45054</v>
       </c>
@@ -14052,7 +14161,7 @@
         <v>64</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D199" s="4" t="s">
         <v>363</v>
@@ -14104,7 +14213,7 @@
       </c>
       <c r="T199" s="16"/>
     </row>
-    <row r="200" spans="1:27" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:27">
       <c r="A200" s="7">
         <v>45070</v>
       </c>
@@ -14112,7 +14221,7 @@
         <v>64</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D200" s="4" t="s">
         <v>364</v>
@@ -14164,7 +14273,7 @@
       </c>
       <c r="T200" s="16"/>
     </row>
-    <row r="201" spans="1:27" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:27">
       <c r="A201" s="7">
         <v>45076</v>
       </c>
@@ -14172,7 +14281,7 @@
         <v>64</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D201" s="4" t="s">
         <v>365</v>
@@ -14184,7 +14293,7 @@
         <v>25.2</v>
       </c>
       <c r="G201" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H201" s="4">
         <v>38.178579999999997</v>
@@ -14224,7 +14333,7 @@
       </c>
       <c r="T201" s="16"/>
     </row>
-    <row r="202" spans="1:27" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:27">
       <c r="A202" s="7">
         <v>45084</v>
       </c>
@@ -14232,7 +14341,7 @@
         <v>64</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D202" s="4" t="s">
         <v>366</v>
@@ -14284,7 +14393,7 @@
       </c>
       <c r="T202" s="16"/>
     </row>
-    <row r="203" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A203" s="5">
         <v>45105</v>
       </c>
@@ -14295,7 +14404,7 @@
         <v>109</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E203" s="1" t="s">
         <v>111</v>
@@ -14313,16 +14422,16 @@
         <v>-121.90991699999999</v>
       </c>
       <c r="J203" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K203" s="8" t="s">
         <v>367</v>
       </c>
       <c r="L203" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M203" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N203" s="1" t="s">
         <v>272</v>
@@ -14343,7 +14452,7 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="204" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:27" ht="15" customHeight="1">
       <c r="A204" s="5">
         <v>45114</v>
       </c>
@@ -14363,7 +14472,7 @@
         <v>41</v>
       </c>
       <c r="G204" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H204" s="21">
         <v>38.044020000000003</v>
@@ -14372,16 +14481,16 @@
         <v>-121.84144999999999</v>
       </c>
       <c r="J204" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K204" s="1" t="s">
         <v>369</v>
       </c>
       <c r="L204" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M204" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N204" s="1" t="s">
         <v>71</v>
@@ -14403,7 +14512,7 @@
       </c>
       <c r="T204"/>
     </row>
-    <row r="205" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:27" ht="15" customHeight="1">
       <c r="A205" s="22">
         <v>45118</v>
       </c>
@@ -14423,7 +14532,7 @@
         <v>37</v>
       </c>
       <c r="G205" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H205" s="14">
         <v>38.07244</v>
@@ -14432,16 +14541,16 @@
         <v>-121.84237</v>
       </c>
       <c r="J205" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K205" s="14" t="s">
         <v>371</v>
       </c>
       <c r="L205" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M205" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N205" s="1" t="s">
         <v>71</v>
@@ -14463,7 +14572,7 @@
       </c>
       <c r="AA205" s="24"/>
     </row>
-    <row r="206" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:27" ht="15" customHeight="1">
       <c r="A206" s="5">
         <v>45159</v>
       </c>
@@ -14483,7 +14592,7 @@
         <v>50</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H206" s="1">
         <v>38.167194440000003</v>
@@ -14492,16 +14601,16 @@
         <v>-121.9388611</v>
       </c>
       <c r="J206" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K206" s="1" t="s">
         <v>374</v>
       </c>
       <c r="L206" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M206" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N206" s="1" t="s">
         <v>71</v>
@@ -14523,7 +14632,7 @@
       </c>
       <c r="T206" s="16"/>
     </row>
-    <row r="207" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A207" s="7">
         <v>45190</v>
       </c>
@@ -14543,7 +14652,7 @@
         <v>54</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H207" s="4">
         <v>38.10651</v>
@@ -14558,10 +14667,10 @@
         <v>377</v>
       </c>
       <c r="L207" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M207" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N207" s="1" t="s">
         <v>71</v>
@@ -14582,7 +14691,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="208" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:27" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A208" s="7">
         <v>45194</v>
       </c>
@@ -14602,7 +14711,7 @@
         <v>48</v>
       </c>
       <c r="G208" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H208" s="4">
         <v>38.124220000000001</v>
@@ -14617,10 +14726,10 @@
         <v>379</v>
       </c>
       <c r="L208" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M208" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N208" s="1" t="s">
         <v>71</v>
@@ -14641,69 +14750,69 @@
         <v>68</v>
       </c>
     </row>
-    <row r="209" spans="1:20" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A209" s="7">
+    <row r="209" spans="1:20" s="39" customFormat="1" ht="15" customHeight="1">
+      <c r="A209" s="34">
         <v>45197</v>
       </c>
-      <c r="B209" s="4" t="s">
+      <c r="B209" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="C209" s="1" t="s">
+      <c r="C209" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="D209" s="4" t="s">
+      <c r="D209" s="35" t="s">
         <v>380</v>
       </c>
-      <c r="E209" s="4" t="s">
+      <c r="E209" s="35" t="s">
         <v>295</v>
       </c>
-      <c r="F209" s="4">
+      <c r="F209" s="35">
         <v>70</v>
       </c>
-      <c r="G209" s="4" t="s">
+      <c r="G209" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="H209" s="35">
+        <v>38.083379999999998</v>
+      </c>
+      <c r="I209" s="35">
+        <v>-122.05802</v>
+      </c>
+      <c r="J209" s="37" t="s">
+        <v>376</v>
+      </c>
+      <c r="K209" s="35" t="s">
         <v>381</v>
       </c>
-      <c r="H209" s="4">
-        <v>38.083379999999998</v>
-      </c>
-      <c r="I209" s="4">
-        <v>-122.05802</v>
-      </c>
-      <c r="J209" s="8" t="s">
-        <v>376</v>
-      </c>
-      <c r="K209" s="4" t="s">
+      <c r="L209" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="M209" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="N209" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="O209" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="P209" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q209" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="R209" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="S209" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="T209" s="38" t="s">
         <v>382</v>
       </c>
-      <c r="L209" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="M209" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="N209" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="O209" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="P209" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q209" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="R209" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="S209" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="T209" s="23" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="210" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="210" spans="1:20" ht="15" customHeight="1">
       <c r="A210" s="22">
         <v>45204</v>
       </c>
@@ -14714,7 +14823,7 @@
         <v>65</v>
       </c>
       <c r="D210" s="14" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E210" s="14" t="s">
         <v>67</v>
@@ -14735,13 +14844,13 @@
         <v>376</v>
       </c>
       <c r="K210" s="14" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="L210" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M210" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N210" s="4" t="s">
         <v>71</v>
@@ -14762,7 +14871,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="211" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:20" ht="15" customHeight="1">
       <c r="A211" s="22">
         <v>45223</v>
       </c>
@@ -14773,16 +14882,16 @@
         <v>65</v>
       </c>
       <c r="D211" s="14" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E211" s="14" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F211" s="14">
         <v>53</v>
       </c>
       <c r="G211" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H211" s="14">
         <v>38.069940000000003</v>
@@ -14791,16 +14900,16 @@
         <v>-121.78178</v>
       </c>
       <c r="J211" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K211" s="14" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="L211" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M211" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N211" s="4" t="s">
         <v>71</v>
@@ -14821,7 +14930,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="212" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:20" ht="15" customHeight="1">
       <c r="A212" s="22">
         <v>45245</v>
       </c>
@@ -14832,16 +14941,16 @@
         <v>65</v>
       </c>
       <c r="D212" s="14" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E212" s="14" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F212" s="14">
         <v>57</v>
       </c>
       <c r="G212" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H212" s="14">
         <v>38.071129999999997</v>
@@ -14853,13 +14962,13 @@
         <v>376</v>
       </c>
       <c r="K212" s="14" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="L212" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M212" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N212" s="4" t="s">
         <v>71</v>
@@ -14880,7 +14989,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="213" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:20" ht="15" customHeight="1">
       <c r="A213" s="22">
         <v>45267</v>
       </c>
@@ -14891,10 +15000,10 @@
         <v>65</v>
       </c>
       <c r="D213" s="14" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E213" s="14" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F213" s="14">
         <v>63</v>
@@ -14909,22 +15018,22 @@
         <v>-121.75851</v>
       </c>
       <c r="J213" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K213" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="L213" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="M213" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="N213" s="14" t="s">
         <v>391</v>
       </c>
-      <c r="L213" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="M213" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="N213" s="14" t="s">
+      <c r="O213" s="14" t="s">
         <v>392</v>
-      </c>
-      <c r="O213" s="14" t="s">
-        <v>393</v>
       </c>
       <c r="P213" s="22">
         <v>45245</v>
@@ -14933,11 +15042,11 @@
         <v>76</v>
       </c>
       <c r="R213" s="14" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="S213" s="32"/>
     </row>
-    <row r="214" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:20" ht="15" customHeight="1">
       <c r="A214" s="22">
         <v>45307</v>
       </c>
@@ -14948,10 +15057,10 @@
         <v>65</v>
       </c>
       <c r="D214" s="14" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E214" s="14" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F214" s="14">
         <v>63</v>
@@ -14969,19 +15078,19 @@
         <v>376</v>
       </c>
       <c r="K214" s="14" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="L214" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M214" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N214" s="14" t="s">
         <v>116</v>
       </c>
       <c r="O214" s="14" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="P214" s="22">
         <v>45301</v>
@@ -14990,16 +15099,16 @@
         <v>76</v>
       </c>
       <c r="R214" s="14" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="S214" s="32"/>
     </row>
-    <row r="215" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:20" ht="15" customHeight="1">
       <c r="A215" s="22">
         <v>45313</v>
       </c>
       <c r="B215" s="14" t="s">
-        <v>64</v>
+        <v>397</v>
       </c>
       <c r="C215" s="14" t="s">
         <v>65</v>
@@ -15023,49 +15132,49 @@
         <v>-121.89997</v>
       </c>
       <c r="J215" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="K215" s="19"/>
+        <v>255</v>
+      </c>
+      <c r="K215" s="40" t="s">
+        <v>400</v>
+      </c>
       <c r="L215" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="M215" s="4" t="s">
-        <v>72</v>
+        <v>401</v>
+      </c>
+      <c r="M215" s="14" t="s">
+        <v>83</v>
       </c>
       <c r="N215" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="O215" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="P215" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q215" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="R215" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="S215" s="4" t="s">
-        <v>68</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="O215" s="14" t="s">
+        <v>396</v>
+      </c>
+      <c r="P215" s="22">
+        <v>45301</v>
+      </c>
+      <c r="Q215" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="R215" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="S215" s="32"/>
       <c r="T215" s="16" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="216" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="216" spans="1:20" ht="15" customHeight="1">
       <c r="A216" s="22">
         <v>45313</v>
       </c>
       <c r="B216" s="14" t="s">
-        <v>64</v>
+        <v>397</v>
       </c>
       <c r="C216" s="14" t="s">
         <v>65</v>
       </c>
       <c r="D216" s="14" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="E216" s="14" t="s">
         <v>129</v>
@@ -15085,14 +15194,16 @@
       <c r="J216" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="K216" s="19"/>
+      <c r="K216" s="41" t="s">
+        <v>404</v>
+      </c>
       <c r="L216" s="4" t="s">
         <v>71</v>
       </c>
       <c r="M216" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="N216" s="4" t="s">
+      <c r="N216" s="19" t="s">
         <v>71</v>
       </c>
       <c r="O216" s="4" t="s">
@@ -15111,11 +15222,357 @@
         <v>68</v>
       </c>
       <c r="T216" s="16" t="s">
-        <v>400</v>
-      </c>
+        <v>405</v>
+      </c>
+    </row>
+    <row r="217" spans="1:20" ht="15" customHeight="1">
+      <c r="A217" s="22">
+        <v>45315</v>
+      </c>
+      <c r="B217" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="C217" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D217" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="E217" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="F217" s="14">
+        <v>77</v>
+      </c>
+      <c r="G217" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="H217" s="14">
+        <v>38.171799999999998</v>
+      </c>
+      <c r="I217" s="14">
+        <v>-122.06549</v>
+      </c>
+      <c r="J217" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K217" s="41" t="s">
+        <v>407</v>
+      </c>
+      <c r="L217" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="M217" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="N217" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="O217" s="14" t="s">
+        <v>396</v>
+      </c>
+      <c r="P217" s="22">
+        <v>45301</v>
+      </c>
+      <c r="Q217" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="R217" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="S217" s="32"/>
+    </row>
+    <row r="218" spans="1:20" ht="15" customHeight="1">
+      <c r="A218" s="22">
+        <v>45315</v>
+      </c>
+      <c r="B218" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="C218" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D218" s="14" t="s">
+        <v>408</v>
+      </c>
+      <c r="E218" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="F218" s="14">
+        <v>68</v>
+      </c>
+      <c r="G218" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="H218" s="14">
+        <v>38.311860000000003</v>
+      </c>
+      <c r="I218" s="14">
+        <v>-121.65279</v>
+      </c>
+      <c r="J218" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K218" s="41" t="s">
+        <v>410</v>
+      </c>
+      <c r="L218" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="M218" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="N218" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="O218" s="14" t="s">
+        <v>396</v>
+      </c>
+      <c r="P218" s="22">
+        <v>45301</v>
+      </c>
+      <c r="Q218" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="R218" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="S218" s="32"/>
+    </row>
+    <row r="219" spans="1:20" ht="15" customHeight="1">
+      <c r="A219" s="22">
+        <v>45316</v>
+      </c>
+      <c r="B219" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="C219" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D219" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="E219" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F219" s="14">
+        <v>67</v>
+      </c>
+      <c r="G219" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="H219" s="14">
+        <v>38.084470000000003</v>
+      </c>
+      <c r="I219" s="14">
+        <v>-121.7368</v>
+      </c>
+      <c r="J219" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K219" s="41" t="s">
+        <v>412</v>
+      </c>
+      <c r="L219" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="M219" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="N219" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="O219" s="14" t="s">
+        <v>414</v>
+      </c>
+      <c r="P219" s="22">
+        <v>45315</v>
+      </c>
+      <c r="Q219" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="R219" s="14" t="s">
+        <v>415</v>
+      </c>
+      <c r="S219" s="32"/>
+    </row>
+    <row r="220" spans="1:20" ht="15" customHeight="1">
+      <c r="A220" s="22">
+        <v>45318</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F220" s="14">
+        <v>72</v>
+      </c>
+      <c r="G220" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="H220" s="14">
+        <v>37.815818999999998</v>
+      </c>
+      <c r="I220" s="14">
+        <v>-121.558995</v>
+      </c>
+      <c r="J220" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="K220" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="L220" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="M220" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="N220" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="O220" s="14" t="s">
+        <v>396</v>
+      </c>
+      <c r="P220" s="22">
+        <v>45301</v>
+      </c>
+      <c r="Q220" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="R220" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="S220" s="32"/>
+    </row>
+    <row r="221" spans="1:20" ht="15" customHeight="1">
+      <c r="A221" s="22">
+        <v>45322</v>
+      </c>
+      <c r="B221" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="C221" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D221" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="E221" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="F221" s="14">
+        <v>65</v>
+      </c>
+      <c r="G221" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="H221" s="14">
+        <v>38.058599999999998</v>
+      </c>
+      <c r="I221" s="14">
+        <v>-121.55394</v>
+      </c>
+      <c r="J221" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K221" s="41" t="s">
+        <v>417</v>
+      </c>
+      <c r="L221" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="M221" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="N221" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="O221" s="14" t="s">
+        <v>414</v>
+      </c>
+      <c r="P221" s="22">
+        <v>45315</v>
+      </c>
+      <c r="Q221" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="R221" s="14" t="s">
+        <v>415</v>
+      </c>
+      <c r="S221" s="32"/>
+    </row>
+    <row r="222" spans="1:20" ht="15" customHeight="1">
+      <c r="A222" s="22">
+        <v>45323</v>
+      </c>
+      <c r="B222" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="C222" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D222" s="14" t="s">
+        <v>418</v>
+      </c>
+      <c r="E222" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="F222" s="14">
+        <v>68</v>
+      </c>
+      <c r="G222" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="H222" s="14">
+        <v>38.18318</v>
+      </c>
+      <c r="I222" s="14">
+        <v>-121.98945000000001</v>
+      </c>
+      <c r="J222" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K222" s="41" t="s">
+        <v>419</v>
+      </c>
+      <c r="L222" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="M222" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="N222" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="O222" s="14" t="s">
+        <v>396</v>
+      </c>
+      <c r="P222" s="22">
+        <v>45301</v>
+      </c>
+      <c r="Q222" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="R222" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="S222" s="32"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T213" xr:uid="{C569B310-60E0-4E31-89EB-52CC1C810311}"/>
+  <autoFilter ref="A1:T213" xr:uid="{C569B310-60E0-4E31-89EB-52CC1C810311}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T216">
+      <sortCondition ref="A1:A213"/>
+    </sortState>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T204">
     <sortCondition ref="A2:A204"/>
   </sortState>
@@ -15126,19 +15583,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="65146633-a755-433a-aacb-5024b6511b89">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="d8e23be6-d007-4c2c-9265-7d9405abf22e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D9A9DE233A30CB4EAECD318FD55378CC" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7fbf87cf221f44e60380b198516e544c">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="65146633-a755-433a-aacb-5024b6511b89" xmlns:ns3="d8e23be6-d007-4c2c-9265-7d9405abf22e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="54ddd8093793ee1d4ab25c1efd25c9d5" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D9A9DE233A30CB4EAECD318FD55378CC" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8fd2cacec9171f93eb894d0689f08641">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="65146633-a755-433a-aacb-5024b6511b89" xmlns:ns3="d8e23be6-d007-4c2c-9265-7d9405abf22e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a569083f6831735b7a488ac820eb0384" ns2:_="" ns3:_="">
     <xsd:import namespace="65146633-a755-433a-aacb-5024b6511b89"/>
     <xsd:import namespace="d8e23be6-d007-4c2c-9265-7d9405abf22e"/>
     <xsd:element name="properties">
@@ -15160,6 +15615,7 @@
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -15222,6 +15678,11 @@
     <xsd:element name="MediaServiceLocation" ma:index="21" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="22" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -15366,54 +15827,24 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="65146633-a755-433a-aacb-5024b6511b89">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="d8e23be6-d007-4c2c-9265-7d9405abf22e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D4F8AF6-B64B-4962-81B5-D73EE7A1E0CA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="d8e23be6-d007-4c2c-9265-7d9405abf22e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="65146633-a755-433a-aacb-5024b6511b89"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C764E5-19B4-4012-98BF-B46F2FA7A2CF}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F81CEE1-A897-4F46-86B5-B49F4AE89E4A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="65146633-a755-433a-aacb-5024b6511b89"/>
-    <ds:schemaRef ds:uri="d8e23be6-d007-4c2c-9265-7d9405abf22e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76D96E8C-3FF7-4769-9DB8-E43AB53278F6}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C764E5-19B4-4012-98BF-B46F2FA7A2CF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D4F8AF6-B64B-4962-81B5-D73EE7A1E0CA}"/>
 </file>
--- a/Running Delta Smelt Catch_2023-09-05.xlsx
+++ b/Running Delta Smelt Catch_2023-09-05.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://doimspp.sharepoint.com/sites/fws-FF08FBDT00-experimental-release-technical-team/Shared Documents/Recaptured fish data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cawater-my.sharepoint.com/personal/rosemary_hartman_water_ca_gov/Documents/smelt cages/SmeltMap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{759F0024-622B-46CF-8B91-4CAEF19DEE52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="6_{D7D8C1E3-0910-435B-88BC-04AB77536274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A403506-1F7A-4636-BBFE-150CF9EBC122}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="1" xr2:uid="{4BB403AD-DB3F-4CB5-B7F1-39827ED458E8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="1" activeTab="1" xr2:uid="{4BB403AD-DB3F-4CB5-B7F1-39827ED458E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="12" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3433" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3472" uniqueCount="448">
   <si>
     <t>Running Delta Smelt Catch Data Collected for the USFWS Delta Smelt Experimental Release Technical Team</t>
   </si>
@@ -1398,13 +1398,19 @@
   </si>
   <si>
     <t>BY2023 4b</t>
+  </si>
+  <si>
+    <t>DJFMP</t>
+  </si>
+  <si>
+    <t>Efish</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1528,7 +1534,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1612,48 +1618,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1998,18 +1967,18 @@
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7265625" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -2020,7 +1989,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2031,7 +2000,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2042,7 +2011,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -2050,7 +2019,7 @@
         <v>45272</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -2058,7 +2027,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -2066,7 +2035,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -2074,7 +2043,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
         <v>17</v>
       </c>
@@ -2096,7 +2065,7 @@
       <c r="O14" s="12"/>
       <c r="P14" s="12"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
         <v>19</v>
       </c>
@@ -2104,7 +2073,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
         <v>21</v>
       </c>
@@ -2112,7 +2081,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
         <v>23</v>
       </c>
@@ -2120,7 +2089,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
         <v>25</v>
       </c>
@@ -2128,7 +2097,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
         <v>27</v>
       </c>
@@ -2136,27 +2105,27 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="11" t="s">
         <v>33</v>
       </c>
@@ -2164,7 +2133,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="11" t="s">
         <v>35</v>
       </c>
@@ -2172,7 +2141,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="11" t="s">
         <v>37</v>
       </c>
@@ -2180,7 +2149,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="11" t="s">
         <v>39</v>
       </c>
@@ -2188,7 +2157,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>41</v>
       </c>
@@ -2196,7 +2165,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>43</v>
       </c>
@@ -2204,7 +2173,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -2212,7 +2181,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>47</v>
       </c>
@@ -2220,7 +2189,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="11" t="s">
         <v>49</v>
       </c>
@@ -2228,7 +2197,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33" s="11" t="s">
         <v>51</v>
       </c>
@@ -2236,7 +2205,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34" s="11" t="s">
         <v>53</v>
       </c>
@@ -2244,7 +2213,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35" s="11" t="s">
         <v>55</v>
       </c>
@@ -2252,7 +2221,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36" s="11" t="s">
         <v>57</v>
       </c>
@@ -2260,7 +2229,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A37" s="11" t="s">
         <v>59</v>
       </c>
@@ -2268,7 +2237,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
         <v>61</v>
       </c>
@@ -2276,7 +2245,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A41" s="18" t="s">
         <v>63</v>
       </c>
@@ -2287,7 +2256,7 @@
       <c r="F41" s="18"/>
       <c r="G41" s="18"/>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A44" s="32" t="s">
         <v>64</v>
       </c>
@@ -2307,7 +2276,7 @@
       <c r="O44" s="12"/>
       <c r="P44" s="12"/>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A45" s="13">
         <v>45180</v>
       </c>
@@ -2315,7 +2284,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A46" s="13">
         <v>45251</v>
       </c>
@@ -2323,7 +2292,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A47" s="13">
         <v>45266</v>
       </c>
@@ -2342,39 +2311,40 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C569B310-60E0-4E31-89EB-52CC1C810311}">
-  <dimension ref="A1:AE238"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:AE243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A203" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A213" sqref="A213:XFD238"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="14" customWidth="1"/>
-    <col min="5" max="5" width="35.140625" style="14" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" style="49" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" style="49" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="16.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" style="14" customWidth="1"/>
-    <col min="12" max="13" width="14.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="39.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.453125" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.54296875" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7265625" style="14" customWidth="1"/>
+    <col min="5" max="5" width="35.1796875" style="14" customWidth="1"/>
+    <col min="6" max="6" width="21.7265625" style="36" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.54296875" style="36" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="16.26953125" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.81640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.26953125" style="14" customWidth="1"/>
+    <col min="12" max="13" width="14.1796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="39.1796875" style="14" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="19" style="14" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="26" style="14" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="43.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="31.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="43.1796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="31.81640625" style="14" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="15" style="14" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="19" style="14" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="17.28515625" style="14" customWidth="1"/>
-    <col min="23" max="23" width="16.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.140625" style="23" customWidth="1"/>
+    <col min="21" max="22" width="17.26953125" style="14" customWidth="1"/>
+    <col min="23" max="23" width="16.26953125" style="14" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.1796875" style="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -2390,10 +2360,10 @@
       <c r="E1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="G1" s="34" t="s">
         <v>30</v>
       </c>
       <c r="H1" s="3" t="s">
@@ -2448,7 +2418,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="7">
         <v>44546</v>
       </c>
@@ -2512,7 +2482,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>44547</v>
       </c>
@@ -2574,7 +2544,7 @@
       <c r="W3" s="19"/>
       <c r="X3" s="16"/>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>44547</v>
       </c>
@@ -2636,7 +2606,7 @@
       <c r="W4" s="19"/>
       <c r="X4" s="16"/>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>44547</v>
       </c>
@@ -2698,7 +2668,7 @@
       <c r="W5" s="19"/>
       <c r="X5" s="16"/>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>44547</v>
       </c>
@@ -2760,7 +2730,7 @@
       <c r="W6" s="19"/>
       <c r="X6" s="16"/>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>44547</v>
       </c>
@@ -2822,7 +2792,7 @@
       <c r="W7" s="19"/>
       <c r="X7" s="16"/>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>44547</v>
       </c>
@@ -2886,7 +2856,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
         <v>44547</v>
       </c>
@@ -2948,7 +2918,7 @@
       <c r="W9" s="19"/>
       <c r="X9" s="16"/>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
         <v>44551</v>
       </c>
@@ -3010,7 +2980,7 @@
       <c r="W10" s="19"/>
       <c r="X10" s="16"/>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
         <v>44553</v>
       </c>
@@ -3072,7 +3042,7 @@
       <c r="W11" s="19"/>
       <c r="X11" s="16"/>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="7">
         <v>44553</v>
       </c>
@@ -3134,7 +3104,7 @@
       <c r="W12" s="19"/>
       <c r="X12" s="16"/>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
         <v>44553</v>
       </c>
@@ -3196,7 +3166,7 @@
       <c r="W13" s="19"/>
       <c r="X13" s="16"/>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
         <v>44557</v>
       </c>
@@ -3258,7 +3228,7 @@
       <c r="W14" s="19"/>
       <c r="X14" s="16"/>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" s="7">
         <v>44558</v>
       </c>
@@ -3320,7 +3290,7 @@
       <c r="W15" s="19"/>
       <c r="X15" s="16"/>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" s="7">
         <v>44558</v>
       </c>
@@ -3382,7 +3352,7 @@
       <c r="W16" s="19"/>
       <c r="X16" s="16"/>
     </row>
-    <row r="17" spans="1:24">
+    <row r="17" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A17" s="7">
         <v>44559</v>
       </c>
@@ -3444,7 +3414,7 @@
       <c r="W17" s="19"/>
       <c r="X17" s="16"/>
     </row>
-    <row r="18" spans="1:24">
+    <row r="18" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A18" s="7">
         <v>44565</v>
       </c>
@@ -3460,10 +3430,10 @@
       <c r="E18" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F18" s="47">
+      <c r="F18" s="35">
         <v>212</v>
       </c>
-      <c r="G18" s="47">
+      <c r="G18" s="35">
         <v>8</v>
       </c>
       <c r="H18" s="1"/>
@@ -3512,7 +3482,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="19" spans="1:24">
+    <row r="19" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7">
         <v>44566</v>
       </c>
@@ -3576,7 +3546,7 @@
       </c>
       <c r="X19" s="16"/>
     </row>
-    <row r="20" spans="1:24">
+    <row r="20" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A20" s="7">
         <v>44573</v>
       </c>
@@ -3640,7 +3610,7 @@
       </c>
       <c r="X20" s="16"/>
     </row>
-    <row r="21" spans="1:24">
+    <row r="21" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A21" s="7">
         <v>44573</v>
       </c>
@@ -3704,7 +3674,7 @@
       </c>
       <c r="X21" s="16"/>
     </row>
-    <row r="22" spans="1:24">
+    <row r="22" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>44577</v>
       </c>
@@ -3770,7 +3740,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="23" spans="1:24">
+    <row r="23" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A23" s="7">
         <v>44579</v>
       </c>
@@ -3834,7 +3804,7 @@
       </c>
       <c r="X23" s="16"/>
     </row>
-    <row r="24" spans="1:24">
+    <row r="24" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A24" s="7">
         <v>44585</v>
       </c>
@@ -3898,7 +3868,7 @@
       </c>
       <c r="X24" s="16"/>
     </row>
-    <row r="25" spans="1:24">
+    <row r="25" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A25" s="7">
         <v>44592</v>
       </c>
@@ -3962,7 +3932,7 @@
       </c>
       <c r="X25" s="16"/>
     </row>
-    <row r="26" spans="1:24">
+    <row r="26" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A26" s="7">
         <v>44592</v>
       </c>
@@ -4026,7 +3996,7 @@
       </c>
       <c r="X26" s="16"/>
     </row>
-    <row r="27" spans="1:24">
+    <row r="27" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A27" s="7">
         <v>44596</v>
       </c>
@@ -4090,7 +4060,7 @@
       </c>
       <c r="X27" s="16"/>
     </row>
-    <row r="28" spans="1:24">
+    <row r="28" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A28" s="7">
         <v>44599</v>
       </c>
@@ -4154,7 +4124,7 @@
       </c>
       <c r="X28" s="16"/>
     </row>
-    <row r="29" spans="1:24">
+    <row r="29" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A29" s="7">
         <v>44606</v>
       </c>
@@ -4218,7 +4188,7 @@
       </c>
       <c r="X29" s="16"/>
     </row>
-    <row r="30" spans="1:24">
+    <row r="30" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <v>44609</v>
       </c>
@@ -4234,10 +4204,10 @@
       <c r="E30" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="F30" s="47">
+      <c r="F30" s="35">
         <v>181</v>
       </c>
-      <c r="G30" s="47">
+      <c r="G30" s="35">
         <v>9.5</v>
       </c>
       <c r="H30" s="1"/>
@@ -4288,7 +4258,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="31" spans="1:24">
+    <row r="31" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A31" s="7">
         <v>44609</v>
       </c>
@@ -4352,7 +4322,7 @@
       </c>
       <c r="X31" s="16"/>
     </row>
-    <row r="32" spans="1:24">
+    <row r="32" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <v>44610</v>
       </c>
@@ -4368,16 +4338,16 @@
       <c r="E32" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F32" s="48">
+      <c r="F32" s="35">
         <v>3893</v>
       </c>
-      <c r="G32" s="48">
+      <c r="G32" s="35">
         <v>11.8</v>
       </c>
-      <c r="H32" s="45">
+      <c r="H32" s="6">
         <v>56.4</v>
       </c>
-      <c r="I32" s="45" t="s">
+      <c r="I32" s="6" t="s">
         <v>155</v>
       </c>
       <c r="J32" s="1">
@@ -4424,7 +4394,7 @@
       </c>
       <c r="X32" s="16"/>
     </row>
-    <row r="33" spans="1:24">
+    <row r="33" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
         <v>44610</v>
       </c>
@@ -4440,16 +4410,16 @@
       <c r="E33" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F33" s="48">
+      <c r="F33" s="35">
         <v>3893</v>
       </c>
-      <c r="G33" s="48">
+      <c r="G33" s="35">
         <v>11.8</v>
       </c>
-      <c r="H33" s="45">
+      <c r="H33" s="6">
         <v>56.4</v>
       </c>
-      <c r="I33" s="45" t="s">
+      <c r="I33" s="6" t="s">
         <v>155</v>
       </c>
       <c r="J33" s="1">
@@ -4496,7 +4466,7 @@
       </c>
       <c r="X33" s="16"/>
     </row>
-    <row r="34" spans="1:24">
+    <row r="34" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
         <v>44610</v>
       </c>
@@ -4512,16 +4482,16 @@
       <c r="E34" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F34" s="48">
+      <c r="F34" s="35">
         <v>3893</v>
       </c>
-      <c r="G34" s="48">
+      <c r="G34" s="35">
         <v>11.8</v>
       </c>
-      <c r="H34" s="45">
+      <c r="H34" s="6">
         <v>56.4</v>
       </c>
-      <c r="I34" s="45" t="s">
+      <c r="I34" s="6" t="s">
         <v>155</v>
       </c>
       <c r="J34" s="1">
@@ -4568,7 +4538,7 @@
       </c>
       <c r="X34" s="16"/>
     </row>
-    <row r="35" spans="1:24">
+    <row r="35" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A35" s="5">
         <v>44610</v>
       </c>
@@ -4584,16 +4554,16 @@
       <c r="E35" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F35" s="48">
+      <c r="F35" s="35">
         <v>3893</v>
       </c>
-      <c r="G35" s="48">
+      <c r="G35" s="35">
         <v>11.8</v>
       </c>
-      <c r="H35" s="45">
+      <c r="H35" s="6">
         <v>56.4</v>
       </c>
-      <c r="I35" s="45" t="s">
+      <c r="I35" s="6" t="s">
         <v>155</v>
       </c>
       <c r="J35" s="1">
@@ -4640,7 +4610,7 @@
       </c>
       <c r="X35" s="16"/>
     </row>
-    <row r="36" spans="1:24">
+    <row r="36" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A36" s="5">
         <v>44610</v>
       </c>
@@ -4656,16 +4626,16 @@
       <c r="E36" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F36" s="48">
+      <c r="F36" s="35">
         <v>3427</v>
       </c>
-      <c r="G36" s="48">
+      <c r="G36" s="35">
         <v>11.2</v>
       </c>
-      <c r="H36" s="45">
+      <c r="H36" s="6">
         <v>38.9</v>
       </c>
-      <c r="I36" s="45" t="s">
+      <c r="I36" s="6" t="s">
         <v>155</v>
       </c>
       <c r="J36" s="1">
@@ -4712,7 +4682,7 @@
       </c>
       <c r="X36" s="16"/>
     </row>
-    <row r="37" spans="1:24">
+    <row r="37" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A37" s="7">
         <v>44615</v>
       </c>
@@ -4776,7 +4746,7 @@
       </c>
       <c r="X37" s="16"/>
     </row>
-    <row r="38" spans="1:24">
+    <row r="38" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A38" s="7">
         <v>44615</v>
       </c>
@@ -4840,7 +4810,7 @@
       </c>
       <c r="X38" s="16"/>
     </row>
-    <row r="39" spans="1:24">
+    <row r="39" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A39" s="7">
         <v>44615</v>
       </c>
@@ -4904,7 +4874,7 @@
       </c>
       <c r="X39" s="16"/>
     </row>
-    <row r="40" spans="1:24">
+    <row r="40" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A40" s="7">
         <v>44615</v>
       </c>
@@ -4968,7 +4938,7 @@
       </c>
       <c r="X40" s="16"/>
     </row>
-    <row r="41" spans="1:24">
+    <row r="41" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A41" s="7">
         <v>44615</v>
       </c>
@@ -5032,7 +5002,7 @@
       </c>
       <c r="X41" s="16"/>
     </row>
-    <row r="42" spans="1:24">
+    <row r="42" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A42" s="7">
         <v>44616</v>
       </c>
@@ -5096,7 +5066,7 @@
       </c>
       <c r="X42" s="16"/>
     </row>
-    <row r="43" spans="1:24">
+    <row r="43" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A43" s="7">
         <v>44616</v>
       </c>
@@ -5160,7 +5130,7 @@
       </c>
       <c r="X43" s="16"/>
     </row>
-    <row r="44" spans="1:24">
+    <row r="44" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A44" s="7">
         <v>44616</v>
       </c>
@@ -5224,7 +5194,7 @@
       </c>
       <c r="X44" s="16"/>
     </row>
-    <row r="45" spans="1:24">
+    <row r="45" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A45" s="7">
         <v>44616</v>
       </c>
@@ -5288,7 +5258,7 @@
       </c>
       <c r="X45" s="16"/>
     </row>
-    <row r="46" spans="1:24">
+    <row r="46" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A46" s="7">
         <v>44622</v>
       </c>
@@ -5352,7 +5322,7 @@
       </c>
       <c r="X46" s="16"/>
     </row>
-    <row r="47" spans="1:24">
+    <row r="47" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A47" s="7">
         <v>44622</v>
       </c>
@@ -5416,7 +5386,7 @@
       </c>
       <c r="X47" s="16"/>
     </row>
-    <row r="48" spans="1:24">
+    <row r="48" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A48" s="7">
         <v>44622</v>
       </c>
@@ -5480,7 +5450,7 @@
       </c>
       <c r="X48" s="16"/>
     </row>
-    <row r="49" spans="1:24">
+    <row r="49" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A49" s="7">
         <v>44622</v>
       </c>
@@ -5544,7 +5514,7 @@
       </c>
       <c r="X49" s="16"/>
     </row>
-    <row r="50" spans="1:24">
+    <row r="50" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A50" s="7">
         <v>44623</v>
       </c>
@@ -5608,7 +5578,7 @@
       </c>
       <c r="X50" s="16"/>
     </row>
-    <row r="51" spans="1:24">
+    <row r="51" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A51" s="7">
         <v>44628</v>
       </c>
@@ -5672,7 +5642,7 @@
       </c>
       <c r="X51" s="16"/>
     </row>
-    <row r="52" spans="1:24">
+    <row r="52" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A52" s="7">
         <v>44628</v>
       </c>
@@ -5736,7 +5706,7 @@
       </c>
       <c r="X52" s="16"/>
     </row>
-    <row r="53" spans="1:24">
+    <row r="53" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A53" s="7">
         <v>44628</v>
       </c>
@@ -5800,7 +5770,7 @@
       </c>
       <c r="X53" s="16"/>
     </row>
-    <row r="54" spans="1:24">
+    <row r="54" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A54" s="7">
         <v>44628</v>
       </c>
@@ -5864,7 +5834,7 @@
       </c>
       <c r="X54" s="16"/>
     </row>
-    <row r="55" spans="1:24">
+    <row r="55" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A55" s="7">
         <v>44628</v>
       </c>
@@ -5928,7 +5898,7 @@
       </c>
       <c r="X55" s="16"/>
     </row>
-    <row r="56" spans="1:24">
+    <row r="56" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A56" s="7">
         <v>44631</v>
       </c>
@@ -5992,7 +5962,7 @@
       </c>
       <c r="X56" s="16"/>
     </row>
-    <row r="57" spans="1:24">
+    <row r="57" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A57" s="7">
         <v>44631</v>
       </c>
@@ -6056,7 +6026,7 @@
       </c>
       <c r="X57" s="16"/>
     </row>
-    <row r="58" spans="1:24">
+    <row r="58" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A58" s="5">
         <v>44636</v>
       </c>
@@ -6072,16 +6042,16 @@
       <c r="E58" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F58" s="48">
+      <c r="F58" s="35">
         <v>348</v>
       </c>
-      <c r="G58" s="48">
+      <c r="G58" s="35">
         <v>13.7</v>
       </c>
-      <c r="H58" s="45">
+      <c r="H58" s="6">
         <v>44.1</v>
       </c>
-      <c r="I58" s="45" t="s">
+      <c r="I58" s="6" t="s">
         <v>155</v>
       </c>
       <c r="J58" s="1">
@@ -6128,7 +6098,7 @@
       </c>
       <c r="X58" s="16"/>
     </row>
-    <row r="59" spans="1:24">
+    <row r="59" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A59" s="5">
         <v>44636</v>
       </c>
@@ -6144,16 +6114,16 @@
       <c r="E59" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F59" s="48">
+      <c r="F59" s="35">
         <v>348</v>
       </c>
-      <c r="G59" s="48">
+      <c r="G59" s="35">
         <v>13.7</v>
       </c>
-      <c r="H59" s="45">
+      <c r="H59" s="6">
         <v>44.1</v>
       </c>
-      <c r="I59" s="45" t="s">
+      <c r="I59" s="6" t="s">
         <v>155</v>
       </c>
       <c r="J59" s="1">
@@ -6200,7 +6170,7 @@
       </c>
       <c r="X59" s="16"/>
     </row>
-    <row r="60" spans="1:24">
+    <row r="60" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A60" s="5">
         <v>44636</v>
       </c>
@@ -6216,16 +6186,16 @@
       <c r="E60" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F60" s="48">
+      <c r="F60" s="35">
         <v>340</v>
       </c>
-      <c r="G60" s="48">
+      <c r="G60" s="35">
         <v>13.2</v>
       </c>
-      <c r="H60" s="45">
+      <c r="H60" s="6">
         <v>18.5</v>
       </c>
-      <c r="I60" s="45" t="s">
+      <c r="I60" s="6" t="s">
         <v>155</v>
       </c>
       <c r="J60" s="1">
@@ -6272,7 +6242,7 @@
       </c>
       <c r="X60" s="16"/>
     </row>
-    <row r="61" spans="1:24">
+    <row r="61" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A61" s="7">
         <v>44637</v>
       </c>
@@ -6336,7 +6306,7 @@
       </c>
       <c r="X61" s="16"/>
     </row>
-    <row r="62" spans="1:24">
+    <row r="62" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A62" s="5">
         <v>44637</v>
       </c>
@@ -6352,16 +6322,16 @@
       <c r="E62" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F62" s="48">
+      <c r="F62" s="35">
         <v>3608</v>
       </c>
-      <c r="G62" s="48">
+      <c r="G62" s="35">
         <v>14</v>
       </c>
-      <c r="H62" s="45">
+      <c r="H62" s="6">
         <v>67.599999999999994</v>
       </c>
-      <c r="I62" s="45" t="s">
+      <c r="I62" s="6" t="s">
         <v>155</v>
       </c>
       <c r="J62" s="1">
@@ -6408,7 +6378,7 @@
       </c>
       <c r="X62" s="16"/>
     </row>
-    <row r="63" spans="1:24">
+    <row r="63" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A63" s="5">
         <v>44637</v>
       </c>
@@ -6424,16 +6394,16 @@
       <c r="E63" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F63" s="48">
+      <c r="F63" s="35">
         <v>3608</v>
       </c>
-      <c r="G63" s="48">
+      <c r="G63" s="35">
         <v>14</v>
       </c>
-      <c r="H63" s="45">
+      <c r="H63" s="6">
         <v>67.599999999999994</v>
       </c>
-      <c r="I63" s="45" t="s">
+      <c r="I63" s="6" t="s">
         <v>155</v>
       </c>
       <c r="J63" s="1">
@@ -6480,7 +6450,7 @@
       </c>
       <c r="X63" s="16"/>
     </row>
-    <row r="64" spans="1:24">
+    <row r="64" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A64" s="5">
         <v>44637</v>
       </c>
@@ -6496,16 +6466,16 @@
       <c r="E64" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F64" s="48">
+      <c r="F64" s="35">
         <v>3608</v>
       </c>
-      <c r="G64" s="48">
+      <c r="G64" s="35">
         <v>14</v>
       </c>
-      <c r="H64" s="45">
+      <c r="H64" s="6">
         <v>67.599999999999994</v>
       </c>
-      <c r="I64" s="45" t="s">
+      <c r="I64" s="6" t="s">
         <v>155</v>
       </c>
       <c r="J64" s="1">
@@ -6552,7 +6522,7 @@
       </c>
       <c r="X64" s="16"/>
     </row>
-    <row r="65" spans="1:24">
+    <row r="65" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A65" s="5">
         <v>44637</v>
       </c>
@@ -6568,16 +6538,16 @@
       <c r="E65" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F65" s="48">
+      <c r="F65" s="35">
         <v>3608</v>
       </c>
-      <c r="G65" s="48">
+      <c r="G65" s="35">
         <v>14</v>
       </c>
-      <c r="H65" s="45">
+      <c r="H65" s="6">
         <v>67.599999999999994</v>
       </c>
-      <c r="I65" s="45" t="s">
+      <c r="I65" s="6" t="s">
         <v>155</v>
       </c>
       <c r="J65" s="1">
@@ -6624,7 +6594,7 @@
       </c>
       <c r="X65" s="16"/>
     </row>
-    <row r="66" spans="1:24">
+    <row r="66" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A66" s="5">
         <v>44637</v>
       </c>
@@ -6640,16 +6610,16 @@
       <c r="E66" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F66" s="48">
+      <c r="F66" s="35">
         <v>2163</v>
       </c>
-      <c r="G66" s="48">
+      <c r="G66" s="35">
         <v>14.5</v>
       </c>
-      <c r="H66" s="45">
+      <c r="H66" s="6">
         <v>56.7</v>
       </c>
-      <c r="I66" s="45" t="s">
+      <c r="I66" s="6" t="s">
         <v>155</v>
       </c>
       <c r="J66" s="1">
@@ -6696,7 +6666,7 @@
       </c>
       <c r="X66" s="16"/>
     </row>
-    <row r="67" spans="1:24">
+    <row r="67" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A67" s="5">
         <v>44637</v>
       </c>
@@ -6712,16 +6682,16 @@
       <c r="E67" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F67" s="48">
+      <c r="F67" s="35">
         <v>2163</v>
       </c>
-      <c r="G67" s="48">
+      <c r="G67" s="35">
         <v>14.5</v>
       </c>
-      <c r="H67" s="45">
+      <c r="H67" s="6">
         <v>56.7</v>
       </c>
-      <c r="I67" s="45" t="s">
+      <c r="I67" s="6" t="s">
         <v>155</v>
       </c>
       <c r="J67" s="1">
@@ -6768,7 +6738,7 @@
       </c>
       <c r="X67" s="16"/>
     </row>
-    <row r="68" spans="1:24">
+    <row r="68" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A68" s="5">
         <v>44637</v>
       </c>
@@ -6784,16 +6754,16 @@
       <c r="E68" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F68" s="48">
+      <c r="F68" s="35">
         <v>2163</v>
       </c>
-      <c r="G68" s="48">
+      <c r="G68" s="35">
         <v>14.5</v>
       </c>
-      <c r="H68" s="45">
+      <c r="H68" s="6">
         <v>56.7</v>
       </c>
-      <c r="I68" s="45" t="s">
+      <c r="I68" s="6" t="s">
         <v>155</v>
       </c>
       <c r="J68" s="1">
@@ -6840,7 +6810,7 @@
       </c>
       <c r="X68" s="16"/>
     </row>
-    <row r="69" spans="1:24">
+    <row r="69" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A69" s="5">
         <v>44637</v>
       </c>
@@ -6856,16 +6826,16 @@
       <c r="E69" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F69" s="48">
+      <c r="F69" s="35">
         <v>2163</v>
       </c>
-      <c r="G69" s="48">
+      <c r="G69" s="35">
         <v>14.5</v>
       </c>
-      <c r="H69" s="45">
+      <c r="H69" s="6">
         <v>56.7</v>
       </c>
-      <c r="I69" s="45" t="s">
+      <c r="I69" s="6" t="s">
         <v>155</v>
       </c>
       <c r="J69" s="1">
@@ -6912,7 +6882,7 @@
       </c>
       <c r="X69" s="16"/>
     </row>
-    <row r="70" spans="1:24">
+    <row r="70" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A70" s="7">
         <v>44641</v>
       </c>
@@ -6976,7 +6946,7 @@
       </c>
       <c r="X70" s="16"/>
     </row>
-    <row r="71" spans="1:24">
+    <row r="71" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" s="5">
         <v>44641</v>
       </c>
@@ -6992,16 +6962,16 @@
       <c r="E71" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F71" s="48">
+      <c r="F71" s="35">
         <v>438</v>
       </c>
-      <c r="G71" s="48">
+      <c r="G71" s="35">
         <v>14.5</v>
       </c>
-      <c r="H71" s="45">
+      <c r="H71" s="6">
         <v>26.3</v>
       </c>
-      <c r="I71" s="45" t="s">
+      <c r="I71" s="6" t="s">
         <v>155</v>
       </c>
       <c r="J71" s="1">
@@ -7048,7 +7018,7 @@
       </c>
       <c r="X71" s="16"/>
     </row>
-    <row r="72" spans="1:24">
+    <row r="72" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" s="5">
         <v>44641</v>
       </c>
@@ -7064,16 +7034,16 @@
       <c r="E72" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F72" s="48">
+      <c r="F72" s="35">
         <v>438</v>
       </c>
-      <c r="G72" s="48">
+      <c r="G72" s="35">
         <v>14.5</v>
       </c>
-      <c r="H72" s="45">
+      <c r="H72" s="6">
         <v>26.3</v>
       </c>
-      <c r="I72" s="45" t="s">
+      <c r="I72" s="6" t="s">
         <v>155</v>
       </c>
       <c r="J72" s="1">
@@ -7120,7 +7090,7 @@
       </c>
       <c r="X72" s="16"/>
     </row>
-    <row r="73" spans="1:24">
+    <row r="73" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" s="5">
         <v>44641</v>
       </c>
@@ -7136,16 +7106,16 @@
       <c r="E73" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="F73" s="48">
+      <c r="F73" s="35">
         <v>272</v>
       </c>
-      <c r="G73" s="48">
+      <c r="G73" s="35">
         <v>14.1</v>
       </c>
-      <c r="H73" s="45">
+      <c r="H73" s="6">
         <v>4.4000000000000004</v>
       </c>
-      <c r="I73" s="45" t="s">
+      <c r="I73" s="6" t="s">
         <v>155</v>
       </c>
       <c r="J73" s="1">
@@ -7192,7 +7162,7 @@
       </c>
       <c r="X73" s="16"/>
     </row>
-    <row r="74" spans="1:24">
+    <row r="74" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" s="5">
         <v>44641</v>
       </c>
@@ -7208,16 +7178,16 @@
       <c r="E74" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="F74" s="48">
+      <c r="F74" s="35">
         <v>205</v>
       </c>
-      <c r="G74" s="48">
+      <c r="G74" s="35">
         <v>14.1</v>
       </c>
-      <c r="H74" s="45">
+      <c r="H74" s="6">
         <v>4.5999999999999996</v>
       </c>
-      <c r="I74" s="45" t="s">
+      <c r="I74" s="6" t="s">
         <v>155</v>
       </c>
       <c r="J74" s="1">
@@ -7264,7 +7234,7 @@
       </c>
       <c r="X74" s="16"/>
     </row>
-    <row r="75" spans="1:24">
+    <row r="75" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" s="5">
         <v>44641</v>
       </c>
@@ -7280,16 +7250,16 @@
       <c r="E75" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="F75" s="48">
+      <c r="F75" s="35">
         <v>205</v>
       </c>
-      <c r="G75" s="48">
+      <c r="G75" s="35">
         <v>14.1</v>
       </c>
-      <c r="H75" s="45">
+      <c r="H75" s="6">
         <v>4.5999999999999996</v>
       </c>
-      <c r="I75" s="45" t="s">
+      <c r="I75" s="6" t="s">
         <v>155</v>
       </c>
       <c r="J75" s="1">
@@ -7336,7 +7306,7 @@
       </c>
       <c r="X75" s="16"/>
     </row>
-    <row r="76" spans="1:24">
+    <row r="76" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" s="5">
         <v>44641</v>
       </c>
@@ -7352,16 +7322,16 @@
       <c r="E76" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="F76" s="48">
+      <c r="F76" s="35">
         <v>188</v>
       </c>
-      <c r="G76" s="48">
+      <c r="G76" s="35">
         <v>16.399999999999999</v>
       </c>
-      <c r="H76" s="45">
+      <c r="H76" s="6">
         <v>3.7</v>
       </c>
-      <c r="I76" s="45" t="s">
+      <c r="I76" s="6" t="s">
         <v>155</v>
       </c>
       <c r="J76" s="1">
@@ -7408,7 +7378,7 @@
       </c>
       <c r="X76" s="16"/>
     </row>
-    <row r="77" spans="1:24">
+    <row r="77" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A77" s="7">
         <v>44642</v>
       </c>
@@ -7472,7 +7442,7 @@
       </c>
       <c r="X77" s="16"/>
     </row>
-    <row r="78" spans="1:24">
+    <row r="78" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A78" s="7">
         <v>44643</v>
       </c>
@@ -7536,7 +7506,7 @@
       </c>
       <c r="X78" s="16"/>
     </row>
-    <row r="79" spans="1:24">
+    <row r="79" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A79" s="7">
         <v>44643</v>
       </c>
@@ -7600,7 +7570,7 @@
       </c>
       <c r="X79" s="16"/>
     </row>
-    <row r="80" spans="1:24">
+    <row r="80" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A80" s="7">
         <v>44643</v>
       </c>
@@ -7664,7 +7634,7 @@
       </c>
       <c r="X80" s="16"/>
     </row>
-    <row r="81" spans="1:24">
+    <row r="81" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A81" s="7">
         <v>44643</v>
       </c>
@@ -7728,7 +7698,7 @@
       </c>
       <c r="X81" s="16"/>
     </row>
-    <row r="82" spans="1:24">
+    <row r="82" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A82" s="7">
         <v>44643</v>
       </c>
@@ -7792,7 +7762,7 @@
       </c>
       <c r="X82" s="16"/>
     </row>
-    <row r="83" spans="1:24">
+    <row r="83" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A83" s="7">
         <v>44643</v>
       </c>
@@ -7856,7 +7826,7 @@
       </c>
       <c r="X83" s="16"/>
     </row>
-    <row r="84" spans="1:24">
+    <row r="84" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" s="5">
         <v>44643</v>
       </c>
@@ -7872,16 +7842,16 @@
       <c r="E84" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F84" s="48">
+      <c r="F84" s="35">
         <v>183</v>
       </c>
-      <c r="G84" s="48">
+      <c r="G84" s="35">
         <v>15.3</v>
       </c>
-      <c r="H84" s="45">
+      <c r="H84" s="6">
         <v>5.7</v>
       </c>
-      <c r="I84" s="45" t="s">
+      <c r="I84" s="6" t="s">
         <v>155</v>
       </c>
       <c r="J84" s="1">
@@ -7928,7 +7898,7 @@
       </c>
       <c r="X84" s="16"/>
     </row>
-    <row r="85" spans="1:24">
+    <row r="85" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" s="5">
         <v>44643</v>
       </c>
@@ -7944,16 +7914,16 @@
       <c r="E85" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F85" s="48">
+      <c r="F85" s="35">
         <v>183</v>
       </c>
-      <c r="G85" s="48">
+      <c r="G85" s="35">
         <v>15.3</v>
       </c>
-      <c r="H85" s="45">
+      <c r="H85" s="6">
         <v>5.7</v>
       </c>
-      <c r="I85" s="45" t="s">
+      <c r="I85" s="6" t="s">
         <v>155</v>
       </c>
       <c r="J85" s="1">
@@ -8000,7 +7970,7 @@
       </c>
       <c r="X85" s="16"/>
     </row>
-    <row r="86" spans="1:24">
+    <row r="86" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A86" s="7">
         <v>44649</v>
       </c>
@@ -8064,7 +8034,7 @@
       </c>
       <c r="X86" s="16"/>
     </row>
-    <row r="87" spans="1:24">
+    <row r="87" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A87" s="7">
         <v>44651</v>
       </c>
@@ -8128,7 +8098,7 @@
       </c>
       <c r="X87" s="16"/>
     </row>
-    <row r="88" spans="1:24">
+    <row r="88" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" s="7">
         <v>44656</v>
       </c>
@@ -8192,7 +8162,7 @@
       </c>
       <c r="X88" s="16"/>
     </row>
-    <row r="89" spans="1:24">
+    <row r="89" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" s="7">
         <v>44656</v>
       </c>
@@ -8256,7 +8226,7 @@
       </c>
       <c r="X89" s="16"/>
     </row>
-    <row r="90" spans="1:24">
+    <row r="90" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" s="7">
         <v>44656</v>
       </c>
@@ -8320,7 +8290,7 @@
       </c>
       <c r="X90" s="16"/>
     </row>
-    <row r="91" spans="1:24">
+    <row r="91" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" s="5">
         <v>44656</v>
       </c>
@@ -8336,16 +8306,16 @@
       <c r="E91" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="F91" s="48">
+      <c r="F91" s="35">
         <v>314</v>
       </c>
-      <c r="G91" s="48">
+      <c r="G91" s="35">
         <v>15.8</v>
       </c>
-      <c r="H91" s="45">
+      <c r="H91" s="6">
         <v>7.7</v>
       </c>
-      <c r="I91" s="45" t="s">
+      <c r="I91" s="6" t="s">
         <v>155</v>
       </c>
       <c r="J91" s="1">
@@ -8392,7 +8362,7 @@
       </c>
       <c r="X91" s="16"/>
     </row>
-    <row r="92" spans="1:24">
+    <row r="92" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" s="5">
         <v>44658</v>
       </c>
@@ -8408,16 +8378,16 @@
       <c r="E92" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="F92" s="48">
+      <c r="F92" s="35">
         <v>164</v>
       </c>
-      <c r="G92" s="48">
+      <c r="G92" s="35">
         <v>18</v>
       </c>
-      <c r="H92" s="45">
+      <c r="H92" s="6">
         <v>3.5</v>
       </c>
-      <c r="I92" s="45" t="s">
+      <c r="I92" s="6" t="s">
         <v>155</v>
       </c>
       <c r="J92" s="1">
@@ -8464,7 +8434,7 @@
       </c>
       <c r="X92" s="16"/>
     </row>
-    <row r="93" spans="1:24">
+    <row r="93" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" s="5">
         <v>44664</v>
       </c>
@@ -8480,16 +8450,16 @@
       <c r="E93" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F93" s="48">
+      <c r="F93" s="35">
         <v>421</v>
       </c>
-      <c r="G93" s="48">
+      <c r="G93" s="35">
         <v>15.8</v>
       </c>
-      <c r="H93" s="45">
+      <c r="H93" s="6">
         <v>13.3</v>
       </c>
-      <c r="I93" s="45" t="s">
+      <c r="I93" s="6" t="s">
         <v>155</v>
       </c>
       <c r="J93" s="1">
@@ -8536,7 +8506,7 @@
       </c>
       <c r="X93" s="16"/>
     </row>
-    <row r="94" spans="1:24">
+    <row r="94" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" s="5">
         <v>44665</v>
       </c>
@@ -8552,16 +8522,16 @@
       <c r="E94" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F94" s="48">
+      <c r="F94" s="35">
         <v>4435</v>
       </c>
-      <c r="G94" s="48">
+      <c r="G94" s="35">
         <v>15.3</v>
       </c>
-      <c r="H94" s="45">
+      <c r="H94" s="6">
         <v>49.3</v>
       </c>
-      <c r="I94" s="45" t="s">
+      <c r="I94" s="6" t="s">
         <v>155</v>
       </c>
       <c r="J94" s="1">
@@ -8608,7 +8578,7 @@
       </c>
       <c r="X94" s="16"/>
     </row>
-    <row r="95" spans="1:24">
+    <row r="95" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" s="7">
         <v>44669</v>
       </c>
@@ -8672,7 +8642,7 @@
       </c>
       <c r="X95" s="16"/>
     </row>
-    <row r="96" spans="1:24">
+    <row r="96" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" s="7">
         <v>44669</v>
       </c>
@@ -8736,7 +8706,7 @@
       </c>
       <c r="X96" s="16"/>
     </row>
-    <row r="97" spans="1:24">
+    <row r="97" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" s="7">
         <v>44669</v>
       </c>
@@ -8800,7 +8770,7 @@
       </c>
       <c r="X97" s="16"/>
     </row>
-    <row r="98" spans="1:24">
+    <row r="98" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" s="7">
         <v>44669</v>
       </c>
@@ -8864,7 +8834,7 @@
       </c>
       <c r="X98" s="16"/>
     </row>
-    <row r="99" spans="1:24">
+    <row r="99" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" s="7">
         <v>44673</v>
       </c>
@@ -8928,7 +8898,7 @@
       </c>
       <c r="X99" s="16"/>
     </row>
-    <row r="100" spans="1:24">
+    <row r="100" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" s="7">
         <v>44684</v>
       </c>
@@ -8992,7 +8962,7 @@
       </c>
       <c r="X100" s="16"/>
     </row>
-    <row r="101" spans="1:24">
+    <row r="101" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" s="7">
         <v>44684</v>
       </c>
@@ -9056,7 +9026,7 @@
       </c>
       <c r="X101" s="16"/>
     </row>
-    <row r="102" spans="1:24">
+    <row r="102" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" s="7">
         <v>44684</v>
       </c>
@@ -9120,7 +9090,7 @@
       </c>
       <c r="X102" s="16"/>
     </row>
-    <row r="103" spans="1:24">
+    <row r="103" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" s="7">
         <v>44690</v>
       </c>
@@ -9184,7 +9154,7 @@
       </c>
       <c r="X103" s="16"/>
     </row>
-    <row r="104" spans="1:24">
+    <row r="104" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" s="7">
         <v>44690</v>
       </c>
@@ -9248,7 +9218,7 @@
       </c>
       <c r="X104" s="16"/>
     </row>
-    <row r="105" spans="1:24">
+    <row r="105" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" s="7">
         <v>44691</v>
       </c>
@@ -9312,7 +9282,7 @@
       </c>
       <c r="X105" s="16"/>
     </row>
-    <row r="106" spans="1:24">
+    <row r="106" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" s="7">
         <v>44691</v>
       </c>
@@ -9376,7 +9346,7 @@
       </c>
       <c r="X106" s="16"/>
     </row>
-    <row r="107" spans="1:24">
+    <row r="107" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" s="7">
         <v>44691</v>
       </c>
@@ -9440,7 +9410,7 @@
       </c>
       <c r="X107" s="16"/>
     </row>
-    <row r="108" spans="1:24">
+    <row r="108" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" s="7">
         <v>44691</v>
       </c>
@@ -9504,7 +9474,7 @@
       </c>
       <c r="X108" s="16"/>
     </row>
-    <row r="109" spans="1:24">
+    <row r="109" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" s="7">
         <v>44713</v>
       </c>
@@ -9568,7 +9538,7 @@
       </c>
       <c r="X109" s="16"/>
     </row>
-    <row r="110" spans="1:24">
+    <row r="110" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" s="7">
         <v>44718</v>
       </c>
@@ -9632,7 +9602,7 @@
       </c>
       <c r="X110" s="16"/>
     </row>
-    <row r="111" spans="1:24">
+    <row r="111" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" s="7">
         <v>44775</v>
       </c>
@@ -9696,7 +9666,7 @@
       </c>
       <c r="X111" s="16"/>
     </row>
-    <row r="112" spans="1:24">
+    <row r="112" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" s="7">
         <v>44775</v>
       </c>
@@ -9760,7 +9730,7 @@
       </c>
       <c r="X112" s="16"/>
     </row>
-    <row r="113" spans="1:24">
+    <row r="113" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" s="7">
         <v>44783</v>
       </c>
@@ -9824,7 +9794,7 @@
       </c>
       <c r="X113" s="16"/>
     </row>
-    <row r="114" spans="1:24">
+    <row r="114" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" s="7">
         <v>44788</v>
       </c>
@@ -9888,7 +9858,7 @@
       </c>
       <c r="X114" s="16"/>
     </row>
-    <row r="115" spans="1:24">
+    <row r="115" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" s="7">
         <v>44789</v>
       </c>
@@ -9952,7 +9922,7 @@
       </c>
       <c r="X115" s="16"/>
     </row>
-    <row r="116" spans="1:24">
+    <row r="116" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" s="7">
         <v>44825</v>
       </c>
@@ -10016,7 +9986,7 @@
       </c>
       <c r="X116" s="16"/>
     </row>
-    <row r="117" spans="1:24">
+    <row r="117" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" s="7">
         <v>44868</v>
       </c>
@@ -10082,7 +10052,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="118" spans="1:24">
+    <row r="118" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" s="7">
         <v>44872</v>
       </c>
@@ -10148,7 +10118,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="119" spans="1:24">
+    <row r="119" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A119" s="5">
         <v>44909</v>
       </c>
@@ -10214,7 +10184,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="120" spans="1:24">
+    <row r="120" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" s="5">
         <v>44909</v>
       </c>
@@ -10280,7 +10250,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="121" spans="1:24">
+    <row r="121" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A121" s="5">
         <v>44933</v>
       </c>
@@ -10344,7 +10314,7 @@
       </c>
       <c r="X121" s="16"/>
     </row>
-    <row r="122" spans="1:24">
+    <row r="122" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" s="7">
         <v>44943</v>
       </c>
@@ -10408,7 +10378,7 @@
       </c>
       <c r="X122" s="16"/>
     </row>
-    <row r="123" spans="1:24">
+    <row r="123" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A123" s="7">
         <v>44945</v>
       </c>
@@ -10472,7 +10442,7 @@
       </c>
       <c r="X123" s="16"/>
     </row>
-    <row r="124" spans="1:24">
+    <row r="124" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A124" s="7">
         <v>44950</v>
       </c>
@@ -10538,7 +10508,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="125" spans="1:24">
+    <row r="125" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A125" s="7">
         <v>44952</v>
       </c>
@@ -10602,7 +10572,7 @@
       </c>
       <c r="X125" s="16"/>
     </row>
-    <row r="126" spans="1:24">
+    <row r="126" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A126" s="7">
         <v>44953</v>
       </c>
@@ -10666,7 +10636,7 @@
       </c>
       <c r="X126" s="16"/>
     </row>
-    <row r="127" spans="1:24">
+    <row r="127" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A127" s="7">
         <v>44956</v>
       </c>
@@ -10730,7 +10700,7 @@
       </c>
       <c r="X127" s="16"/>
     </row>
-    <row r="128" spans="1:24">
+    <row r="128" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A128" s="7">
         <v>44956</v>
       </c>
@@ -10794,7 +10764,7 @@
       </c>
       <c r="X128" s="16"/>
     </row>
-    <row r="129" spans="1:24">
+    <row r="129" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A129" s="7">
         <v>44956</v>
       </c>
@@ -10858,7 +10828,7 @@
       </c>
       <c r="X129" s="16"/>
     </row>
-    <row r="130" spans="1:24">
+    <row r="130" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A130" s="7">
         <v>44957</v>
       </c>
@@ -10922,7 +10892,7 @@
       </c>
       <c r="X130" s="16"/>
     </row>
-    <row r="131" spans="1:24">
+    <row r="131" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131" s="7">
         <v>44957</v>
       </c>
@@ -10986,7 +10956,7 @@
       </c>
       <c r="X131" s="16"/>
     </row>
-    <row r="132" spans="1:24">
+    <row r="132" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A132" s="7">
         <v>44958</v>
       </c>
@@ -11050,7 +11020,7 @@
       </c>
       <c r="X132" s="16"/>
     </row>
-    <row r="133" spans="1:24">
+    <row r="133" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A133" s="7">
         <v>44958</v>
       </c>
@@ -11114,7 +11084,7 @@
       </c>
       <c r="X133" s="16"/>
     </row>
-    <row r="134" spans="1:24">
+    <row r="134" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A134" s="7">
         <v>44958</v>
       </c>
@@ -11178,7 +11148,7 @@
       </c>
       <c r="X134" s="16"/>
     </row>
-    <row r="135" spans="1:24">
+    <row r="135" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A135" s="7">
         <v>44958</v>
       </c>
@@ -11242,7 +11212,7 @@
       </c>
       <c r="X135" s="16"/>
     </row>
-    <row r="136" spans="1:24">
+    <row r="136" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A136" s="7">
         <v>44959</v>
       </c>
@@ -11306,7 +11276,7 @@
       </c>
       <c r="X136" s="16"/>
     </row>
-    <row r="137" spans="1:24">
+    <row r="137" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A137" s="7">
         <v>44960</v>
       </c>
@@ -11370,7 +11340,7 @@
       </c>
       <c r="X137" s="16"/>
     </row>
-    <row r="138" spans="1:24">
+    <row r="138" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A138" s="7">
         <v>44960</v>
       </c>
@@ -11434,7 +11404,7 @@
       </c>
       <c r="X138" s="16"/>
     </row>
-    <row r="139" spans="1:24">
+    <row r="139" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A139" s="7">
         <v>44960</v>
       </c>
@@ -11498,7 +11468,7 @@
       </c>
       <c r="X139" s="16"/>
     </row>
-    <row r="140" spans="1:24">
+    <row r="140" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A140" s="7">
         <v>44964</v>
       </c>
@@ -11562,7 +11532,7 @@
       </c>
       <c r="X140" s="16"/>
     </row>
-    <row r="141" spans="1:24">
+    <row r="141" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A141" s="5">
         <v>44965</v>
       </c>
@@ -11578,16 +11548,16 @@
       <c r="E141" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F141" s="48">
+      <c r="F141" s="35">
         <v>588</v>
       </c>
-      <c r="G141" s="48">
+      <c r="G141" s="35">
         <v>9.3000000000000007</v>
       </c>
-      <c r="H141" s="45">
+      <c r="H141" s="6">
         <v>52.5</v>
       </c>
-      <c r="I141" s="45">
+      <c r="I141" s="6">
         <v>36.9</v>
       </c>
       <c r="J141" s="1">
@@ -11634,7 +11604,7 @@
       </c>
       <c r="X141" s="16"/>
     </row>
-    <row r="142" spans="1:24">
+    <row r="142" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A142" s="5">
         <v>44965</v>
       </c>
@@ -11650,16 +11620,16 @@
       <c r="E142" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F142" s="48">
+      <c r="F142" s="35">
         <v>242</v>
       </c>
-      <c r="G142" s="48">
+      <c r="G142" s="35">
         <v>8.5</v>
       </c>
-      <c r="H142" s="45">
+      <c r="H142" s="6">
         <v>25.3</v>
       </c>
-      <c r="I142" s="45">
+      <c r="I142" s="6">
         <v>19.2</v>
       </c>
       <c r="J142" s="1">
@@ -11706,7 +11676,7 @@
       </c>
       <c r="X142" s="16"/>
     </row>
-    <row r="143" spans="1:24">
+    <row r="143" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A143" s="5">
         <v>44965</v>
       </c>
@@ -11770,7 +11740,7 @@
       </c>
       <c r="X143" s="16"/>
     </row>
-    <row r="144" spans="1:24">
+    <row r="144" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" s="7">
         <v>44966</v>
       </c>
@@ -11836,7 +11806,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="145" spans="1:24">
+    <row r="145" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A145" s="5">
         <v>44969</v>
       </c>
@@ -11900,7 +11870,7 @@
       </c>
       <c r="X145" s="16"/>
     </row>
-    <row r="146" spans="1:24">
+    <row r="146" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A146" s="5">
         <v>44970</v>
       </c>
@@ -11964,7 +11934,7 @@
       </c>
       <c r="X146" s="16"/>
     </row>
-    <row r="147" spans="1:24">
+    <row r="147" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A147" s="5">
         <v>44970</v>
       </c>
@@ -12028,7 +11998,7 @@
       </c>
       <c r="X147" s="16"/>
     </row>
-    <row r="148" spans="1:24">
+    <row r="148" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A148" s="7">
         <v>44971</v>
       </c>
@@ -12092,7 +12062,7 @@
       </c>
       <c r="X148" s="16"/>
     </row>
-    <row r="149" spans="1:24">
+    <row r="149" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A149" s="5">
         <v>44971</v>
       </c>
@@ -12156,7 +12126,7 @@
       </c>
       <c r="X149" s="16"/>
     </row>
-    <row r="150" spans="1:24">
+    <row r="150" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A150" s="7">
         <v>44972</v>
       </c>
@@ -12220,7 +12190,7 @@
       </c>
       <c r="X150" s="16"/>
     </row>
-    <row r="151" spans="1:24">
+    <row r="151" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A151" s="7">
         <v>44974</v>
       </c>
@@ -12284,7 +12254,7 @@
       </c>
       <c r="X151" s="16"/>
     </row>
-    <row r="152" spans="1:24">
+    <row r="152" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A152" s="5">
         <v>44974</v>
       </c>
@@ -12348,7 +12318,7 @@
       </c>
       <c r="X152" s="16"/>
     </row>
-    <row r="153" spans="1:24" s="18" customFormat="1">
+    <row r="153" spans="1:24" s="18" customFormat="1" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" s="28">
         <v>44975</v>
       </c>
@@ -12414,7 +12384,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="154" spans="1:24">
+    <row r="154" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A154" s="7">
         <v>44976</v>
       </c>
@@ -12478,7 +12448,7 @@
       </c>
       <c r="X154" s="16"/>
     </row>
-    <row r="155" spans="1:24">
+    <row r="155" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A155" s="5">
         <v>44979</v>
       </c>
@@ -12544,7 +12514,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="156" spans="1:24">
+    <row r="156" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A156" s="5">
         <v>44979</v>
       </c>
@@ -12608,7 +12578,7 @@
       </c>
       <c r="X156" s="16"/>
     </row>
-    <row r="157" spans="1:24">
+    <row r="157" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A157" s="5">
         <v>44979</v>
       </c>
@@ -12672,7 +12642,7 @@
       </c>
       <c r="X157" s="16"/>
     </row>
-    <row r="158" spans="1:24">
+    <row r="158" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A158" s="7">
         <v>44981</v>
       </c>
@@ -12736,7 +12706,7 @@
       </c>
       <c r="X158" s="16"/>
     </row>
-    <row r="159" spans="1:24">
+    <row r="159" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A159" s="5">
         <v>44987</v>
       </c>
@@ -12800,7 +12770,7 @@
       </c>
       <c r="X159" s="16"/>
     </row>
-    <row r="160" spans="1:24">
+    <row r="160" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A160" s="5">
         <v>44987</v>
       </c>
@@ -12864,7 +12834,7 @@
       </c>
       <c r="X160" s="16"/>
     </row>
-    <row r="161" spans="1:24">
+    <row r="161" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A161" s="7">
         <v>44991</v>
       </c>
@@ -12930,7 +12900,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="162" spans="1:24">
+    <row r="162" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A162" s="7">
         <v>44992</v>
       </c>
@@ -12994,7 +12964,7 @@
       </c>
       <c r="X162" s="16"/>
     </row>
-    <row r="163" spans="1:24">
+    <row r="163" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A163" s="5">
         <v>44993</v>
       </c>
@@ -13010,16 +12980,16 @@
       <c r="E163" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F163" s="48">
+      <c r="F163" s="35">
         <v>541</v>
       </c>
-      <c r="G163" s="48">
+      <c r="G163" s="35">
         <v>9.4</v>
       </c>
-      <c r="H163" s="45">
+      <c r="H163" s="6">
         <v>80.099999999999994</v>
       </c>
-      <c r="I163" s="45">
+      <c r="I163" s="6">
         <v>49.7</v>
       </c>
       <c r="J163" s="1">
@@ -13066,7 +13036,7 @@
       </c>
       <c r="X163" s="16"/>
     </row>
-    <row r="164" spans="1:24">
+    <row r="164" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A164" s="5">
         <v>44993</v>
       </c>
@@ -13082,16 +13052,16 @@
       <c r="E164" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F164" s="48">
+      <c r="F164" s="35">
         <v>541</v>
       </c>
-      <c r="G164" s="48">
+      <c r="G164" s="35">
         <v>9.4</v>
       </c>
-      <c r="H164" s="45">
+      <c r="H164" s="6">
         <v>80.099999999999994</v>
       </c>
-      <c r="I164" s="45">
+      <c r="I164" s="6">
         <v>49.7</v>
       </c>
       <c r="J164" s="1">
@@ -13138,7 +13108,7 @@
       </c>
       <c r="X164" s="16"/>
     </row>
-    <row r="165" spans="1:24">
+    <row r="165" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165" s="5">
         <v>44998</v>
       </c>
@@ -13154,16 +13124,16 @@
       <c r="E165" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F165" s="48">
+      <c r="F165" s="35">
         <v>127</v>
       </c>
-      <c r="G165" s="48">
+      <c r="G165" s="35">
         <v>9.5</v>
       </c>
-      <c r="H165" s="45">
+      <c r="H165" s="6">
         <v>19.8</v>
       </c>
-      <c r="I165" s="45">
+      <c r="I165" s="6">
         <v>21.2</v>
       </c>
       <c r="J165" s="1">
@@ -13210,7 +13180,7 @@
       </c>
       <c r="X165" s="16"/>
     </row>
-    <row r="166" spans="1:24">
+    <row r="166" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" s="5">
         <v>44998</v>
       </c>
@@ -13226,16 +13196,16 @@
       <c r="E166" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F166" s="48">
+      <c r="F166" s="35">
         <v>209</v>
       </c>
-      <c r="G166" s="48">
+      <c r="G166" s="35">
         <v>10.3</v>
       </c>
-      <c r="H166" s="45">
+      <c r="H166" s="6">
         <v>36</v>
       </c>
-      <c r="I166" s="45">
+      <c r="I166" s="6">
         <v>21.8</v>
       </c>
       <c r="J166" s="1">
@@ -13282,7 +13252,7 @@
       </c>
       <c r="X166" s="16"/>
     </row>
-    <row r="167" spans="1:24">
+    <row r="167" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167" s="5">
         <v>45000</v>
       </c>
@@ -13298,16 +13268,16 @@
       <c r="E167" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F167" s="48">
+      <c r="F167" s="35">
         <v>928</v>
       </c>
-      <c r="G167" s="48">
+      <c r="G167" s="35">
         <v>10.4</v>
       </c>
-      <c r="H167" s="45">
+      <c r="H167" s="6">
         <v>17.7</v>
       </c>
-      <c r="I167" s="45">
+      <c r="I167" s="6">
         <v>20.399999999999999</v>
       </c>
       <c r="J167" s="1">
@@ -13354,7 +13324,7 @@
       </c>
       <c r="X167" s="16"/>
     </row>
-    <row r="168" spans="1:24">
+    <row r="168" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168" s="5">
         <v>45000</v>
       </c>
@@ -13370,16 +13340,16 @@
       <c r="E168" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="F168" s="48">
+      <c r="F168" s="35">
         <v>171</v>
       </c>
-      <c r="G168" s="48">
+      <c r="G168" s="35">
         <v>10.6</v>
       </c>
-      <c r="H168" s="45">
+      <c r="H168" s="6">
         <v>43.9</v>
       </c>
-      <c r="I168" s="45">
+      <c r="I168" s="6">
         <v>28</v>
       </c>
       <c r="J168" s="1">
@@ -13426,7 +13396,7 @@
       </c>
       <c r="X168" s="16"/>
     </row>
-    <row r="169" spans="1:24">
+    <row r="169" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169" s="5">
         <v>45000</v>
       </c>
@@ -13442,16 +13412,16 @@
       <c r="E169" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="F169" s="48">
+      <c r="F169" s="35">
         <v>338</v>
       </c>
-      <c r="G169" s="48">
+      <c r="G169" s="35">
         <v>11.2</v>
       </c>
-      <c r="H169" s="45">
+      <c r="H169" s="6">
         <v>147</v>
       </c>
-      <c r="I169" s="45">
+      <c r="I169" s="6">
         <v>84.2</v>
       </c>
       <c r="J169" s="1">
@@ -13498,7 +13468,7 @@
       </c>
       <c r="X169" s="16"/>
     </row>
-    <row r="170" spans="1:24">
+    <row r="170" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170" s="5">
         <v>45000</v>
       </c>
@@ -13514,16 +13484,16 @@
       <c r="E170" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="F170" s="48">
+      <c r="F170" s="35">
         <v>338</v>
       </c>
-      <c r="G170" s="48">
+      <c r="G170" s="35">
         <v>11.2</v>
       </c>
-      <c r="H170" s="45">
+      <c r="H170" s="6">
         <v>147</v>
       </c>
-      <c r="I170" s="45">
+      <c r="I170" s="6">
         <v>84.2</v>
       </c>
       <c r="J170" s="1">
@@ -13570,7 +13540,7 @@
       </c>
       <c r="X170" s="16"/>
     </row>
-    <row r="171" spans="1:24">
+    <row r="171" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171" s="5">
         <v>45000</v>
       </c>
@@ -13586,16 +13556,16 @@
       <c r="E171" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="F171" s="48">
+      <c r="F171" s="35">
         <v>189</v>
       </c>
-      <c r="G171" s="48">
+      <c r="G171" s="35">
         <v>11.6</v>
       </c>
-      <c r="H171" s="45">
+      <c r="H171" s="6">
         <v>39.299999999999997</v>
       </c>
-      <c r="I171" s="45">
+      <c r="I171" s="6">
         <v>32.1</v>
       </c>
       <c r="J171" s="1">
@@ -13642,7 +13612,7 @@
       </c>
       <c r="X171" s="16"/>
     </row>
-    <row r="172" spans="1:24">
+    <row r="172" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172" s="5">
         <v>45000</v>
       </c>
@@ -13658,16 +13628,16 @@
       <c r="E172" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="F172" s="48">
+      <c r="F172" s="35">
         <v>189</v>
       </c>
-      <c r="G172" s="48">
+      <c r="G172" s="35">
         <v>11.6</v>
       </c>
-      <c r="H172" s="45">
+      <c r="H172" s="6">
         <v>39.299999999999997</v>
       </c>
-      <c r="I172" s="45">
+      <c r="I172" s="6">
         <v>32.1</v>
       </c>
       <c r="J172" s="1">
@@ -13714,7 +13684,7 @@
       </c>
       <c r="X172" s="16"/>
     </row>
-    <row r="173" spans="1:24">
+    <row r="173" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A173" s="5">
         <v>45002</v>
       </c>
@@ -13730,16 +13700,16 @@
       <c r="E173" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="F173" s="48">
+      <c r="F173" s="35">
         <v>193</v>
       </c>
-      <c r="G173" s="48">
+      <c r="G173" s="35">
         <v>11.2</v>
       </c>
-      <c r="H173" s="45">
+      <c r="H173" s="6">
         <v>29.5</v>
       </c>
-      <c r="I173" s="45">
+      <c r="I173" s="6">
         <v>24.4</v>
       </c>
       <c r="J173" s="1">
@@ -13786,7 +13756,7 @@
       </c>
       <c r="X173" s="16"/>
     </row>
-    <row r="174" spans="1:24">
+    <row r="174" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174" s="5">
         <v>45002</v>
       </c>
@@ -13802,16 +13772,16 @@
       <c r="E174" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="F174" s="48">
+      <c r="F174" s="35">
         <v>193</v>
       </c>
-      <c r="G174" s="48">
+      <c r="G174" s="35">
         <v>11.2</v>
       </c>
-      <c r="H174" s="45">
+      <c r="H174" s="6">
         <v>29.5</v>
       </c>
-      <c r="I174" s="45">
+      <c r="I174" s="6">
         <v>24.4</v>
       </c>
       <c r="J174" s="1">
@@ -13858,7 +13828,7 @@
       </c>
       <c r="X174" s="16"/>
     </row>
-    <row r="175" spans="1:24">
+    <row r="175" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A175" s="7">
         <v>45006</v>
       </c>
@@ -13922,7 +13892,7 @@
       </c>
       <c r="X175" s="16"/>
     </row>
-    <row r="176" spans="1:24">
+    <row r="176" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176" s="7">
         <v>45021</v>
       </c>
@@ -13986,7 +13956,7 @@
       </c>
       <c r="X176" s="16"/>
     </row>
-    <row r="177" spans="1:24">
+    <row r="177" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177" s="7">
         <v>45026</v>
       </c>
@@ -14050,7 +14020,7 @@
       </c>
       <c r="X177" s="16"/>
     </row>
-    <row r="178" spans="1:24">
+    <row r="178" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178" s="5">
         <v>45026</v>
       </c>
@@ -14066,16 +14036,16 @@
       <c r="E178" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F178" s="48">
+      <c r="F178" s="35">
         <v>199</v>
       </c>
-      <c r="G178" s="48">
+      <c r="G178" s="35">
         <v>13.4</v>
       </c>
-      <c r="H178" s="45">
+      <c r="H178" s="6">
         <v>14.4</v>
       </c>
-      <c r="I178" s="45">
+      <c r="I178" s="6">
         <v>15.2</v>
       </c>
       <c r="J178" s="1">
@@ -14122,7 +14092,7 @@
       </c>
       <c r="X178" s="16"/>
     </row>
-    <row r="179" spans="1:24">
+    <row r="179" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179" s="5">
         <v>45027</v>
       </c>
@@ -14138,16 +14108,16 @@
       <c r="E179" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F179" s="48">
+      <c r="F179" s="35">
         <v>603</v>
       </c>
-      <c r="G179" s="48">
+      <c r="G179" s="35">
         <v>15.1</v>
       </c>
-      <c r="H179" s="45">
+      <c r="H179" s="6">
         <v>31.2</v>
       </c>
-      <c r="I179" s="45">
+      <c r="I179" s="6">
         <v>25</v>
       </c>
       <c r="J179" s="1">
@@ -14194,7 +14164,7 @@
       </c>
       <c r="X179" s="16"/>
     </row>
-    <row r="180" spans="1:24">
+    <row r="180" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A180" s="5">
         <v>45027</v>
       </c>
@@ -14210,16 +14180,16 @@
       <c r="E180" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="F180" s="48">
+      <c r="F180" s="35">
         <v>146</v>
       </c>
-      <c r="G180" s="48">
+      <c r="G180" s="35">
         <v>13.9</v>
       </c>
-      <c r="H180" s="45">
+      <c r="H180" s="6">
         <v>18.8</v>
       </c>
-      <c r="I180" s="45">
+      <c r="I180" s="6">
         <v>12.3</v>
       </c>
       <c r="J180" s="1">
@@ -14266,7 +14236,7 @@
       </c>
       <c r="X180" s="16"/>
     </row>
-    <row r="181" spans="1:24">
+    <row r="181" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181" s="5">
         <v>45027</v>
       </c>
@@ -14282,16 +14252,16 @@
       <c r="E181" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="F181" s="48">
+      <c r="F181" s="35">
         <v>237</v>
       </c>
-      <c r="G181" s="48">
+      <c r="G181" s="35">
         <v>14.1</v>
       </c>
-      <c r="H181" s="45">
+      <c r="H181" s="6">
         <v>9.6999999999999993</v>
       </c>
-      <c r="I181" s="45">
+      <c r="I181" s="6">
         <v>8.3000000000000007</v>
       </c>
       <c r="J181" s="1">
@@ -14338,7 +14308,7 @@
       </c>
       <c r="X181" s="16"/>
     </row>
-    <row r="182" spans="1:24">
+    <row r="182" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182" s="5">
         <v>45028</v>
       </c>
@@ -14354,16 +14324,16 @@
       <c r="E182" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="F182" s="48">
+      <c r="F182" s="35">
         <v>198</v>
       </c>
-      <c r="G182" s="48">
+      <c r="G182" s="35">
         <v>14.6</v>
       </c>
-      <c r="H182" s="45">
+      <c r="H182" s="6">
         <v>18.600000000000001</v>
       </c>
-      <c r="I182" s="45">
+      <c r="I182" s="6">
         <v>22.8</v>
       </c>
       <c r="J182" s="1">
@@ -14410,7 +14380,7 @@
       </c>
       <c r="X182" s="16"/>
     </row>
-    <row r="183" spans="1:24">
+    <row r="183" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183" s="7">
         <v>45028</v>
       </c>
@@ -14474,7 +14444,7 @@
       </c>
       <c r="X183" s="16"/>
     </row>
-    <row r="184" spans="1:24">
+    <row r="184" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184" s="7">
         <v>45028</v>
       </c>
@@ -14538,7 +14508,7 @@
       </c>
       <c r="X184" s="16"/>
     </row>
-    <row r="185" spans="1:24">
+    <row r="185" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185" s="5">
         <v>45028</v>
       </c>
@@ -14554,16 +14524,16 @@
       <c r="E185" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="F185" s="48">
+      <c r="F185" s="35">
         <v>331</v>
       </c>
-      <c r="G185" s="48">
+      <c r="G185" s="35">
         <v>14.7</v>
       </c>
-      <c r="H185" s="45">
+      <c r="H185" s="6">
         <v>22.6</v>
       </c>
-      <c r="I185" s="45">
+      <c r="I185" s="6">
         <v>26.9</v>
       </c>
       <c r="J185" s="1">
@@ -14610,7 +14580,7 @@
       </c>
       <c r="X185" s="16"/>
     </row>
-    <row r="186" spans="1:24">
+    <row r="186" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186" s="5">
         <v>45028</v>
       </c>
@@ -14626,16 +14596,16 @@
       <c r="E186" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="F186" s="48">
+      <c r="F186" s="35">
         <v>331</v>
       </c>
-      <c r="G186" s="48">
+      <c r="G186" s="35">
         <v>14.7</v>
       </c>
-      <c r="H186" s="45">
+      <c r="H186" s="6">
         <v>22.6</v>
       </c>
-      <c r="I186" s="45">
+      <c r="I186" s="6">
         <v>26.9</v>
       </c>
       <c r="J186" s="1">
@@ -14682,7 +14652,7 @@
       </c>
       <c r="X186" s="16"/>
     </row>
-    <row r="187" spans="1:24">
+    <row r="187" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187" s="5">
         <v>45028</v>
       </c>
@@ -14698,16 +14668,16 @@
       <c r="E187" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="F187" s="48">
+      <c r="F187" s="35">
         <v>331</v>
       </c>
-      <c r="G187" s="48">
+      <c r="G187" s="35">
         <v>14.7</v>
       </c>
-      <c r="H187" s="45">
+      <c r="H187" s="6">
         <v>22.6</v>
       </c>
-      <c r="I187" s="45">
+      <c r="I187" s="6">
         <v>26.9</v>
       </c>
       <c r="J187" s="1">
@@ -14754,7 +14724,7 @@
       </c>
       <c r="X187" s="16"/>
     </row>
-    <row r="188" spans="1:24">
+    <row r="188" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188" s="5">
         <v>45028</v>
       </c>
@@ -14770,16 +14740,16 @@
       <c r="E188" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="F188" s="48">
+      <c r="F188" s="35">
         <v>331</v>
       </c>
-      <c r="G188" s="48">
+      <c r="G188" s="35">
         <v>14.7</v>
       </c>
-      <c r="H188" s="45">
+      <c r="H188" s="6">
         <v>22.6</v>
       </c>
-      <c r="I188" s="45">
+      <c r="I188" s="6">
         <v>26.9</v>
       </c>
       <c r="J188" s="1">
@@ -14826,7 +14796,7 @@
       </c>
       <c r="X188" s="16"/>
     </row>
-    <row r="189" spans="1:24">
+    <row r="189" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A189" s="5">
         <v>45028</v>
       </c>
@@ -14842,16 +14812,16 @@
       <c r="E189" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="F189" s="48">
+      <c r="F189" s="35">
         <v>331</v>
       </c>
-      <c r="G189" s="48">
+      <c r="G189" s="35">
         <v>14.7</v>
       </c>
-      <c r="H189" s="45">
+      <c r="H189" s="6">
         <v>22.6</v>
       </c>
-      <c r="I189" s="45">
+      <c r="I189" s="6">
         <v>26.9</v>
       </c>
       <c r="J189" s="1">
@@ -14898,7 +14868,7 @@
       </c>
       <c r="X189" s="16"/>
     </row>
-    <row r="190" spans="1:24">
+    <row r="190" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190" s="7">
         <v>45035</v>
       </c>
@@ -14962,7 +14932,7 @@
       </c>
       <c r="X190" s="16"/>
     </row>
-    <row r="191" spans="1:24">
+    <row r="191" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191" s="7">
         <v>45036</v>
       </c>
@@ -15026,7 +14996,7 @@
       </c>
       <c r="X191" s="16"/>
     </row>
-    <row r="192" spans="1:24">
+    <row r="192" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192" s="5">
         <v>45040</v>
       </c>
@@ -15042,16 +15012,16 @@
       <c r="E192" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F192" s="48">
+      <c r="F192" s="35">
         <v>157</v>
       </c>
-      <c r="G192" s="48">
+      <c r="G192" s="35">
         <v>14.9</v>
       </c>
-      <c r="H192" s="45">
+      <c r="H192" s="6">
         <v>17.600000000000001</v>
       </c>
-      <c r="I192" s="45">
+      <c r="I192" s="6">
         <v>8.9</v>
       </c>
       <c r="J192" s="1">
@@ -15098,7 +15068,7 @@
       </c>
       <c r="X192" s="16"/>
     </row>
-    <row r="193" spans="1:31">
+    <row r="193" spans="1:31" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193" s="5">
         <v>45040</v>
       </c>
@@ -15114,16 +15084,16 @@
       <c r="E193" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="F193" s="48">
+      <c r="F193" s="35">
         <v>155</v>
       </c>
-      <c r="G193" s="48">
+      <c r="G193" s="35">
         <v>16.5</v>
       </c>
-      <c r="H193" s="45">
+      <c r="H193" s="6">
         <v>11.6</v>
       </c>
-      <c r="I193" s="45">
+      <c r="I193" s="6">
         <v>5.4</v>
       </c>
       <c r="J193" s="1">
@@ -15170,7 +15140,7 @@
       </c>
       <c r="X193" s="16"/>
     </row>
-    <row r="194" spans="1:31">
+    <row r="194" spans="1:31" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A194" s="7">
         <v>45043</v>
       </c>
@@ -15234,7 +15204,7 @@
       </c>
       <c r="X194" s="16"/>
     </row>
-    <row r="195" spans="1:31">
+    <row r="195" spans="1:31" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A195" s="7">
         <v>45048</v>
       </c>
@@ -15298,7 +15268,7 @@
       </c>
       <c r="X195" s="16"/>
     </row>
-    <row r="196" spans="1:31">
+    <row r="196" spans="1:31" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A196" s="7">
         <v>45050</v>
       </c>
@@ -15362,7 +15332,7 @@
       </c>
       <c r="X196" s="16"/>
     </row>
-    <row r="197" spans="1:31">
+    <row r="197" spans="1:31" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A197" s="7">
         <v>45054</v>
       </c>
@@ -15426,7 +15396,7 @@
       </c>
       <c r="X197" s="16"/>
     </row>
-    <row r="198" spans="1:31">
+    <row r="198" spans="1:31" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A198" s="7">
         <v>45054</v>
       </c>
@@ -15490,7 +15460,7 @@
       </c>
       <c r="X198" s="16"/>
     </row>
-    <row r="199" spans="1:31">
+    <row r="199" spans="1:31" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199" s="7">
         <v>45054</v>
       </c>
@@ -15554,7 +15524,7 @@
       </c>
       <c r="X199" s="16"/>
     </row>
-    <row r="200" spans="1:31">
+    <row r="200" spans="1:31" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A200" s="7">
         <v>45070</v>
       </c>
@@ -15618,7 +15588,7 @@
       </c>
       <c r="X200" s="16"/>
     </row>
-    <row r="201" spans="1:31">
+    <row r="201" spans="1:31" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A201" s="7">
         <v>45076</v>
       </c>
@@ -15682,7 +15652,7 @@
       </c>
       <c r="X201" s="16"/>
     </row>
-    <row r="202" spans="1:31">
+    <row r="202" spans="1:31" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A202" s="7">
         <v>45084</v>
       </c>
@@ -15746,7 +15716,7 @@
       </c>
       <c r="X202" s="16"/>
     </row>
-    <row r="203" spans="1:31" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="203" spans="1:31" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A203" s="5">
         <v>45105</v>
       </c>
@@ -15809,7 +15779,7 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="204" spans="1:31" ht="15" customHeight="1">
+    <row r="204" spans="1:31" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A204" s="5">
         <v>45114</v>
       </c>
@@ -15873,7 +15843,7 @@
       </c>
       <c r="X204"/>
     </row>
-    <row r="205" spans="1:31" ht="15" customHeight="1">
+    <row r="205" spans="1:31" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A205" s="22">
         <v>45118</v>
       </c>
@@ -15937,7 +15907,7 @@
       </c>
       <c r="AE205" s="24"/>
     </row>
-    <row r="206" spans="1:31" ht="15" customHeight="1">
+    <row r="206" spans="1:31" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A206" s="5">
         <v>45159</v>
       </c>
@@ -15953,16 +15923,16 @@
       <c r="E206" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F206" s="48">
+      <c r="F206" s="35">
         <v>3440</v>
       </c>
-      <c r="G206" s="48">
+      <c r="G206" s="35">
         <v>22.8</v>
       </c>
-      <c r="H206" s="45">
+      <c r="H206" s="6">
         <v>27.7</v>
       </c>
-      <c r="I206" s="45"/>
+      <c r="I206" s="6"/>
       <c r="J206" s="1">
         <v>50</v>
       </c>
@@ -16007,7 +15977,7 @@
       </c>
       <c r="X206" s="16"/>
     </row>
-    <row r="207" spans="1:31" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="207" spans="1:31" s="14" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A207" s="7">
         <v>45190</v>
       </c>
@@ -16070,7 +16040,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="208" spans="1:31" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="208" spans="1:31" s="14" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A208" s="7">
         <v>45194</v>
       </c>
@@ -16133,73 +16103,73 @@
         <v>72</v>
       </c>
     </row>
-    <row r="209" spans="1:24" s="38" customFormat="1" ht="15" customHeight="1">
-      <c r="A209" s="33">
+    <row r="209" spans="1:24" s="14" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A209" s="7">
         <v>45197</v>
       </c>
-      <c r="B209" s="34" t="s">
+      <c r="B209" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C209" s="35" t="s">
+      <c r="C209" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D209" s="34" t="s">
+      <c r="D209" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="E209" s="34" t="s">
+      <c r="E209" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="F209" s="34"/>
-      <c r="G209" s="34"/>
-      <c r="H209" s="34"/>
-      <c r="I209" s="34"/>
-      <c r="J209" s="34">
+      <c r="F209" s="4"/>
+      <c r="G209" s="4"/>
+      <c r="H209" s="4"/>
+      <c r="I209" s="4"/>
+      <c r="J209" s="4">
         <v>70</v>
       </c>
-      <c r="K209" s="34" t="s">
+      <c r="K209" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="L209" s="34">
+      <c r="L209" s="4">
         <v>38.083379999999998</v>
       </c>
-      <c r="M209" s="34">
+      <c r="M209" s="4">
         <v>-122.05802</v>
       </c>
-      <c r="N209" s="36" t="s">
+      <c r="N209" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="O209" s="34" t="s">
+      <c r="O209" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="P209" s="34" t="s">
+      <c r="P209" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="Q209" s="34" t="s">
+      <c r="Q209" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="R209" s="35" t="s">
+      <c r="R209" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="S209" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="T209" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="U209" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="V209" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="W209" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="X209" s="37" t="s">
+      <c r="S209" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="T209" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="U209" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="V209" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="W209" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="X209" s="23" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="210" spans="1:24" ht="15" customHeight="1">
+    <row r="210" spans="1:24" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A210" s="22">
         <v>45204</v>
       </c>
@@ -16260,7 +16230,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="211" spans="1:24" ht="15" customHeight="1">
+    <row r="211" spans="1:24" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A211" s="22">
         <v>45223</v>
       </c>
@@ -16321,7 +16291,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="212" spans="1:24" ht="15" customHeight="1">
+    <row r="212" spans="1:24" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A212" s="22">
         <v>45245</v>
       </c>
@@ -16351,13 +16321,13 @@
       <c r="M212" s="14">
         <v>-121.83794</v>
       </c>
-      <c r="N212" s="39" t="s">
+      <c r="N212" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="O212" s="40" t="s">
+      <c r="O212" s="14" t="s">
         <v>393</v>
       </c>
-      <c r="P212" s="41" t="s">
+      <c r="P212" s="4" t="s">
         <v>86</v>
       </c>
       <c r="Q212" s="4" t="s">
@@ -16382,7 +16352,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="213" spans="1:24" ht="15" customHeight="1">
+    <row r="213" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A213" s="22">
         <v>45267</v>
       </c>
@@ -16412,13 +16382,13 @@
       <c r="M213" s="14">
         <v>-121.75851</v>
       </c>
-      <c r="N213" s="39" t="s">
+      <c r="N213" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="O213" s="40" t="s">
+      <c r="O213" s="14" t="s">
         <v>395</v>
       </c>
-      <c r="P213" s="40" t="s">
+      <c r="P213" s="14" t="s">
         <v>86</v>
       </c>
       <c r="Q213" s="14" t="s">
@@ -16439,9 +16409,8 @@
       <c r="V213" s="14" t="s">
         <v>398</v>
       </c>
-      <c r="W213" s="38"/>
-    </row>
-    <row r="214" spans="1:24" ht="15" customHeight="1">
+    </row>
+    <row r="214" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A214" s="22">
         <v>45307</v>
       </c>
@@ -16471,13 +16440,13 @@
       <c r="M214" s="14">
         <v>-121.78878</v>
       </c>
-      <c r="N214" s="39" t="s">
+      <c r="N214" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="O214" s="40" t="s">
+      <c r="O214" s="14" t="s">
         <v>400</v>
       </c>
-      <c r="P214" s="40" t="s">
+      <c r="P214" s="14" t="s">
         <v>86</v>
       </c>
       <c r="Q214" s="14" t="s">
@@ -16498,9 +16467,8 @@
       <c r="V214" s="14" t="s">
         <v>398</v>
       </c>
-      <c r="W214" s="38"/>
-    </row>
-    <row r="215" spans="1:24" ht="15" customHeight="1">
+    </row>
+    <row r="215" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A215" s="22">
         <v>45313</v>
       </c>
@@ -16530,13 +16498,13 @@
       <c r="M215" s="14">
         <v>-121.89997</v>
       </c>
-      <c r="N215" s="41" t="s">
+      <c r="N215" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="O215" s="42" t="s">
+      <c r="O215" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="P215" s="41" t="s">
+      <c r="P215" s="4" t="s">
         <v>406</v>
       </c>
       <c r="Q215" s="14" t="s">
@@ -16557,12 +16525,11 @@
       <c r="V215" s="14" t="s">
         <v>398</v>
       </c>
-      <c r="W215" s="38"/>
       <c r="X215" s="16" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="216" spans="1:24" ht="15" customHeight="1">
+    <row r="216" spans="1:24" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A216" s="22">
         <v>45313</v>
       </c>
@@ -16592,19 +16559,19 @@
       <c r="M216" s="14">
         <v>-122.08213000000001</v>
       </c>
-      <c r="N216" s="41" t="s">
+      <c r="N216" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="O216" s="42" t="s">
+      <c r="O216" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="P216" s="41" t="s">
+      <c r="P216" s="4" t="s">
         <v>75</v>
       </c>
       <c r="Q216" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="R216" s="34" t="s">
+      <c r="R216" s="4" t="s">
         <v>75</v>
       </c>
       <c r="S216" s="4" t="s">
@@ -16626,7 +16593,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="217" spans="1:24" ht="15" customHeight="1">
+    <row r="217" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A217" s="22">
         <v>45315</v>
       </c>
@@ -16656,13 +16623,13 @@
       <c r="M217" s="14">
         <v>-122.06549</v>
       </c>
-      <c r="N217" s="39" t="s">
+      <c r="N217" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="O217" s="42" t="s">
+      <c r="O217" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="P217" s="40" t="s">
+      <c r="P217" s="14" t="s">
         <v>86</v>
       </c>
       <c r="Q217" s="14" t="s">
@@ -16683,9 +16650,8 @@
       <c r="V217" s="14" t="s">
         <v>398</v>
       </c>
-      <c r="W217" s="38"/>
-    </row>
-    <row r="218" spans="1:24" ht="15" customHeight="1">
+    </row>
+    <row r="218" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A218" s="22">
         <v>45315</v>
       </c>
@@ -16715,13 +16681,13 @@
       <c r="M218" s="14">
         <v>-121.65279</v>
       </c>
-      <c r="N218" s="39" t="s">
+      <c r="N218" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="O218" s="42" t="s">
+      <c r="O218" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="P218" s="40" t="s">
+      <c r="P218" s="14" t="s">
         <v>86</v>
       </c>
       <c r="Q218" s="14" t="s">
@@ -16742,9 +16708,8 @@
       <c r="V218" s="14" t="s">
         <v>398</v>
       </c>
-      <c r="W218" s="38"/>
-    </row>
-    <row r="219" spans="1:24" ht="15" customHeight="1">
+    </row>
+    <row r="219" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A219" s="22">
         <v>45316</v>
       </c>
@@ -16774,13 +16739,13 @@
       <c r="M219" s="14">
         <v>-121.7368</v>
       </c>
-      <c r="N219" s="39" t="s">
+      <c r="N219" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="O219" s="42" t="s">
+      <c r="O219" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="P219" s="40" t="s">
+      <c r="P219" s="14" t="s">
         <v>86</v>
       </c>
       <c r="Q219" s="14" t="s">
@@ -16801,9 +16766,8 @@
       <c r="V219" s="14" t="s">
         <v>420</v>
       </c>
-      <c r="W219" s="38"/>
-    </row>
-    <row r="220" spans="1:24" ht="15" customHeight="1">
+    </row>
+    <row r="220" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A220" s="22">
         <v>45318</v>
       </c>
@@ -16835,17 +16799,17 @@
       <c r="M220" s="14">
         <v>-121.558995</v>
       </c>
-      <c r="N220" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="O220" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="P220" s="40" t="s">
+      <c r="N220" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="O220" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="P220" s="14" t="s">
         <v>118</v>
       </c>
       <c r="Q220" s="14" t="s">
-        <v>336</v>
+        <v>128</v>
       </c>
       <c r="R220" s="14" t="s">
         <v>77</v>
@@ -16862,9 +16826,8 @@
       <c r="V220" s="14" t="s">
         <v>398</v>
       </c>
-      <c r="W220" s="38"/>
-    </row>
-    <row r="221" spans="1:24" ht="15" customHeight="1">
+    </row>
+    <row r="221" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A221" s="22">
         <v>45322</v>
       </c>
@@ -16894,13 +16857,13 @@
       <c r="M221" s="14">
         <v>-121.55394</v>
       </c>
-      <c r="N221" s="39" t="s">
+      <c r="N221" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="O221" s="42" t="s">
+      <c r="O221" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="P221" s="40" t="s">
+      <c r="P221" s="14" t="s">
         <v>86</v>
       </c>
       <c r="Q221" s="14" t="s">
@@ -16921,9 +16884,8 @@
       <c r="V221" s="14" t="s">
         <v>420</v>
       </c>
-      <c r="W221" s="38"/>
-    </row>
-    <row r="222" spans="1:24" ht="15" customHeight="1">
+    </row>
+    <row r="222" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A222" s="22">
         <v>45323</v>
       </c>
@@ -16953,13 +16915,13 @@
       <c r="M222" s="14">
         <v>-121.98945000000001</v>
       </c>
-      <c r="N222" s="39" t="s">
+      <c r="N222" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="O222" s="42" t="s">
+      <c r="O222" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="P222" s="40" t="s">
+      <c r="P222" s="14" t="s">
         <v>86</v>
       </c>
       <c r="Q222" s="14" t="s">
@@ -16980,9 +16942,8 @@
       <c r="V222" s="14" t="s">
         <v>398</v>
       </c>
-      <c r="W222" s="38"/>
-    </row>
-    <row r="223" spans="1:24" ht="15" customHeight="1">
+    </row>
+    <row r="223" spans="1:24" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A223" s="22">
         <v>45327</v>
       </c>
@@ -17000,10 +16961,10 @@
       </c>
       <c r="F223" s="14"/>
       <c r="G223" s="14"/>
-      <c r="J223" s="38" t="s">
+      <c r="J223" s="14" t="s">
         <v>404</v>
       </c>
-      <c r="K223" s="38" t="s">
+      <c r="K223" s="14" t="s">
         <v>73</v>
       </c>
       <c r="L223" s="14">
@@ -17012,13 +16973,13 @@
       <c r="M223" s="14">
         <v>-122.04123</v>
       </c>
-      <c r="N223" s="41" t="s">
+      <c r="N223" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="O223" s="40" t="s">
+      <c r="O223" s="14" t="s">
         <v>426</v>
       </c>
-      <c r="P223" s="40" t="s">
+      <c r="P223" s="14" t="s">
         <v>262</v>
       </c>
       <c r="Q223" s="14" t="s">
@@ -17042,11 +17003,11 @@
       <c r="W223" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="X223" s="44" t="s">
+      <c r="X223" s="33" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="224" spans="1:24" ht="15" customHeight="1">
+    <row r="224" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A224" s="22">
         <v>45327</v>
       </c>
@@ -17076,13 +17037,13 @@
       <c r="M224" s="14">
         <v>-121.89077</v>
       </c>
-      <c r="N224" s="39" t="s">
+      <c r="N224" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="O224" s="40" t="s">
+      <c r="O224" s="14" t="s">
         <v>430</v>
       </c>
-      <c r="P224" s="40" t="s">
+      <c r="P224" s="14" t="s">
         <v>86</v>
       </c>
       <c r="Q224" s="14" t="s">
@@ -17103,9 +17064,8 @@
       <c r="V224" s="14" t="s">
         <v>420</v>
       </c>
-      <c r="W224" s="38"/>
-    </row>
-    <row r="225" spans="1:23" ht="15" customHeight="1">
+    </row>
+    <row r="225" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A225" s="22">
         <v>45327</v>
       </c>
@@ -17135,13 +17095,13 @@
       <c r="M225" s="14">
         <v>-121.75342999999999</v>
       </c>
-      <c r="N225" s="39" t="s">
+      <c r="N225" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="O225" s="40" t="s">
+      <c r="O225" s="14" t="s">
         <v>433</v>
       </c>
-      <c r="P225" s="40" t="s">
+      <c r="P225" s="14" t="s">
         <v>86</v>
       </c>
       <c r="Q225" s="14" t="s">
@@ -17162,9 +17122,8 @@
       <c r="V225" s="14" t="s">
         <v>398</v>
       </c>
-      <c r="W225" s="38"/>
-    </row>
-    <row r="226" spans="1:23" ht="15" customHeight="1">
+    </row>
+    <row r="226" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A226" s="22">
         <v>45327</v>
       </c>
@@ -17194,13 +17153,13 @@
       <c r="M226" s="14">
         <v>-121.75342999999999</v>
       </c>
-      <c r="N226" s="39" t="s">
+      <c r="N226" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="O226" s="40" t="s">
+      <c r="O226" s="14" t="s">
         <v>434</v>
       </c>
-      <c r="P226" s="40" t="s">
+      <c r="P226" s="14" t="s">
         <v>86</v>
       </c>
       <c r="Q226" s="14" t="s">
@@ -17221,9 +17180,8 @@
       <c r="V226" s="14" t="s">
         <v>437</v>
       </c>
-      <c r="W226" s="38"/>
-    </row>
-    <row r="227" spans="1:23" ht="15" customHeight="1">
+    </row>
+    <row r="227" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A227" s="22">
         <v>45327</v>
       </c>
@@ -17280,9 +17238,8 @@
       <c r="V227" s="14" t="s">
         <v>398</v>
       </c>
-      <c r="W227" s="38"/>
-    </row>
-    <row r="228" spans="1:23" ht="15" customHeight="1">
+    </row>
+    <row r="228" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A228" s="22">
         <v>45328</v>
       </c>
@@ -17339,9 +17296,8 @@
       <c r="V228" s="14" t="s">
         <v>398</v>
       </c>
-      <c r="W228" s="38"/>
-    </row>
-    <row r="229" spans="1:23" ht="15" customHeight="1">
+    </row>
+    <row r="229" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A229" s="22">
         <v>45328</v>
       </c>
@@ -17373,17 +17329,17 @@
       <c r="M229" s="14">
         <v>-121.558995</v>
       </c>
-      <c r="N229" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="O229" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="P229" s="40" t="s">
+      <c r="N229" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="O229" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="P229" s="14" t="s">
         <v>118</v>
       </c>
       <c r="Q229" s="14" t="s">
-        <v>336</v>
+        <v>128</v>
       </c>
       <c r="R229" s="14" t="s">
         <v>77</v>
@@ -17401,7 +17357,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="230" spans="1:23" ht="15" customHeight="1">
+    <row r="230" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A230" s="22">
         <v>45328</v>
       </c>
@@ -17433,17 +17389,17 @@
       <c r="M230" s="14">
         <v>-121.558995</v>
       </c>
-      <c r="N230" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="O230" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="P230" s="40" t="s">
+      <c r="N230" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="O230" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="P230" s="14" t="s">
         <v>118</v>
       </c>
       <c r="Q230" s="14" t="s">
-        <v>336</v>
+        <v>128</v>
       </c>
       <c r="R230" s="14" t="s">
         <v>435</v>
@@ -17461,7 +17417,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="231" spans="1:23" ht="15" customHeight="1">
+    <row r="231" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A231" s="22">
         <v>45329</v>
       </c>
@@ -17480,9 +17436,17 @@
       <c r="J231" s="14">
         <v>58</v>
       </c>
-      <c r="N231" s="39"/>
-      <c r="O231" s="43"/>
-      <c r="P231" s="40"/>
+      <c r="K231" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="L231" s="6">
+        <v>38.067970000000003</v>
+      </c>
+      <c r="M231" s="6">
+        <v>-121.82071999999999</v>
+      </c>
+      <c r="N231" s="8"/>
+      <c r="O231" s="19"/>
       <c r="R231" s="14" t="s">
         <v>435</v>
       </c>
@@ -17499,7 +17463,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="232" spans="1:23" ht="15" customHeight="1">
+    <row r="232" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A232" s="22">
         <v>45330</v>
       </c>
@@ -17518,9 +17482,17 @@
       <c r="J232" s="14">
         <v>69</v>
       </c>
-      <c r="N232" s="39"/>
-      <c r="O232" s="43"/>
-      <c r="P232" s="40"/>
+      <c r="K232" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="L232" s="6">
+        <v>38.11177</v>
+      </c>
+      <c r="M232" s="6">
+        <v>-121.69177000000001</v>
+      </c>
+      <c r="N232" s="8"/>
+      <c r="O232" s="19"/>
       <c r="R232" s="14" t="s">
         <v>441</v>
       </c>
@@ -17537,7 +17509,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="233" spans="1:23" ht="15" customHeight="1">
+    <row r="233" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A233" s="22">
         <v>45330</v>
       </c>
@@ -17556,9 +17528,17 @@
       <c r="J233" s="14">
         <v>68</v>
       </c>
-      <c r="N233" s="39"/>
-      <c r="O233" s="43"/>
-      <c r="P233" s="40"/>
+      <c r="K233" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="L233" s="6">
+        <v>38.074460000000002</v>
+      </c>
+      <c r="M233" s="6">
+        <v>-121.57089999999999</v>
+      </c>
+      <c r="N233" s="8"/>
+      <c r="O233" s="19"/>
       <c r="R233" s="14" t="s">
         <v>435</v>
       </c>
@@ -17575,7 +17555,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="234" spans="1:23" ht="15" customHeight="1">
+    <row r="234" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A234" s="22">
         <v>45331</v>
       </c>
@@ -17605,11 +17585,11 @@
       <c r="M234" s="14">
         <v>-121.558995</v>
       </c>
-      <c r="N234" s="39" t="s">
+      <c r="N234" s="8" t="s">
         <v>72</v>
       </c>
       <c r="Q234" s="14" t="s">
-        <v>336</v>
+        <v>128</v>
       </c>
       <c r="R234" s="14" t="s">
         <v>444</v>
@@ -17627,7 +17607,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="235" spans="1:23" ht="15" customHeight="1">
+    <row r="235" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A235" s="22">
         <v>45332</v>
       </c>
@@ -17655,11 +17635,11 @@
       <c r="M235" s="14">
         <v>-121.558995</v>
       </c>
-      <c r="N235" s="39" t="s">
+      <c r="N235" s="8" t="s">
         <v>72</v>
       </c>
       <c r="Q235" s="14" t="s">
-        <v>336</v>
+        <v>128</v>
       </c>
       <c r="R235" s="14" t="s">
         <v>77</v>
@@ -17677,7 +17657,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="236" spans="1:23" ht="15" customHeight="1">
+    <row r="236" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A236" s="22">
         <v>45334</v>
       </c>
@@ -17705,11 +17685,11 @@
       <c r="M236" s="14">
         <v>-121.558995</v>
       </c>
-      <c r="N236" s="39" t="s">
+      <c r="N236" s="8" t="s">
         <v>72</v>
       </c>
       <c r="Q236" s="14" t="s">
-        <v>336</v>
+        <v>128</v>
       </c>
       <c r="R236" s="14" t="s">
         <v>441</v>
@@ -17727,20 +17707,31 @@
         <v>443</v>
       </c>
     </row>
-    <row r="237" spans="1:23" ht="15" customHeight="1">
+    <row r="237" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A237" s="22">
         <v>45334</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="C237" s="1"/>
+      <c r="C237" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="D237" s="1"/>
       <c r="E237" s="1"/>
       <c r="J237" s="14">
         <v>70</v>
       </c>
-      <c r="N237" s="39"/>
+      <c r="K237" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="L237" s="6">
+        <v>38.047800000000002</v>
+      </c>
+      <c r="M237" s="6">
+        <v>-122.1733</v>
+      </c>
+      <c r="N237" s="8"/>
       <c r="R237" s="14" t="s">
         <v>418</v>
       </c>
@@ -17757,7 +17748,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="238" spans="1:23" ht="15" customHeight="1">
+    <row r="238" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A238" s="22">
         <v>45335</v>
       </c>
@@ -17785,11 +17776,11 @@
       <c r="M238" s="14">
         <v>-121.558995</v>
       </c>
-      <c r="N238" s="39" t="s">
+      <c r="N238" s="8" t="s">
         <v>72</v>
       </c>
       <c r="Q238" s="14" t="s">
-        <v>336</v>
+        <v>128</v>
       </c>
       <c r="R238" s="14" t="s">
         <v>441</v>
@@ -17807,8 +17798,201 @@
         <v>443</v>
       </c>
     </row>
+    <row r="239" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A239" s="22">
+        <v>45335</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D239" s="1"/>
+      <c r="E239" s="1"/>
+      <c r="J239" s="14">
+        <v>78</v>
+      </c>
+      <c r="K239" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="L239" s="6">
+        <v>38.094329999999999</v>
+      </c>
+      <c r="M239" s="6">
+        <v>-121.59090999999999</v>
+      </c>
+      <c r="N239" s="8"/>
+      <c r="R239" s="14" t="s">
+        <v>435</v>
+      </c>
+      <c r="S239" s="14" t="s">
+        <v>436</v>
+      </c>
+      <c r="T239" s="22">
+        <v>45316</v>
+      </c>
+      <c r="U239" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="V239" s="14" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="240" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A240" s="22">
+        <v>45335</v>
+      </c>
+      <c r="B240" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="C240" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D240" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E240" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="J240" s="14">
+        <v>84</v>
+      </c>
+      <c r="K240" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="L240" s="14">
+        <v>37.815818999999998</v>
+      </c>
+      <c r="M240" s="14">
+        <v>-121.558995</v>
+      </c>
+      <c r="N240" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q240" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="R240" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="S240" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="T240" s="22">
+        <v>45301</v>
+      </c>
+      <c r="U240" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="V240" s="14" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="241" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A241" s="22">
+        <v>45336</v>
+      </c>
+      <c r="B241" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="C241" s="14" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="242" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A242" s="22">
+        <v>45336</v>
+      </c>
+      <c r="B242" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J242" s="14">
+        <v>61</v>
+      </c>
+      <c r="K242" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="L242" s="6">
+        <v>38.186019999999999</v>
+      </c>
+      <c r="M242" s="6">
+        <v>-121.98199</v>
+      </c>
+      <c r="R242" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="S242" s="14" t="s">
+        <v>442</v>
+      </c>
+      <c r="T242" s="22">
+        <v>45322</v>
+      </c>
+      <c r="U242" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="V242" s="14" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="243" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A243" s="22">
+        <v>45336</v>
+      </c>
+      <c r="B243" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J243" s="14">
+        <v>63</v>
+      </c>
+      <c r="K243" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="L243" s="6">
+        <v>38.0715</v>
+      </c>
+      <c r="M243" s="6">
+        <v>-121.87093</v>
+      </c>
+      <c r="R243" s="14" t="s">
+        <v>444</v>
+      </c>
+      <c r="S243" s="14" t="s">
+        <v>445</v>
+      </c>
+      <c r="T243" s="22">
+        <v>45321</v>
+      </c>
+      <c r="U243" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="V243" s="14" t="s">
+        <v>437</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:X234" xr:uid="{C569B310-60E0-4E31-89EB-52CC1C810311}">
+  <autoFilter ref="A1:X243" xr:uid="{C569B310-60E0-4E31-89EB-52CC1C810311}">
+    <filterColumn colId="17">
+      <filters>
+        <filter val="AdClipped"/>
+        <filter val="VIE-Left/Green/Anterior Dorsal"/>
+        <filter val="VIE-Left/Orange/Anterior Dorsal"/>
+        <filter val="VIE-Left/Orange/Posterior Dorsal"/>
+        <filter val="VIE-Left/Red/Anterior Dorsal"/>
+        <filter val="VIE-Left/Red/Posterior Dorsal"/>
+        <filter val="VIE-Right/Green/Posterior Dorsal"/>
+        <filter val="VIE-Right/Orange/Anterior Dorsal"/>
+        <filter val="VIE-Right/Orange/Posterior Dorsal"/>
+        <filter val="VIE-Right/Red/Anterior Dorsal"/>
+        <filter val="VIE-Right/Red/Mid-dorsal"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:X216">
       <sortCondition ref="A1:A213"/>
     </sortState>
@@ -18058,15 +18242,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="65146633-a755-433a-aacb-5024b6511b89">
@@ -18077,14 +18252,49 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76D96E8C-3FF7-4769-9DB8-E43AB53278F6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76D96E8C-3FF7-4769-9DB8-E43AB53278F6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="65146633-a755-433a-aacb-5024b6511b89"/>
+    <ds:schemaRef ds:uri="d8e23be6-d007-4c2c-9265-7d9405abf22e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C764E5-19B4-4012-98BF-B46F2FA7A2CF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D4F8AF6-B64B-4962-81B5-D73EE7A1E0CA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="65146633-a755-433a-aacb-5024b6511b89"/>
+    <ds:schemaRef ds:uri="d8e23be6-d007-4c2c-9265-7d9405abf22e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D4F8AF6-B64B-4962-81B5-D73EE7A1E0CA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C764E5-19B4-4012-98BF-B46F2FA7A2CF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Running Delta Smelt Catch_2023-09-05.xlsx
+++ b/Running Delta Smelt Catch_2023-09-05.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cawater-my.sharepoint.com/personal/rosemary_hartman_water_ca_gov/Documents/smelt cages/SmeltMap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="6_{D7D8C1E3-0910-435B-88BC-04AB77536274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A403506-1F7A-4636-BBFE-150CF9EBC122}"/>
+  <xr:revisionPtr revIDLastSave="63" documentId="6_{D7D8C1E3-0910-435B-88BC-04AB77536274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90018AFA-48F1-4A9E-830D-4B830CAD046C}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="1" activeTab="1" xr2:uid="{4BB403AD-DB3F-4CB5-B7F1-39827ED458E8}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3472" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3485" uniqueCount="451">
   <si>
     <t>Running Delta Smelt Catch Data Collected for the USFWS Delta Smelt Experimental Release Technical Team</t>
   </si>
@@ -1403,14 +1403,23 @@
     <t>DJFMP</t>
   </si>
   <si>
-    <t>Efish</t>
+    <t>E-fishing</t>
+  </si>
+  <si>
+    <t>LIB9</t>
+  </si>
+  <si>
+    <t>S331</t>
+  </si>
+  <si>
+    <t>Water temp channel 10.9, water temp shore 11.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1462,6 +1471,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1534,7 +1556,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1627,6 +1649,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2311,12 +2349,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C569B310-60E0-4E31-89EB-52CC1C810311}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AE243"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="E160" sqref="E160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3482,7 +3518,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A19" s="7">
         <v>44566</v>
       </c>
@@ -6946,7 +6982,7 @@
       </c>
       <c r="X70" s="16"/>
     </row>
-    <row r="71" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A71" s="5">
         <v>44641</v>
       </c>
@@ -7018,7 +7054,7 @@
       </c>
       <c r="X71" s="16"/>
     </row>
-    <row r="72" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A72" s="5">
         <v>44641</v>
       </c>
@@ -7090,7 +7126,7 @@
       </c>
       <c r="X72" s="16"/>
     </row>
-    <row r="73" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A73" s="5">
         <v>44641</v>
       </c>
@@ -7162,7 +7198,7 @@
       </c>
       <c r="X73" s="16"/>
     </row>
-    <row r="74" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A74" s="5">
         <v>44641</v>
       </c>
@@ -7234,7 +7270,7 @@
       </c>
       <c r="X74" s="16"/>
     </row>
-    <row r="75" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A75" s="5">
         <v>44641</v>
       </c>
@@ -7306,7 +7342,7 @@
       </c>
       <c r="X75" s="16"/>
     </row>
-    <row r="76" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A76" s="5">
         <v>44641</v>
       </c>
@@ -7826,7 +7862,7 @@
       </c>
       <c r="X83" s="16"/>
     </row>
-    <row r="84" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A84" s="5">
         <v>44643</v>
       </c>
@@ -7898,7 +7934,7 @@
       </c>
       <c r="X84" s="16"/>
     </row>
-    <row r="85" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A85" s="5">
         <v>44643</v>
       </c>
@@ -8098,7 +8134,7 @@
       </c>
       <c r="X87" s="16"/>
     </row>
-    <row r="88" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A88" s="7">
         <v>44656</v>
       </c>
@@ -8162,7 +8198,7 @@
       </c>
       <c r="X88" s="16"/>
     </row>
-    <row r="89" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A89" s="7">
         <v>44656</v>
       </c>
@@ -8226,7 +8262,7 @@
       </c>
       <c r="X89" s="16"/>
     </row>
-    <row r="90" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A90" s="7">
         <v>44656</v>
       </c>
@@ -8290,7 +8326,7 @@
       </c>
       <c r="X90" s="16"/>
     </row>
-    <row r="91" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A91" s="5">
         <v>44656</v>
       </c>
@@ -8362,7 +8398,7 @@
       </c>
       <c r="X91" s="16"/>
     </row>
-    <row r="92" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A92" s="5">
         <v>44658</v>
       </c>
@@ -8434,7 +8470,7 @@
       </c>
       <c r="X92" s="16"/>
     </row>
-    <row r="93" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A93" s="5">
         <v>44664</v>
       </c>
@@ -8506,7 +8542,7 @@
       </c>
       <c r="X93" s="16"/>
     </row>
-    <row r="94" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A94" s="5">
         <v>44665</v>
       </c>
@@ -8578,7 +8614,7 @@
       </c>
       <c r="X94" s="16"/>
     </row>
-    <row r="95" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A95" s="7">
         <v>44669</v>
       </c>
@@ -8642,7 +8678,7 @@
       </c>
       <c r="X95" s="16"/>
     </row>
-    <row r="96" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A96" s="7">
         <v>44669</v>
       </c>
@@ -8706,7 +8742,7 @@
       </c>
       <c r="X96" s="16"/>
     </row>
-    <row r="97" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A97" s="7">
         <v>44669</v>
       </c>
@@ -8770,7 +8806,7 @@
       </c>
       <c r="X97" s="16"/>
     </row>
-    <row r="98" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A98" s="7">
         <v>44669</v>
       </c>
@@ -8834,7 +8870,7 @@
       </c>
       <c r="X98" s="16"/>
     </row>
-    <row r="99" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A99" s="7">
         <v>44673</v>
       </c>
@@ -8898,7 +8934,7 @@
       </c>
       <c r="X99" s="16"/>
     </row>
-    <row r="100" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A100" s="7">
         <v>44684</v>
       </c>
@@ -8962,7 +8998,7 @@
       </c>
       <c r="X100" s="16"/>
     </row>
-    <row r="101" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A101" s="7">
         <v>44684</v>
       </c>
@@ -9026,7 +9062,7 @@
       </c>
       <c r="X101" s="16"/>
     </row>
-    <row r="102" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A102" s="7">
         <v>44684</v>
       </c>
@@ -9090,7 +9126,7 @@
       </c>
       <c r="X102" s="16"/>
     </row>
-    <row r="103" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A103" s="7">
         <v>44690</v>
       </c>
@@ -9154,7 +9190,7 @@
       </c>
       <c r="X103" s="16"/>
     </row>
-    <row r="104" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A104" s="7">
         <v>44690</v>
       </c>
@@ -9218,7 +9254,7 @@
       </c>
       <c r="X104" s="16"/>
     </row>
-    <row r="105" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A105" s="7">
         <v>44691</v>
       </c>
@@ -9282,7 +9318,7 @@
       </c>
       <c r="X105" s="16"/>
     </row>
-    <row r="106" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A106" s="7">
         <v>44691</v>
       </c>
@@ -9346,7 +9382,7 @@
       </c>
       <c r="X106" s="16"/>
     </row>
-    <row r="107" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A107" s="7">
         <v>44691</v>
       </c>
@@ -9410,7 +9446,7 @@
       </c>
       <c r="X107" s="16"/>
     </row>
-    <row r="108" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A108" s="7">
         <v>44691</v>
       </c>
@@ -9474,7 +9510,7 @@
       </c>
       <c r="X108" s="16"/>
     </row>
-    <row r="109" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A109" s="7">
         <v>44713</v>
       </c>
@@ -9538,7 +9574,7 @@
       </c>
       <c r="X109" s="16"/>
     </row>
-    <row r="110" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A110" s="7">
         <v>44718</v>
       </c>
@@ -9602,7 +9638,7 @@
       </c>
       <c r="X110" s="16"/>
     </row>
-    <row r="111" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A111" s="7">
         <v>44775</v>
       </c>
@@ -9666,7 +9702,7 @@
       </c>
       <c r="X111" s="16"/>
     </row>
-    <row r="112" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A112" s="7">
         <v>44775</v>
       </c>
@@ -9730,7 +9766,7 @@
       </c>
       <c r="X112" s="16"/>
     </row>
-    <row r="113" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A113" s="7">
         <v>44783</v>
       </c>
@@ -9794,7 +9830,7 @@
       </c>
       <c r="X113" s="16"/>
     </row>
-    <row r="114" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A114" s="7">
         <v>44788</v>
       </c>
@@ -9858,7 +9894,7 @@
       </c>
       <c r="X114" s="16"/>
     </row>
-    <row r="115" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A115" s="7">
         <v>44789</v>
       </c>
@@ -9922,7 +9958,7 @@
       </c>
       <c r="X115" s="16"/>
     </row>
-    <row r="116" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A116" s="7">
         <v>44825</v>
       </c>
@@ -9986,7 +10022,7 @@
       </c>
       <c r="X116" s="16"/>
     </row>
-    <row r="117" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A117" s="7">
         <v>44868</v>
       </c>
@@ -10052,7 +10088,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="118" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A118" s="7">
         <v>44872</v>
       </c>
@@ -10184,7 +10220,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="120" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A120" s="5">
         <v>44909</v>
       </c>
@@ -10314,7 +10350,7 @@
       </c>
       <c r="X121" s="16"/>
     </row>
-    <row r="122" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A122" s="7">
         <v>44943</v>
       </c>
@@ -10892,7 +10928,7 @@
       </c>
       <c r="X130" s="16"/>
     </row>
-    <row r="131" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A131" s="7">
         <v>44957</v>
       </c>
@@ -11740,7 +11776,7 @@
       </c>
       <c r="X143" s="16"/>
     </row>
-    <row r="144" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A144" s="7">
         <v>44966</v>
       </c>
@@ -12254,7 +12290,7 @@
       </c>
       <c r="X151" s="16"/>
     </row>
-    <row r="152" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:24" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="5">
         <v>44974</v>
       </c>
@@ -12318,7 +12354,7 @@
       </c>
       <c r="X152" s="16"/>
     </row>
-    <row r="153" spans="1:24" s="18" customFormat="1" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:24" s="18" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="28">
         <v>44975</v>
       </c>
@@ -12834,7 +12870,7 @@
       </c>
       <c r="X160" s="16"/>
     </row>
-    <row r="161" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:24" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="7">
         <v>44991</v>
       </c>
@@ -13036,7 +13072,7 @@
       </c>
       <c r="X163" s="16"/>
     </row>
-    <row r="164" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="5">
         <v>44993</v>
       </c>
@@ -13108,7 +13144,7 @@
       </c>
       <c r="X164" s="16"/>
     </row>
-    <row r="165" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A165" s="5">
         <v>44998</v>
       </c>
@@ -13180,7 +13216,7 @@
       </c>
       <c r="X165" s="16"/>
     </row>
-    <row r="166" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A166" s="5">
         <v>44998</v>
       </c>
@@ -13252,7 +13288,7 @@
       </c>
       <c r="X166" s="16"/>
     </row>
-    <row r="167" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A167" s="5">
         <v>45000</v>
       </c>
@@ -13324,7 +13360,7 @@
       </c>
       <c r="X167" s="16"/>
     </row>
-    <row r="168" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="5">
         <v>45000</v>
       </c>
@@ -13396,7 +13432,7 @@
       </c>
       <c r="X168" s="16"/>
     </row>
-    <row r="169" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="5">
         <v>45000</v>
       </c>
@@ -13468,7 +13504,7 @@
       </c>
       <c r="X169" s="16"/>
     </row>
-    <row r="170" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="5">
         <v>45000</v>
       </c>
@@ -13540,7 +13576,7 @@
       </c>
       <c r="X170" s="16"/>
     </row>
-    <row r="171" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="5">
         <v>45000</v>
       </c>
@@ -13612,7 +13648,7 @@
       </c>
       <c r="X171" s="16"/>
     </row>
-    <row r="172" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="5">
         <v>45000</v>
       </c>
@@ -13684,7 +13720,7 @@
       </c>
       <c r="X172" s="16"/>
     </row>
-    <row r="173" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:24" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="5">
         <v>45002</v>
       </c>
@@ -13756,7 +13792,7 @@
       </c>
       <c r="X173" s="16"/>
     </row>
-    <row r="174" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="5">
         <v>45002</v>
       </c>
@@ -13828,7 +13864,7 @@
       </c>
       <c r="X174" s="16"/>
     </row>
-    <row r="175" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:24" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="7">
         <v>45006</v>
       </c>
@@ -13892,7 +13928,7 @@
       </c>
       <c r="X175" s="16"/>
     </row>
-    <row r="176" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A176" s="7">
         <v>45021</v>
       </c>
@@ -13956,7 +13992,7 @@
       </c>
       <c r="X176" s="16"/>
     </row>
-    <row r="177" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A177" s="7">
         <v>45026</v>
       </c>
@@ -14020,7 +14056,7 @@
       </c>
       <c r="X177" s="16"/>
     </row>
-    <row r="178" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A178" s="5">
         <v>45026</v>
       </c>
@@ -14092,7 +14128,7 @@
       </c>
       <c r="X178" s="16"/>
     </row>
-    <row r="179" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A179" s="5">
         <v>45027</v>
       </c>
@@ -14164,7 +14200,7 @@
       </c>
       <c r="X179" s="16"/>
     </row>
-    <row r="180" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A180" s="5">
         <v>45027</v>
       </c>
@@ -14236,7 +14272,7 @@
       </c>
       <c r="X180" s="16"/>
     </row>
-    <row r="181" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A181" s="5">
         <v>45027</v>
       </c>
@@ -14308,7 +14344,7 @@
       </c>
       <c r="X181" s="16"/>
     </row>
-    <row r="182" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A182" s="5">
         <v>45028</v>
       </c>
@@ -14380,7 +14416,7 @@
       </c>
       <c r="X182" s="16"/>
     </row>
-    <row r="183" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:24" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="7">
         <v>45028</v>
       </c>
@@ -14444,7 +14480,7 @@
       </c>
       <c r="X183" s="16"/>
     </row>
-    <row r="184" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="7">
         <v>45028</v>
       </c>
@@ -14508,7 +14544,7 @@
       </c>
       <c r="X184" s="16"/>
     </row>
-    <row r="185" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="5">
         <v>45028</v>
       </c>
@@ -14580,7 +14616,7 @@
       </c>
       <c r="X185" s="16"/>
     </row>
-    <row r="186" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:24" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="5">
         <v>45028</v>
       </c>
@@ -14652,7 +14688,7 @@
       </c>
       <c r="X186" s="16"/>
     </row>
-    <row r="187" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="5">
         <v>45028</v>
       </c>
@@ -14724,7 +14760,7 @@
       </c>
       <c r="X187" s="16"/>
     </row>
-    <row r="188" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:24" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="5">
         <v>45028</v>
       </c>
@@ -14796,7 +14832,7 @@
       </c>
       <c r="X188" s="16"/>
     </row>
-    <row r="189" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="5">
         <v>45028</v>
       </c>
@@ -14868,7 +14904,7 @@
       </c>
       <c r="X189" s="16"/>
     </row>
-    <row r="190" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A190" s="7">
         <v>45035</v>
       </c>
@@ -14932,7 +14968,7 @@
       </c>
       <c r="X190" s="16"/>
     </row>
-    <row r="191" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:24" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191" s="7">
         <v>45036</v>
       </c>
@@ -14996,7 +15032,7 @@
       </c>
       <c r="X191" s="16"/>
     </row>
-    <row r="192" spans="1:24" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" s="5">
         <v>45040</v>
       </c>
@@ -15068,7 +15104,7 @@
       </c>
       <c r="X192" s="16"/>
     </row>
-    <row r="193" spans="1:31" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:31" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A193" s="5">
         <v>45040</v>
       </c>
@@ -15140,7 +15176,7 @@
       </c>
       <c r="X193" s="16"/>
     </row>
-    <row r="194" spans="1:31" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A194" s="7">
         <v>45043</v>
       </c>
@@ -15204,7 +15240,7 @@
       </c>
       <c r="X194" s="16"/>
     </row>
-    <row r="195" spans="1:31" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:31" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195" s="7">
         <v>45048</v>
       </c>
@@ -15268,7 +15304,7 @@
       </c>
       <c r="X195" s="16"/>
     </row>
-    <row r="196" spans="1:31" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:31" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A196" s="7">
         <v>45050</v>
       </c>
@@ -15332,7 +15368,7 @@
       </c>
       <c r="X196" s="16"/>
     </row>
-    <row r="197" spans="1:31" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:31" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A197" s="7">
         <v>45054</v>
       </c>
@@ -15396,7 +15432,7 @@
       </c>
       <c r="X197" s="16"/>
     </row>
-    <row r="198" spans="1:31" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:31" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198" s="7">
         <v>45054</v>
       </c>
@@ -15460,7 +15496,7 @@
       </c>
       <c r="X198" s="16"/>
     </row>
-    <row r="199" spans="1:31" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:31" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A199" s="7">
         <v>45054</v>
       </c>
@@ -15524,7 +15560,7 @@
       </c>
       <c r="X199" s="16"/>
     </row>
-    <row r="200" spans="1:31" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:31" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A200" s="7">
         <v>45070</v>
       </c>
@@ -15588,7 +15624,7 @@
       </c>
       <c r="X200" s="16"/>
     </row>
-    <row r="201" spans="1:31" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:31" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A201" s="7">
         <v>45076</v>
       </c>
@@ -15652,7 +15688,7 @@
       </c>
       <c r="X201" s="16"/>
     </row>
-    <row r="202" spans="1:31" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:31" ht="9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A202" s="7">
         <v>45084</v>
       </c>
@@ -15716,7 +15752,7 @@
       </c>
       <c r="X202" s="16"/>
     </row>
-    <row r="203" spans="1:31" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:31" s="14" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A203" s="5">
         <v>45105</v>
       </c>
@@ -15779,7 +15815,7 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="204" spans="1:31" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:31" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A204" s="5">
         <v>45114</v>
       </c>
@@ -15843,7 +15879,7 @@
       </c>
       <c r="X204"/>
     </row>
-    <row r="205" spans="1:31" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:31" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A205" s="22">
         <v>45118</v>
       </c>
@@ -15907,7 +15943,7 @@
       </c>
       <c r="AE205" s="24"/>
     </row>
-    <row r="206" spans="1:31" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:31" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A206" s="5">
         <v>45159</v>
       </c>
@@ -15977,7 +16013,7 @@
       </c>
       <c r="X206" s="16"/>
     </row>
-    <row r="207" spans="1:31" s="14" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:31" s="14" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A207" s="7">
         <v>45190</v>
       </c>
@@ -16040,7 +16076,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="208" spans="1:31" s="14" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:31" s="14" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A208" s="7">
         <v>45194</v>
       </c>
@@ -16103,7 +16139,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="209" spans="1:24" s="14" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:24" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A209" s="7">
         <v>45197</v>
       </c>
@@ -16169,7 +16205,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="210" spans="1:24" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A210" s="22">
         <v>45204</v>
       </c>
@@ -16230,7 +16266,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="211" spans="1:24" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A211" s="22">
         <v>45223</v>
       </c>
@@ -16291,7 +16327,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="212" spans="1:24" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:24" ht="8.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A212" s="22">
         <v>45245</v>
       </c>
@@ -16529,7 +16565,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="216" spans="1:24" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A216" s="22">
         <v>45313</v>
       </c>
@@ -16943,7 +16979,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="223" spans="1:24" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:24" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A223" s="22">
         <v>45327</v>
       </c>
@@ -17839,7 +17875,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="240" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A240" s="22">
         <v>45335</v>
       </c>
@@ -17889,18 +17925,45 @@
         <v>398</v>
       </c>
     </row>
-    <row r="241" spans="1:22" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A241" s="22">
         <v>45336</v>
       </c>
       <c r="B241" s="14" t="s">
-        <v>446</v>
-      </c>
-      <c r="C241" s="14" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="242" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>402</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J241" s="14">
+        <v>61</v>
+      </c>
+      <c r="K241" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="L241" s="6">
+        <v>38.186019999999999</v>
+      </c>
+      <c r="M241" s="6">
+        <v>-121.98199</v>
+      </c>
+      <c r="R241" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="S241" s="14" t="s">
+        <v>442</v>
+      </c>
+      <c r="T241" s="22">
+        <v>45322</v>
+      </c>
+      <c r="U241" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="V241" s="14" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="242" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A242" s="22">
         <v>45336</v>
       </c>
@@ -17911,92 +17974,113 @@
         <v>69</v>
       </c>
       <c r="J242" s="14">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K242" s="14" t="s">
         <v>73</v>
       </c>
       <c r="L242" s="6">
-        <v>38.186019999999999</v>
+        <v>38.0715</v>
       </c>
       <c r="M242" s="6">
-        <v>-121.98199</v>
+        <v>-121.87093</v>
       </c>
       <c r="R242" s="14" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="S242" s="14" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="T242" s="22">
-        <v>45322</v>
+        <v>45321</v>
       </c>
       <c r="U242" s="14" t="s">
         <v>80</v>
       </c>
       <c r="V242" s="14" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="243" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A243" s="37">
+        <v>45336</v>
+      </c>
+      <c r="B243" s="38" t="s">
+        <v>446</v>
+      </c>
+      <c r="C243" s="38" t="s">
+        <v>447</v>
+      </c>
+      <c r="D243" s="38" t="s">
+        <v>448</v>
+      </c>
+      <c r="E243" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="F243" s="39">
+        <v>19837</v>
+      </c>
+      <c r="G243" s="39">
+        <v>10.95</v>
+      </c>
+      <c r="H243" s="38">
+        <v>68.8</v>
+      </c>
+      <c r="I243" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="J243" s="38">
+        <v>63</v>
+      </c>
+      <c r="K243" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="L243" s="38">
+        <v>38.25338</v>
+      </c>
+      <c r="M243" s="38">
+        <v>-121.6866</v>
+      </c>
+      <c r="N243" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="O243" s="38" t="s">
+        <v>449</v>
+      </c>
+      <c r="P243" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q243" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="R243" s="38" t="s">
+        <v>441</v>
+      </c>
+      <c r="S243" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="T243" s="37">
+        <v>45322</v>
+      </c>
+      <c r="U243" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="V243" s="38" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="243" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A243" s="22">
-        <v>45336</v>
-      </c>
-      <c r="B243" s="14" t="s">
-        <v>402</v>
-      </c>
-      <c r="C243" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J243" s="14">
-        <v>63</v>
-      </c>
-      <c r="K243" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="L243" s="6">
-        <v>38.0715</v>
-      </c>
-      <c r="M243" s="6">
-        <v>-121.87093</v>
-      </c>
-      <c r="R243" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="S243" s="14" t="s">
-        <v>445</v>
-      </c>
-      <c r="T243" s="22">
-        <v>45321</v>
-      </c>
-      <c r="U243" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="V243" s="14" t="s">
-        <v>437</v>
-      </c>
+      <c r="W243" s="38"/>
+      <c r="X243" s="42" t="s">
+        <v>450</v>
+      </c>
+      <c r="Y243" s="41"/>
+      <c r="Z243" s="41"/>
+      <c r="AA243" s="41"/>
+      <c r="AB243" s="41"/>
+      <c r="AC243" s="41"/>
+      <c r="AD243" s="41"/>
+      <c r="AE243" s="41"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:X243" xr:uid="{C569B310-60E0-4E31-89EB-52CC1C810311}">
-    <filterColumn colId="17">
-      <filters>
-        <filter val="AdClipped"/>
-        <filter val="VIE-Left/Green/Anterior Dorsal"/>
-        <filter val="VIE-Left/Orange/Anterior Dorsal"/>
-        <filter val="VIE-Left/Orange/Posterior Dorsal"/>
-        <filter val="VIE-Left/Red/Anterior Dorsal"/>
-        <filter val="VIE-Left/Red/Posterior Dorsal"/>
-        <filter val="VIE-Right/Green/Posterior Dorsal"/>
-        <filter val="VIE-Right/Orange/Anterior Dorsal"/>
-        <filter val="VIE-Right/Orange/Posterior Dorsal"/>
-        <filter val="VIE-Right/Red/Anterior Dorsal"/>
-        <filter val="VIE-Right/Red/Mid-dorsal"/>
-      </filters>
-    </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:X216">
-      <sortCondition ref="A1:A213"/>
-    </sortState>
-  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:X204">
     <sortCondition ref="A2:A204"/>
   </sortState>
@@ -18007,6 +18091,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="65146633-a755-433a-aacb-5024b6511b89">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="d8e23be6-d007-4c2c-9265-7d9405abf22e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D9A9DE233A30CB4EAECD318FD55378CC" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8fd2cacec9171f93eb894d0689f08641">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="65146633-a755-433a-aacb-5024b6511b89" xmlns:ns3="d8e23be6-d007-4c2c-9265-7d9405abf22e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a569083f6831735b7a488ac820eb0384" ns2:_="" ns3:_="">
     <xsd:import namespace="65146633-a755-433a-aacb-5024b6511b89"/>
@@ -18241,27 +18345,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="65146633-a755-433a-aacb-5024b6511b89">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="d8e23be6-d007-4c2c-9265-7d9405abf22e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C764E5-19B4-4012-98BF-B46F2FA7A2CF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D4F8AF6-B64B-4962-81B5-D73EE7A1E0CA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="65146633-a755-433a-aacb-5024b6511b89"/>
+    <ds:schemaRef ds:uri="d8e23be6-d007-4c2c-9265-7d9405abf22e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76D96E8C-3FF7-4769-9DB8-E43AB53278F6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18278,23 +18381,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D4F8AF6-B64B-4962-81B5-D73EE7A1E0CA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="65146633-a755-433a-aacb-5024b6511b89"/>
-    <ds:schemaRef ds:uri="d8e23be6-d007-4c2c-9265-7d9405abf22e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C764E5-19B4-4012-98BF-B46F2FA7A2CF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Running Delta Smelt Catch_2023-09-05.xlsx
+++ b/Running Delta Smelt Catch_2023-09-05.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cawater-my.sharepoint.com/personal/rosemary_hartman_water_ca_gov/Documents/smelt cages/SmeltMap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="63" documentId="6_{D7D8C1E3-0910-435B-88BC-04AB77536274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90018AFA-48F1-4A9E-830D-4B830CAD046C}"/>
+  <xr:revisionPtr revIDLastSave="71" documentId="6_{D7D8C1E3-0910-435B-88BC-04AB77536274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA0E7E48-9440-47D9-BFA8-9DD29DF09255}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="1" activeTab="1" xr2:uid="{4BB403AD-DB3F-4CB5-B7F1-39827ED458E8}"/>
+    <workbookView xWindow="28800" yWindow="300" windowWidth="28950" windowHeight="16215" firstSheet="1" activeTab="1" xr2:uid="{4BB403AD-DB3F-4CB5-B7F1-39827ED458E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="12" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3485" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3531" uniqueCount="452">
   <si>
     <t>Running Delta Smelt Catch Data Collected for the USFWS Delta Smelt Experimental Release Technical Team</t>
   </si>
@@ -1413,6 +1413,9 @@
   </si>
   <si>
     <t>Water temp channel 10.9, water temp shore 11.0</t>
+  </si>
+  <si>
+    <t>Not included in salvage count, observed in secondary traveling screen</t>
   </si>
 </sst>
 </file>
@@ -2349,10 +2352,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C569B310-60E0-4E31-89EB-52CC1C810311}">
-  <dimension ref="A1:AE243"/>
+  <dimension ref="A1:AE248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="E160" sqref="E160"/>
+    <sheetView tabSelected="1" topLeftCell="A224" workbookViewId="0">
+      <selection activeCell="K252" sqref="K252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -18080,6 +18083,313 @@
       <c r="AD243" s="41"/>
       <c r="AE243" s="41"/>
     </row>
+    <row r="244" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A244" s="37">
+        <v>45339</v>
+      </c>
+      <c r="B244" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="C244" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="D244" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="E244" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="F244" s="39"/>
+      <c r="G244" s="39"/>
+      <c r="H244" s="38"/>
+      <c r="I244" s="38"/>
+      <c r="J244" s="38">
+        <v>58</v>
+      </c>
+      <c r="K244" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="L244" s="38">
+        <v>37.815818999999998</v>
+      </c>
+      <c r="M244" s="38">
+        <v>-121.558995</v>
+      </c>
+      <c r="N244" s="38"/>
+      <c r="O244" s="38"/>
+      <c r="P244" s="38"/>
+      <c r="Q244" s="38"/>
+      <c r="R244" s="38" t="s">
+        <v>441</v>
+      </c>
+      <c r="S244" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="T244" s="37">
+        <v>45322</v>
+      </c>
+      <c r="U244" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="V244" s="38" t="s">
+        <v>443</v>
+      </c>
+      <c r="W244" s="38"/>
+      <c r="X244" s="42"/>
+      <c r="Y244" s="41"/>
+      <c r="Z244" s="41"/>
+      <c r="AA244" s="41"/>
+      <c r="AB244" s="41"/>
+      <c r="AC244" s="41"/>
+      <c r="AD244" s="41"/>
+      <c r="AE244" s="41"/>
+    </row>
+    <row r="245" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A245" s="37">
+        <v>45339</v>
+      </c>
+      <c r="B245" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="C245" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="D245" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="E245" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="F245" s="39"/>
+      <c r="G245" s="39"/>
+      <c r="H245" s="38"/>
+      <c r="I245" s="38"/>
+      <c r="J245" s="38">
+        <v>69</v>
+      </c>
+      <c r="K245" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="L245" s="38">
+        <v>37.815818999999998</v>
+      </c>
+      <c r="M245" s="38">
+        <v>-121.558995</v>
+      </c>
+      <c r="N245" s="38"/>
+      <c r="O245" s="38"/>
+      <c r="P245" s="38"/>
+      <c r="Q245" s="38"/>
+      <c r="R245" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="S245" s="38" t="s">
+        <v>401</v>
+      </c>
+      <c r="T245" s="37">
+        <v>45301</v>
+      </c>
+      <c r="U245" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="V245" s="38" t="s">
+        <v>398</v>
+      </c>
+      <c r="W245" s="38"/>
+      <c r="X245" s="42" t="s">
+        <v>451</v>
+      </c>
+      <c r="Y245" s="41"/>
+      <c r="Z245" s="41"/>
+      <c r="AA245" s="41"/>
+      <c r="AB245" s="41"/>
+      <c r="AC245" s="41"/>
+      <c r="AD245" s="41"/>
+      <c r="AE245" s="41"/>
+    </row>
+    <row r="246" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A246" s="37">
+        <v>45340</v>
+      </c>
+      <c r="B246" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="C246" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="D246" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="E246" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="F246" s="39"/>
+      <c r="G246" s="39"/>
+      <c r="H246" s="38"/>
+      <c r="I246" s="38"/>
+      <c r="J246" s="38">
+        <v>83</v>
+      </c>
+      <c r="K246" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="L246" s="38">
+        <v>37.815818999999998</v>
+      </c>
+      <c r="M246" s="38">
+        <v>-121.558995</v>
+      </c>
+      <c r="N246" s="38"/>
+      <c r="O246" s="38"/>
+      <c r="P246" s="38"/>
+      <c r="Q246" s="38"/>
+      <c r="R246" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="S246" s="38" t="s">
+        <v>401</v>
+      </c>
+      <c r="T246" s="37">
+        <v>45301</v>
+      </c>
+      <c r="U246" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="V246" s="38" t="s">
+        <v>398</v>
+      </c>
+      <c r="W246" s="38"/>
+      <c r="X246" s="42"/>
+      <c r="Y246" s="41"/>
+      <c r="Z246" s="41"/>
+      <c r="AA246" s="41"/>
+      <c r="AB246" s="41"/>
+      <c r="AC246" s="41"/>
+      <c r="AD246" s="41"/>
+      <c r="AE246" s="41"/>
+    </row>
+    <row r="247" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A247" s="37">
+        <v>45340</v>
+      </c>
+      <c r="B247" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="C247" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="D247" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="E247" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="F247" s="39"/>
+      <c r="G247" s="39"/>
+      <c r="H247" s="38"/>
+      <c r="I247" s="38"/>
+      <c r="J247" s="38">
+        <v>68</v>
+      </c>
+      <c r="K247" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="L247" s="38">
+        <v>37.815818999999998</v>
+      </c>
+      <c r="M247" s="38">
+        <v>-121.558995</v>
+      </c>
+      <c r="N247" s="38"/>
+      <c r="O247" s="38"/>
+      <c r="P247" s="38"/>
+      <c r="Q247" s="38"/>
+      <c r="R247" s="38" t="s">
+        <v>441</v>
+      </c>
+      <c r="S247" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="T247" s="37">
+        <v>45322</v>
+      </c>
+      <c r="U247" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="V247" s="38" t="s">
+        <v>443</v>
+      </c>
+      <c r="W247" s="38"/>
+      <c r="X247" s="42"/>
+      <c r="Y247" s="41"/>
+      <c r="Z247" s="41"/>
+      <c r="AA247" s="41"/>
+      <c r="AB247" s="41"/>
+      <c r="AC247" s="41"/>
+      <c r="AD247" s="41"/>
+      <c r="AE247" s="41"/>
+    </row>
+    <row r="248" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A248" s="37">
+        <v>45344</v>
+      </c>
+      <c r="B248" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="C248" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="D248" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="E248" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="F248" s="39"/>
+      <c r="G248" s="39"/>
+      <c r="H248" s="38"/>
+      <c r="I248" s="38"/>
+      <c r="J248" s="38">
+        <v>69</v>
+      </c>
+      <c r="K248" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="L248" s="38">
+        <v>37.815818999999998</v>
+      </c>
+      <c r="M248" s="38">
+        <v>-121.558995</v>
+      </c>
+      <c r="N248" s="38"/>
+      <c r="O248" s="38"/>
+      <c r="P248" s="38"/>
+      <c r="Q248" s="38"/>
+      <c r="R248" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="S248" s="38" t="s">
+        <v>401</v>
+      </c>
+      <c r="T248" s="37">
+        <v>45301</v>
+      </c>
+      <c r="U248" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="V248" s="38" t="s">
+        <v>398</v>
+      </c>
+      <c r="W248" s="38"/>
+      <c r="X248" s="42"/>
+      <c r="Y248" s="41"/>
+      <c r="Z248" s="41"/>
+      <c r="AA248" s="41"/>
+      <c r="AB248" s="41"/>
+      <c r="AC248" s="41"/>
+      <c r="AD248" s="41"/>
+      <c r="AE248" s="41"/>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:X204">
     <sortCondition ref="A2:A204"/>
@@ -18091,26 +18401,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="65146633-a755-433a-aacb-5024b6511b89">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="d8e23be6-d007-4c2c-9265-7d9405abf22e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D9A9DE233A30CB4EAECD318FD55378CC" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8fd2cacec9171f93eb894d0689f08641">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="65146633-a755-433a-aacb-5024b6511b89" xmlns:ns3="d8e23be6-d007-4c2c-9265-7d9405abf22e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a569083f6831735b7a488ac820eb0384" ns2:_="" ns3:_="">
     <xsd:import namespace="65146633-a755-433a-aacb-5024b6511b89"/>
@@ -18345,10 +18635,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="65146633-a755-433a-aacb-5024b6511b89">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="d8e23be6-d007-4c2c-9265-7d9405abf22e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C764E5-19B4-4012-98BF-B46F2FA7A2CF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76D96E8C-3FF7-4769-9DB8-E43AB53278F6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="65146633-a755-433a-aacb-5024b6511b89"/>
+    <ds:schemaRef ds:uri="d8e23be6-d007-4c2c-9265-7d9405abf22e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -18365,20 +18686,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76D96E8C-3FF7-4769-9DB8-E43AB53278F6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C764E5-19B4-4012-98BF-B46F2FA7A2CF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="65146633-a755-433a-aacb-5024b6511b89"/>
-    <ds:schemaRef ds:uri="d8e23be6-d007-4c2c-9265-7d9405abf22e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Running Delta Smelt Catch_2023-09-05.xlsx
+++ b/Running Delta Smelt Catch_2023-09-05.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cawater-my.sharepoint.com/personal/rosemary_hartman_water_ca_gov/Documents/smelt cages/SmeltMap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="71" documentId="6_{D7D8C1E3-0910-435B-88BC-04AB77536274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA0E7E48-9440-47D9-BFA8-9DD29DF09255}"/>
+  <xr:revisionPtr revIDLastSave="82" documentId="6_{D7D8C1E3-0910-435B-88BC-04AB77536274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE598C17-ED41-4548-8D22-803A11102F59}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="300" windowWidth="28950" windowHeight="16215" firstSheet="1" activeTab="1" xr2:uid="{4BB403AD-DB3F-4CB5-B7F1-39827ED458E8}"/>
+    <workbookView xWindow="10" yWindow="0" windowWidth="19180" windowHeight="11400" firstSheet="1" activeTab="1" xr2:uid="{4BB403AD-DB3F-4CB5-B7F1-39827ED458E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="12" r:id="rId1"/>
     <sheet name="Delta Smelt Catch Data" sheetId="9" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Delta Smelt Catch Data'!$A$1:$X$234</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Delta Smelt Catch Data'!$A$1:$X$250</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3531" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3547" uniqueCount="451">
   <si>
     <t>Running Delta Smelt Catch Data Collected for the USFWS Delta Smelt Experimental Release Technical Team</t>
   </si>
@@ -1266,9 +1266,6 @@
   </si>
   <si>
     <t>BY2023 LS2</t>
-  </si>
-  <si>
-    <t>EDSM</t>
   </si>
   <si>
     <t>24-26-SM01</t>
@@ -2352,10 +2349,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C569B310-60E0-4E31-89EB-52CC1C810311}">
-  <dimension ref="A1:AE248"/>
+  <dimension ref="A1:AE250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A224" workbookViewId="0">
-      <selection activeCell="K252" sqref="K252"/>
+    <sheetView tabSelected="1" topLeftCell="F236" workbookViewId="0">
+      <selection activeCell="L253" sqref="L253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -16512,13 +16509,13 @@
         <v>45313</v>
       </c>
       <c r="B215" s="14" t="s">
-        <v>402</v>
+        <v>68</v>
       </c>
       <c r="C215" s="14" t="s">
         <v>69</v>
       </c>
       <c r="D215" s="14" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E215" s="14" t="s">
         <v>133</v>
@@ -16526,7 +16523,7 @@
       <c r="F215" s="14"/>
       <c r="G215" s="14"/>
       <c r="J215" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K215" s="14" t="s">
         <v>73</v>
@@ -16541,10 +16538,10 @@
         <v>260</v>
       </c>
       <c r="O215" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="P215" s="4" t="s">
         <v>405</v>
-      </c>
-      <c r="P215" s="4" t="s">
-        <v>406</v>
       </c>
       <c r="Q215" s="14" t="s">
         <v>87</v>
@@ -16565,7 +16562,7 @@
         <v>398</v>
       </c>
       <c r="X215" s="16" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="216" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -16573,13 +16570,13 @@
         <v>45313</v>
       </c>
       <c r="B216" s="14" t="s">
-        <v>402</v>
+        <v>68</v>
       </c>
       <c r="C216" s="14" t="s">
         <v>69</v>
       </c>
       <c r="D216" s="14" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E216" s="14" t="s">
         <v>133</v>
@@ -16587,7 +16584,7 @@
       <c r="F216" s="14"/>
       <c r="G216" s="14"/>
       <c r="J216" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K216" s="14" t="s">
         <v>73</v>
@@ -16602,7 +16599,7 @@
         <v>74</v>
       </c>
       <c r="O216" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="P216" s="4" t="s">
         <v>75</v>
@@ -16629,7 +16626,7 @@
         <v>72</v>
       </c>
       <c r="X216" s="16" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="217" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -16637,13 +16634,13 @@
         <v>45315</v>
       </c>
       <c r="B217" s="14" t="s">
-        <v>402</v>
+        <v>68</v>
       </c>
       <c r="C217" s="14" t="s">
         <v>69</v>
       </c>
       <c r="D217" s="14" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E217" s="14" t="s">
         <v>133</v>
@@ -16666,7 +16663,7 @@
         <v>84</v>
       </c>
       <c r="O217" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="P217" s="14" t="s">
         <v>86</v>
@@ -16695,16 +16692,16 @@
         <v>45315</v>
       </c>
       <c r="B218" s="14" t="s">
-        <v>402</v>
+        <v>68</v>
       </c>
       <c r="C218" s="14" t="s">
         <v>69</v>
       </c>
       <c r="D218" s="14" t="s">
+        <v>412</v>
+      </c>
+      <c r="E218" s="14" t="s">
         <v>413</v>
-      </c>
-      <c r="E218" s="14" t="s">
-        <v>414</v>
       </c>
       <c r="F218" s="14"/>
       <c r="G218" s="14"/>
@@ -16724,7 +16721,7 @@
         <v>84</v>
       </c>
       <c r="O218" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="P218" s="14" t="s">
         <v>86</v>
@@ -16753,13 +16750,13 @@
         <v>45316</v>
       </c>
       <c r="B219" s="14" t="s">
-        <v>402</v>
+        <v>68</v>
       </c>
       <c r="C219" s="14" t="s">
         <v>69</v>
       </c>
       <c r="D219" s="14" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E219" s="14" t="s">
         <v>71</v>
@@ -16782,7 +16779,7 @@
         <v>84</v>
       </c>
       <c r="O219" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="P219" s="14" t="s">
         <v>86</v>
@@ -16791,10 +16788,10 @@
         <v>87</v>
       </c>
       <c r="R219" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="S219" s="14" t="s">
         <v>418</v>
-      </c>
-      <c r="S219" s="14" t="s">
-        <v>419</v>
       </c>
       <c r="T219" s="22">
         <v>45315</v>
@@ -16803,7 +16800,7 @@
         <v>80</v>
       </c>
       <c r="V219" s="14" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="220" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -16871,13 +16868,13 @@
         <v>45322</v>
       </c>
       <c r="B221" s="14" t="s">
-        <v>402</v>
+        <v>68</v>
       </c>
       <c r="C221" s="14" t="s">
         <v>69</v>
       </c>
       <c r="D221" s="14" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E221" s="14" t="s">
         <v>104</v>
@@ -16900,7 +16897,7 @@
         <v>84</v>
       </c>
       <c r="O221" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="P221" s="14" t="s">
         <v>86</v>
@@ -16909,10 +16906,10 @@
         <v>87</v>
       </c>
       <c r="R221" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="S221" s="14" t="s">
         <v>418</v>
-      </c>
-      <c r="S221" s="14" t="s">
-        <v>419</v>
       </c>
       <c r="T221" s="22">
         <v>45315</v>
@@ -16921,7 +16918,7 @@
         <v>80</v>
       </c>
       <c r="V221" s="14" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="222" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -16929,13 +16926,13 @@
         <v>45323</v>
       </c>
       <c r="B222" s="14" t="s">
-        <v>402</v>
+        <v>68</v>
       </c>
       <c r="C222" s="14" t="s">
         <v>69</v>
       </c>
       <c r="D222" s="14" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E222" s="14" t="s">
         <v>133</v>
@@ -16958,7 +16955,7 @@
         <v>84</v>
       </c>
       <c r="O222" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="P222" s="14" t="s">
         <v>86</v>
@@ -16987,13 +16984,13 @@
         <v>45327</v>
       </c>
       <c r="B223" s="14" t="s">
-        <v>402</v>
+        <v>68</v>
       </c>
       <c r="C223" s="14" t="s">
         <v>69</v>
       </c>
       <c r="D223" s="14" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E223" s="14" t="s">
         <v>133</v>
@@ -17001,7 +16998,7 @@
       <c r="F223" s="14"/>
       <c r="G223" s="14"/>
       <c r="J223" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K223" s="14" t="s">
         <v>73</v>
@@ -17016,13 +17013,13 @@
         <v>260</v>
       </c>
       <c r="O223" s="14" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="P223" s="14" t="s">
         <v>262</v>
       </c>
       <c r="Q223" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="R223" s="14" t="s">
         <v>75</v>
@@ -17043,7 +17040,7 @@
         <v>72</v>
       </c>
       <c r="X223" s="33" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="224" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -17051,13 +17048,13 @@
         <v>45327</v>
       </c>
       <c r="B224" s="14" t="s">
-        <v>402</v>
+        <v>68</v>
       </c>
       <c r="C224" s="14" t="s">
         <v>69</v>
       </c>
       <c r="D224" s="14" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E224" s="14" t="s">
         <v>133</v>
@@ -17080,7 +17077,7 @@
         <v>84</v>
       </c>
       <c r="O224" s="14" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="P224" s="14" t="s">
         <v>86</v>
@@ -17089,10 +17086,10 @@
         <v>87</v>
       </c>
       <c r="R224" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="S224" s="14" t="s">
         <v>418</v>
-      </c>
-      <c r="S224" s="14" t="s">
-        <v>419</v>
       </c>
       <c r="T224" s="22">
         <v>45315</v>
@@ -17101,7 +17098,7 @@
         <v>80</v>
       </c>
       <c r="V224" s="14" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="225" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -17109,16 +17106,16 @@
         <v>45327</v>
       </c>
       <c r="B225" s="14" t="s">
-        <v>402</v>
+        <v>68</v>
       </c>
       <c r="C225" s="14" t="s">
         <v>69</v>
       </c>
       <c r="D225" s="14" t="s">
+        <v>430</v>
+      </c>
+      <c r="E225" s="14" t="s">
         <v>431</v>
-      </c>
-      <c r="E225" s="14" t="s">
-        <v>432</v>
       </c>
       <c r="F225" s="14"/>
       <c r="G225" s="14"/>
@@ -17138,7 +17135,7 @@
         <v>84</v>
       </c>
       <c r="O225" s="14" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="P225" s="14" t="s">
         <v>86</v>
@@ -17167,16 +17164,16 @@
         <v>45327</v>
       </c>
       <c r="B226" s="14" t="s">
-        <v>402</v>
+        <v>68</v>
       </c>
       <c r="C226" s="14" t="s">
         <v>69</v>
       </c>
       <c r="D226" s="14" t="s">
+        <v>430</v>
+      </c>
+      <c r="E226" s="14" t="s">
         <v>431</v>
-      </c>
-      <c r="E226" s="14" t="s">
-        <v>432</v>
       </c>
       <c r="F226" s="14"/>
       <c r="G226" s="14"/>
@@ -17196,7 +17193,7 @@
         <v>84</v>
       </c>
       <c r="O226" s="14" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="P226" s="14" t="s">
         <v>86</v>
@@ -17205,10 +17202,10 @@
         <v>87</v>
       </c>
       <c r="R226" s="14" t="s">
+        <v>434</v>
+      </c>
+      <c r="S226" s="14" t="s">
         <v>435</v>
-      </c>
-      <c r="S226" s="14" t="s">
-        <v>436</v>
       </c>
       <c r="T226" s="22">
         <v>45316</v>
@@ -17217,7 +17214,7 @@
         <v>80</v>
       </c>
       <c r="V226" s="14" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="227" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -17225,16 +17222,16 @@
         <v>45327</v>
       </c>
       <c r="B227" s="14" t="s">
-        <v>402</v>
+        <v>68</v>
       </c>
       <c r="C227" s="14" t="s">
         <v>69</v>
       </c>
       <c r="D227" s="14" t="s">
+        <v>430</v>
+      </c>
+      <c r="E227" s="14" t="s">
         <v>431</v>
-      </c>
-      <c r="E227" s="14" t="s">
-        <v>432</v>
       </c>
       <c r="F227" s="14"/>
       <c r="G227" s="14"/>
@@ -17254,7 +17251,7 @@
         <v>84</v>
       </c>
       <c r="O227" s="14" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="P227" s="14" t="s">
         <v>86</v>
@@ -17283,13 +17280,13 @@
         <v>45328</v>
       </c>
       <c r="B228" s="14" t="s">
-        <v>402</v>
+        <v>68</v>
       </c>
       <c r="C228" s="14" t="s">
         <v>69</v>
       </c>
       <c r="D228" s="14" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E228" s="14" t="s">
         <v>133</v>
@@ -17312,7 +17309,7 @@
         <v>84</v>
       </c>
       <c r="O228" s="14" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="P228" s="14" t="s">
         <v>86</v>
@@ -17441,10 +17438,10 @@
         <v>128</v>
       </c>
       <c r="R230" s="14" t="s">
+        <v>434</v>
+      </c>
+      <c r="S230" s="14" t="s">
         <v>435</v>
-      </c>
-      <c r="S230" s="14" t="s">
-        <v>436</v>
       </c>
       <c r="T230" s="22">
         <v>45316</v>
@@ -17453,15 +17450,15 @@
         <v>80</v>
       </c>
       <c r="V230" s="14" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="231" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A231" s="22">
         <v>45329</v>
       </c>
-      <c r="B231" s="1" t="s">
-        <v>402</v>
+      <c r="B231" s="14" t="s">
+        <v>68</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>69</v>
@@ -17487,10 +17484,10 @@
       <c r="N231" s="8"/>
       <c r="O231" s="19"/>
       <c r="R231" s="14" t="s">
+        <v>434</v>
+      </c>
+      <c r="S231" s="14" t="s">
         <v>435</v>
-      </c>
-      <c r="S231" s="14" t="s">
-        <v>436</v>
       </c>
       <c r="T231" s="22">
         <v>45316</v>
@@ -17499,15 +17496,15 @@
         <v>80</v>
       </c>
       <c r="V231" s="14" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="232" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A232" s="22">
         <v>45330</v>
       </c>
-      <c r="B232" s="1" t="s">
-        <v>402</v>
+      <c r="B232" s="14" t="s">
+        <v>68</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>69</v>
@@ -17533,10 +17530,10 @@
       <c r="N232" s="8"/>
       <c r="O232" s="19"/>
       <c r="R232" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="S232" s="14" t="s">
         <v>441</v>
-      </c>
-      <c r="S232" s="14" t="s">
-        <v>442</v>
       </c>
       <c r="T232" s="22">
         <v>45322</v>
@@ -17545,15 +17542,15 @@
         <v>80</v>
       </c>
       <c r="V232" s="14" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="233" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A233" s="22">
         <v>45330</v>
       </c>
-      <c r="B233" s="1" t="s">
-        <v>402</v>
+      <c r="B233" s="14" t="s">
+        <v>68</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>69</v>
@@ -17579,10 +17576,10 @@
       <c r="N233" s="8"/>
       <c r="O233" s="19"/>
       <c r="R233" s="14" t="s">
+        <v>434</v>
+      </c>
+      <c r="S233" s="14" t="s">
         <v>435</v>
-      </c>
-      <c r="S233" s="14" t="s">
-        <v>436</v>
       </c>
       <c r="T233" s="22">
         <v>45316</v>
@@ -17591,7 +17588,7 @@
         <v>80</v>
       </c>
       <c r="V233" s="14" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="234" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -17631,10 +17628,10 @@
         <v>128</v>
       </c>
       <c r="R234" s="14" t="s">
+        <v>443</v>
+      </c>
+      <c r="S234" s="14" t="s">
         <v>444</v>
-      </c>
-      <c r="S234" s="14" t="s">
-        <v>445</v>
       </c>
       <c r="T234" s="22">
         <v>45321</v>
@@ -17643,7 +17640,7 @@
         <v>80</v>
       </c>
       <c r="V234" s="14" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="235" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -17731,10 +17728,10 @@
         <v>128</v>
       </c>
       <c r="R236" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="S236" s="14" t="s">
         <v>441</v>
-      </c>
-      <c r="S236" s="14" t="s">
-        <v>442</v>
       </c>
       <c r="T236" s="22">
         <v>45322</v>
@@ -17743,15 +17740,15 @@
         <v>80</v>
       </c>
       <c r="V236" s="14" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="237" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A237" s="22">
         <v>45334</v>
       </c>
-      <c r="B237" s="1" t="s">
-        <v>402</v>
+      <c r="B237" s="14" t="s">
+        <v>68</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>69</v>
@@ -17772,10 +17769,10 @@
       </c>
       <c r="N237" s="8"/>
       <c r="R237" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="S237" s="14" t="s">
         <v>418</v>
-      </c>
-      <c r="S237" s="14" t="s">
-        <v>419</v>
       </c>
       <c r="T237" s="22">
         <v>45315</v>
@@ -17784,7 +17781,7 @@
         <v>80</v>
       </c>
       <c r="V237" s="14" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="238" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -17822,10 +17819,10 @@
         <v>128</v>
       </c>
       <c r="R238" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="S238" s="14" t="s">
         <v>441</v>
-      </c>
-      <c r="S238" s="14" t="s">
-        <v>442</v>
       </c>
       <c r="T238" s="22">
         <v>45322</v>
@@ -17834,15 +17831,15 @@
         <v>80</v>
       </c>
       <c r="V238" s="14" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="239" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A239" s="22">
         <v>45335</v>
       </c>
-      <c r="B239" s="1" t="s">
-        <v>402</v>
+      <c r="B239" s="14" t="s">
+        <v>68</v>
       </c>
       <c r="C239" s="1" t="s">
         <v>69</v>
@@ -17863,10 +17860,10 @@
       </c>
       <c r="N239" s="8"/>
       <c r="R239" s="14" t="s">
+        <v>434</v>
+      </c>
+      <c r="S239" s="14" t="s">
         <v>435</v>
-      </c>
-      <c r="S239" s="14" t="s">
-        <v>436</v>
       </c>
       <c r="T239" s="22">
         <v>45316</v>
@@ -17875,7 +17872,7 @@
         <v>80</v>
       </c>
       <c r="V239" s="14" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="240" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.35">
@@ -17933,7 +17930,7 @@
         <v>45336</v>
       </c>
       <c r="B241" s="14" t="s">
-        <v>402</v>
+        <v>68</v>
       </c>
       <c r="C241" s="1" t="s">
         <v>69</v>
@@ -17951,10 +17948,10 @@
         <v>-121.98199</v>
       </c>
       <c r="R241" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="S241" s="14" t="s">
         <v>441</v>
-      </c>
-      <c r="S241" s="14" t="s">
-        <v>442</v>
       </c>
       <c r="T241" s="22">
         <v>45322</v>
@@ -17963,7 +17960,7 @@
         <v>80</v>
       </c>
       <c r="V241" s="14" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="242" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -17971,7 +17968,7 @@
         <v>45336</v>
       </c>
       <c r="B242" s="14" t="s">
-        <v>402</v>
+        <v>68</v>
       </c>
       <c r="C242" s="1" t="s">
         <v>69</v>
@@ -17989,10 +17986,10 @@
         <v>-121.87093</v>
       </c>
       <c r="R242" s="14" t="s">
+        <v>443</v>
+      </c>
+      <c r="S242" s="14" t="s">
         <v>444</v>
-      </c>
-      <c r="S242" s="14" t="s">
-        <v>445</v>
       </c>
       <c r="T242" s="22">
         <v>45321</v>
@@ -18001,7 +17998,7 @@
         <v>80</v>
       </c>
       <c r="V242" s="14" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="243" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -18009,13 +18006,13 @@
         <v>45336</v>
       </c>
       <c r="B243" s="38" t="s">
+        <v>445</v>
+      </c>
+      <c r="C243" s="38" t="s">
         <v>446</v>
       </c>
-      <c r="C243" s="38" t="s">
+      <c r="D243" s="38" t="s">
         <v>447</v>
-      </c>
-      <c r="D243" s="38" t="s">
-        <v>448</v>
       </c>
       <c r="E243" s="38" t="s">
         <v>205</v>
@@ -18048,7 +18045,7 @@
         <v>84</v>
       </c>
       <c r="O243" s="38" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="P243" s="38" t="s">
         <v>86</v>
@@ -18057,10 +18054,10 @@
         <v>87</v>
       </c>
       <c r="R243" s="38" t="s">
+        <v>440</v>
+      </c>
+      <c r="S243" s="38" t="s">
         <v>441</v>
-      </c>
-      <c r="S243" s="38" t="s">
-        <v>442</v>
       </c>
       <c r="T243" s="37">
         <v>45322</v>
@@ -18069,11 +18066,11 @@
         <v>80</v>
       </c>
       <c r="V243" s="38" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="W243" s="38"/>
       <c r="X243" s="42" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="Y243" s="41"/>
       <c r="Z243" s="41"/>
@@ -18120,10 +18117,10 @@
       <c r="P244" s="38"/>
       <c r="Q244" s="38"/>
       <c r="R244" s="38" t="s">
+        <v>440</v>
+      </c>
+      <c r="S244" s="38" t="s">
         <v>441</v>
-      </c>
-      <c r="S244" s="38" t="s">
-        <v>442</v>
       </c>
       <c r="T244" s="37">
         <v>45322</v>
@@ -18132,7 +18129,7 @@
         <v>80</v>
       </c>
       <c r="V244" s="38" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="W244" s="38"/>
       <c r="X244" s="42"/>
@@ -18197,7 +18194,7 @@
       </c>
       <c r="W245" s="38"/>
       <c r="X245" s="42" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="Y245" s="41"/>
       <c r="Z245" s="41"/>
@@ -18305,10 +18302,10 @@
       <c r="P247" s="38"/>
       <c r="Q247" s="38"/>
       <c r="R247" s="38" t="s">
+        <v>440</v>
+      </c>
+      <c r="S247" s="38" t="s">
         <v>441</v>
-      </c>
-      <c r="S247" s="38" t="s">
-        <v>442</v>
       </c>
       <c r="T247" s="37">
         <v>45322</v>
@@ -18317,7 +18314,7 @@
         <v>80</v>
       </c>
       <c r="V247" s="38" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="W247" s="38"/>
       <c r="X247" s="42"/>
@@ -18390,7 +18387,102 @@
       <c r="AD248" s="41"/>
       <c r="AE248" s="41"/>
     </row>
+    <row r="249" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A249" s="37">
+        <v>45345</v>
+      </c>
+      <c r="B249" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="C249" s="38"/>
+      <c r="D249" s="38"/>
+      <c r="E249" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="J249" s="38">
+        <v>66</v>
+      </c>
+      <c r="K249" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="L249" s="38">
+        <v>37.815818999999998</v>
+      </c>
+      <c r="M249" s="38">
+        <v>-121.558995</v>
+      </c>
+      <c r="N249" s="38"/>
+      <c r="Q249" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="R249" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="S249" s="38" t="s">
+        <v>401</v>
+      </c>
+      <c r="T249" s="37">
+        <v>45301</v>
+      </c>
+      <c r="U249" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="V249" s="38" t="s">
+        <v>398</v>
+      </c>
+      <c r="W249" s="41"/>
+      <c r="X249" s="41"/>
+      <c r="Y249" s="41"/>
+    </row>
+    <row r="250" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A250" s="37">
+        <v>45345</v>
+      </c>
+      <c r="B250" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="C250" s="38"/>
+      <c r="D250" s="38"/>
+      <c r="E250" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="J250" s="38">
+        <v>70</v>
+      </c>
+      <c r="K250" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="L250" s="38">
+        <v>37.815818999999998</v>
+      </c>
+      <c r="M250" s="38">
+        <v>-121.558995</v>
+      </c>
+      <c r="N250" s="38"/>
+      <c r="Q250" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="R250" s="38" t="s">
+        <v>417</v>
+      </c>
+      <c r="S250" s="38" t="s">
+        <v>418</v>
+      </c>
+      <c r="T250" s="37">
+        <v>45315</v>
+      </c>
+      <c r="U250" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="V250" s="38" t="s">
+        <v>419</v>
+      </c>
+      <c r="W250" s="41"/>
+      <c r="X250" s="41"/>
+      <c r="Y250" s="41"/>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:X250" xr:uid="{C569B310-60E0-4E31-89EB-52CC1C810311}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:X204">
     <sortCondition ref="A2:A204"/>
   </sortState>
@@ -18401,6 +18493,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="65146633-a755-433a-aacb-5024b6511b89">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="d8e23be6-d007-4c2c-9265-7d9405abf22e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D9A9DE233A30CB4EAECD318FD55378CC" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8fd2cacec9171f93eb894d0689f08641">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="65146633-a755-433a-aacb-5024b6511b89" xmlns:ns3="d8e23be6-d007-4c2c-9265-7d9405abf22e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a569083f6831735b7a488ac820eb0384" ns2:_="" ns3:_="">
     <xsd:import namespace="65146633-a755-433a-aacb-5024b6511b89"/>
@@ -18635,17 +18738,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="65146633-a755-433a-aacb-5024b6511b89">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="d8e23be6-d007-4c2c-9265-7d9405abf22e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -18656,6 +18748,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D4F8AF6-B64B-4962-81B5-D73EE7A1E0CA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="65146633-a755-433a-aacb-5024b6511b89"/>
+    <ds:schemaRef ds:uri="d8e23be6-d007-4c2c-9265-7d9405abf22e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76D96E8C-3FF7-4769-9DB8-E43AB53278F6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18674,17 +18777,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D4F8AF6-B64B-4962-81B5-D73EE7A1E0CA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="65146633-a755-433a-aacb-5024b6511b89"/>
-    <ds:schemaRef ds:uri="d8e23be6-d007-4c2c-9265-7d9405abf22e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C764E5-19B4-4012-98BF-B46F2FA7A2CF}">
   <ds:schemaRefs>

--- a/Running Delta Smelt Catch_2023-09-05.xlsx
+++ b/Running Delta Smelt Catch_2023-09-05.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cawater-my.sharepoint.com/personal/rosemary_hartman_water_ca_gov/Documents/smelt cages/SmeltMap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{38D2B3C1-DAF9-4126-B4FD-0E27163FBC27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11BECCF6-FEBE-4D03-BC4D-5A350DC272DE}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{38D2B3C1-DAF9-4126-B4FD-0E27163FBC27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{219EFBEC-7B0E-4EE4-9063-C32692BBF937}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{4BB403AD-DB3F-4CB5-B7F1-39827ED458E8}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3761" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3796" uniqueCount="501">
   <si>
     <t>Running Delta Smelt Catch Data Collected for the USFWS Delta Smelt Experimental Release Technical Team</t>
   </si>
@@ -1551,13 +1551,25 @@
   </si>
   <si>
     <t>S335</t>
+  </si>
+  <si>
+    <t>24-36-SM02</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>USFWS Lab</t>
+  </si>
+  <si>
+    <t>Species ID confirmed by Rene Reyes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1636,8 +1648,14 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1656,8 +1674,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1702,12 +1732,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFD6DADC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD6DADC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1807,6 +1848,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2519,11 +2570,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C569B310-60E0-4E31-89EB-52CC1C810311}">
-  <dimension ref="A1:AE261"/>
+  <dimension ref="A1:AE264"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A244" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D271" sqref="D271"/>
+      <selection pane="bottomLeft" activeCell="I272" sqref="I272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -20969,6 +21020,211 @@
       <c r="AD261" s="38"/>
       <c r="AE261" s="38"/>
     </row>
+    <row r="262" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A262" s="36">
+        <v>45385</v>
+      </c>
+      <c r="B262" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C262" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D262" s="35" t="s">
+        <v>497</v>
+      </c>
+      <c r="E262" s="35" t="s">
+        <v>234</v>
+      </c>
+      <c r="F262" s="35">
+        <v>2244</v>
+      </c>
+      <c r="G262" s="35">
+        <v>15.2</v>
+      </c>
+      <c r="H262" s="35">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="I262" s="35">
+        <v>15.8</v>
+      </c>
+      <c r="J262" s="35">
+        <v>7.2</v>
+      </c>
+      <c r="K262" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L262" s="35">
+        <v>38.108260000000001</v>
+      </c>
+      <c r="M262" s="35">
+        <v>-122.04786</v>
+      </c>
+      <c r="N262" s="41" t="s">
+        <v>498</v>
+      </c>
+      <c r="O262" s="41" t="s">
+        <v>498</v>
+      </c>
+      <c r="P262" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q262" s="35" t="s">
+        <v>499</v>
+      </c>
+      <c r="R262" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="S262" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="T262" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="U262" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="V262" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="W262" s="39" t="s">
+        <v>500</v>
+      </c>
+      <c r="X262" s="38"/>
+      <c r="Y262" s="38"/>
+      <c r="Z262" s="38"/>
+      <c r="AA262" s="38"/>
+      <c r="AB262" s="38"/>
+      <c r="AC262" s="38"/>
+      <c r="AD262" s="38"/>
+      <c r="AE262" s="38"/>
+    </row>
+    <row r="263" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A263" s="36">
+        <v>45373</v>
+      </c>
+      <c r="B263" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="C263" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D263" s="35">
+        <v>711</v>
+      </c>
+      <c r="E263" s="35"/>
+      <c r="F263" s="35"/>
+      <c r="G263" s="35"/>
+      <c r="H263" s="35"/>
+      <c r="I263" s="35"/>
+      <c r="J263" s="35">
+        <v>11</v>
+      </c>
+      <c r="K263" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L263" s="42">
+        <v>38.177419999999998</v>
+      </c>
+      <c r="M263" s="42">
+        <v>-121.6623</v>
+      </c>
+      <c r="N263" s="35"/>
+      <c r="O263" s="35"/>
+      <c r="P263" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q263" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="R263" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="S263" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="T263" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="U263" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="V263" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="W263" s="39"/>
+      <c r="X263" s="38"/>
+      <c r="Y263" s="38"/>
+      <c r="Z263" s="38"/>
+      <c r="AA263" s="38"/>
+      <c r="AB263" s="38"/>
+      <c r="AC263" s="38"/>
+      <c r="AD263" s="38"/>
+      <c r="AE263" s="38"/>
+    </row>
+    <row r="264" spans="1:31" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A264" s="36">
+        <v>45373</v>
+      </c>
+      <c r="B264" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="C264" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D264" s="35">
+        <v>726</v>
+      </c>
+      <c r="E264" s="35"/>
+      <c r="F264" s="35"/>
+      <c r="G264" s="35"/>
+      <c r="H264" s="35"/>
+      <c r="I264" s="35"/>
+      <c r="J264" s="35">
+        <v>10</v>
+      </c>
+      <c r="K264" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L264" s="43">
+        <v>38.283059999999999</v>
+      </c>
+      <c r="M264" s="42">
+        <v>-121.6438</v>
+      </c>
+      <c r="N264" s="35"/>
+      <c r="O264" s="35"/>
+      <c r="P264" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q264" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="R264" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="S264" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="T264" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="U264" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="V264" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="W264" s="39"/>
+      <c r="X264" s="38"/>
+      <c r="Y264" s="38"/>
+      <c r="Z264" s="38"/>
+      <c r="AA264" s="38"/>
+      <c r="AB264" s="38"/>
+      <c r="AC264" s="38"/>
+      <c r="AD264" s="38"/>
+      <c r="AE264" s="38"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:AE254" xr:uid="{C569B310-60E0-4E31-89EB-52CC1C810311}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AE250">
@@ -20985,48 +21241,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="65146633-a755-433a-aacb-5024b6511b89">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="d8e23be6-d007-4c2c-9265-7d9405abf22e" xsi:nil="true"/>
-    <SharedWithUsers xmlns="d8e23be6-d007-4c2c-9265-7d9405abf22e">
-      <UserInfo>
-        <DisplayName>Hartman, Rosemary@DWR</DisplayName>
-        <AccountId>69</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Goodman, Denise M</DisplayName>
-        <AccountId>31</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Hobbs, James@Wildlife</DisplayName>
-        <AccountId>16</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Cook, John (Ryan)</DisplayName>
-        <AccountId>18</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D9A9DE233A30CB4EAECD318FD55378CC" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8fd2cacec9171f93eb894d0689f08641">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="65146633-a755-433a-aacb-5024b6511b89" xmlns:ns3="d8e23be6-d007-4c2c-9265-7d9405abf22e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a569083f6831735b7a488ac820eb0384" ns2:_="" ns3:_="">
     <xsd:import namespace="65146633-a755-433a-aacb-5024b6511b89"/>
@@ -21261,26 +21475,49 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D4F8AF6-B64B-4962-81B5-D73EE7A1E0CA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="65146633-a755-433a-aacb-5024b6511b89"/>
-    <ds:schemaRef ds:uri="d8e23be6-d007-4c2c-9265-7d9405abf22e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C764E5-19B4-4012-98BF-B46F2FA7A2CF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="65146633-a755-433a-aacb-5024b6511b89">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="d8e23be6-d007-4c2c-9265-7d9405abf22e" xsi:nil="true"/>
+    <SharedWithUsers xmlns="d8e23be6-d007-4c2c-9265-7d9405abf22e">
+      <UserInfo>
+        <DisplayName>Hartman, Rosemary@DWR</DisplayName>
+        <AccountId>69</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Goodman, Denise M</DisplayName>
+        <AccountId>31</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Hobbs, James@Wildlife</DisplayName>
+        <AccountId>16</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Cook, John (Ryan)</DisplayName>
+        <AccountId>18</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76D96E8C-3FF7-4769-9DB8-E43AB53278F6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -21297,4 +21534,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C764E5-19B4-4012-98BF-B46F2FA7A2CF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D4F8AF6-B64B-4962-81B5-D73EE7A1E0CA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="65146633-a755-433a-aacb-5024b6511b89"/>
+    <ds:schemaRef ds:uri="d8e23be6-d007-4c2c-9265-7d9405abf22e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Running Delta Smelt Catch_2023-09-05.xlsx
+++ b/Running Delta Smelt Catch_2023-09-05.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cawater-my.sharepoint.com/personal/rosemary_hartman_water_ca_gov/Documents/smelt cages/SmeltMap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{38D2B3C1-DAF9-4126-B4FD-0E27163FBC27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{219EFBEC-7B0E-4EE4-9063-C32692BBF937}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="8_{38D2B3C1-DAF9-4126-B4FD-0E27163FBC27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CEB2348B-629E-4A4D-A2BC-E61B08AC0674}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{4BB403AD-DB3F-4CB5-B7F1-39827ED458E8}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3796" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4491" uniqueCount="527">
   <si>
     <t>Running Delta Smelt Catch Data Collected for the USFWS Delta Smelt Experimental Release Technical Team</t>
   </si>
@@ -1563,12 +1563,93 @@
   </si>
   <si>
     <t>Species ID confirmed by Rene Reyes</t>
+  </si>
+  <si>
+    <t>24-36-SSC04</t>
+  </si>
+  <si>
+    <t>24-37-SM05</t>
+  </si>
+  <si>
+    <t>24-37-SB03</t>
+  </si>
+  <si>
+    <t>24-37-SB07</t>
+  </si>
+  <si>
+    <t>24-37-SB11</t>
+  </si>
+  <si>
+    <t>24-37-SSC05</t>
+  </si>
+  <si>
+    <t>24-37-SSC02</t>
+  </si>
+  <si>
+    <t>24-37-SSC01</t>
+  </si>
+  <si>
+    <t>24-37-LSR04</t>
+  </si>
+  <si>
+    <t>24-37-SB10</t>
+  </si>
+  <si>
+    <t>24-38-LSR02</t>
+  </si>
+  <si>
+    <t>24-38-SM09</t>
+  </si>
+  <si>
+    <t>24-38-SB03</t>
+  </si>
+  <si>
+    <t>24-38-SSC03</t>
+  </si>
+  <si>
+    <t>24-38-SSC05</t>
+  </si>
+  <si>
+    <t>24-39-SB05</t>
+  </si>
+  <si>
+    <t>24-39-SSC01</t>
+  </si>
+  <si>
+    <t>24-39-SSC02</t>
+  </si>
+  <si>
+    <t>24-39-SSC04</t>
+  </si>
+  <si>
+    <t>24-39-SM01</t>
+  </si>
+  <si>
+    <t>24-39-LSR10</t>
+  </si>
+  <si>
+    <t>24-40-LSR04</t>
+  </si>
+  <si>
+    <t>24-40-LSR02</t>
+  </si>
+  <si>
+    <t>24-40-LSR03</t>
+  </si>
+  <si>
+    <t>24-40-SSC03</t>
+  </si>
+  <si>
+    <t>24-41-SSC02</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
+  </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1748,7 +1829,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1859,6 +1940,7 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2570,11 +2652,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C569B310-60E0-4E31-89EB-52CC1C810311}">
-  <dimension ref="A1:AE264"/>
+  <dimension ref="A1:AE403"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A244" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I272" sqref="I272"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A260" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G274" sqref="G274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -21224,6 +21306,4037 @@
       <c r="AC264" s="38"/>
       <c r="AD264" s="38"/>
       <c r="AE264" s="38"/>
+    </row>
+    <row r="265" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A265" s="44">
+        <v>45387</v>
+      </c>
+      <c r="B265" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C265" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D265" t="s">
+        <v>501</v>
+      </c>
+      <c r="E265" t="s">
+        <v>221</v>
+      </c>
+      <c r="J265">
+        <v>10.6</v>
+      </c>
+      <c r="K265" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L265">
+        <v>38.563960000000002</v>
+      </c>
+      <c r="M265">
+        <v>-121.55369</v>
+      </c>
+    </row>
+    <row r="266" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A266" s="44">
+        <v>45387</v>
+      </c>
+      <c r="B266" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C266" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D266" t="s">
+        <v>501</v>
+      </c>
+      <c r="E266" t="s">
+        <v>221</v>
+      </c>
+      <c r="J266">
+        <v>10.7</v>
+      </c>
+      <c r="K266" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L266">
+        <v>38.563960000000002</v>
+      </c>
+      <c r="M266">
+        <v>-121.55369</v>
+      </c>
+    </row>
+    <row r="267" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A267" s="44">
+        <v>45387</v>
+      </c>
+      <c r="B267" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C267" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D267" t="s">
+        <v>501</v>
+      </c>
+      <c r="E267" t="s">
+        <v>221</v>
+      </c>
+      <c r="J267">
+        <v>11.7</v>
+      </c>
+      <c r="K267" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L267">
+        <v>38.563960000000002</v>
+      </c>
+      <c r="M267">
+        <v>-121.55369</v>
+      </c>
+    </row>
+    <row r="268" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A268" s="44">
+        <v>45387</v>
+      </c>
+      <c r="B268" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C268" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D268" t="s">
+        <v>501</v>
+      </c>
+      <c r="E268" t="s">
+        <v>221</v>
+      </c>
+      <c r="J268">
+        <v>11.7</v>
+      </c>
+      <c r="K268" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L268">
+        <v>38.563960000000002</v>
+      </c>
+      <c r="M268">
+        <v>-121.55369</v>
+      </c>
+    </row>
+    <row r="269" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A269" s="44">
+        <v>45387</v>
+      </c>
+      <c r="B269" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C269" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D269" t="s">
+        <v>501</v>
+      </c>
+      <c r="E269" t="s">
+        <v>221</v>
+      </c>
+      <c r="J269">
+        <v>12</v>
+      </c>
+      <c r="K269" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L269">
+        <v>38.563960000000002</v>
+      </c>
+      <c r="M269">
+        <v>-121.55369</v>
+      </c>
+    </row>
+    <row r="270" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A270" s="44">
+        <v>45387</v>
+      </c>
+      <c r="B270" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C270" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D270" t="s">
+        <v>501</v>
+      </c>
+      <c r="E270" t="s">
+        <v>221</v>
+      </c>
+      <c r="J270">
+        <v>12.1</v>
+      </c>
+      <c r="K270" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L270">
+        <v>38.563960000000002</v>
+      </c>
+      <c r="M270">
+        <v>-121.55369</v>
+      </c>
+    </row>
+    <row r="271" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A271" s="44">
+        <v>45387</v>
+      </c>
+      <c r="B271" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C271" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D271" t="s">
+        <v>501</v>
+      </c>
+      <c r="E271" t="s">
+        <v>221</v>
+      </c>
+      <c r="J271">
+        <v>12.1</v>
+      </c>
+      <c r="K271" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L271">
+        <v>38.563960000000002</v>
+      </c>
+      <c r="M271">
+        <v>-121.55369</v>
+      </c>
+    </row>
+    <row r="272" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A272" s="44">
+        <v>45387</v>
+      </c>
+      <c r="B272" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C272" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D272" t="s">
+        <v>501</v>
+      </c>
+      <c r="E272" t="s">
+        <v>221</v>
+      </c>
+      <c r="J272">
+        <v>12.1</v>
+      </c>
+      <c r="K272" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L272">
+        <v>38.563960000000002</v>
+      </c>
+      <c r="M272">
+        <v>-121.55369</v>
+      </c>
+    </row>
+    <row r="273" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A273" s="44">
+        <v>45387</v>
+      </c>
+      <c r="B273" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C273" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D273" t="s">
+        <v>501</v>
+      </c>
+      <c r="E273" t="s">
+        <v>221</v>
+      </c>
+      <c r="J273">
+        <v>12.4</v>
+      </c>
+      <c r="K273" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L273">
+        <v>38.563960000000002</v>
+      </c>
+      <c r="M273">
+        <v>-121.55369</v>
+      </c>
+    </row>
+    <row r="274" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A274" s="44">
+        <v>45387</v>
+      </c>
+      <c r="B274" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C274" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D274" t="s">
+        <v>501</v>
+      </c>
+      <c r="E274" t="s">
+        <v>221</v>
+      </c>
+      <c r="J274">
+        <v>12.6</v>
+      </c>
+      <c r="K274" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L274">
+        <v>38.563960000000002</v>
+      </c>
+      <c r="M274">
+        <v>-121.55369</v>
+      </c>
+    </row>
+    <row r="275" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A275" s="44">
+        <v>45387</v>
+      </c>
+      <c r="B275" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C275" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D275" t="s">
+        <v>501</v>
+      </c>
+      <c r="E275" t="s">
+        <v>221</v>
+      </c>
+      <c r="J275">
+        <v>13.4</v>
+      </c>
+      <c r="K275" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L275">
+        <v>38.563960000000002</v>
+      </c>
+      <c r="M275">
+        <v>-121.55369</v>
+      </c>
+    </row>
+    <row r="276" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A276" s="44">
+        <v>45387</v>
+      </c>
+      <c r="B276" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C276" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D276" t="s">
+        <v>501</v>
+      </c>
+      <c r="E276" t="s">
+        <v>221</v>
+      </c>
+      <c r="J276">
+        <v>13.8</v>
+      </c>
+      <c r="K276" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L276">
+        <v>38.563960000000002</v>
+      </c>
+      <c r="M276">
+        <v>-121.55369</v>
+      </c>
+    </row>
+    <row r="277" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A277" s="44">
+        <v>45387</v>
+      </c>
+      <c r="B277" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C277" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D277" t="s">
+        <v>501</v>
+      </c>
+      <c r="E277" t="s">
+        <v>221</v>
+      </c>
+      <c r="J277">
+        <v>13.9</v>
+      </c>
+      <c r="K277" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L277">
+        <v>38.563960000000002</v>
+      </c>
+      <c r="M277">
+        <v>-121.55369</v>
+      </c>
+    </row>
+    <row r="278" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A278" s="44">
+        <v>45387</v>
+      </c>
+      <c r="B278" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C278" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D278" t="s">
+        <v>501</v>
+      </c>
+      <c r="E278" t="s">
+        <v>221</v>
+      </c>
+      <c r="J278">
+        <v>14</v>
+      </c>
+      <c r="K278" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L278">
+        <v>38.563960000000002</v>
+      </c>
+      <c r="M278">
+        <v>-121.55369</v>
+      </c>
+    </row>
+    <row r="279" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A279" s="44">
+        <v>45387</v>
+      </c>
+      <c r="B279" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C279" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D279" t="s">
+        <v>501</v>
+      </c>
+      <c r="E279" t="s">
+        <v>221</v>
+      </c>
+      <c r="J279">
+        <v>14.1</v>
+      </c>
+      <c r="K279" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L279">
+        <v>38.563960000000002</v>
+      </c>
+      <c r="M279">
+        <v>-121.55369</v>
+      </c>
+    </row>
+    <row r="280" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A280" s="44">
+        <v>45387</v>
+      </c>
+      <c r="B280" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C280" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D280" t="s">
+        <v>501</v>
+      </c>
+      <c r="E280" t="s">
+        <v>221</v>
+      </c>
+      <c r="J280">
+        <v>14.1</v>
+      </c>
+      <c r="K280" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L280">
+        <v>38.563960000000002</v>
+      </c>
+      <c r="M280">
+        <v>-121.55369</v>
+      </c>
+    </row>
+    <row r="281" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A281" s="44">
+        <v>45387</v>
+      </c>
+      <c r="B281" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C281" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D281" t="s">
+        <v>501</v>
+      </c>
+      <c r="E281" t="s">
+        <v>221</v>
+      </c>
+      <c r="J281">
+        <v>14.4</v>
+      </c>
+      <c r="K281" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L281">
+        <v>38.563960000000002</v>
+      </c>
+      <c r="M281">
+        <v>-121.55369</v>
+      </c>
+    </row>
+    <row r="282" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A282" s="44">
+        <v>45387</v>
+      </c>
+      <c r="B282" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C282" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D282" t="s">
+        <v>501</v>
+      </c>
+      <c r="E282" t="s">
+        <v>221</v>
+      </c>
+      <c r="J282">
+        <v>14.5</v>
+      </c>
+      <c r="K282" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L282">
+        <v>38.563960000000002</v>
+      </c>
+      <c r="M282">
+        <v>-121.55369</v>
+      </c>
+    </row>
+    <row r="283" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A283" s="44">
+        <v>45387</v>
+      </c>
+      <c r="B283" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C283" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D283" t="s">
+        <v>501</v>
+      </c>
+      <c r="E283" t="s">
+        <v>221</v>
+      </c>
+      <c r="J283">
+        <v>14.7</v>
+      </c>
+      <c r="K283" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L283">
+        <v>38.563960000000002</v>
+      </c>
+      <c r="M283">
+        <v>-121.55369</v>
+      </c>
+    </row>
+    <row r="284" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A284" s="44">
+        <v>45387</v>
+      </c>
+      <c r="B284" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C284" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D284" t="s">
+        <v>501</v>
+      </c>
+      <c r="E284" t="s">
+        <v>221</v>
+      </c>
+      <c r="J284">
+        <v>14.7</v>
+      </c>
+      <c r="K284" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L284">
+        <v>38.563960000000002</v>
+      </c>
+      <c r="M284">
+        <v>-121.55369</v>
+      </c>
+    </row>
+    <row r="285" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A285" s="44">
+        <v>45387</v>
+      </c>
+      <c r="B285" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C285" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D285" t="s">
+        <v>501</v>
+      </c>
+      <c r="E285" t="s">
+        <v>221</v>
+      </c>
+      <c r="J285">
+        <v>15.1</v>
+      </c>
+      <c r="K285" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L285">
+        <v>38.563960000000002</v>
+      </c>
+      <c r="M285">
+        <v>-121.55369</v>
+      </c>
+    </row>
+    <row r="286" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A286" s="44">
+        <v>45387</v>
+      </c>
+      <c r="B286" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C286" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D286" t="s">
+        <v>501</v>
+      </c>
+      <c r="E286" t="s">
+        <v>221</v>
+      </c>
+      <c r="J286">
+        <v>15.6</v>
+      </c>
+      <c r="K286" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L286">
+        <v>38.563960000000002</v>
+      </c>
+      <c r="M286">
+        <v>-121.55369</v>
+      </c>
+    </row>
+    <row r="287" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A287" s="44">
+        <v>45387</v>
+      </c>
+      <c r="B287" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C287" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D287" t="s">
+        <v>501</v>
+      </c>
+      <c r="E287" t="s">
+        <v>221</v>
+      </c>
+      <c r="J287">
+        <v>16.5</v>
+      </c>
+      <c r="K287" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L287">
+        <v>38.563960000000002</v>
+      </c>
+      <c r="M287">
+        <v>-121.55369</v>
+      </c>
+    </row>
+    <row r="288" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A288" s="44">
+        <v>45387</v>
+      </c>
+      <c r="B288" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C288" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D288" t="s">
+        <v>501</v>
+      </c>
+      <c r="E288" t="s">
+        <v>221</v>
+      </c>
+      <c r="J288">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="K288" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L288">
+        <v>38.564140000000002</v>
+      </c>
+      <c r="M288">
+        <v>-121.55392000000001</v>
+      </c>
+    </row>
+    <row r="289" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A289" s="44">
+        <v>45387</v>
+      </c>
+      <c r="B289" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C289" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D289" t="s">
+        <v>501</v>
+      </c>
+      <c r="E289" t="s">
+        <v>221</v>
+      </c>
+      <c r="J289">
+        <v>11.2</v>
+      </c>
+      <c r="K289" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L289">
+        <v>38.564140000000002</v>
+      </c>
+      <c r="M289">
+        <v>-121.55392000000001</v>
+      </c>
+    </row>
+    <row r="290" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A290" s="44">
+        <v>45387</v>
+      </c>
+      <c r="B290" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C290" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D290" t="s">
+        <v>501</v>
+      </c>
+      <c r="E290" t="s">
+        <v>221</v>
+      </c>
+      <c r="J290">
+        <v>11.5</v>
+      </c>
+      <c r="K290" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L290">
+        <v>38.564140000000002</v>
+      </c>
+      <c r="M290">
+        <v>-121.55392000000001</v>
+      </c>
+    </row>
+    <row r="291" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A291" s="44">
+        <v>45387</v>
+      </c>
+      <c r="B291" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C291" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D291" t="s">
+        <v>501</v>
+      </c>
+      <c r="E291" t="s">
+        <v>221</v>
+      </c>
+      <c r="J291">
+        <v>12.4</v>
+      </c>
+      <c r="K291" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L291">
+        <v>38.564140000000002</v>
+      </c>
+      <c r="M291">
+        <v>-121.55392000000001</v>
+      </c>
+    </row>
+    <row r="292" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A292" s="44">
+        <v>45387</v>
+      </c>
+      <c r="B292" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C292" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D292" t="s">
+        <v>501</v>
+      </c>
+      <c r="E292" t="s">
+        <v>221</v>
+      </c>
+      <c r="J292">
+        <v>12.8</v>
+      </c>
+      <c r="K292" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L292">
+        <v>38.564140000000002</v>
+      </c>
+      <c r="M292">
+        <v>-121.55392000000001</v>
+      </c>
+    </row>
+    <row r="293" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A293" s="44">
+        <v>45387</v>
+      </c>
+      <c r="B293" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C293" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D293" t="s">
+        <v>501</v>
+      </c>
+      <c r="E293" t="s">
+        <v>221</v>
+      </c>
+      <c r="J293">
+        <v>12.9</v>
+      </c>
+      <c r="K293" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L293">
+        <v>38.564140000000002</v>
+      </c>
+      <c r="M293">
+        <v>-121.55392000000001</v>
+      </c>
+    </row>
+    <row r="294" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A294" s="44">
+        <v>45387</v>
+      </c>
+      <c r="B294" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C294" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D294" t="s">
+        <v>501</v>
+      </c>
+      <c r="E294" t="s">
+        <v>221</v>
+      </c>
+      <c r="J294">
+        <v>13</v>
+      </c>
+      <c r="K294" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L294">
+        <v>38.564140000000002</v>
+      </c>
+      <c r="M294">
+        <v>-121.55392000000001</v>
+      </c>
+    </row>
+    <row r="295" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A295" s="44">
+        <v>45387</v>
+      </c>
+      <c r="B295" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C295" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D295" t="s">
+        <v>501</v>
+      </c>
+      <c r="E295" t="s">
+        <v>221</v>
+      </c>
+      <c r="J295">
+        <v>13.2</v>
+      </c>
+      <c r="K295" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L295">
+        <v>38.564140000000002</v>
+      </c>
+      <c r="M295">
+        <v>-121.55392000000001</v>
+      </c>
+    </row>
+    <row r="296" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A296" s="44">
+        <v>45387</v>
+      </c>
+      <c r="B296" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C296" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D296" t="s">
+        <v>501</v>
+      </c>
+      <c r="E296" t="s">
+        <v>221</v>
+      </c>
+      <c r="J296">
+        <v>13.4</v>
+      </c>
+      <c r="K296" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L296">
+        <v>38.564140000000002</v>
+      </c>
+      <c r="M296">
+        <v>-121.55392000000001</v>
+      </c>
+    </row>
+    <row r="297" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A297" s="44">
+        <v>45387</v>
+      </c>
+      <c r="B297" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C297" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D297" t="s">
+        <v>501</v>
+      </c>
+      <c r="E297" t="s">
+        <v>221</v>
+      </c>
+      <c r="J297">
+        <v>13.6</v>
+      </c>
+      <c r="K297" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L297">
+        <v>38.564140000000002</v>
+      </c>
+      <c r="M297">
+        <v>-121.55392000000001</v>
+      </c>
+    </row>
+    <row r="298" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A298" s="44">
+        <v>45387</v>
+      </c>
+      <c r="B298" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C298" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D298" t="s">
+        <v>501</v>
+      </c>
+      <c r="E298" t="s">
+        <v>221</v>
+      </c>
+      <c r="J298">
+        <v>14</v>
+      </c>
+      <c r="K298" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L298">
+        <v>38.564140000000002</v>
+      </c>
+      <c r="M298">
+        <v>-121.55392000000001</v>
+      </c>
+    </row>
+    <row r="299" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A299" s="44">
+        <v>45387</v>
+      </c>
+      <c r="B299" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C299" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D299" t="s">
+        <v>501</v>
+      </c>
+      <c r="E299" t="s">
+        <v>221</v>
+      </c>
+      <c r="J299">
+        <v>14.1</v>
+      </c>
+      <c r="K299" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L299">
+        <v>38.564140000000002</v>
+      </c>
+      <c r="M299">
+        <v>-121.55392000000001</v>
+      </c>
+    </row>
+    <row r="300" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A300" s="44">
+        <v>45387</v>
+      </c>
+      <c r="B300" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C300" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D300" t="s">
+        <v>501</v>
+      </c>
+      <c r="E300" t="s">
+        <v>221</v>
+      </c>
+      <c r="J300">
+        <v>14.1</v>
+      </c>
+      <c r="K300" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L300">
+        <v>38.564140000000002</v>
+      </c>
+      <c r="M300">
+        <v>-121.55392000000001</v>
+      </c>
+    </row>
+    <row r="301" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A301" s="44">
+        <v>45387</v>
+      </c>
+      <c r="B301" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C301" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D301" t="s">
+        <v>501</v>
+      </c>
+      <c r="E301" t="s">
+        <v>221</v>
+      </c>
+      <c r="J301">
+        <v>14.3</v>
+      </c>
+      <c r="K301" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L301">
+        <v>38.564140000000002</v>
+      </c>
+      <c r="M301">
+        <v>-121.55392000000001</v>
+      </c>
+    </row>
+    <row r="302" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A302" s="44">
+        <v>45387</v>
+      </c>
+      <c r="B302" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C302" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D302" t="s">
+        <v>501</v>
+      </c>
+      <c r="E302" t="s">
+        <v>221</v>
+      </c>
+      <c r="J302">
+        <v>14.3</v>
+      </c>
+      <c r="K302" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L302">
+        <v>38.564140000000002</v>
+      </c>
+      <c r="M302">
+        <v>-121.55392000000001</v>
+      </c>
+    </row>
+    <row r="303" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A303" s="44">
+        <v>45387</v>
+      </c>
+      <c r="B303" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C303" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D303" t="s">
+        <v>501</v>
+      </c>
+      <c r="E303" t="s">
+        <v>221</v>
+      </c>
+      <c r="J303">
+        <v>14.6</v>
+      </c>
+      <c r="K303" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L303">
+        <v>38.564140000000002</v>
+      </c>
+      <c r="M303">
+        <v>-121.55392000000001</v>
+      </c>
+    </row>
+    <row r="304" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A304" s="44">
+        <v>45387</v>
+      </c>
+      <c r="B304" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C304" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D304" t="s">
+        <v>501</v>
+      </c>
+      <c r="E304" t="s">
+        <v>221</v>
+      </c>
+      <c r="J304">
+        <v>14.6</v>
+      </c>
+      <c r="K304" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L304">
+        <v>38.564140000000002</v>
+      </c>
+      <c r="M304">
+        <v>-121.55392000000001</v>
+      </c>
+    </row>
+    <row r="305" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A305" s="44">
+        <v>45387</v>
+      </c>
+      <c r="B305" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C305" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D305" t="s">
+        <v>501</v>
+      </c>
+      <c r="E305" t="s">
+        <v>221</v>
+      </c>
+      <c r="J305">
+        <v>15.2</v>
+      </c>
+      <c r="K305" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L305">
+        <v>38.564140000000002</v>
+      </c>
+      <c r="M305">
+        <v>-121.55392000000001</v>
+      </c>
+    </row>
+    <row r="306" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A306" s="44">
+        <v>45387</v>
+      </c>
+      <c r="B306" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C306" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D306" t="s">
+        <v>501</v>
+      </c>
+      <c r="E306" t="s">
+        <v>221</v>
+      </c>
+      <c r="J306">
+        <v>15.4</v>
+      </c>
+      <c r="K306" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L306">
+        <v>38.564140000000002</v>
+      </c>
+      <c r="M306">
+        <v>-121.55392000000001</v>
+      </c>
+    </row>
+    <row r="307" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A307" s="44">
+        <v>45387</v>
+      </c>
+      <c r="B307" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C307" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D307" t="s">
+        <v>501</v>
+      </c>
+      <c r="E307" t="s">
+        <v>221</v>
+      </c>
+      <c r="J307">
+        <v>18.5</v>
+      </c>
+      <c r="K307" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L307">
+        <v>38.564140000000002</v>
+      </c>
+      <c r="M307">
+        <v>-121.55392000000001</v>
+      </c>
+    </row>
+    <row r="308" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A308" s="44">
+        <v>45390</v>
+      </c>
+      <c r="B308" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C308" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D308" t="s">
+        <v>502</v>
+      </c>
+      <c r="E308" t="s">
+        <v>112</v>
+      </c>
+      <c r="J308">
+        <v>11.5</v>
+      </c>
+      <c r="K308" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L308">
+        <v>38.136949999999999</v>
+      </c>
+      <c r="M308">
+        <v>-122.06022</v>
+      </c>
+    </row>
+    <row r="309" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A309" s="44">
+        <v>45391</v>
+      </c>
+      <c r="B309" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C309" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D309" t="s">
+        <v>503</v>
+      </c>
+      <c r="E309" t="s">
+        <v>89</v>
+      </c>
+      <c r="J309">
+        <v>7</v>
+      </c>
+      <c r="K309" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L309">
+        <v>38.032580000000003</v>
+      </c>
+      <c r="M309">
+        <v>-122.1326</v>
+      </c>
+    </row>
+    <row r="310" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A310" s="44">
+        <v>45391</v>
+      </c>
+      <c r="B310" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C310" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D310" t="s">
+        <v>503</v>
+      </c>
+      <c r="E310" t="s">
+        <v>89</v>
+      </c>
+      <c r="J310">
+        <v>6</v>
+      </c>
+      <c r="K310" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L310">
+        <v>38.032519999999998</v>
+      </c>
+      <c r="M310">
+        <v>-122.13254999999999</v>
+      </c>
+    </row>
+    <row r="311" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A311" s="44">
+        <v>45391</v>
+      </c>
+      <c r="B311" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C311" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D311" t="s">
+        <v>503</v>
+      </c>
+      <c r="E311" t="s">
+        <v>89</v>
+      </c>
+      <c r="J311">
+        <v>6</v>
+      </c>
+      <c r="K311" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L311">
+        <v>38.032519999999998</v>
+      </c>
+      <c r="M311">
+        <v>-122.13254999999999</v>
+      </c>
+    </row>
+    <row r="312" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A312" s="44">
+        <v>45391</v>
+      </c>
+      <c r="B312" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C312" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D312" t="s">
+        <v>503</v>
+      </c>
+      <c r="E312" t="s">
+        <v>89</v>
+      </c>
+      <c r="J312">
+        <v>6.5</v>
+      </c>
+      <c r="K312" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L312">
+        <v>38.032519999999998</v>
+      </c>
+      <c r="M312">
+        <v>-122.13254999999999</v>
+      </c>
+    </row>
+    <row r="313" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A313" s="44">
+        <v>45391</v>
+      </c>
+      <c r="B313" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C313" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D313" t="s">
+        <v>503</v>
+      </c>
+      <c r="E313" t="s">
+        <v>89</v>
+      </c>
+      <c r="J313">
+        <v>7.5</v>
+      </c>
+      <c r="K313" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L313">
+        <v>38.032519999999998</v>
+      </c>
+      <c r="M313">
+        <v>-122.13254999999999</v>
+      </c>
+    </row>
+    <row r="314" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A314" s="44">
+        <v>45391</v>
+      </c>
+      <c r="B314" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C314" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D314" t="s">
+        <v>504</v>
+      </c>
+      <c r="E314" t="s">
+        <v>89</v>
+      </c>
+      <c r="J314">
+        <v>5.7</v>
+      </c>
+      <c r="K314" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L314">
+        <v>38.050910000000002</v>
+      </c>
+      <c r="M314">
+        <v>-122.08477999999999</v>
+      </c>
+    </row>
+    <row r="315" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A315" s="44">
+        <v>45391</v>
+      </c>
+      <c r="B315" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C315" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D315" t="s">
+        <v>504</v>
+      </c>
+      <c r="E315" t="s">
+        <v>89</v>
+      </c>
+      <c r="J315">
+        <v>6.5</v>
+      </c>
+      <c r="K315" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L315">
+        <v>38.050910000000002</v>
+      </c>
+      <c r="M315">
+        <v>-122.08477999999999</v>
+      </c>
+    </row>
+    <row r="316" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A316" s="44">
+        <v>45391</v>
+      </c>
+      <c r="B316" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C316" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D316" t="s">
+        <v>504</v>
+      </c>
+      <c r="E316" t="s">
+        <v>89</v>
+      </c>
+      <c r="J316">
+        <v>8.1</v>
+      </c>
+      <c r="K316" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L316">
+        <v>38.050910000000002</v>
+      </c>
+      <c r="M316">
+        <v>-122.08477999999999</v>
+      </c>
+    </row>
+    <row r="317" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A317" s="44">
+        <v>45391</v>
+      </c>
+      <c r="B317" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C317" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D317" t="s">
+        <v>504</v>
+      </c>
+      <c r="E317" t="s">
+        <v>89</v>
+      </c>
+      <c r="J317">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="K317" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L317">
+        <v>38.050910000000002</v>
+      </c>
+      <c r="M317">
+        <v>-122.08477999999999</v>
+      </c>
+    </row>
+    <row r="318" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A318" s="44">
+        <v>45391</v>
+      </c>
+      <c r="B318" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C318" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D318" t="s">
+        <v>504</v>
+      </c>
+      <c r="E318" t="s">
+        <v>89</v>
+      </c>
+      <c r="J318">
+        <v>9.5</v>
+      </c>
+      <c r="K318" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L318">
+        <v>38.050910000000002</v>
+      </c>
+      <c r="M318">
+        <v>-122.08477999999999</v>
+      </c>
+    </row>
+    <row r="319" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A319" s="44">
+        <v>45391</v>
+      </c>
+      <c r="B319" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C319" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D319" t="s">
+        <v>504</v>
+      </c>
+      <c r="E319" t="s">
+        <v>89</v>
+      </c>
+      <c r="J319">
+        <v>10.7</v>
+      </c>
+      <c r="K319" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L319">
+        <v>38.050910000000002</v>
+      </c>
+      <c r="M319">
+        <v>-122.08477999999999</v>
+      </c>
+    </row>
+    <row r="320" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A320" s="44">
+        <v>45391</v>
+      </c>
+      <c r="B320" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C320" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D320" t="s">
+        <v>505</v>
+      </c>
+      <c r="E320" t="s">
+        <v>89</v>
+      </c>
+      <c r="J320">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="K320" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L320">
+        <v>38.046149999999997</v>
+      </c>
+      <c r="M320">
+        <v>-122.10866</v>
+      </c>
+    </row>
+    <row r="321" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A321" s="44">
+        <v>45391</v>
+      </c>
+      <c r="B321" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C321" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D321" t="s">
+        <v>506</v>
+      </c>
+      <c r="E321" t="s">
+        <v>221</v>
+      </c>
+      <c r="J321">
+        <v>7.2</v>
+      </c>
+      <c r="K321" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L321">
+        <v>38.49783</v>
+      </c>
+      <c r="M321">
+        <v>-121.58484</v>
+      </c>
+    </row>
+    <row r="322" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A322" s="44">
+        <v>45391</v>
+      </c>
+      <c r="B322" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C322" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D322" t="s">
+        <v>506</v>
+      </c>
+      <c r="E322" t="s">
+        <v>221</v>
+      </c>
+      <c r="J322">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="K322" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L322">
+        <v>38.49783</v>
+      </c>
+      <c r="M322">
+        <v>-121.58484</v>
+      </c>
+    </row>
+    <row r="323" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A323" s="44">
+        <v>45391</v>
+      </c>
+      <c r="B323" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C323" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D323" t="s">
+        <v>506</v>
+      </c>
+      <c r="E323" t="s">
+        <v>221</v>
+      </c>
+      <c r="J323">
+        <v>10</v>
+      </c>
+      <c r="K323" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L323">
+        <v>38.49783</v>
+      </c>
+      <c r="M323">
+        <v>-121.58484</v>
+      </c>
+    </row>
+    <row r="324" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A324" s="44">
+        <v>45391</v>
+      </c>
+      <c r="B324" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C324" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D324" t="s">
+        <v>506</v>
+      </c>
+      <c r="E324" t="s">
+        <v>221</v>
+      </c>
+      <c r="J324">
+        <v>11.1</v>
+      </c>
+      <c r="K324" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L324">
+        <v>38.49783</v>
+      </c>
+      <c r="M324">
+        <v>-121.58484</v>
+      </c>
+    </row>
+    <row r="325" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A325" s="44">
+        <v>45391</v>
+      </c>
+      <c r="B325" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C325" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D325" t="s">
+        <v>506</v>
+      </c>
+      <c r="E325" t="s">
+        <v>221</v>
+      </c>
+      <c r="J325">
+        <v>12</v>
+      </c>
+      <c r="K325" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L325">
+        <v>38.49783</v>
+      </c>
+      <c r="M325">
+        <v>-121.58484</v>
+      </c>
+    </row>
+    <row r="326" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A326" s="44">
+        <v>45391</v>
+      </c>
+      <c r="B326" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C326" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D326" t="s">
+        <v>506</v>
+      </c>
+      <c r="E326" t="s">
+        <v>221</v>
+      </c>
+      <c r="J326">
+        <v>12.4</v>
+      </c>
+      <c r="K326" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L326">
+        <v>38.49783</v>
+      </c>
+      <c r="M326">
+        <v>-121.58484</v>
+      </c>
+    </row>
+    <row r="327" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A327" s="44">
+        <v>45391</v>
+      </c>
+      <c r="B327" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C327" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D327" t="s">
+        <v>506</v>
+      </c>
+      <c r="E327" t="s">
+        <v>221</v>
+      </c>
+      <c r="J327">
+        <v>13.2</v>
+      </c>
+      <c r="K327" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L327">
+        <v>38.49783</v>
+      </c>
+      <c r="M327">
+        <v>-121.58484</v>
+      </c>
+    </row>
+    <row r="328" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A328" s="44">
+        <v>45391</v>
+      </c>
+      <c r="B328" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C328" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D328" t="s">
+        <v>506</v>
+      </c>
+      <c r="E328" t="s">
+        <v>221</v>
+      </c>
+      <c r="J328">
+        <v>11.3</v>
+      </c>
+      <c r="K328" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L328">
+        <v>38.49897</v>
+      </c>
+      <c r="M328">
+        <v>-121.58477000000001</v>
+      </c>
+    </row>
+    <row r="329" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A329" s="44">
+        <v>45391</v>
+      </c>
+      <c r="B329" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C329" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D329" t="s">
+        <v>506</v>
+      </c>
+      <c r="E329" t="s">
+        <v>221</v>
+      </c>
+      <c r="J329">
+        <v>11.8</v>
+      </c>
+      <c r="K329" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L329">
+        <v>38.49897</v>
+      </c>
+      <c r="M329">
+        <v>-121.58477000000001</v>
+      </c>
+    </row>
+    <row r="330" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A330" s="44">
+        <v>45391</v>
+      </c>
+      <c r="B330" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C330" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D330" t="s">
+        <v>506</v>
+      </c>
+      <c r="E330" t="s">
+        <v>221</v>
+      </c>
+      <c r="J330">
+        <v>12.5</v>
+      </c>
+      <c r="K330" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L330">
+        <v>38.49897</v>
+      </c>
+      <c r="M330">
+        <v>-121.58477000000001</v>
+      </c>
+    </row>
+    <row r="331" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A331" s="44">
+        <v>45391</v>
+      </c>
+      <c r="B331" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C331" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D331" t="s">
+        <v>506</v>
+      </c>
+      <c r="E331" t="s">
+        <v>221</v>
+      </c>
+      <c r="J331">
+        <v>13.3</v>
+      </c>
+      <c r="K331" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L331">
+        <v>38.49897</v>
+      </c>
+      <c r="M331">
+        <v>-121.58477000000001</v>
+      </c>
+    </row>
+    <row r="332" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A332" s="44">
+        <v>45391</v>
+      </c>
+      <c r="B332" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C332" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D332" t="s">
+        <v>507</v>
+      </c>
+      <c r="E332" t="s">
+        <v>221</v>
+      </c>
+      <c r="J332">
+        <v>11.6</v>
+      </c>
+      <c r="K332" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L332">
+        <v>38.479680000000002</v>
+      </c>
+      <c r="M332">
+        <v>-121.58496</v>
+      </c>
+    </row>
+    <row r="333" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A333" s="44">
+        <v>45391</v>
+      </c>
+      <c r="B333" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C333" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D333" t="s">
+        <v>507</v>
+      </c>
+      <c r="E333" t="s">
+        <v>221</v>
+      </c>
+      <c r="J333">
+        <v>12.6</v>
+      </c>
+      <c r="K333" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L333">
+        <v>38.479680000000002</v>
+      </c>
+      <c r="M333">
+        <v>-121.58496</v>
+      </c>
+    </row>
+    <row r="334" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A334" s="44">
+        <v>45391</v>
+      </c>
+      <c r="B334" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C334" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D334" t="s">
+        <v>507</v>
+      </c>
+      <c r="E334" t="s">
+        <v>221</v>
+      </c>
+      <c r="J334">
+        <v>13</v>
+      </c>
+      <c r="K334" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L334">
+        <v>38.479680000000002</v>
+      </c>
+      <c r="M334">
+        <v>-121.58496</v>
+      </c>
+    </row>
+    <row r="335" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A335" s="44">
+        <v>45391</v>
+      </c>
+      <c r="B335" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C335" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D335" t="s">
+        <v>507</v>
+      </c>
+      <c r="E335" t="s">
+        <v>221</v>
+      </c>
+      <c r="J335">
+        <v>13.2</v>
+      </c>
+      <c r="K335" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L335">
+        <v>38.479680000000002</v>
+      </c>
+      <c r="M335">
+        <v>-121.58496</v>
+      </c>
+    </row>
+    <row r="336" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A336" s="44">
+        <v>45391</v>
+      </c>
+      <c r="B336" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C336" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D336" t="s">
+        <v>507</v>
+      </c>
+      <c r="E336" t="s">
+        <v>221</v>
+      </c>
+      <c r="J336">
+        <v>13.3</v>
+      </c>
+      <c r="K336" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L336">
+        <v>38.479680000000002</v>
+      </c>
+      <c r="M336">
+        <v>-121.58496</v>
+      </c>
+    </row>
+    <row r="337" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A337" s="44">
+        <v>45391</v>
+      </c>
+      <c r="B337" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C337" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D337" t="s">
+        <v>507</v>
+      </c>
+      <c r="E337" t="s">
+        <v>221</v>
+      </c>
+      <c r="J337">
+        <v>13.9</v>
+      </c>
+      <c r="K337" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L337">
+        <v>38.479680000000002</v>
+      </c>
+      <c r="M337">
+        <v>-121.58496</v>
+      </c>
+    </row>
+    <row r="338" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A338" s="44">
+        <v>45391</v>
+      </c>
+      <c r="B338" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C338" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D338" t="s">
+        <v>507</v>
+      </c>
+      <c r="E338" t="s">
+        <v>221</v>
+      </c>
+      <c r="J338">
+        <v>14</v>
+      </c>
+      <c r="K338" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L338">
+        <v>38.479680000000002</v>
+      </c>
+      <c r="M338">
+        <v>-121.58496</v>
+      </c>
+    </row>
+    <row r="339" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A339" s="44">
+        <v>45391</v>
+      </c>
+      <c r="B339" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C339" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D339" t="s">
+        <v>507</v>
+      </c>
+      <c r="E339" t="s">
+        <v>221</v>
+      </c>
+      <c r="J339">
+        <v>14.2</v>
+      </c>
+      <c r="K339" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L339">
+        <v>38.479680000000002</v>
+      </c>
+      <c r="M339">
+        <v>-121.58496</v>
+      </c>
+    </row>
+    <row r="340" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A340" s="44">
+        <v>45391</v>
+      </c>
+      <c r="B340" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C340" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D340" t="s">
+        <v>507</v>
+      </c>
+      <c r="E340" t="s">
+        <v>221</v>
+      </c>
+      <c r="J340">
+        <v>14.3</v>
+      </c>
+      <c r="K340" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L340">
+        <v>38.479680000000002</v>
+      </c>
+      <c r="M340">
+        <v>-121.58496</v>
+      </c>
+    </row>
+    <row r="341" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A341" s="44">
+        <v>45391</v>
+      </c>
+      <c r="B341" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C341" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D341" t="s">
+        <v>507</v>
+      </c>
+      <c r="E341" t="s">
+        <v>221</v>
+      </c>
+      <c r="J341">
+        <v>14.5</v>
+      </c>
+      <c r="K341" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L341">
+        <v>38.479680000000002</v>
+      </c>
+      <c r="M341">
+        <v>-121.58496</v>
+      </c>
+    </row>
+    <row r="342" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A342" s="44">
+        <v>45391</v>
+      </c>
+      <c r="B342" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C342" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D342" t="s">
+        <v>507</v>
+      </c>
+      <c r="E342" t="s">
+        <v>221</v>
+      </c>
+      <c r="J342">
+        <v>14.6</v>
+      </c>
+      <c r="K342" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L342">
+        <v>38.479680000000002</v>
+      </c>
+      <c r="M342">
+        <v>-121.58496</v>
+      </c>
+    </row>
+    <row r="343" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A343" s="44">
+        <v>45391</v>
+      </c>
+      <c r="B343" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C343" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D343" t="s">
+        <v>507</v>
+      </c>
+      <c r="E343" t="s">
+        <v>221</v>
+      </c>
+      <c r="J343">
+        <v>14.8</v>
+      </c>
+      <c r="K343" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L343">
+        <v>38.479680000000002</v>
+      </c>
+      <c r="M343">
+        <v>-121.58496</v>
+      </c>
+    </row>
+    <row r="344" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A344" s="44">
+        <v>45391</v>
+      </c>
+      <c r="B344" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C344" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D344" t="s">
+        <v>507</v>
+      </c>
+      <c r="E344" t="s">
+        <v>221</v>
+      </c>
+      <c r="J344">
+        <v>15</v>
+      </c>
+      <c r="K344" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L344">
+        <v>38.479680000000002</v>
+      </c>
+      <c r="M344">
+        <v>-121.58496</v>
+      </c>
+    </row>
+    <row r="345" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A345" s="44">
+        <v>45391</v>
+      </c>
+      <c r="B345" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C345" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D345" t="s">
+        <v>507</v>
+      </c>
+      <c r="E345" t="s">
+        <v>221</v>
+      </c>
+      <c r="J345">
+        <v>15.1</v>
+      </c>
+      <c r="K345" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L345">
+        <v>38.479680000000002</v>
+      </c>
+      <c r="M345">
+        <v>-121.58496</v>
+      </c>
+    </row>
+    <row r="346" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A346" s="44">
+        <v>45391</v>
+      </c>
+      <c r="B346" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C346" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D346" t="s">
+        <v>507</v>
+      </c>
+      <c r="E346" t="s">
+        <v>221</v>
+      </c>
+      <c r="J346">
+        <v>15.3</v>
+      </c>
+      <c r="K346" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L346">
+        <v>38.479680000000002</v>
+      </c>
+      <c r="M346">
+        <v>-121.58496</v>
+      </c>
+    </row>
+    <row r="347" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A347" s="44">
+        <v>45391</v>
+      </c>
+      <c r="B347" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C347" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D347" t="s">
+        <v>507</v>
+      </c>
+      <c r="E347" t="s">
+        <v>221</v>
+      </c>
+      <c r="J347">
+        <v>15.8</v>
+      </c>
+      <c r="K347" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L347">
+        <v>38.479680000000002</v>
+      </c>
+      <c r="M347">
+        <v>-121.58496</v>
+      </c>
+    </row>
+    <row r="348" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A348" s="44">
+        <v>45391</v>
+      </c>
+      <c r="B348" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C348" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D348" t="s">
+        <v>507</v>
+      </c>
+      <c r="E348" t="s">
+        <v>221</v>
+      </c>
+      <c r="J348">
+        <v>15.9</v>
+      </c>
+      <c r="K348" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L348">
+        <v>38.479680000000002</v>
+      </c>
+      <c r="M348">
+        <v>-121.58496</v>
+      </c>
+    </row>
+    <row r="349" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A349" s="44">
+        <v>45391</v>
+      </c>
+      <c r="B349" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C349" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D349" t="s">
+        <v>507</v>
+      </c>
+      <c r="E349" t="s">
+        <v>221</v>
+      </c>
+      <c r="J349">
+        <v>16</v>
+      </c>
+      <c r="K349" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L349">
+        <v>38.479680000000002</v>
+      </c>
+      <c r="M349">
+        <v>-121.58496</v>
+      </c>
+    </row>
+    <row r="350" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A350" s="44">
+        <v>45391</v>
+      </c>
+      <c r="B350" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C350" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D350" t="s">
+        <v>507</v>
+      </c>
+      <c r="E350" t="s">
+        <v>221</v>
+      </c>
+      <c r="J350">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="K350" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L350">
+        <v>38.479599999999998</v>
+      </c>
+      <c r="M350">
+        <v>-121.58499</v>
+      </c>
+    </row>
+    <row r="351" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A351" s="44">
+        <v>45391</v>
+      </c>
+      <c r="B351" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C351" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D351" t="s">
+        <v>507</v>
+      </c>
+      <c r="E351" t="s">
+        <v>221</v>
+      </c>
+      <c r="J351">
+        <v>12</v>
+      </c>
+      <c r="K351" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L351">
+        <v>38.479599999999998</v>
+      </c>
+      <c r="M351">
+        <v>-121.58499</v>
+      </c>
+    </row>
+    <row r="352" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A352" s="44">
+        <v>45391</v>
+      </c>
+      <c r="B352" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C352" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D352" t="s">
+        <v>507</v>
+      </c>
+      <c r="E352" t="s">
+        <v>221</v>
+      </c>
+      <c r="J352">
+        <v>12.2</v>
+      </c>
+      <c r="K352" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L352">
+        <v>38.479599999999998</v>
+      </c>
+      <c r="M352">
+        <v>-121.58499</v>
+      </c>
+    </row>
+    <row r="353" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A353" s="44">
+        <v>45391</v>
+      </c>
+      <c r="B353" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C353" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D353" t="s">
+        <v>507</v>
+      </c>
+      <c r="E353" t="s">
+        <v>221</v>
+      </c>
+      <c r="J353">
+        <v>13</v>
+      </c>
+      <c r="K353" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L353">
+        <v>38.479599999999998</v>
+      </c>
+      <c r="M353">
+        <v>-121.58499</v>
+      </c>
+    </row>
+    <row r="354" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A354" s="44">
+        <v>45391</v>
+      </c>
+      <c r="B354" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C354" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D354" t="s">
+        <v>507</v>
+      </c>
+      <c r="E354" t="s">
+        <v>221</v>
+      </c>
+      <c r="J354">
+        <v>13</v>
+      </c>
+      <c r="K354" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L354">
+        <v>38.479599999999998</v>
+      </c>
+      <c r="M354">
+        <v>-121.58499</v>
+      </c>
+    </row>
+    <row r="355" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A355" s="44">
+        <v>45391</v>
+      </c>
+      <c r="B355" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C355" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D355" t="s">
+        <v>508</v>
+      </c>
+      <c r="E355" t="s">
+        <v>83</v>
+      </c>
+      <c r="J355">
+        <v>13.2</v>
+      </c>
+      <c r="K355" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L355">
+        <v>38.464799999999997</v>
+      </c>
+      <c r="M355">
+        <v>-121.58785</v>
+      </c>
+    </row>
+    <row r="356" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A356" s="44">
+        <v>45391</v>
+      </c>
+      <c r="B356" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C356" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D356" t="s">
+        <v>508</v>
+      </c>
+      <c r="E356" t="s">
+        <v>83</v>
+      </c>
+      <c r="J356">
+        <v>13.4</v>
+      </c>
+      <c r="K356" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L356">
+        <v>38.464799999999997</v>
+      </c>
+      <c r="M356">
+        <v>-121.58785</v>
+      </c>
+    </row>
+    <row r="357" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A357" s="44">
+        <v>45391</v>
+      </c>
+      <c r="B357" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C357" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D357" t="s">
+        <v>508</v>
+      </c>
+      <c r="E357" t="s">
+        <v>83</v>
+      </c>
+      <c r="J357">
+        <v>14.4</v>
+      </c>
+      <c r="K357" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L357">
+        <v>38.464799999999997</v>
+      </c>
+      <c r="M357">
+        <v>-121.58785</v>
+      </c>
+    </row>
+    <row r="358" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A358" s="44">
+        <v>45391</v>
+      </c>
+      <c r="B358" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C358" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D358" t="s">
+        <v>508</v>
+      </c>
+      <c r="E358" t="s">
+        <v>83</v>
+      </c>
+      <c r="J358">
+        <v>14.9</v>
+      </c>
+      <c r="K358" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L358">
+        <v>38.464799999999997</v>
+      </c>
+      <c r="M358">
+        <v>-121.58785</v>
+      </c>
+    </row>
+    <row r="359" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A359" s="44">
+        <v>45391</v>
+      </c>
+      <c r="B359" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C359" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D359" t="s">
+        <v>508</v>
+      </c>
+      <c r="E359" t="s">
+        <v>83</v>
+      </c>
+      <c r="J359">
+        <v>15.2</v>
+      </c>
+      <c r="K359" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L359">
+        <v>38.464799999999997</v>
+      </c>
+      <c r="M359">
+        <v>-121.58785</v>
+      </c>
+    </row>
+    <row r="360" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A360" s="44">
+        <v>45391</v>
+      </c>
+      <c r="B360" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C360" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D360" t="s">
+        <v>508</v>
+      </c>
+      <c r="E360" t="s">
+        <v>83</v>
+      </c>
+      <c r="J360">
+        <v>15.8</v>
+      </c>
+      <c r="K360" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L360">
+        <v>38.464799999999997</v>
+      </c>
+      <c r="M360">
+        <v>-121.58785</v>
+      </c>
+    </row>
+    <row r="361" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A361" s="44">
+        <v>45391</v>
+      </c>
+      <c r="B361" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C361" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D361" t="s">
+        <v>508</v>
+      </c>
+      <c r="E361" t="s">
+        <v>83</v>
+      </c>
+      <c r="J361">
+        <v>12.8</v>
+      </c>
+      <c r="K361" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L361">
+        <v>38.465339999999998</v>
+      </c>
+      <c r="M361">
+        <v>-121.58781999999999</v>
+      </c>
+    </row>
+    <row r="362" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A362" s="44">
+        <v>45391</v>
+      </c>
+      <c r="B362" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C362" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D362" t="s">
+        <v>508</v>
+      </c>
+      <c r="E362" t="s">
+        <v>83</v>
+      </c>
+      <c r="J362">
+        <v>14</v>
+      </c>
+      <c r="K362" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L362">
+        <v>38.465339999999998</v>
+      </c>
+      <c r="M362">
+        <v>-121.58781999999999</v>
+      </c>
+    </row>
+    <row r="363" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A363" s="44">
+        <v>45391</v>
+      </c>
+      <c r="B363" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C363" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D363" t="s">
+        <v>508</v>
+      </c>
+      <c r="E363" t="s">
+        <v>83</v>
+      </c>
+      <c r="J363">
+        <v>16</v>
+      </c>
+      <c r="K363" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L363">
+        <v>38.465339999999998</v>
+      </c>
+      <c r="M363">
+        <v>-121.58781999999999</v>
+      </c>
+    </row>
+    <row r="364" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A364" s="44">
+        <v>45392</v>
+      </c>
+      <c r="B364" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C364" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D364" t="s">
+        <v>509</v>
+      </c>
+      <c r="E364" t="s">
+        <v>90</v>
+      </c>
+      <c r="J364">
+        <v>9.6</v>
+      </c>
+      <c r="K364" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L364">
+        <v>38.07302</v>
+      </c>
+      <c r="M364">
+        <v>-121.77419999999999</v>
+      </c>
+    </row>
+    <row r="365" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A365" s="44">
+        <v>45393</v>
+      </c>
+      <c r="B365" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C365" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D365" t="s">
+        <v>510</v>
+      </c>
+      <c r="E365" t="s">
+        <v>150</v>
+      </c>
+      <c r="J365">
+        <v>6.2</v>
+      </c>
+      <c r="K365" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L365">
+        <v>38.054250000000003</v>
+      </c>
+      <c r="M365">
+        <v>-121.95818</v>
+      </c>
+    </row>
+    <row r="366" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A366" s="44">
+        <v>45393</v>
+      </c>
+      <c r="B366" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C366" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D366" t="s">
+        <v>510</v>
+      </c>
+      <c r="E366" t="s">
+        <v>150</v>
+      </c>
+      <c r="J366">
+        <v>7.1</v>
+      </c>
+      <c r="K366" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L366">
+        <v>38.054250000000003</v>
+      </c>
+      <c r="M366">
+        <v>-121.95818</v>
+      </c>
+    </row>
+    <row r="367" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A367" s="44">
+        <v>45393</v>
+      </c>
+      <c r="B367" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C367" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D367" t="s">
+        <v>510</v>
+      </c>
+      <c r="E367" t="s">
+        <v>150</v>
+      </c>
+      <c r="J367">
+        <v>7.6</v>
+      </c>
+      <c r="K367" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L367">
+        <v>38.054250000000003</v>
+      </c>
+      <c r="M367">
+        <v>-121.95818</v>
+      </c>
+    </row>
+    <row r="368" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A368" s="44">
+        <v>45393</v>
+      </c>
+      <c r="B368" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C368" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D368" t="s">
+        <v>510</v>
+      </c>
+      <c r="E368" t="s">
+        <v>150</v>
+      </c>
+      <c r="J368">
+        <v>7.7</v>
+      </c>
+      <c r="K368" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L368">
+        <v>38.054250000000003</v>
+      </c>
+      <c r="M368">
+        <v>-121.95818</v>
+      </c>
+    </row>
+    <row r="369" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A369" s="44">
+        <v>45393</v>
+      </c>
+      <c r="B369" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C369" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D369" t="s">
+        <v>510</v>
+      </c>
+      <c r="E369" t="s">
+        <v>150</v>
+      </c>
+      <c r="J369">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="K369" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L369">
+        <v>38.054250000000003</v>
+      </c>
+      <c r="M369">
+        <v>-121.95818</v>
+      </c>
+    </row>
+    <row r="370" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A370" s="44">
+        <v>45393</v>
+      </c>
+      <c r="B370" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C370" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D370" t="s">
+        <v>510</v>
+      </c>
+      <c r="E370" t="s">
+        <v>150</v>
+      </c>
+      <c r="J370">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="K370" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L370">
+        <v>38.054250000000003</v>
+      </c>
+      <c r="M370">
+        <v>-121.95818</v>
+      </c>
+    </row>
+    <row r="371" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A371" s="44">
+        <v>45393</v>
+      </c>
+      <c r="B371" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C371" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D371" t="s">
+        <v>510</v>
+      </c>
+      <c r="E371" t="s">
+        <v>150</v>
+      </c>
+      <c r="J371">
+        <v>7</v>
+      </c>
+      <c r="K371" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L371">
+        <v>38.054200000000002</v>
+      </c>
+      <c r="M371">
+        <v>-121.95825000000001</v>
+      </c>
+    </row>
+    <row r="372" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A372" s="44">
+        <v>45393</v>
+      </c>
+      <c r="B372" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C372" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D372" t="s">
+        <v>510</v>
+      </c>
+      <c r="E372" t="s">
+        <v>150</v>
+      </c>
+      <c r="J372">
+        <v>9</v>
+      </c>
+      <c r="K372" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L372">
+        <v>38.054200000000002</v>
+      </c>
+      <c r="M372">
+        <v>-121.95825000000001</v>
+      </c>
+    </row>
+    <row r="373" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A373" s="44">
+        <v>45397</v>
+      </c>
+      <c r="B373" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C373" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D373" t="s">
+        <v>511</v>
+      </c>
+      <c r="E373" t="s">
+        <v>84</v>
+      </c>
+      <c r="J373">
+        <v>12</v>
+      </c>
+      <c r="K373" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L373">
+        <v>38.111620000000002</v>
+      </c>
+      <c r="M373">
+        <v>-121.7099</v>
+      </c>
+    </row>
+    <row r="374" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A374" s="44">
+        <v>45398</v>
+      </c>
+      <c r="B374" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C374" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D374" t="s">
+        <v>512</v>
+      </c>
+      <c r="E374" t="s">
+        <v>112</v>
+      </c>
+      <c r="J374">
+        <v>9</v>
+      </c>
+      <c r="K374" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L374">
+        <v>38.155259999999998</v>
+      </c>
+      <c r="M374">
+        <v>-122.0527</v>
+      </c>
+    </row>
+    <row r="375" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A375" s="44">
+        <v>45399</v>
+      </c>
+      <c r="B375" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C375" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D375" t="s">
+        <v>513</v>
+      </c>
+      <c r="E375" t="s">
+        <v>89</v>
+      </c>
+      <c r="J375">
+        <v>7.6</v>
+      </c>
+      <c r="K375" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L375">
+        <v>38.091889999999999</v>
+      </c>
+      <c r="M375">
+        <v>-122.07877000000001</v>
+      </c>
+    </row>
+    <row r="376" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A376" s="44">
+        <v>45399</v>
+      </c>
+      <c r="B376" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C376" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D376" t="s">
+        <v>514</v>
+      </c>
+      <c r="E376" t="s">
+        <v>83</v>
+      </c>
+      <c r="J376">
+        <v>6.5</v>
+      </c>
+      <c r="K376" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L376">
+        <v>38.022261999999998</v>
+      </c>
+      <c r="M376">
+        <v>-121.67391000000001</v>
+      </c>
+    </row>
+    <row r="377" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A377" s="44">
+        <v>45399</v>
+      </c>
+      <c r="B377" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C377" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D377" t="s">
+        <v>514</v>
+      </c>
+      <c r="E377" t="s">
+        <v>83</v>
+      </c>
+      <c r="J377">
+        <v>7.8</v>
+      </c>
+      <c r="K377" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L377">
+        <v>38.022261999999998</v>
+      </c>
+      <c r="M377">
+        <v>-121.67391000000001</v>
+      </c>
+    </row>
+    <row r="378" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A378" s="44">
+        <v>45399</v>
+      </c>
+      <c r="B378" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C378" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D378" t="s">
+        <v>514</v>
+      </c>
+      <c r="E378" t="s">
+        <v>83</v>
+      </c>
+      <c r="J378">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="K378" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L378">
+        <v>38.022261999999998</v>
+      </c>
+      <c r="M378">
+        <v>-121.67391000000001</v>
+      </c>
+    </row>
+    <row r="379" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A379" s="44">
+        <v>45399</v>
+      </c>
+      <c r="B379" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C379" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D379" t="s">
+        <v>515</v>
+      </c>
+      <c r="E379" t="s">
+        <v>83</v>
+      </c>
+      <c r="J379">
+        <v>9.5</v>
+      </c>
+      <c r="K379" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L379">
+        <v>38.253230000000002</v>
+      </c>
+      <c r="M379">
+        <v>-121.66818000000001</v>
+      </c>
+    </row>
+    <row r="380" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A380" s="44">
+        <v>45399</v>
+      </c>
+      <c r="B380" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C380" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D380" t="s">
+        <v>515</v>
+      </c>
+      <c r="E380" t="s">
+        <v>83</v>
+      </c>
+      <c r="J380">
+        <v>11.5</v>
+      </c>
+      <c r="K380" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L380">
+        <v>38.253230000000002</v>
+      </c>
+      <c r="M380">
+        <v>-121.66818000000001</v>
+      </c>
+    </row>
+    <row r="381" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A381" s="44">
+        <v>45405</v>
+      </c>
+      <c r="B381" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C381" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D381" t="s">
+        <v>516</v>
+      </c>
+      <c r="E381" t="s">
+        <v>89</v>
+      </c>
+      <c r="J381">
+        <v>7.1</v>
+      </c>
+      <c r="K381" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L381">
+        <v>38.061160000000001</v>
+      </c>
+      <c r="M381">
+        <v>-122.05566</v>
+      </c>
+    </row>
+    <row r="382" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A382" s="44">
+        <v>45405</v>
+      </c>
+      <c r="B382" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C382" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D382" t="s">
+        <v>516</v>
+      </c>
+      <c r="E382" t="s">
+        <v>89</v>
+      </c>
+      <c r="J382">
+        <v>7.9</v>
+      </c>
+      <c r="K382" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L382">
+        <v>38.061160000000001</v>
+      </c>
+      <c r="M382">
+        <v>-122.05566</v>
+      </c>
+    </row>
+    <row r="383" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A383" s="44">
+        <v>45405</v>
+      </c>
+      <c r="B383" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C383" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D383" t="s">
+        <v>516</v>
+      </c>
+      <c r="E383" t="s">
+        <v>89</v>
+      </c>
+      <c r="J383">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="K383" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L383">
+        <v>38.061160000000001</v>
+      </c>
+      <c r="M383">
+        <v>-122.05566</v>
+      </c>
+    </row>
+    <row r="384" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A384" s="44">
+        <v>45405</v>
+      </c>
+      <c r="B384" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C384" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D384" t="s">
+        <v>516</v>
+      </c>
+      <c r="E384" t="s">
+        <v>89</v>
+      </c>
+      <c r="J384">
+        <v>7.1</v>
+      </c>
+      <c r="K384" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L384">
+        <v>38.061149999999998</v>
+      </c>
+      <c r="M384">
+        <v>-122.05544</v>
+      </c>
+    </row>
+    <row r="385" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A385" s="44">
+        <v>45405</v>
+      </c>
+      <c r="B385" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C385" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D385" t="s">
+        <v>516</v>
+      </c>
+      <c r="E385" t="s">
+        <v>89</v>
+      </c>
+      <c r="J385">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="K385" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L385">
+        <v>38.061149999999998</v>
+      </c>
+      <c r="M385">
+        <v>-122.05544</v>
+      </c>
+    </row>
+    <row r="386" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A386" s="44">
+        <v>45406</v>
+      </c>
+      <c r="B386" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C386" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D386" t="s">
+        <v>517</v>
+      </c>
+      <c r="E386" t="s">
+        <v>83</v>
+      </c>
+      <c r="J386">
+        <v>7.1</v>
+      </c>
+      <c r="K386" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L386">
+        <v>38.345239999999997</v>
+      </c>
+      <c r="M386">
+        <v>-121.64274</v>
+      </c>
+    </row>
+    <row r="387" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A387" s="44">
+        <v>45406</v>
+      </c>
+      <c r="B387" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C387" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D387" t="s">
+        <v>517</v>
+      </c>
+      <c r="E387" t="s">
+        <v>83</v>
+      </c>
+      <c r="J387">
+        <v>8.4</v>
+      </c>
+      <c r="K387" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L387">
+        <v>38.345239999999997</v>
+      </c>
+      <c r="M387">
+        <v>-121.64274</v>
+      </c>
+    </row>
+    <row r="388" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A388" s="44">
+        <v>45406</v>
+      </c>
+      <c r="B388" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C388" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D388" t="s">
+        <v>517</v>
+      </c>
+      <c r="E388" t="s">
+        <v>83</v>
+      </c>
+      <c r="J388">
+        <v>26</v>
+      </c>
+      <c r="K388" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L388">
+        <v>38.345239999999997</v>
+      </c>
+      <c r="M388">
+        <v>-121.64274</v>
+      </c>
+    </row>
+    <row r="389" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A389" s="44">
+        <v>45406</v>
+      </c>
+      <c r="B389" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C389" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D389" t="s">
+        <v>518</v>
+      </c>
+      <c r="E389" t="s">
+        <v>83</v>
+      </c>
+      <c r="J389">
+        <v>6</v>
+      </c>
+      <c r="K389" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L389">
+        <v>38.267209999999999</v>
+      </c>
+      <c r="M389">
+        <v>-121.66372</v>
+      </c>
+    </row>
+    <row r="390" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A390" s="44">
+        <v>45406</v>
+      </c>
+      <c r="B390" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C390" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D390" t="s">
+        <v>519</v>
+      </c>
+      <c r="E390" t="s">
+        <v>221</v>
+      </c>
+      <c r="J390">
+        <v>9.4</v>
+      </c>
+      <c r="K390" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L390">
+        <v>38.491970000000002</v>
+      </c>
+      <c r="M390">
+        <v>-121.83920000000001</v>
+      </c>
+    </row>
+    <row r="391" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A391" s="44">
+        <v>45406</v>
+      </c>
+      <c r="B391" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C391" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D391" t="s">
+        <v>519</v>
+      </c>
+      <c r="E391" t="s">
+        <v>221</v>
+      </c>
+      <c r="J391">
+        <v>10.9</v>
+      </c>
+      <c r="K391" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L391">
+        <v>38.491970000000002</v>
+      </c>
+      <c r="M391">
+        <v>-121.83920000000001</v>
+      </c>
+    </row>
+    <row r="392" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A392" s="44">
+        <v>45407</v>
+      </c>
+      <c r="B392" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C392" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D392" t="s">
+        <v>520</v>
+      </c>
+      <c r="E392" t="s">
+        <v>112</v>
+      </c>
+      <c r="J392">
+        <v>10.7</v>
+      </c>
+      <c r="K392" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L392">
+        <v>38.169739999999997</v>
+      </c>
+      <c r="M392">
+        <v>-122.02802</v>
+      </c>
+    </row>
+    <row r="393" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A393" s="44">
+        <v>45407</v>
+      </c>
+      <c r="B393" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C393" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D393" t="s">
+        <v>520</v>
+      </c>
+      <c r="E393" t="s">
+        <v>112</v>
+      </c>
+      <c r="J393">
+        <v>12</v>
+      </c>
+      <c r="K393" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L393">
+        <v>38.169739999999997</v>
+      </c>
+      <c r="M393">
+        <v>-122.02802</v>
+      </c>
+    </row>
+    <row r="394" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A394" s="44">
+        <v>45407</v>
+      </c>
+      <c r="B394" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C394" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D394" t="s">
+        <v>520</v>
+      </c>
+      <c r="E394" t="s">
+        <v>112</v>
+      </c>
+      <c r="J394">
+        <v>13.3</v>
+      </c>
+      <c r="K394" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L394">
+        <v>38.169739999999997</v>
+      </c>
+      <c r="M394">
+        <v>-122.02802</v>
+      </c>
+    </row>
+    <row r="395" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A395" s="44">
+        <v>45407</v>
+      </c>
+      <c r="B395" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C395" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D395" t="s">
+        <v>521</v>
+      </c>
+      <c r="E395" t="s">
+        <v>84</v>
+      </c>
+      <c r="J395">
+        <v>10.8</v>
+      </c>
+      <c r="K395" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L395">
+        <v>38.165309999999998</v>
+      </c>
+      <c r="M395">
+        <v>-121.68103000000001</v>
+      </c>
+    </row>
+    <row r="396" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A396" s="44">
+        <v>45411</v>
+      </c>
+      <c r="B396" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C396" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D396" t="s">
+        <v>522</v>
+      </c>
+      <c r="E396" t="s">
+        <v>90</v>
+      </c>
+      <c r="J396">
+        <v>7.8</v>
+      </c>
+      <c r="K396" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L396">
+        <v>38.05442</v>
+      </c>
+      <c r="M396">
+        <v>-121.79924</v>
+      </c>
+    </row>
+    <row r="397" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A397" s="44">
+        <v>45411</v>
+      </c>
+      <c r="B397" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C397" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D397" t="s">
+        <v>523</v>
+      </c>
+      <c r="E397" t="s">
+        <v>84</v>
+      </c>
+      <c r="J397">
+        <v>10.5</v>
+      </c>
+      <c r="K397" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L397">
+        <v>38.140639999999998</v>
+      </c>
+      <c r="M397">
+        <v>-121.69403</v>
+      </c>
+    </row>
+    <row r="398" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A398" s="44">
+        <v>45411</v>
+      </c>
+      <c r="B398" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C398" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D398" t="s">
+        <v>523</v>
+      </c>
+      <c r="E398" t="s">
+        <v>84</v>
+      </c>
+      <c r="J398">
+        <v>8.5</v>
+      </c>
+      <c r="K398" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L398">
+        <v>38.140509999999999</v>
+      </c>
+      <c r="M398">
+        <v>-121.69412</v>
+      </c>
+    </row>
+    <row r="399" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A399" s="44">
+        <v>45411</v>
+      </c>
+      <c r="B399" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C399" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D399" t="s">
+        <v>524</v>
+      </c>
+      <c r="E399" t="s">
+        <v>84</v>
+      </c>
+      <c r="J399">
+        <v>7</v>
+      </c>
+      <c r="K399" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L399">
+        <v>38.171109999999999</v>
+      </c>
+      <c r="M399">
+        <v>-121.67536</v>
+      </c>
+    </row>
+    <row r="400" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A400" s="44">
+        <v>45411</v>
+      </c>
+      <c r="B400" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C400" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D400" t="s">
+        <v>524</v>
+      </c>
+      <c r="E400" t="s">
+        <v>84</v>
+      </c>
+      <c r="J400">
+        <v>8.1</v>
+      </c>
+      <c r="K400" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L400">
+        <v>38.171109999999999</v>
+      </c>
+      <c r="M400">
+        <v>-121.67536</v>
+      </c>
+    </row>
+    <row r="401" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A401" s="44">
+        <v>45414</v>
+      </c>
+      <c r="B401" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C401" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D401" t="s">
+        <v>525</v>
+      </c>
+      <c r="E401" t="s">
+        <v>83</v>
+      </c>
+      <c r="J401">
+        <v>12.5</v>
+      </c>
+      <c r="K401" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L401">
+        <v>38.210650000000001</v>
+      </c>
+      <c r="M401">
+        <v>-121.66464000000001</v>
+      </c>
+    </row>
+    <row r="402" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A402" s="44">
+        <v>45419</v>
+      </c>
+      <c r="B402" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C402" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D402" t="s">
+        <v>526</v>
+      </c>
+      <c r="E402" t="s">
+        <v>83</v>
+      </c>
+      <c r="J402">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="K402" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L402">
+        <v>38.216810000000002</v>
+      </c>
+      <c r="M402">
+        <v>-121.66967</v>
+      </c>
+    </row>
+    <row r="403" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A403" s="44">
+        <v>45419</v>
+      </c>
+      <c r="B403" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C403" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D403" t="s">
+        <v>526</v>
+      </c>
+      <c r="E403" t="s">
+        <v>83</v>
+      </c>
+      <c r="J403">
+        <v>11.8</v>
+      </c>
+      <c r="K403" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L403">
+        <v>38.216810000000002</v>
+      </c>
+      <c r="M403">
+        <v>-121.66967</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:AE254" xr:uid="{C569B310-60E0-4E31-89EB-52CC1C810311}"/>
@@ -21476,15 +25589,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="65146633-a755-433a-aacb-5024b6511b89">
@@ -21517,6 +25621,15 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76D96E8C-3FF7-4769-9DB8-E43AB53278F6}">
   <ds:schemaRefs>
@@ -21537,14 +25650,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C764E5-19B4-4012-98BF-B46F2FA7A2CF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D4F8AF6-B64B-4962-81B5-D73EE7A1E0CA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -21553,4 +25658,12 @@
     <ds:schemaRef ds:uri="d8e23be6-d007-4c2c-9265-7d9405abf22e"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C764E5-19B4-4012-98BF-B46F2FA7A2CF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Running Delta Smelt Catch_2023-09-05.xlsx
+++ b/Running Delta Smelt Catch_2023-09-05.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cawater-my.sharepoint.com/personal/rosemary_hartman_water_ca_gov/Documents/smelt cages/SmeltMap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="8_{38D2B3C1-DAF9-4126-B4FD-0E27163FBC27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CEB2348B-629E-4A4D-A2BC-E61B08AC0674}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="8_{38D2B3C1-DAF9-4126-B4FD-0E27163FBC27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25E7ECD2-2938-4D85-A234-0FBDA0021711}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{4BB403AD-DB3F-4CB5-B7F1-39827ED458E8}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4491" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4596" uniqueCount="535">
   <si>
     <t>Running Delta Smelt Catch Data Collected for the USFWS Delta Smelt Experimental Release Technical Team</t>
   </si>
@@ -1641,6 +1641,30 @@
   </si>
   <si>
     <t>24-41-SSC02</t>
+  </si>
+  <si>
+    <t>24-40-SSC09</t>
+  </si>
+  <si>
+    <t>24-40-SSC08</t>
+  </si>
+  <si>
+    <t>24-40-SSC04</t>
+  </si>
+  <si>
+    <t>24-41-SSC01</t>
+  </si>
+  <si>
+    <t>24-41-SSC05</t>
+  </si>
+  <si>
+    <t>24-41-CS01</t>
+  </si>
+  <si>
+    <t>Sac DW Ship Channel</t>
+  </si>
+  <si>
+    <t>Cache Slough/LI</t>
   </si>
 </sst>
 </file>
@@ -2652,11 +2676,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C569B310-60E0-4E31-89EB-52CC1C810311}">
-  <dimension ref="A1:AE403"/>
+  <dimension ref="A1:AE424"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A260" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G274" sqref="G274"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A392" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F423" sqref="F423"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -25262,27 +25286,27 @@
         <v>75</v>
       </c>
       <c r="D401" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="E401" t="s">
-        <v>83</v>
+        <v>533</v>
       </c>
       <c r="J401">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="K401" s="40" t="s">
         <v>78</v>
       </c>
       <c r="L401">
-        <v>38.210650000000001</v>
+        <v>38.45532</v>
       </c>
       <c r="M401">
-        <v>-121.66464000000001</v>
+        <v>-121.59262</v>
       </c>
     </row>
     <row r="402" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A402" s="44">
-        <v>45419</v>
+        <v>45414</v>
       </c>
       <c r="B402" s="35" t="s">
         <v>216</v>
@@ -25291,27 +25315,27 @@
         <v>75</v>
       </c>
       <c r="D402" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E402" t="s">
-        <v>83</v>
+        <v>533</v>
       </c>
       <c r="J402">
-        <v>9.1999999999999993</v>
+        <v>13</v>
       </c>
       <c r="K402" s="40" t="s">
         <v>78</v>
       </c>
       <c r="L402">
-        <v>38.216810000000002</v>
+        <v>38.45532</v>
       </c>
       <c r="M402">
-        <v>-121.66967</v>
+        <v>-121.59262</v>
       </c>
     </row>
     <row r="403" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A403" s="44">
-        <v>45419</v>
+        <v>45414</v>
       </c>
       <c r="B403" s="35" t="s">
         <v>216</v>
@@ -25320,22 +25344,631 @@
         <v>75</v>
       </c>
       <c r="D403" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E403" t="s">
-        <v>83</v>
+        <v>533</v>
       </c>
       <c r="J403">
-        <v>11.8</v>
+        <v>13.5</v>
       </c>
       <c r="K403" s="40" t="s">
         <v>78</v>
       </c>
       <c r="L403">
+        <v>38.45532</v>
+      </c>
+      <c r="M403">
+        <v>-121.59262</v>
+      </c>
+    </row>
+    <row r="404" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A404" s="44">
+        <v>45414</v>
+      </c>
+      <c r="B404" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C404" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D404" t="s">
+        <v>527</v>
+      </c>
+      <c r="E404" t="s">
+        <v>533</v>
+      </c>
+      <c r="J404">
+        <v>14.5</v>
+      </c>
+      <c r="K404" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L404">
+        <v>38.45532</v>
+      </c>
+      <c r="M404">
+        <v>-121.59262</v>
+      </c>
+    </row>
+    <row r="405" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A405" s="44">
+        <v>45414</v>
+      </c>
+      <c r="B405" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C405" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D405" t="s">
+        <v>528</v>
+      </c>
+      <c r="E405" t="s">
+        <v>533</v>
+      </c>
+      <c r="J405">
+        <v>6</v>
+      </c>
+      <c r="K405" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L405">
+        <v>38.302169999999997</v>
+      </c>
+      <c r="M405">
+        <v>-121.655</v>
+      </c>
+    </row>
+    <row r="406" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A406" s="44">
+        <v>45414</v>
+      </c>
+      <c r="B406" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C406" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D406" t="s">
+        <v>528</v>
+      </c>
+      <c r="E406" t="s">
+        <v>533</v>
+      </c>
+      <c r="J406">
+        <v>7.2</v>
+      </c>
+      <c r="K406" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L406">
+        <v>38.302169999999997</v>
+      </c>
+      <c r="M406">
+        <v>-121.655</v>
+      </c>
+    </row>
+    <row r="407" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A407" s="44">
+        <v>45414</v>
+      </c>
+      <c r="B407" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C407" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D407" t="s">
+        <v>528</v>
+      </c>
+      <c r="E407" t="s">
+        <v>533</v>
+      </c>
+      <c r="J407">
+        <v>8</v>
+      </c>
+      <c r="K407" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L407">
+        <v>38.302169999999997</v>
+      </c>
+      <c r="M407">
+        <v>-121.655</v>
+      </c>
+    </row>
+    <row r="408" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A408" s="44">
+        <v>45414</v>
+      </c>
+      <c r="B408" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C408" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D408" t="s">
+        <v>528</v>
+      </c>
+      <c r="E408" t="s">
+        <v>533</v>
+      </c>
+      <c r="J408">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="K408" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L408">
+        <v>38.302169999999997</v>
+      </c>
+      <c r="M408">
+        <v>-121.655</v>
+      </c>
+    </row>
+    <row r="409" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A409" s="44">
+        <v>45414</v>
+      </c>
+      <c r="B409" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C409" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D409" t="s">
+        <v>529</v>
+      </c>
+      <c r="E409" t="s">
+        <v>533</v>
+      </c>
+      <c r="J409">
+        <v>8.5</v>
+      </c>
+      <c r="K409" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L409">
+        <v>38.24935</v>
+      </c>
+      <c r="M409">
+        <v>-121.66867000000001</v>
+      </c>
+    </row>
+    <row r="410" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A410" s="44">
+        <v>45414</v>
+      </c>
+      <c r="B410" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C410" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D410" t="s">
+        <v>529</v>
+      </c>
+      <c r="E410" t="s">
+        <v>533</v>
+      </c>
+      <c r="J410">
+        <v>9</v>
+      </c>
+      <c r="K410" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L410">
+        <v>38.24935</v>
+      </c>
+      <c r="M410">
+        <v>-121.66867000000001</v>
+      </c>
+    </row>
+    <row r="411" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A411" s="44">
+        <v>45414</v>
+      </c>
+      <c r="B411" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C411" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D411" t="s">
+        <v>529</v>
+      </c>
+      <c r="E411" t="s">
+        <v>533</v>
+      </c>
+      <c r="J411">
+        <v>9.5</v>
+      </c>
+      <c r="K411" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L411">
+        <v>38.24935</v>
+      </c>
+      <c r="M411">
+        <v>-121.66867000000001</v>
+      </c>
+    </row>
+    <row r="412" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A412" s="44">
+        <v>45414</v>
+      </c>
+      <c r="B412" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C412" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D412" t="s">
+        <v>529</v>
+      </c>
+      <c r="E412" t="s">
+        <v>533</v>
+      </c>
+      <c r="J412">
+        <v>10</v>
+      </c>
+      <c r="K412" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L412">
+        <v>38.24935</v>
+      </c>
+      <c r="M412">
+        <v>-121.66867000000001</v>
+      </c>
+    </row>
+    <row r="413" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A413" s="44">
+        <v>45414</v>
+      </c>
+      <c r="B413" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C413" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D413" t="s">
+        <v>529</v>
+      </c>
+      <c r="E413" t="s">
+        <v>533</v>
+      </c>
+      <c r="J413">
+        <v>11.1</v>
+      </c>
+      <c r="K413" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L413">
+        <v>38.24935</v>
+      </c>
+      <c r="M413">
+        <v>-121.66867000000001</v>
+      </c>
+    </row>
+    <row r="414" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A414" s="44">
+        <v>45414</v>
+      </c>
+      <c r="B414" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C414" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D414" t="s">
+        <v>529</v>
+      </c>
+      <c r="E414" t="s">
+        <v>533</v>
+      </c>
+      <c r="J414">
+        <v>12.9</v>
+      </c>
+      <c r="K414" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L414">
+        <v>38.24935</v>
+      </c>
+      <c r="M414">
+        <v>-121.66867000000001</v>
+      </c>
+    </row>
+    <row r="415" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A415" s="44">
+        <v>45414</v>
+      </c>
+      <c r="B415" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C415" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D415" t="s">
+        <v>525</v>
+      </c>
+      <c r="E415" t="s">
+        <v>533</v>
+      </c>
+      <c r="J415">
+        <v>12.5</v>
+      </c>
+      <c r="K415" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L415">
+        <v>38.210650000000001</v>
+      </c>
+      <c r="M415">
+        <v>-121.66464000000001</v>
+      </c>
+    </row>
+    <row r="416" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A416" s="44">
+        <v>45419</v>
+      </c>
+      <c r="B416" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C416" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D416" t="s">
+        <v>530</v>
+      </c>
+      <c r="E416" t="s">
+        <v>533</v>
+      </c>
+      <c r="J416">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="K416" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L416">
+        <v>38.305599999999998</v>
+      </c>
+      <c r="M416">
+        <v>-121.65459</v>
+      </c>
+    </row>
+    <row r="417" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A417" s="44">
+        <v>45419</v>
+      </c>
+      <c r="B417" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C417" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D417" t="s">
+        <v>530</v>
+      </c>
+      <c r="E417" t="s">
+        <v>533</v>
+      </c>
+      <c r="J417">
+        <v>13</v>
+      </c>
+      <c r="K417" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L417">
+        <v>38.305599999999998</v>
+      </c>
+      <c r="M417">
+        <v>-121.65459</v>
+      </c>
+    </row>
+    <row r="418" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A418" s="44">
+        <v>45419</v>
+      </c>
+      <c r="B418" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C418" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D418" t="s">
+        <v>530</v>
+      </c>
+      <c r="E418" t="s">
+        <v>533</v>
+      </c>
+      <c r="J418">
+        <v>14</v>
+      </c>
+      <c r="K418" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L418">
+        <v>38.305599999999998</v>
+      </c>
+      <c r="M418">
+        <v>-121.65459</v>
+      </c>
+    </row>
+    <row r="419" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A419" s="44">
+        <v>45419</v>
+      </c>
+      <c r="B419" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C419" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D419" t="s">
+        <v>530</v>
+      </c>
+      <c r="E419" t="s">
+        <v>533</v>
+      </c>
+      <c r="J419">
+        <v>15</v>
+      </c>
+      <c r="K419" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L419">
+        <v>38.305599999999998</v>
+      </c>
+      <c r="M419">
+        <v>-121.65459</v>
+      </c>
+    </row>
+    <row r="420" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A420" s="44">
+        <v>45419</v>
+      </c>
+      <c r="B420" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C420" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D420" t="s">
+        <v>526</v>
+      </c>
+      <c r="E420" t="s">
+        <v>533</v>
+      </c>
+      <c r="J420">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="K420" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L420">
         <v>38.216810000000002</v>
       </c>
-      <c r="M403">
+      <c r="M420">
         <v>-121.66967</v>
+      </c>
+    </row>
+    <row r="421" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A421" s="44">
+        <v>45419</v>
+      </c>
+      <c r="B421" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C421" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D421" t="s">
+        <v>526</v>
+      </c>
+      <c r="E421" t="s">
+        <v>533</v>
+      </c>
+      <c r="J421">
+        <v>11.8</v>
+      </c>
+      <c r="K421" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L421">
+        <v>38.216810000000002</v>
+      </c>
+      <c r="M421">
+        <v>-121.66967</v>
+      </c>
+    </row>
+    <row r="422" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A422" s="44">
+        <v>45419</v>
+      </c>
+      <c r="B422" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C422" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D422" t="s">
+        <v>531</v>
+      </c>
+      <c r="E422" t="s">
+        <v>533</v>
+      </c>
+      <c r="J422">
+        <v>10.7</v>
+      </c>
+      <c r="K422" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L422">
+        <v>38.20449</v>
+      </c>
+      <c r="M422">
+        <v>-121.65797999999999</v>
+      </c>
+    </row>
+    <row r="423" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A423" s="44">
+        <v>45420</v>
+      </c>
+      <c r="B423" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C423" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D423" t="s">
+        <v>532</v>
+      </c>
+      <c r="E423" t="s">
+        <v>534</v>
+      </c>
+      <c r="J423">
+        <v>13.1</v>
+      </c>
+      <c r="K423" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L423">
+        <v>38.336030000000001</v>
+      </c>
+      <c r="M423">
+        <v>-121.66952000000001</v>
+      </c>
+    </row>
+    <row r="424" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A424" s="44">
+        <v>45420</v>
+      </c>
+      <c r="B424" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C424" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D424" t="s">
+        <v>532</v>
+      </c>
+      <c r="E424" t="s">
+        <v>534</v>
+      </c>
+      <c r="J424">
+        <v>14</v>
+      </c>
+      <c r="K424" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L424">
+        <v>38.336030000000001</v>
+      </c>
+      <c r="M424">
+        <v>-121.66952000000001</v>
       </c>
     </row>
   </sheetData>
@@ -25589,6 +26222,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="65146633-a755-433a-aacb-5024b6511b89">
@@ -25621,15 +26263,6 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76D96E8C-3FF7-4769-9DB8-E43AB53278F6}">
   <ds:schemaRefs>
@@ -25650,6 +26283,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C764E5-19B4-4012-98BF-B46F2FA7A2CF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D4F8AF6-B64B-4962-81B5-D73EE7A1E0CA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -25658,12 +26299,4 @@
     <ds:schemaRef ds:uri="d8e23be6-d007-4c2c-9265-7d9405abf22e"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C764E5-19B4-4012-98BF-B46F2FA7A2CF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Running Delta Smelt Catch_2023-09-05.xlsx
+++ b/Running Delta Smelt Catch_2023-09-05.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cawater-my.sharepoint.com/personal/rosemary_hartman_water_ca_gov/Documents/smelt cages/SmeltMap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="8_{38D2B3C1-DAF9-4126-B4FD-0E27163FBC27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25E7ECD2-2938-4D85-A234-0FBDA0021711}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="8_{38D2B3C1-DAF9-4126-B4FD-0E27163FBC27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2BAB5A50-7168-4427-908C-1B0D06A5CEEB}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{4BB403AD-DB3F-4CB5-B7F1-39827ED458E8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{4BB403AD-DB3F-4CB5-B7F1-39827ED458E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="12" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4596" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4621" uniqueCount="540">
   <si>
     <t>Running Delta Smelt Catch Data Collected for the USFWS Delta Smelt Experimental Release Technical Team</t>
   </si>
@@ -1665,6 +1665,21 @@
   </si>
   <si>
     <t>Cache Slough/LI</t>
+  </si>
+  <si>
+    <t>Lower Sacramento</t>
+  </si>
+  <si>
+    <t>24-41-LSR03</t>
+  </si>
+  <si>
+    <t>24-41-LSR05</t>
+  </si>
+  <si>
+    <t>24-41-SM11</t>
+  </si>
+  <si>
+    <t>24-41-LSR02</t>
   </si>
 </sst>
 </file>
@@ -2676,11 +2691,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C569B310-60E0-4E31-89EB-52CC1C810311}">
-  <dimension ref="A1:AE424"/>
+  <dimension ref="A1:AE429"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A392" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F423" sqref="F423"/>
+      <pane ySplit="1" topLeftCell="A419" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E434" sqref="E434"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -25971,6 +25986,151 @@
         <v>-121.66952000000001</v>
       </c>
     </row>
+    <row r="425" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A425" s="44">
+        <v>45421</v>
+      </c>
+      <c r="B425" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C425" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D425" t="s">
+        <v>536</v>
+      </c>
+      <c r="E425" t="s">
+        <v>535</v>
+      </c>
+      <c r="J425">
+        <v>10</v>
+      </c>
+      <c r="K425" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L425">
+        <v>38.073219999999999</v>
+      </c>
+      <c r="M425">
+        <v>-121.76835</v>
+      </c>
+    </row>
+    <row r="426" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A426" s="44">
+        <v>45421</v>
+      </c>
+      <c r="B426" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C426" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D426" t="s">
+        <v>537</v>
+      </c>
+      <c r="E426" t="s">
+        <v>535</v>
+      </c>
+      <c r="J426">
+        <v>11.2</v>
+      </c>
+      <c r="K426" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L426">
+        <v>38.12433</v>
+      </c>
+      <c r="M426">
+        <v>-121.69927</v>
+      </c>
+    </row>
+    <row r="427" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A427" s="44">
+        <v>45421</v>
+      </c>
+      <c r="B427" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C427" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D427" t="s">
+        <v>537</v>
+      </c>
+      <c r="E427" t="s">
+        <v>535</v>
+      </c>
+      <c r="J427">
+        <v>7.5</v>
+      </c>
+      <c r="K427" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L427">
+        <v>38.12433</v>
+      </c>
+      <c r="M427">
+        <v>-121.69927</v>
+      </c>
+    </row>
+    <row r="428" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A428" s="44">
+        <v>45421</v>
+      </c>
+      <c r="B428" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C428" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D428" t="s">
+        <v>538</v>
+      </c>
+      <c r="E428" t="s">
+        <v>112</v>
+      </c>
+      <c r="J428">
+        <v>12.2</v>
+      </c>
+      <c r="K428" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L428">
+        <v>38.143770000000004</v>
+      </c>
+      <c r="M428">
+        <v>-122.06035</v>
+      </c>
+    </row>
+    <row r="429" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A429" s="44">
+        <v>45421</v>
+      </c>
+      <c r="B429" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C429" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D429" t="s">
+        <v>539</v>
+      </c>
+      <c r="E429" t="s">
+        <v>535</v>
+      </c>
+      <c r="J429">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="K429" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L429">
+        <v>38.141530000000003</v>
+      </c>
+      <c r="M429">
+        <v>-121.69138</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:AE254" xr:uid="{C569B310-60E0-4E31-89EB-52CC1C810311}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AE250">
@@ -25987,6 +26147,48 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="65146633-a755-433a-aacb-5024b6511b89">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="d8e23be6-d007-4c2c-9265-7d9405abf22e" xsi:nil="true"/>
+    <SharedWithUsers xmlns="d8e23be6-d007-4c2c-9265-7d9405abf22e">
+      <UserInfo>
+        <DisplayName>Hartman, Rosemary@DWR</DisplayName>
+        <AccountId>69</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Goodman, Denise M</DisplayName>
+        <AccountId>31</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Hobbs, James@Wildlife</DisplayName>
+        <AccountId>16</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Cook, John (Ryan)</DisplayName>
+        <AccountId>18</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D9A9DE233A30CB4EAECD318FD55378CC" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8fd2cacec9171f93eb894d0689f08641">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="65146633-a755-433a-aacb-5024b6511b89" xmlns:ns3="d8e23be6-d007-4c2c-9265-7d9405abf22e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a569083f6831735b7a488ac820eb0384" ns2:_="" ns3:_="">
     <xsd:import namespace="65146633-a755-433a-aacb-5024b6511b89"/>
@@ -26221,49 +26423,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D4F8AF6-B64B-4962-81B5-D73EE7A1E0CA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="65146633-a755-433a-aacb-5024b6511b89"/>
+    <ds:schemaRef ds:uri="d8e23be6-d007-4c2c-9265-7d9405abf22e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="65146633-a755-433a-aacb-5024b6511b89">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="d8e23be6-d007-4c2c-9265-7d9405abf22e" xsi:nil="true"/>
-    <SharedWithUsers xmlns="d8e23be6-d007-4c2c-9265-7d9405abf22e">
-      <UserInfo>
-        <DisplayName>Hartman, Rosemary@DWR</DisplayName>
-        <AccountId>69</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Goodman, Denise M</DisplayName>
-        <AccountId>31</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Hobbs, James@Wildlife</DisplayName>
-        <AccountId>16</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Cook, John (Ryan)</DisplayName>
-        <AccountId>18</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C764E5-19B4-4012-98BF-B46F2FA7A2CF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76D96E8C-3FF7-4769-9DB8-E43AB53278F6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -26280,23 +26459,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C764E5-19B4-4012-98BF-B46F2FA7A2CF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D4F8AF6-B64B-4962-81B5-D73EE7A1E0CA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="65146633-a755-433a-aacb-5024b6511b89"/>
-    <ds:schemaRef ds:uri="d8e23be6-d007-4c2c-9265-7d9405abf22e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Running Delta Smelt Catch_2023-09-05.xlsx
+++ b/Running Delta Smelt Catch_2023-09-05.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cawater-my.sharepoint.com/personal/rosemary_hartman_water_ca_gov/Documents/smelt cages/SmeltMap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="175" documentId="8_{38D2B3C1-DAF9-4126-B4FD-0E27163FBC27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FFC90DD8-1D19-45F2-B7BC-44975BEE048E}"/>
+  <xr:revisionPtr revIDLastSave="201" documentId="8_{38D2B3C1-DAF9-4126-B4FD-0E27163FBC27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9B4164F-1224-45A6-BEDD-07D8A0A4A2DC}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{4BB403AD-DB3F-4CB5-B7F1-39827ED458E8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{4BB403AD-DB3F-4CB5-B7F1-39827ED458E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="12" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6226" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6244" uniqueCount="580">
   <si>
     <t>Running Delta Smelt Catch Data Collected for the USFWS Delta Smelt Experimental Release Technical Team</t>
   </si>
@@ -1786,14 +1786,30 @@
   </si>
   <si>
     <t>25-16-SM03</t>
+  </si>
+  <si>
+    <t>25-18-SSC05</t>
+  </si>
+  <si>
+    <t>VIE-LBA</t>
+  </si>
+  <si>
+    <t>Lookout Slough</t>
+  </si>
+  <si>
+    <t>BY2024 1</t>
+  </si>
+  <si>
+    <t>25-18-CS10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -1974,7 +1990,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2092,6 +2108,7 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2803,11 +2820,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C569B310-60E0-4E31-89EB-52CC1C810311}">
-  <dimension ref="A1:AE504"/>
+  <dimension ref="A1:AE506"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A486" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F506" sqref="F506"/>
+      <pane ySplit="1" topLeftCell="A493" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S513" sqref="S513"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -31975,6 +31992,94 @@
       </c>
       <c r="V504" s="14" t="s">
         <v>79</v>
+      </c>
+    </row>
+    <row r="505" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A505" s="48">
+        <v>45621</v>
+      </c>
+      <c r="B505" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="C505" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D505" t="s">
+        <v>575</v>
+      </c>
+      <c r="E505" t="s">
+        <v>533</v>
+      </c>
+      <c r="J505">
+        <v>64</v>
+      </c>
+      <c r="K505" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="L505" s="49">
+        <v>38.462179999999996</v>
+      </c>
+      <c r="M505" s="49">
+        <v>-121.58891</v>
+      </c>
+      <c r="R505" t="s">
+        <v>576</v>
+      </c>
+      <c r="S505" s="14" t="s">
+        <v>578</v>
+      </c>
+      <c r="T505" s="21">
+        <v>45614</v>
+      </c>
+      <c r="U505" s="14" t="s">
+        <v>577</v>
+      </c>
+      <c r="V505" s="14" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="506" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A506" s="21">
+        <v>45623</v>
+      </c>
+      <c r="B506" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="C506" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D506" t="s">
+        <v>579</v>
+      </c>
+      <c r="E506" t="s">
+        <v>76</v>
+      </c>
+      <c r="J506" s="14">
+        <v>62</v>
+      </c>
+      <c r="K506" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="L506" s="49">
+        <v>38.24156</v>
+      </c>
+      <c r="M506" s="49">
+        <v>-121.68801999999999</v>
+      </c>
+      <c r="R506" t="s">
+        <v>576</v>
+      </c>
+      <c r="S506" s="14" t="s">
+        <v>578</v>
+      </c>
+      <c r="T506" s="21">
+        <v>45614</v>
+      </c>
+      <c r="U506" s="14" t="s">
+        <v>577</v>
+      </c>
+      <c r="V506" s="14" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/Running Delta Smelt Catch_2023-09-05.xlsx
+++ b/Running Delta Smelt Catch_2023-09-05.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cawater-my.sharepoint.com/personal/rosemary_hartman_water_ca_gov/Documents/smelt cages/SmeltMap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="201" documentId="8_{38D2B3C1-DAF9-4126-B4FD-0E27163FBC27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9B4164F-1224-45A6-BEDD-07D8A0A4A2DC}"/>
+  <xr:revisionPtr revIDLastSave="222" documentId="8_{38D2B3C1-DAF9-4126-B4FD-0E27163FBC27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CBE1557B-316D-4829-B31F-3EFC754EF06A}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{4BB403AD-DB3F-4CB5-B7F1-39827ED458E8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{4BB403AD-DB3F-4CB5-B7F1-39827ED458E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="12" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6244" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6262" uniqueCount="584">
   <si>
     <t>Running Delta Smelt Catch Data Collected for the USFWS Delta Smelt Experimental Release Technical Team</t>
   </si>
@@ -1801,6 +1801,18 @@
   </si>
   <si>
     <t>25-18-CS10</t>
+  </si>
+  <si>
+    <t>25-19-LSR04</t>
+  </si>
+  <si>
+    <t>VIE-LOA</t>
+  </si>
+  <si>
+    <t>25-20-CS01</t>
+  </si>
+  <si>
+    <t>BY2024 2</t>
   </si>
 </sst>
 </file>
@@ -2820,11 +2832,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C569B310-60E0-4E31-89EB-52CC1C810311}">
-  <dimension ref="A1:AE506"/>
+  <dimension ref="A1:AE508"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A493" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S513" sqref="S513"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A492" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T514" sqref="T514"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -32079,6 +32091,94 @@
         <v>577</v>
       </c>
       <c r="V506" s="14" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="507" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A507" s="21">
+        <v>45630</v>
+      </c>
+      <c r="B507" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="C507" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D507" t="s">
+        <v>580</v>
+      </c>
+      <c r="E507" t="s">
+        <v>535</v>
+      </c>
+      <c r="J507">
+        <v>55</v>
+      </c>
+      <c r="K507" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="L507" s="49">
+        <v>38.088180000000001</v>
+      </c>
+      <c r="M507" s="49">
+        <v>-121.74433999999999</v>
+      </c>
+      <c r="R507" t="s">
+        <v>576</v>
+      </c>
+      <c r="S507" s="14" t="s">
+        <v>578</v>
+      </c>
+      <c r="T507" s="21">
+        <v>45614</v>
+      </c>
+      <c r="U507" s="14" t="s">
+        <v>577</v>
+      </c>
+      <c r="V507" s="14" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="508" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A508" s="21">
+        <v>45638</v>
+      </c>
+      <c r="B508" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="C508" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D508" t="s">
+        <v>582</v>
+      </c>
+      <c r="E508" t="s">
+        <v>76</v>
+      </c>
+      <c r="J508">
+        <v>65</v>
+      </c>
+      <c r="K508" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="L508" s="49">
+        <v>38.241250000000001</v>
+      </c>
+      <c r="M508" s="49">
+        <v>-121.68752000000001</v>
+      </c>
+      <c r="R508" t="s">
+        <v>581</v>
+      </c>
+      <c r="S508" s="14" t="s">
+        <v>583</v>
+      </c>
+      <c r="T508" s="21">
+        <v>45635</v>
+      </c>
+      <c r="U508" s="14" t="s">
+        <v>577</v>
+      </c>
+      <c r="V508" s="14" t="s">
         <v>194</v>
       </c>
     </row>
@@ -32602,15 +32702,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="65146633-a755-433a-aacb-5024b6511b89">
@@ -32643,7 +32734,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D9A9DE233A30CB4EAECD318FD55378CC" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8fd2cacec9171f93eb894d0689f08641">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="65146633-a755-433a-aacb-5024b6511b89" xmlns:ns3="d8e23be6-d007-4c2c-9265-7d9405abf22e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a569083f6831735b7a488ac820eb0384" ns2:_="" ns3:_="">
     <xsd:import namespace="65146633-a755-433a-aacb-5024b6511b89"/>
@@ -32878,15 +32969,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C764E5-19B4-4012-98BF-B46F2FA7A2CF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D4F8AF6-B64B-4962-81B5-D73EE7A1E0CA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -32897,7 +32989,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76D96E8C-3FF7-4769-9DB8-E43AB53278F6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -32914,4 +33006,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C764E5-19B4-4012-98BF-B46F2FA7A2CF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>